--- a/기사데이터/토스/엑셀파일/news(토스, 2022.08.01~2022.08.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.08.01~2022.08.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.08.15.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>토스뱅크 카드가 쏘아올린 '체크카드·페이 규제' 논란 [빈난새의 한입금융]</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004736893?sid=101</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>금융소비자보호법 감독규정 개정 예고체크카드·OO페이도 신용카드처럼 규제연계·제휴서비스 3년 의무 유지하고혜택 축소·변경땐 6개월 전 고지해야토스뱅크 체크카드 혜택 축소 '도화선'페이업계 "카드와 다른데 동일 규제옛 규제로 하향 평준화" 반발토스뱅크 체크카드 쓰는 분들 많으실텐데요. 이 카드는 '무조건 즉시 캐시백' 혜택으로 출시 1년도 안 돼 360만명 넘는 가입자를 모으며 큰 인기를 끌었습니다. 반면 처음에는 파격적이었던 혜택 내용이 갈수록 축소되고 쓰기 어렵게 바뀌면서 소비자의 불만을 사기도 했습니다. 그런데 앞으로는 이런 '시즌제' 카드 혜택 자체가 사라질 수도 있게 됐습니다. 정부가 체크카드 같은 직불지급수단과 네이버페이·카카오페이·쿠팡페이 같은 선불지급수단도 신용카드와 마찬가지로 부가서비스를 엄격하게 규제하겠다고 나섰기 때문입니다. 정부는 지나친 '미끼 마케팅'을 막고 금융소비자 보호를 강화하겠다는 취지지만, 업계에선 "오히려 소비자 효용이 줄어들 수 있다"고 반발하고 있습니다. 정부가 규제의 근거로 강조하는 '동일 기능 동일 규제' 원칙에 대해서도 "신·구 서비스에 다같이 규제를 합리화하는 게 아니라 오히려 옛 규제를 강화하는 하향 평준화"라는 지적도 나오는데요. 무슨 일인지 살펴보겠습니다.  무슨 규제길래금융위원회는 지난달 '금융소비자 보호에 관한 법률' 시행령과 감독규정 일부개정안을 입법 예고했습니다. 체크카드와 OO페이 같은 선불·직불지급수단(전자지급수단 포함)에 대해서도 기존 신용카드와 똑같이 연계·제휴서비스 규제를 적용하겠다는 내용입니다.  신용카드는 발행사가 연계·제휴서비스를 한 번 제공하면 3년 이상 유지해야 하고, 정당한 이유 없이 소비자에게 불리하게 축소하거나 변경하면 안 됩니다. 서비스를 변경할 경우엔 6개월 전에 소비자에게 고지해야 합니다. 과거에는 여신전문금융업법에 따라 신용카드와 체크카드 모두 이 규제를 받았지만, 지난해 3월부터 금융소비자보호법이 시행되면서 체크카드 같은 직불카드와 선불지급수단은 이 규제에서 빠졌습니다. 이번 개정은 직·선불수단도 신용카드와 똑같이 이런 규제를 받게 하겠다는 것입니다.(위)카카오뱅크 체크카드와 (아래)토스뱅크 체크카드의 모습. 한경DB 금융위는 "(선불·직불카드는) 연계서비스 규제가 적용되는 신용카드와 기능상 유사함에도 규제차익이 발생한다"며 "또 연계서비스를 소비자에게 불리하게 일방적으로 변경·축소해도 아무런 규제가 적용되지 않는 등 소비자보호 공백이 존재한다"고 개정 이유를 밝혔습니다. 그러면서 "'동일기능-동일규제' 관점에서 선·직불지급수단에도 연계서비스를 규제를 적용함으로써 금융소비자를 두텁게 보호해야 해야 한다"고 했습니다. 이대로 개정안이 통과되면 신용카드업자 22개사(겸영업자 포함)는 물론 네이버페이·카카오페이·쿠팡페이·배민페이·당근페이·페이코 등 전자지급수단발행업자 88개사도 규제를 받게 됩니다. 아무런 설명 없이 개정안 내용만 보면 가령 네이버페이나 페이코가 여러 제휴 업체와 제공하는 각종 추가 혜택도 규제 대상이 되는 것 같은데요. 금융위는 16일까지 이 개정안에 대한 업계의 의견을 수렴한 뒤 개정안 내용을 확정하게 됩니다.  왜 이런 규제를 할까이번 규제 강화의 발단이 된 것은 토스뱅크의 체크카드 혜택 축소라는 게 업계 안팎의 중론입니다. 토스뱅크는 지난해 10월 출범하면서 '조건 없는 캐시백' 체크카드로 인기몰이에 성공했습니다. 당시 토스뱅크 체크카드는 전월 실적에 관계 없이 커피전문점·편의점·패스트푸드점·택시·대중교통에서 결제하면 각 분야에서 하루 한 번씩 300원, 최대 1500원을 즉시 돌려주는(캐시백) 파격적인 혜택을 내걸었습니다. 다만 이때부터 '에피소드1'이란 이름으로 혜택 종료를 예고했습니다.  실제 올해 1월 5일부터는 '에피소드2'를 시작하면서 캐시백 혜택을 대폭 축소했습니다. 대중교통 캐시백은 300원에서 100원으로 줄였고, 나머지 분야에서도 300원 캐시백을 받을 수 있는 최소 결제 금액 기준을 3000원으로 신설했습니다. 가령 기존에는 편의점에서 300원만 결제해도 300원을 돌려받았지만, 에피소드2 기간에는 3000원 이상을 결제해야만 캐시백을 받을 수 있게 된 것입니다.  토스뱅크는 지난 7월 1일부터 '에피소드3'을 개시하며 체크카드 혜택을 또 한 번 바꿨습니다. 이제는 1만원 미만 결제하면 100원, 1만원 이상 결제하면 500원으로 캐시백 금액이 차등화된 것입니다. 캐시백을 받을 수 있는 업종이 늘어나긴 했지만 1만원 미만 소액을 주로 결제하던 사람으로선 캐시백 혜택이 300원에서 100원으로 확 줄었습니다. 토스뱅크는 "토스뱅크 카드를 주결제카드로 사용하고 있는 소비자들이 더욱 많은 혜택을 누릴 수 있도록 구성했다"고 말합니다. 하지만 체크카드의 특성상 소액을 주로 결제했던 이용자들 사이에선 원성이 나오기도 했습니다. 특히 토스뱅크가 작년 10월부터 3개월만 유지한 에피소드1 혜택이 워낙 파격적이었던 탓에 이후 바뀌는 혜택은 소비자 입장에서 '개악'이란 말이 나올 수밖에 없는 상황이었습니다. 다른 카드사들도 불만이 컸습니다. 부가서비스를 3년 이상 유지해야 하고, 변경하려면 6개월 전까지 소비자에게 고지해야 하는 카드상품의 경직적인 규제에 비하면 주기적으로 기본 혜택이 바뀌는 토스뱅크 체크카드는 형평성에 어긋난다는 것입니다. 금융위가 '동일 기능 동일 규제'를 강조하며 체크카드와 각종 페이에도 일방적으로 연계서비스를 축소할 수 없도록 하는 규제를 적용하겠다고 나선 데에도 이런 상황이 도화선이 됐습니다. 특히 금융위는 체크카드 역시 금소법 시행 이전에는 여신전문금융업법에 따라 이 규제를 받았기 때문에 문제될 것이 없다는 입장입니다.  문제가 뭐길래문제는 이번 규제에 함께 묶이게 된 각종 페이 업체들입니다. 한 간편결제 업체 관계자는 "금융위는 선불지급수단도 '신용카드와 기능상 유사하다'지만, 페이 서비스는 신용카드와 달리 소비자에게 연회비, 유효기간, 유료 부가서비스 등이 없다"며 "'동일 기능 동일 규제' 자체가 성립할 수 없다"고 주장했습니다. 업계의 또 다른 관계자도 "신용카드 부가서비스는 소비자가 카드를 발급받을 때 중요하게 고려하는 사항이고 대부분이 연회비를 내며 사실상 유료로 받는 혜택이기 때문에 카드사가 축소·변경하려면 충분한 기간을 두고 고지하는 게 맞겠지만, 페이 서비스는 이와 본질적으로 다르다"며 "간편결제라는 기본 서비스를 중심으로 그때그때 시즌에 맞춰 하는 프로모션까지 제휴·연계서비스로 보고 규제한다면 사실상 모든 마케팅이 사라지게 될 것"이라고 했습니다.  이미 지난 5년간 '시즌제' 체크카드를 운영해온 카카오뱅크도 난색을 보이고 있습니다. 카카오뱅크는 2017년 7월 출범 당시부터 카카오뱅크 프렌즈 체크카드의 캐시백 프로모션을 6개월 단위로 변경하며 현재는 '프로모션 시즌 11'을 운영하고 있습니다. 사실상 '시즌제 서비스'를 처음으로 정착시킨 체크카드죠.  이 카드는 연회비와 전월실적·지급한도 조건 없이 결제액의 0.2~0.4%를 캐시백 해주는 혜택을 기본으로 시즌별 프로모션을 추가 제공하는 형태입니다. 카카오뱅크 관계자는 "시즌별 프로모션은 소비자의 수요와 결제 패턴, 계절성 등을 고려해 업종과 내용 등을 바꾸되 기본 혜택은 지난 5년간 한 번도 변경 축소한 적 없다"고 강조했습니다. 이런 '이벤트성'을 인정받아 시즌 11까지 문제가 된 적이 없었는데, 이번 규제로 불똥이 튀면 앞으로는 소비자 수요에 따라 유연하게 프로모션을 변경하기 어렵다는 얘기입니다. 김주현 금융위원회 위원장이 19일 오전 서울 중구 은행회관에서 열린 금융규제혁신회의 출범식에서 발언하고 있다./사진=연합뉴스 정부가 기존 금융사와 새로운 금융 서비스의 규제차익을 해소하기 위해 옛 규제를 확대 적용하는 것에 대해서도 우려의 목소리가 나옵니다. 과거 은성수 금융위원장은 기존 금융사와 빅테크 간 차별적인 규제와 관련해 "(규제 수준의) 하향평준화보다는 상향평준화가 바람직하다는 금융지주의 입장에 동의한다"며 "(규제차익 해소를 위해) 한쪽을 못하게 하는 것보다는 규제를 풀어주는 방향이 맞다고 본다"고 했습니다. 금융업의 경계가 흐려지고 새로운 금융서비스가 출현하는 현실에 맞춰 과거 규제도 합리화해야 한다는 뜻입니다. 현재 김주현 금융위원장도 취임하자마자 강력한 규제혁신을 예고했었죠. 김 위원장은 "국내 금융산업에서도 BTS(방탄소년단)가 나올 수 있도록 기존 제도와 관행을 근본적으로 재검토하겠다"며 "근본부터 의심하여 금융규제의 새로운 판을 짤 것"이라고 했습니다. 하지만 간편결제 비중이 점점 커지고 다양한 결제 수단이 생기는 결제 시장의 변화에 아직 규제는 따라가지 못하는 모습입니다.  금융위 입장은 페이 업체들은 금융위가 이번 개정안을 입법예고하면서 "관계기관 및 이해관계자와 협의 등을 거쳐 도출한 방안으로 (피규제자의) 규제 준수가 가능한 것으로 판단된다"고 밝힌 데 대해서도 당혹스럽다는 입장입니다. 정부는 이런 규제를 도입하거나 개정할 때 규제의 적정성과 실효성 등을 분석한 규제영향분석서를 함께 공고해야 합니다. 금융위는 이번 규제영향분석서에도 지난 6월 10일 금융감독원과 금융협회 등이 모여 이번 개정안에 대해 이해관계자 의견수렴을 거쳤고 별다른 의견이 없었다고 명시했습니다.  그런데 이번 규제 대상인 88개 선불전자지급수단 발행업자가 속한 한국핀테크산업협회와 한국인터넷기업협회는 지난 6월 회의를 포함해 어떤 사전협의에도 참여한 적이 없다고 합니다. 입법예고 이전 이해관계자 의견수렴 절차는 법적으로 의무는 아니지만, 규제의 순응도와 실효성을 확보하기 위해 권장되는 절차입니다. 두 협회는 입법예고 이후에야 개정안에 대한 반대 의견과 재검토를 요구하는 내용을 담은 의견서를 금융위에 제출했습니다. 업계의 우려가 커지자 금융위는 규제 대상이 되는 연계·제휴서비스의 범위를 명확히 하겠다며 진화에 나섰습니다. 금융위 관계자는 우선 "특정 기간에 소비자들의 가입을 독려하기 위해 사전에 기간을 고지하고 진행하는 프로모션은 제외될 것"이라면서 "단, 표현은 기간제라지만 실질은 기존과 비슷한 혜택을 계속 연장하는 구조의 서비스에 대해선 사실상 변경이라고 보고 규제하겠다는 것"이라고 설명했습니다. 유사한 혜택을 사실상 연장하면서 세부 내용만 바꾸는 경우는 규제가 필요하지만, 종료 기한을 명시하고 일시적으로 혜택을 제공하는 마케팅·이벤트 등은 규제 대상에서 제외하겠다는 뜻으로 풀이됩니다. 이 관계자는 이어 "현재 하는 서비스를 제대로 설명하고, 소비자에게 불리하게 변경하는 것은 6개월 전에 제대로 고지하라는 취지"라며 "업계의 의견을 들어보고 개선점을 검토하겠다"고 말했습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>해운사 ‘3苦’ 물동량·운임↓, 中리스크까지</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002025744?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>“수익성 악화 불가피” 긴장글로벌 경기침체 우려 확산해운 운임 8주째 하락세북미·유럽 물동량 감소 징후미중갈등에 지정학적 불안도화물을 실은 컨테이너선이 부산항으로 입항하고 있다. [연합]코로나19 대유행 기간 호황을 누렸던 해운업계가 급변하는 국제 경제와 지정학적 불확실성에 해운업계가 긴장하고 있다. 세계 경제침체 우려에 해상 물동량 규모가 위축되고 운임이 급속히 떨어지면서 수익성 둔화 우려가 나오는 데다 미·중 갈등으로 동북아시아 항로까지 교란되고 있어서다.8일 해운업계와 한국관세물류협회에 따르면 지난 5일 기준 글로벌 컨테이너선 운임 지표인 상하이컨테이너운임지수(SCFI)는 지난주 대비 148.13포인트 내린 3739.72를 기록했다. 이는 지난 6월 11일 이후 1년 2개월 만에 가장 낮은 수치다. 지난 5월 20일 이후 4주간 상승세를 보였던 SCFI는 6월 10일 4233.31을 기점으로 8주 연속 하락세를 보이고 있다.상반기만 해도 가파르게 치솟던 해상운임이 하반기 들어 급격한 하락세로 전환한 것은 미국 연방준비제도(FED)가 한 번에 기준금리를 0.75%씩 올린 이른바 ‘자이언트스텝’을 2개월 연속 단행한 영향이 크다. 여기에 세계 각국이 통화 긴축 정책을 펴면서 세계 경제침체 우려가 빠르게 확산되고 있다.시장에서는 물가 상승의 근본적인 원인이 러시아-우크라이나 사태 등 지정학적 위기에 있는 만큼 긴축정책이 물가를 잡지 못하고 세계 경기의 발목만 잡을 것이란 우려가 팽배하다.해운업계는 전 세계적인 경기침체가 해상 물동량 감소로 이어질 것으로 보고 있다. 덴마크 해운사 머스크는 지난 3일 진행한 2분기 실적 발표에서 선적한 컨테이너 규모가 지난해 같은 기간보다 7.4%나 감소했다고 전했다. 머스크는 이에 대해 “지정학적 불확실성이 커지고 에너지 가격이 상승하면서 소비 심리와 성장 기대에 부담을 주고 있다”고 설명했다. 머스크에 따르면 유럽지역 유통업체와 제조업체는 소비 수요가 줄었다는 이유로 항구와 창고에 화물을 실은 컨테이너를 그대로 쌓아두고 있는 것으로 알려졌다.한국해양진흥공사 역시 최근 발간한 시황 보고서에서 주요 수입국인 미국의 하반기 수입량이 줄어들면서 올해 북미 항로의 컨테이너 물동량이 전년 대비 2.5%, 유럽항로 물동량은 4.6% 감소할 것으로 전망했다.해운업계는 지난 상반기 미국 서안 항구 정체로 물동량이 일시적으로 줄었을 때도 운임을 높게 유지해 사상 최대 실적을 누렸지만, 운임과 물동량이 동시에 위축되는 상황에서는 수익성 악화가 불가피할 것으로 분석하고 있다. 선사들이 팬데믹 이후 호황을 맞으면서 선복량 늘리기에 나선 상황 가운데 물동량이 줄어들면 공급 과잉으로 인한 운임 하락세가 더 가속화될 수 있다는 우려도 감지된다.미·중 갈등으로 인한 해상 무역로 교란도 해운업계의 골칫거리다. 낸시 펠로시 미국 하원의장의 대만 방문에 반발한 중국이 대만을 포위한 채 군사훈련을 벌이면서 화물선과 유조선이 줄줄이 대만 동쪽으로 항해해야 했기 때문이다. 나흘 일정으로 진행된 이번 군사훈련은 지난 7일로 사실상 종료됐지만, 향후 더 많은 중국군 군용기와 군함이 대만해협에서 위협적인 군사행동을 할 것으로 예상되는 만큼 미·중 갈등이 이어지는 한 해상 무역로 교란은 수시로 발생할 것으로 보인다.대만해협은 중국과 대만 사이에 위치한 길이 500㎞, 폭 150~200㎞의 바닷길로 동아시아에서 미국과 유럽을 오가는 주요 항로가 몰려있다. 대만을 우회할 경우 대만해협을 통과하는 것보다 한나절가량 항해 시간이 늘어나는 것으로 알려졌다. 화물 운임 서비스 업체 프레이토스는 “지역분쟁 때문에 선박들이 대체 항로를 택하면 운항 일정이 복잡해지고 운송이 소요되는 시간이 늘어나 추가 비용을 초래할 수 있다”고 설명했다.원호연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.08.09.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>카드사, 페이앱으로 뭉친다…빅테크에 ‘견제구’</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002628676?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>토스·카뱅·쿠팡 출사표에 긴장일원화로 소비자 편의성 개선신용카드 이미지.ⓒ픽사베이[데일리안 = 이세미 기자] 카드사들이 점점 심화되는 빅테크와의 경쟁에서 살아남기 위해 기존 카드앱 서비스를 종료하고 페이앱 플랫폼 통합을 서두르고 있다. 간편결제 시장이 확대됨에 따라 사방으로 흩어진 플랫폼을 일원화해 고객 편의성 높이고 선제적으로 시장 변화에 대응하겠다는 전략이다.9일 금융권에 따르면 하나카드는 이달 말 하나카드 앱 서비스를 종료하고 간편결제 서비스인 ‘원큐페이’앱으로 일원화한다. 따라서 오는 9월부터는 하나카드앱을 내려받을 수 없게 된다. 이미 원큐페이로 기능적 통합이 이뤄졌기 때문에 불필요한 구앱 서비스를 완전히 종료하기로 한 것이다.원큐페이에는 기존 서비스와 함께 제로페이 모바일 온누리 상품권 구매와 상품권 QR결제 기능을 추가했다. 모회사인 하나금융은 원큐페이를 그룹 대표 간편결제 서비스로 성장시키겠다는 계획이다.신한금융과 신한카드는 오는 10월 기존 신한카드 앱 서비스를 종료하고, 신한플레이 앱으로 통합할 예정이다. 앞서 지난해 9월에는 기존 간편결제 플랫폼인 신한페이판을 신한플레이로 개편한 바 있다. 신한플레이는 안면 인식 결제 기능, 제휴사 통합 멤버십, 신분증과 인증 등 월릿 서비스, 고객 맞춤형 등 통합 생활금융 서비스를 제공한다. 최근에는 고객 간 상호 소통을 할 수 있는 ‘커뮤니티’ 기능도 추가했다.KB국민카드도 자사 플랫폼인 KB국민카드, KB페이, 리브메이트 앱을 간편결제 KB페이로 일원화한다는 계획이다. 올해 1월부터 KB국민카드는 KB페이를 통해 카드 앱 주요 서비스를 제공하고 있으며, KB페이 머니, 더치페이와 함께 증권 서비스 등 자산관리 기능 서비스도 제공하고 있다.우리카드는 지난해 6월부터 우리 WON카드와 페이 앱을 하나로 통합한 우리페이를 운영하고 있다. 우리페이는 기존 카드 서비스에서 페이 서비스를 모두 이용할 수 있어 고객 편의성을 높였다. 또 우리은행 계좌 등록을 통해 국내는 물론 중국·동남아시아 등 해외서도 이용 가능하도록 했다.이밖에 롯데카드는 디지로카앱을 통해 결제와 카드·비금융 서비스를 모두 제공하고 있으며 삼성카드는 오는 12~13일 서비스 앱을 대폭 개편할 예정이다. 현대카드는 금융서비스와 결제 기능을 현대카드 앱에 모아서 제공하고 있다.카드업계는 카카오페이, 네이버페이 등 빅테크들의 간편결제 시장 진출에 이어 최근 토스, 카카오뱅크, 쿠팡까지 여신전문금융업에 출사표를 던진 만큼 경쟁력 강화를 위해서라도 페이앱 일화는 불가피하다는 입장이다. 동시에 그동안 분산됐던 여러 앱을 통합함으로써 소비자 편의성 증대와 고객 선점 효과가 나타날 것이라는 기대도 내비친다.그러나 단순 페이앱 플랫폼 통합만으로는 빅테크와의 경쟁력에서 우위를 선점하기는 어렵다는 지적도 나온다. 페이앱 이용 중 서비스가 먹통이 되거나 느려지는 사례가 빈번해 소비자들의 불편도 다수 이어지고 있어 빅테크 페이앱 보다 매력도가 떨어질 수 있다는 이유다.카드업계 관계자는 “빅테크들이 간편결제 서비스를 통해 시장 경쟁력을 확대해 나가고 있어 카드사 역시 페이앱에 집중하고 있으며, 이 같은 움직임은 전 금융권으로 확대될 것으로 보인다”고 말했다. 이어 “꾸준한 앱 개선으로 소비자들의 편리한 페이앱 활용을 위해 노력할 것”이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.08.01.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>금리 인상에도 증권사 예탁금 이자 0%대…'찔끔' 인상</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013346300?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>신용융자 이자율 10% 육박…"예탁금 이자도 합리적인 수준에서 인상 필요"(CG)[연합뉴스TV 제공]    (서울=연합뉴스) 채새롬 기자 = 증권사들이 금리 상승에 신용융자거래 이자율을 속속 올리면서도 예탁금 이용료율(이자) 인상에는 미온적으로 대처하고 있어 비판이 나온다.     1일 금융투자업계에 따르면 메리츠증권은 이날부터 100만원 이상 예탁금에 대해 이용료율을 기존 0.2%에서 0.3%로 인상했다.    앞서 지난달에는 키움증권(0.2%→0.25%), 하나증권(0.15%→0.25%), 삼성증권(0.25%→0.4%) 등이 예탁금 이용료율을 올렸다.     하지만 상향 폭이 0.1%포인트 내외에 그쳐 올린 이용료율도 0%대 초반에 불과하다.     국내 증권사 중 예탁금 이용료율이 가장 높은 곳은 지난 5월 인상한 토스증권(1%)이고 이어 6월 인상한 NH투자증권(0.5%), KB증권(0.46%) 순이다.     예탁금은 투자자들이 주식매매를 위해 증권사 계좌에 맡긴 대기성 자금이다. 증권사들은 예탁금을 한국증권금융에 예치하고 받은 수익금에서 인건비 등을 공제한 뒤 투자자에게 이용료를 지급한다.    한국증권금융의 지난 6월 기준 신탁 운용 수익률은 1.791%로, 5월(1.621%) 대비 0.17%포인트 늘었다.     낮은 예탁금 이용료율과 대조적으로 증권사들은 신용융자거래 이자율을 속속 올리면서 빚투 이자율은 10%에 육박한다.     지난달 신용융자거래 이자율을 올린 유안타증권(최고 9.9%), DB금융투자(9.7%), 하이투자증권(9.6%), 한양증권·키움증권·SK증권·신한금융투자(9.5%)는 최대 금리가 9%대 중후반을 넘었다.     삼성증권·유진투자증권(9.3%), 이베스트투자증권(9.2%), 한국투자증권·교보증권·KB증권·다올투자증권(9.0%) 등 증권사들도 최대 9% 넘는 이자율을 부과 중이다.    다수 증권사가 지난달 한국은행의 사상 첫 '빅 스텝'(한 번에 기준금리 0.5%포인트 인상) 이후 추가 인상 여부를 검토 중이어서 신용융자거래 이자율은 조만간 10% 넘을 것으로 관측된다.    한 증권사 관계자는 "증권사 리테일부문에서는 예탁금 이용료가 주요 수익원 중 하나라 이용료율을 높이면 회사의 수익이 줄어드는 구조여서 인상 결정이 쉽지 않다"라면서도 "상대적으로 낮은 예탁금 이용료에 대해 인상을 고려할 필요가 있다"고 말했다.     강형구 금융소비자연맹 사무처장은 "기준금리 인상에 맞춰 투자자 예탁금 이용료율도 합리적인 수준에서 인상돼야 한다"면서 "증권사들이 예탁금 이용료율을 어떻게 산정하는지 등을 투자자들에게 좀 더 투명하게 공개해야 한다"고 말했다.    srchae@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.08.02.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>인뱅 1위 경쟁 치열… 하반기에도 고금리 예적금 쏟아낸다</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004876985?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>카뱅 지난달 수신잔액 32조케뱅은 1조 이상 늘어 13조 돌파토스뱅크 3월 기준 21조원대높은 이율에 수요 몰려 성장세  인터넷은행 선두 경쟁이 뜨겁다. 카카오뱅크가 잠시 정체하는 사이 토스뱅크가 올 상반기 본격적인 성장세를 기록 중이다. 케이뱅크는 하반기 기업공개(IPO)를 앞두고 수신잔액을 크게 늘려가고 있다. 히트상품을 잇따라 내놓고 있는 인터넷은행들의 경쟁이 한층 치열해질 전망이다.   2일 인터넷은행업계에 따르면 지난달 말 카카오뱅크와 케이뱅크 수신 잔액은 각각 32조6534억원, 13조3300억원으로 집계됐다. 이는 전월과 비교했을 때 카카오뱅크는 5274억원 감소, 케이뱅크는 1조1500억원 증가한 것이다. 토스뱅크는 정확한 액수를 밝히지 않았지만 여신과 함께 수신 잔액도 꾸준히 성장하고 있는 것으로 전해졌다. 지난 3월 말 토스뱅크가 공개한 수신 잔액은 21조45억원이었다.   특히 케이뱅크는 지난 한 분기 동안 쌓은 수신 액수의 2배에 달하는 금액을 이번 한 달만에 쓸어 모았다. 케이뱅크의 지난 1·4분기 대비 2·4분기 수신 잔액 증가폭은 6300억원이었다.   최근 금리인상기를 맞아 고금리 예·적금을 찾는 수요가 늘자 인터넷은행은 높은 이율에 플랫폼 특유 편리함과 재미 요소를 더한 수신 상품을 잇달아 내놨다. 다만 '조금 더 높은' 금리를 제공하는 상품에 수요가 쏠렸다는 분석이다.   실제 토스뱅크는 지난 6월 첫 적금 상품 '키워봐요 적금'을 출시했다. 카카오뱅크는 지난 5월과 6월 각각 '저금통 with 세븐일레븐'과 '26주적금 with 오늘의집'을 내놨다. 카카오뱅크 기존 상품 '저금통'과 '26주적금'에 브랜드를 결합해 저금 경험과 함께 소비 혜택도 얻을 수 있도록 한 파트너적금 상품이다.   앞서 토스뱅크 '키워봐요 적금'은 출시 3일만에 10만좌를 돌파했다. 카카오뱅크 '26주적금 with 오늘의 집'도 누적 계좌 개설 45만좌를 달성하며 판매를 종료했다.   카카오뱅크 수신 잔액이 여전히 가장 많았지만 이달 수신 잔액이 가장 크게 늘어난 인터넷은행은 케이뱅크였다.   케이뱅크 관계자는 "다른 상품보다도 플러스박스 잔액이 특히 많이 늘었다"면서 "금리를 크게 올리면서 금리인상기에 단기로 자금을 맡기려고 하는 수요를 빨아들인 것 같다"고 전했다.   지난달 16일 케이뱅크는 입출금이 자유로운 파킹통장 '플러스박스' 금리를 연 1.3%에서 연 2.1%로 0.8%p 올렸다. 업계 파킹통장 가운데 가장 높은 금리를 제공한다는 설명이다.   이에 따라 하반기 인터넷은행의 수신 경쟁은 치열해질 전망이다.   토스뱅크가 모임통장 출시를 예고한 데 이어 카카오뱅크도 지난 '26주적금 with 오늘의집' 판매 종료와 함께 "연말까지 신규 파트너적금을 다수 출시할 계획"이라고 밝힌 바 있다. 또 연내 기업공개를 앞둔 만큼 케이뱅크도 예·적금의 견조한 성장이 절실한 상황이기 때문이다.   인터넷은행 여신 잔액은 모두 증가세를 이어갔다. 카카오뱅크는 지난 6월 26조8163억원이었던 여신 잔액이 지난달 26조9504억원으로 1341억원 늘었다. 케이뱅크는 지난 6월 8조7300억원에서 지난달 9조1600억원으로 4300억원 늘었다. 토스뱅크는 앞서 지난 3월 2조5000억원 정도였던 여신 잔액이 지난 6월 말 기준 4조원 이상으로 늘었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>[인터뷰] “복합점포 중점 추진…범농협 플랫폼간 연계 서비스도”</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/662/0000004433?sid=101</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>[인터뷰] 조두식 NH농협캐피탈 대표 한 지점에서 모든 금융상품 취급 비수도권·디지털취약층 불편 해소 9월까지 제주 등 5곳에 개소 예정 금리 2%대 ‘농업인 특화상품’ 운영 ‘RM지사장’ 제도로 맞춤상담 제공      “지역민과 농민이 쉽고 편하게 금융 혜택을 누릴 수 있도록 복합점포사업을 중점적으로 추진하겠습니다.”취임 4개월을 맞은 조두식 NH농협캐피탈 대표는 본지와 인터뷰에서 이같은 목표를 밝혔다. ‘경계를 넘어 미래를 함께하는 금융회사’라는 농협캐피탈의 비전처럼 조 대표는 복합점포를 개설해 수도권과 비수도권의 경계를 허물고 직접 마케팅과 디지털 전환을 추진해 미래 성장동력 확보에 주력할 계획이라고 강조했다.― 시장 불확실성이 큰 상황이다. 농협캐피탈의 과제와 대응방안은.▶급격한 금리 상승, 취약차주 증가 등 시장이 혼란스럽다. 위험에 대응하고자 사업영역을 다각화했다. 우량채권 중심의 기업대출, 유망 산업에 대한 투자, 핀테크(Fintech·금융과 기술이 결합된 서비스)업체와 제휴를 통한 개인신용대출 등 사업 포트폴리오를 리밸런싱(재조정)했다. 이를 토대로 올 6월 기업대출, 신차대출 등 자동차금융, 개인고객을 대상으로 하는 리테일사업 비율을 30·40·30%로 균형 있게 조정했다. 미래 성장동력은 고객과의 소통에 있다. 고객 목소리를 직접 들을 수 있는 직접 마케팅에 주력하고 있다. 순천향대학교 천안병원과 업무협약(MOU)을 체결하는 등 고객과의 소통창구를 넓혀갈 계획이다.― 올해 중점적으로 추진하는 사업은.▶캐피탈업권 최초로 복합점포를 추진해 종합 금융서비스를 제공하겠다. 복합점포는 한 지점에서 모든 상품을 취급하는 것이다. 지금까지는 한 지점에서 취급하는 상품이 제한적이었다. 예를 들어 오토리스지점에 가면 자동차 관련 금융상품만 상담할 수 있었다. 개인신용대출 상담을 받고 싶다면 일반 금융지점에 방문해야만 했다. 지점별로 단일상품만 판매하면 시장 변화에 유연하게 대응할 수 없다. 복합점포를 확대해 고객 편의성을 높일 계획이다. 복합점포 추진 배경에는 지역민과 함께한다는 농협 정체성이 있다. 금융사 영업점포가 줄어들며 비수도권 거주민, 디지털 취약계층의 불편이 커졌다. 복합점포를 추가 개소해 지역민들도 양질의 금융서비스를 이용하도록 돕겠다. 9월까지 제주를 비롯한 5개 비수도권 지역에 복합점포를 개소할 계획이다.― 농민·농촌을 위해 추진하는 사업이 있다면.▶현재 농민을 위한 ‘농업인 특화상품’을 운영하고 있다. 농기계 대여, 사료 구매 등 농업에 필요한 자금을 저금리로 대출해준다. 농촌일손돕기에서 농민들과 만난 후 홍보의 필요성을 절감했다. 올 6월 충남 천안에서 직원들과 농촌일손돕기를 했다. 농민이 새 트랙터를 갖고 있어서 어떻게 구매했는지 물었다. ‘농업인 특화상품’이 있다는 걸 모르고 6%대 고금리로 대출을 받아 트랙터를 샀다고 말했다. 특화상품을 이용했다면 2%의 저금리로 대출받을 수 있었다. ‘RM(Relationship Manager)지사장 제도’로 농민을 위한 맞춤형 홍보를 강화하고, 범농협 시너지를 창출하겠다. RM지사장 제도는 NH농협은행과 지역 농·축협에서 은퇴한 직원들을 고용해 농민·지역민들에게 맞춤형 금융상담을 제공하는 것으로, 범농협 시너지효과를 높일 수 있다. 지역 사정에 밝은 은퇴 직원이 RM지사장으로 활동하며 농민들이 특화상품 혜택을 누릴 수 있도록 돕는다.― 올 하반기 계획은.▶디지털 전환에 박차를 가하고 있다. 6월에 통합 애플리케이션(앱)·웹사이트를 구축했다. 고객이 편리하게 비대면 금융서비스를 이용할 수 있도록 UI(사용자환경) 등을 직관적으로 개선했다. 범농협 플랫폼간 연계 서비스도 추진하고 있다. 농협 상호금융 앱인 ‘NH콕뱅크’와 농협은행 앱인 ‘NH올원뱅크’에서 농협캐피탈 상품을 찾아볼 수 있게 하는 등 시너지 강화사업을 추진했다. 또 토스 등 외부 플랫폼 회사와 제휴해 고객 접근성을 확대하고 있다.김소진 기자, 사진=김원철 프리랜서 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.08.10.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>'3조 몸값' 롯데카드 공개 매각…새 주인 누가될까</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004880671?sid=101</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스]  롯데카드 /fnDB 국내 5위권 카드 업체인 롯데카드의 매각이 공식화되면서 새 주인이 누가 될지 관심이 집중되고 있다. 사모펀드인 MBK파트너스는 2019년 롯데카드의 지분 59.8%를 인수한 바 있다.   9일 금융업계에 따르면 그동안 물밑에서 진행되던 롯데카드 매각이 공개매각으로 전환돼 매각 주관사인 JP모건이 잠재후보들에게 투자안내서를 보낸 것으로 알려졌다.   카드 업계 관계자는 "그동안 몇몇 유력 인수후보들에게 개별 접촉을 해왔는데 의견 차이가 좁혀지지 않자 최근 공개매각으로 전환한 것으로 알고 있다"고 말했다.      우리·하나·KT·PEF·빅테크업체 거론   신용카드사 점유율 순위 /그래픽=정기현 기자 인수 후보로는 우리·하나금융그룹과 KT그룹, 대형 사모펀드(PEF) 등이 거론되고 있다.   롯데카드는 신용카드 점유율 기준 5위로 하위권 업체의 경우 롯데카드 인수시 상위권으로 바로 올라설 수 있다. 특히 하위권에 있는 우리카드, 하나카드의 경우 롯데카드를 인수한다면 가장 시너지가 클 것으로 예상된다.   카드업계 관계자는 "카드업계의 경우 특성 상 점유율 1%라도 올리는 게 비용도 많이 들고 정말 쉽지 않은 부분"이라며 "인수합병(M&amp;A)를 제외하고는 단번에 상위권 업체로 올라서는 것은 사실상 불가능하다는 면에서 하위권 업체들은 관심이 클 수 밖에 없다"고 말했다.   2022년 1·4분기 금융감독원 금융통계정보시스템에 따르면 카드 업계 점유율 순위는 신한카드(21.0%), 삼성카드(18.9%), KB국민카드(17.7%), 현대카드(16.7%), 롯데카드(9.6%), 우리카드(8.5%), 하나카드(7.5%) 순이다.   특히 우리금융그룹의 경우 롯데카드 지분 20%를 소유한 2대주주라는 면에서 유력후보로 꼽혀 왔다.   금융업계 관계자는 "우리금융그룹은 비은행권으로 꾸준히 영역을 확대하고 있는데다 아주캐피탈 인수 당시에도 지분 20% 확보한 후 경영권을 인수 해 롯데카드도 비슷한 방식으로 인수할 것이라는 예상도 있다"고 말했다.   하나금융지주의 경우 2019년 롯데카드 매각 당시 MBK파트너스와 함께 경쟁했던 만큼 이번 인수전에서도 관심을 보일 것이라는 예상이다.   토스, 카카오 등 빅테크 업체들도 후보군으로 꼽힌다. 토스는 지난해 10월 토스뱅크 출범 때부터 신용카드업에 진출하겠다는 뜻을 밝혀 왔다. 카카오뱅크 역시 대표가직접 신용카드업 진출에 대한 의지를 밝힌 바 있다.     작년 2414억 당기순익…가격이 변수  롯데카드 연도별 당기순이익 추이 /그래픽=정기현 기자 롯데카드 매각이 신속하게 이뤄질 지 여부는 가격이 변수가 될 전망이다. MBK파트너스는 희망 매각가로 3조원대를 원하는 것으로 알려졌다. MBK파트너스가 롯데카드를 인수한 후 롯데카드의 당기 순이익은 2019년 571억원에서 2020년 1307억원, 2021년에는 2414억원으로 급증했다.   그러나 일각에서는 희망 매각가가 과도하다고 지적한다. 카드업계의 경우 지난 상반기까지 호실적을 기록하고 있긴 하나 최근 금리급등으로 인한 조달금리 인상과 수수료율 규제, 빅테크와의 경쟁 격화 등 악재도 많아 하반기부터는 실적에 부담이 될 것이라는 전망이 지배적이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.08.09.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>[쿠팡 금융업 진출] "카드와 다르다?" 200만원 나중결제 현금깡 논란 재부상</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000840759?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>쿠팡이 금융시장에 본격 뛰어들 채비를 하면서 쿠팡 나중결제 서비스의 '현금깡' 악용 논란이 재부상하고 있다. 사진은 서울 송파구 쿠팡 본사모습./사진=뉴스1 쿠팡이 여신전문금융업 등록 절차를 완료하고 금융시장에 본격 뛰어드는 가운데 쿠팡 후불결제(나중결제) 서비스의 '현금깡' 악용 논란이 재부상하고 있다.쿠팡의 후불결제 최대 한도가 네이버페이·토스 등 경쟁사보다 최대 170만원이나 많아 금융업 진출에 대한 시선은 곱지만은 않다. 9일 금융권에 따르면 쿠팡은 지난 5일 금융감독원 여신금융감독국으로부터 여신전문금융업 등록 승인을 받았다.쿠팡의 결제서비스 자회사인 쿠팡페이가 자본금 400억원을 들여 자회사 '쿠팡파이낸셜'을 설립한 데 이어 쿠팡파이낸셜이 여전업 등록 절차 완료하면서 쿠팡은 금융업에 발을 내딛게 됐다.쿠팡의 손자회사인 쿠팡파이낸셜이 여전업 라이센스를 취득한 만큼 쿠팡은 할부금융 상품을 먼저 내놓을 것으로 예상된다.하지만 이를 두고 업계의 시선은 다소 회의적이다. 쿠팡은 금융업에 진출하기 전 지난 2020년 8월 후불결제 서비스인 '나중결제'를 선보인 바 있다.나중결제는 쿠팡이 직접 매입한 상품에 한해 회사의 유료 회원이 일단 물건을 사고 결제는 나중에 나눠서 할 수 있는 서비스다.우수 회원이면 나중결제 최대 한도는 200만원으로 높아지고 이마저 최장 11개월까지 할부가 가능해 신용카드 기능과 비슷하다는 평가를 받아왔다.문제는 쿠팡의 나중결제 한도가 200만원임에 따라 네이버페이와 토스의 후불결제 최대한도인 30만원과 비교해 크게 차이가 나면서 '현금깡' 거래가 횡행하고 있다는 점이다.네이버·토스 등이 시행 중인 후불결제 서비스인 BNPL(Buy Now Pay Later)은 '선결제-후지불' 서비스로 금융위원회의 혁신금융서비스를 통해 도입됐다. 다만 BNPL의 월 최대 한도는 30만원으로 제한돼 있다.쿠팡의 나중결제 서비스도 BNPL 방식으로 평가받지만 BNPL 관련 규제는 받지 않는다. 이 때문에 최대 한도 규제에서 제외돼 자체적으로 200만원 한도를 적용하고 있지만 언제든 한도 조정이 가능하다.쿠팡의 나중결제는 쿠팡이 직매입한 상품을 구입할 때만 가능하다. 즉 고객에게 실제 돈을 받는 시기만 늦춘 외상 개념과 유사한 데다 최대 200만원의 한도를 제공해 현금깡의 악용 수단으로 이용돼왔다. 지금도 당근마켓, 중고나라 등 중고거래 플랫폼에선 쿠팡 나중결제를 악용한 불법 현금화 거래가 이뤄지고 있다.예를 들어 200만원짜리 물건을 사려는 구매자 A씨를 상대로 B씨가 10% 할인된 금액인 180만원만 현금으로 받고 자신의 아이디로 A씨의 주소로 상품을 주문해주는 것이다.결제대금을 내야 하는 시점에 B씨는 20만원 손해를 보지만 현금을 당겨 쓸 수 있는 이른바 '현금깡'을 할 수 있게 되는 셈이다.이에 쿠팡 나중결제의 연체율이 높아 부실 차주를 양산했을 것이라는 우려도 나왔지만 쿠팡 측은 현재 나중결제의 연체율을 공개하지 않고 있다.금융권 관계자는 "현금깡 논란이 있었던 회사가 금융업에 진출한다는 것은 논란의 소지에서 자유로울 순 없어 보인다"며 "이미 자리를 잡은 네이버와 카카오, 토스 등 핀테크 업체들 간의 경쟁에서도 쿠팡이 우위를 점할수 있을지도 미지수"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>대출자들이 인뱅으로 몰려가는 사연은</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011341639?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>기사내용 요약인터넷은행 대출금리, 시중은행보다 1%p 낮아시중은행 가계대출 7개월째 감소에도 인뱅은 증가 *재판매 및 DB 금지[서울=뉴시스]이주혜 기자 = 금리 인상 기조가 이어지면서 이자 부담에 대출자들의 금리 민감도가 높아지자 상대적으로 금리가 낮은 인터넷은행으로 대출 수요가 몰리고 있다. 시중은행의 가계대출 감소세와 상반된 모습이다.3일 은행권에 따르면 KB국민·신한·하나·우리·NH농협은행의 전날 기준 주택담보대출 고정형(혼합형) 금리는 3.88~5.754%, 변동금리는 3.92~5.992%로 집계됐다. 인터넷은행의 금리는 보다 낮은 것으로 나타났다. 카카오뱅크의 주담대는 혼합금리 3.952~5.104%, 변동금리 3.726~4.857%로 금리 상단이 0.5~1%포인트가량 낮았다. 전세대출도 마찬가지다. 카카오뱅크의 전월세보증금 대출 금리는 3.592~4.673%, 케이뱅크 전세대출은 3.92~4.88%로 나타났다. 5대 은행의 금리 범위는 3.84~5.792%로 상단이 약 1%포인트 높았다.인터넷은행이 시중은행보다 낮은 금리를 제공하면서 가계대출의 희비가 엇갈리고 있다. 카카오뱅크와 케이뱅크의 여신 잔액은 올해 증가세를 지속 중이다. 5대 은행의 가계대출이 7개월째 감소하는 것과 대조적이다. 카카오뱅크의 지난달 말 여신 잔액은 26조9504억원으로 전월보다 1341억원이 늘었다. 같은 기간 케이뱅크는 전월 대비 4300억원 증가한 9조1600억원을 나타냈다. 토스뱅크는 지난달 말 기준 대출잔액을 공개하지 않았다. 6월 말에는 여신 잔액을 약 4조2000억원으로 밝힌 바 있다. 출범 초기로 영업을 확대하는 추세인 만큼 증가세를 지속한 것으로 관측된다. 카카오뱅크 관계자는 "상대적으로 금리가 낮은 전월세보증금 대출과 주택담보대출이 증가하면서 지난달 총여신 잔액이 늘었다"고 설명했다. 카카오뱅크는 6월 주담대 금리를 최대 0.5%포인트 인하했다. 케이뱅크도 4월 신용대출 금리를 최대 0.4%포인트 인하했으며 6월에는 아파트담보대출과 전세대출 금리를 최대 0.41%포인트 낮춘 바 있다.반면 KB국민·신한·하나·우리·NH농협은행은 가계대출 감소세가 7개월째 이어지고 있다. 지난달 말 기준 5대 은행의 가계대출 잔액은 697조4367억원으로 전월보다 2조2155억원 줄었다. 수신에서는 다른 흐름이 나타났다. 카카오뱅크의 지난달 말 기준 수신 잔액은 32조6534억원으로 전월 대비 5274억원 감소했다. 카카오뱅크 관계자는 "수신 잔액이 소폭 감소한 것은 최근 저축성 예금금리 경쟁이 심화한 영향"이라며 "수신금리 인상을 검토하고 있다"고 말했다. 고금리 특판을 진행한 케이뱅크의 7월 말 수신 잔액은 13조3300억원으로 전월보다 1조1500억원 증가했다. 케이뱅크는 지난달 최고 연 3% 금리를 제공하는 '코드K정기예금(100일)' 특판을 실시한 바 있다.5대 은행의 총수신 잔액은 지난달 말 기준 1834조2920억원으로 전월 대비 12조6760억원 증가했다. 정기예금 잔액은 712조4491억원으로 전월 대비 27조3532억원 늘었다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.08.09.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>15시간 먹통에 침수까지…투자자 보상은 막막</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001047635?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>한투증권 이번엔 전산 장애&lt;앵커&gt;중부지방에 기록적인 폭우가 쏟아진 어제(8일), 서울 여의도 대형 증권사가 침수되는 사고가 발생했습니다.사고 발생 전 전력공급이 끊겨 15시간 동안 주식거래가 막히는 일까지 벌어졌습니다.김종학 기자의 보도입니다.&lt;기자&gt;어제 오후 정규거래를 마감한 뒤 한국투자증권 앱 접속 화면입니다.로그인을 시도해도 입력정보를 인식하지 못하고, 홈페이지를 접속해도 먹통입니다.어제 오후 4시부터 오늘 새벽까지 한국투자증권을 통한 코스피와 코스닥 시간외거래 주문를 비롯해오후 5시부터 거래할 수 있던 미국 주식 매매가 완전히 막혔습니다.이날 사고는 오후 2시40분경 한국투자증권 여의도 본사 지하 3층에 위치한 시스템 전원공급 장치에서 원인을 알 수 없는 합선이 발생해 벌어졌습니다.증권사측은 즉시 보조전원(UPS)을 가동해가며 합선 원인을 해결하려 했지만 복구에 실패해, 오후 4시부터 오늘 새벽까지 전력공급을 완전히 끊은 채 사고를 수습했습니다.이런 가운데 어제 내린 폭우로 한국투자증권은 이날 건물 6층에 위치한 야외 테라스에서 빗물이 넘쳐 본사 건물이 침수되는 사고까지 발생했습니다.본래 호텔로 사용하려던 건물 구조 상 야외 테라스를 타고 들어온 빗물이 5층 사무실과 아래층 3, 4층까지 흘러들어 직원들이 오늘 새벽까지 물을 퍼내야 했습니다.침수와 대형 전산사고를 겪은 한국투자증권은 사고 발생 하루 만인 오늘 정일문 대표이사 명의로 대고객 사과문을 게재하고 불편 사항을 접수받아 보상을 진행하겠다고 밝혔습니다.[한국투자증권 / 관계자(익명)]"최대한 빠르게 문제를 해결하고자 했으나 복구가 늦어진 점에 대해서 모든 고객분들께 정중히 사과드립니다. 피해를 입으신 분들은 고객센터 및 홈페이지를 통해 접수해주시면 성실히 신속히 조치하고 책임을 다하겠습니다."다만 전날 시스템 중단으로 문자 발송까지 막혀 상당수 투자자에게 사고 안내가 이뤄지지 못했고, 오늘 새벽에야 유튜브 채널을 통해 사고 내용을 밝히는 등 보상 과정도 쉽지 않을 전망입니다.한국투자증권은 오는 12일까지 홈페이지와 모바일 등을 통해 피해 보상을 접수 받아, 매도 기록을 보유하고 있거나, 이튿날 거래로 손실이 확정된 경우 보상을 진행할 예정입니다.한국경제TV 김종학입니다.[출연] 투자자만 덤터기...전산사고 대응법은&lt;앵커&gt;취재기자와 조금 더 이어가보겠습니다.국내 대형증권사 중 하나인데, 어쩌다 이렇게 사고가 발생한 겁니까?&lt;기자&gt;한국투자증권 시스템 운영에 필요한 전원공급 장치에 합선이 발생한 게 원인입니다.당초 합선으로 주 전력에서 비상발전기(UPS)로 전한한 것이 어제 오후 2시 40분경, 그러니까 사고 직전 이미 임시로 시스템을 켜뒀던 겁니다.그런데 합선의 원인을 잡지 못한데다가 비상발전기도 장시간 가동이 어렵다보니까 정규 장을 끝낸 오후 4시경 모든 전원을 내리고 전산망을 복구하는데 집중했던 겁니다.문제는 이 시스템 전원이 나가면서 문자를 통한 투자자 안내, 내부 전산에도 지장이 생겨 사고 안내가 충분히 이뤄지지 못했던 겁니다.또 어제 시간당 100밀리미터가 넘는 폭우가 내리면서 일부 사무실이 침수되는 사고까지 발생하면서 수습에 상당히 어려움을 겪은 것으로 전해집니다.한국투자증권은 오늘 아침 7시 15분, 정규 장이 개장하기 전에야 시스템을 정상화하고, 뒤늦게 대고객 사과문과 함께 투자자들에 대한 보상 접수를 시작했습니다.&lt;앵커&gt;이번 사고로 인해 투자자들이 접속을 하지 못했거나, 시간외 거래 중에 손해를 보았을 수도 있는데 다 보상이 이뤄지는 겁니까?&lt;기자&gt;한국투자증권은 이번 사고에 대해 정일문 대표 명의의 대고객 사과문을 냈습니다. 홈페이지 등을 통해 불편사항을 접수하면 최대한 책임지고, 전산환경도 개선하겠다는 입장을 밝혔습니다.하지만 실제 보상을 받기까지 제약이 적지 않습니다.통상 전산장애가 발생하는 경우 객관적인 주문기록이 있는 등 금융회사별 내부보상기준에 해당하는 경우에 한하여 보상이뤄집니다.다시 말해 모든 투자자, 가입자가 보상을 받는 건 아니라는 겁니다.지난해와 올해 초에도 IPO 주식 공모과정에서 접속 지연으로 전산장애가 발생한 사례를 보면 제때 매도하지 못해 입은 손실이 있는 경우에 한해 보상이 이뤄졌습니다.이번 사고도 350만명 정도의 이용자가 접속에 불편을 겪기는 했지만 시간외에 주문을 제때 내지 못해 손해를 입은 경우로 보상이 좁혀질 전망입니다.&lt;앵커&gt;이런 전산사고가 흔히 발생하는 겁니까? 그동안 국내 투자자들이 입은 피해 규모는 어떻습니까?&lt;기자&gt;기본적으로 지난해 주식투자 열풍이 불면서 개인투자자가 1,300만명을 넘겼는데, 거래규모가 늘어난 것을 대다수 증권사 시스템이 감당하지 못하고 있습니다.금감원에서 조사한 전산장애 건수를 보면 2019년 15건, 2020년 28건 수준이지만, 일반 투자자들이 전산장애 피해로 민원을 제기한 건수를 보면 규모가 상당합니다.전산장애민원은 2019년 241건, 2020년 193건이던 것이 지난해에 천여 건을 넘겼고, 올해 상반기에만 6,139건에 달합니다.전산장애가 특히 늘어난 시기를 보면 작년 1분기와 3분기, 올해 1분기 등으로 볼 수 있는데, SKIET, 카카오페이, LG에너지솔루션처럼 투자자들 관심도가 높았던 종목의 상장 시점과 연관이 깊습니다.증권사별로 청약 주식을 배정해 거래하는 과정에서 시스템이 덜 마련되는 건데, 올해 상반기에 하이투자증권이 5천여명의 투자자들에 대한 보상을 진행한 것이 대표적입니다.&lt;앵커&gt;한 번 발생하면 투자자들에게 큰 피해가 발생할 게 자명한데도 왜 사고가 끊이지 않는 겁니까?&lt;기자&gt;통상 은행, 증권사 등 금융회사들 전산망, 백업망 투자비용이 상대적으로 거래 규모를 따라잡지 못할 정도로 작았고, 문제가 발생하더라도 처벌이 약했기 때문입니다.그동안 국내 금융사에 발생한 사고들을 보면 전문적인 거래 과정에서 발생하는 전산사고와 전산장애를 구분해볼 필요는 있습니다.가령 2018년 삼성증권에서 발생한 유령주식 배당사고는 국내에서 가장 큰 전산사고 중 하나입니다. 이런 사고들은 증권사가 스스로 내부통제를 바꾸고, 금융당국의 제재를 통해 개선을 유도할 수 있는 사안입니다.반면 이번에 한국투자증권과 같은 전산시스템이 멈추는 등의 전산장애는 훨씬 빈번하게 일어나는데도 이렇다할 조치가 부족한게 현실입니다.온라인 주식거래(MTS/HTS)로 투자자들이 50억원 이상 피해를 입은 경우 금감원을 통해 제재를 할 수 있지만, 이러한 사실을 피해자가 입증하지 못한다면 사실상 처벌 대상에 포함되지 않습니다.비슷한 사고로 2015년 7월에 당시 하나대투증권에서 발생한 6시간의 거래 중단사고가 있었는데, 금감원 특별검사를 받고서도 경징계를 받은 게 전부입니다.온라인 주식거래 서비스에 장애가 생기더라도 24시간, 하루 이상 문제가 발생하지 않는한 큰 처벌은 없고 이 수준을 넘어서는 경우에야 기관 경고 등 징계가 강해집니다.이렇다보니 증권사들은 이런 사고 직후 사과문과 보상 접수를 올리는 것이 전부일 정도로 현재로선 감독 사각지대에 있는 겁니다.&lt;앵커&gt;증권사들의 인프라를 정비하는 것만으로도 해결 가능할텐데, 그 투자가 얼마나 적었던 겁니까?&lt;기자&gt;최근 3년간 전산장애 민원에서 눈에 띄는 점은 온라인 증권사로 출발한 키움증권, 토스증권, 카카오페이증권의 경우 전산장애 민원이 10건도 채 되지 않을 정도로 미미한 반면 중견 증권사들의 전산장애가 빈번했던 것으로 나타납니다.기본적으로 국내 증권사들은 지난해까지 개인투자자들의 주식투자 열풍으로 매 분기 수 조원의 수탁 수수료를 올려왔습니다.. 올해 거래가 둔화되었음에도 수탁수수료가 1조 4천억원 규모에 달합니다.하지만 전산설비를 확충하기 위한 투자 비중은 증권사 59개사 전체를 따져봐도 전산운용비 규모는 지난해 6천6백억원, 그러니까 분기마다 벌어들인 규모에 비해 전산에 투자한 비중이 터무니없이 낮은 것이 현실입니다.&lt;앵커&gt;이런 현실에서 불가피하게 전산사고로 피해를 입게 됐다면, 투자자들은 어떤 대처를 해야 하는 겁니까?&lt;기자&gt;주식 매매 과정에서 전산 장애 피해를 입었을 경우 가장 중요한 건 `증거`를 확보하고 다른 주문 수단을 활용해 손실 위험을 줄여야 한다는 겁니다.거래를 해야한다면 온라인 주문이 막히더라도 충분히 다른 주문 수단이 마련되어 있습니다. 증권사의 고객센터에 유선으로 혹은 일과 중이라면 직접 방문해서라도 대체 주문을 낼 수 있고, 또 만일 고객센터에 연락을 한다면 의무적으로 통화기록을 녹음해 보관하기 때문에 자료로 활용할 수 있습니다.만일 주문을 아예 내지 못해 나는 사고라 하더라도 증거, 즉 주문기록을 남겨야 하는데, 이때 거래시간, 주문, 종류, 종목, 수량, 가격을 제시해 손실 금액만큼 보상이 이뤄지도록 해야 합니다.앞서 설명드린 것처럼 전산장애는 증권사가 충분한 서버를 확보하지 못한 경우가 상당수입니다. 기업공개한 주식을 매도하려하거나 악재가 터진 주식을 팔려 투자자가 일시적으로 몰리면서 30~40분씩 접속이 되지 않아 매매를 제때 못하는 사고가 나는 겁니다.따라서 정리하자면 되도록 시스템이 구축이 된 증권사를 이용하고, 계획한대로 주문을 내기 힘들다면 그 요청 사항을 전화상으로 남겨두거나, 접속하려던 로그기록 등을 객관적으로 증빙할 수 있도록 해야 만에 하나 입게될 손실을 보상 받을 수 있습니다.&lt;앵커&gt;잘 들었습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>간편결제 종합만족도 1위는 ‘삼성페이’</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002524884?sid=101</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>네이버·토스·카카오 등 뒤이어 피해는 ‘결제실패’가 52% 최다국내 5개 간편결제서비스 중 삼성페이의 서비스에 대한 만족도가 가장 높은 것으로 나타났다. 소비자들은 결제 시 2번 중 1번 이상은 간편결제서비스를 사용하는 것으로도 조사됐다. 코로나19 영향으로 비대면 소비가 일상화되면서 소비자들은 실물 신용카드보다 휴대전화를 통한 간편결제서비스를 선호하고 있다.한국소비자원은 지난 5월 10∼17일 간편결제서비스 이용 경험자 1500명(5개 간편결제서비스 이용자 각 300명)을 대상으로 온라인 설문조사를 시행한 결과 이같이 파악됐다고 3일 밝혔다. 5개 간편결제서비스 가운데 종합 만족도는 삼성페이가 4.06점으로 가장 높았다. 이어 네이버페이(3.89점), 토스페이(3.86점), 카카오페이(3.78점), 페이코(3.67점) 등의 순이었다. 서비스상품 요인별 만족도는 결제 편의성과 정확성이 4.29점으로 가장 높은 반면, 혜택 및 부가서비스가 3.85점으로 가장 낮아 할인이나 포인트 제공 등의 개선이 필요한 것으로 조사됐다.결제 편의성과 정확성에서는 삼성페이(4.48점), 취소·환불 용이성은 네이버페이(4.11점), 혜택·부가서비스는 토스페이(4.19점)가 가장 높은 점수를 받았다. 조사대상 소비자의 15.6%는 간편결제 서비스 이용 시 피해를 본 경험이 있다고 답했다. 피해 유형은 결제 실패가 51.7%로 가장 많았고 이어 환불·결제취소 지연(31.2%), 할인·포인트 적립 미적용·누락(17.1%) 등의 순이었다. 이번 조사의 표본오차는 95% 신뢰수준에 ±2.53%포인트다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>카카오뱅크도 '이자장사' 잘했네…상반기 순이익 1,238억</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000297425?sid=101</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>[앵커] 시중은행에 이어 인터넷전문은행인 카카오뱅크도 최대 실적을 거뒀습니다. 상반기에만 1천억 원 넘게 순이익을 냈습니다. 신다미 기자, 카카오뱅크 2분기 실적이 어떻게 나왔나요? [기자] 카카오뱅크의 상반기 순이익은 1,238억 원으로 지난해보다 6.8% 늘었습니다. 상반기 영업이익도 2.17% 증가해 1,628억 원을 기록했는데요.2분기 순이자마진도 2.29%을 기록해 지난 분기보다 0.07%포인트 높아졌습니다. 순이익과 영업이익 모두 반기 기준으로 최대 실적입니다. [앵커] 아무래도 금리 상승기다 보니 성적이 좋았군요? [기자] 이자수익 증가가 최대 실적을 견인했습니다. 카뱅은 중저신용자대출과 전월세보증금대출, 주택담보대출을 중심으로 여신을 확대했는데요.올 상반기 기준 카뱅의 저신용자 대상 대출잔액은 2조 9,582억 원으로 지난해 말보다 4,939억 원 늘어났습니다. 카뱅의 전체 여신 잔액은 26조 8,163억 원으로 같은 기간 동안 9,549억 원 증가했는데요.이에 올 상반기 이자수익은 5,571억 원으로 지난해 상반기 대비 61.6% 늘었습니다. 수신 잔액도 6개월 만에 3조 1,547억 원이 불어나며 33조 1,808억 원을 기록했는데요.카뱅의 고객 수도 역대 최다인 1,917만 명으로 반년 만에 118만 명이 늘어났습니다. [앵커] 다른 인터넷은행들도 2분기 실적이 좋을 것으로 보이죠? [기자] 맞습니다. 인뱅 3사의 대출잔액은 6개월 만에 6조 2,634억 원 늘어나 39조 7,463억 원으로 집계됐습니다. 5대 시중은행의 대출 잔액이 상반기에만 9조 4,000억 원 감소한 것과는 상반된 모양새인데요.이에 따라 케이뱅크와 토스뱅크도 2분기 최대 실적을 낼 것으로 보입니다. 대출자들의 이자부담이 가중되고 있는 가운데 인터넷은행도 이자장사로 최대 실적 행진을 이어가고 있습니다. SBS Biz 신다미입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.08.02.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>금리 낮은 카뱅·케뱅 가계대출 7개월째 ↑ 5大 시중은행은 감소세</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002524693?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>카카오뱅크·케이뱅크 등 인터넷전문은행의 가계대출 잔액이 7개월 연속 증가한 것으로 나타났다. 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 가계대출이 감소하고 있는 것과 대비된다. 2일 은행권에 따르면 지난달 말 기준 카카오뱅크와 케이뱅크의 여신 잔액은 각각 26조9504억 원, 9조1600억 원으로 집계됐다. 6월 말과 비교하면 카카오뱅크가 1341억 원, 케이뱅크가 4300억 원씩 증가했다. 3번째 인터넷전문은행인 토스뱅크는 지난달 말 기준 대출 잔액을 아직 공개하지 않았지만 비슷한 흐름을 보이는 것으로 관측된다. 5대 시중은행의 지난달 말 기준 가계대출 잔액은 697조4367억 원으로 전월보다 2조2154억 원 줄어들었다. 가계대출은 올해 1월부터 7개월 연속 감소세를 지속하면서 지난해 말보다 11조6163억 원이 줄었다. 고금리 기조가 이어진 데다 부동산시장이 침체하면서 관련 수요도 위축된 영향으로 풀이된다.금융권은 인터넷전문은행의 가계대출 금리가 상대적으로 낮은 편이어서 쏠림 현상이 빚어진 것으로 보고 있다. 지난 6월 카카오뱅크는 주택담보대출 금리를 최대 0.5%포인트 인하했고, 케이뱅크도 전세대출과 아파트 담보대출 금리를 최대 0.41%포인트 인하했다. 이에 따라 케이뱅크의 7월 말 기준 수신 잔액은 13조3300억 원으로 전달 말보다 1조1500억 원 증가했다. 다만 카카오뱅크는 저축성 예금 조달경쟁이 심화하면서 수신 총 잔액이 감소해 7월 말 수신 잔액은 전달보다 5274억 원 감소한 32조6534억 원으로 나타났다. 인터넷전문은행의 덩치도 빠르게 커가고 있다. 금융감독원 통계에 따르면 카카오뱅크·케이뱅크·토스뱅크 등의 총자산은 올해 3월 말 기준 74조5000억 원으로 2019년 25조3000억 원(토스뱅크 제외)의 약 3배 수준으로 늘었다. 인터넷전문은행 출범 첫해인 2017년 말 당시 카카오뱅크와 케이뱅크의 합계 자산이 7조 원 수준이던 것을 고려하면 5년 새 약 10배로 성장했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>토스, 알뜰폰 파격요금 내놓나...요금제 선호도 조사 주목</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002264416?sid=105</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>월 2만원 데이터 5GB에 속도제한 5Mbps 적용하는 요금상품 눈길토스가 월 2만원에 데이터 5GB(속도제한 5Mbps) 요금상품을 포함한 알뜰폰 요금제 선호도 조사를 시작했다. 알뜰폰 업계에서는 해당 요금제가 실제 출시될 시 지나친 경쟁을 촉발할 것이라며 우려를 표하고 있다.3일 업계에 따르면, 토스는 5천600명의 이용자를 무작위로 선정해 알뜰폰 요금제 선호도 조사를 진행 중이다. 만약 선정된 이용자라면 토스앱 전체탭 편의메뉴에서 '휴대폰 요금 줄이기'를 볼 수 있다.토스의 공지에 따르면 휴대폰 요금 줄이기는 아직 출시되지 않은 알뜰폰 요금제에 대한 선호도 조사를 목적으로 만들어졌다. 다만 조사가 '사전 신청하기'라는 이름으로 진행되고 있고, 향후 해당 요금제가 출시되면 사전 신청하기를 누른 이용자에게 알림도 보내준다.■ 5Mbps는 FHD 영상 시청도 가능한 속도토스의 요금제 선호도조사 항목을 살펴보면 ▲월 2만원 데이터 5GB ▲월 2만5천원 데이터 10GB ▲월 3만원 데이터 25GB ▲월 3만5천원 데이터 50GB ▲월 4만5천원 데이터 100GB 등 총 5개다. 통화·문자는 5개 요금제 모두 무제한이며 속도제한은 5Mbps가 적용된다.이 중 업계에서 가장 우려의 시선을 보내는 건 2만원에 기본데이터 5GB(속도제한 5Mbps)를 제공하는 요금제다.업계에 따르면 5Mbps는 1080P(FHD) 화질의 영상 시청도 원활하게 이용할 수 있는 속도다. 기존 알뜰폰 요금상품 중에서도 2만원 이하 가격에 5GB 이상 데이터를 제공하는 요금상품은 많았다. 하지만 속도제한 5Mbps를 제공하는 요금상품은 찾아보기 힘들다.KB리브엠의 2만1천900원 요금상품 'LTE든든무제한7GB+'은 월 7GB 데이터를 제공하지만 속도제한은 1Mbps에 불과하다. 또한 알뜰폰에서 속도제한 5Mbps가 적용되는 상품은 매일 5GB 또는 월 100GB 데이터를 제공하는 4만원 이상 고가 요금제가 대부분이다.업계 한 관계자는 "5Mbps는 일반 이용자들이 일상 중 사용할 때 끊김없이 이용할 수 있는 속도"라며 "저런 요금상품을 2만원에 계획하고 있을지는 생각하지 못했다"고 말했다.토스 측은 해당 조사가 선호도조사일 뿐이라고 선을 그었다.토스 관계자는 "현재 진행 중인 조사는 소비자들이 알뜰폰을 통해서 얻고 싶은 게 많은 데이터인지 아니면 요금 절약인지를 확인하기 위한 것"이라며 "아직 선호도조사에 포함된 요금제를 실제 출시할지에 대해서는 확정되지 않았다"고 설명했다.■ 업계 "출시 가능성 높다"하지만 기존 알뜰폰 업계에서는 해당 요금상품의 출시 가능성을 높게 보고 있다. 앞서 KB리브엠이 파격적인 요금상품을 연이어 출시하며 가입자를 확보했던 만큼 토스 또한 같은 전략을 취할 것이란 걱정이다.업계 관계자는 "기본 제공 데이터는 기존 알뜰폰과 큰 차이 없게 하면서도 속도제한 데이터는 고가요금제에서나 볼 수 있는 5Mbps를 제공한다는 계획 아니겠나"라며 "저가 요금경쟁을 벌이지 않겠다고 한 토스가 해당 요금 상품을 실제 출시한다면 업계를 우롱하는 것"이라고 목소리를 높였다.다만 현재로선 토스가 해당 요금제를 출시한다고 해도 법적으로 문제가 되는 부분은 없다. 전자금융사업자인 토스는 금융사들과 달리 혁신금융서비스 지정의무가 없어 요금제 출시도 비교적 자유롭게 진행할 수 있기 때문이다.전기통신사업법상 매출액 800억원 이상인 알뜰폰 사업자는 신상품 출시 시 과학기술정부통신부에 신고하도록 돼 있지만 토스가 인수하는 머천드코리아는 이 기준에도 적용되지 않는다.업계 다른 관계자는 "토스는 기존에도 언제든지 알뜰폰 시장에 진출하는 게 가능했다"며 "다만 알뜰폰 시장에서 오랫동안 사업을 진행해 온 머천드코리아를 인수함으로써 더 수월한 사업 진행이 가능할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.08.01.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>금융‧핀테크 인재들, ‘뮤직카우’로 향한다</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002129851?sid=105</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>[디지털데일리 최민지기자] 음악 저작권료 참여 청구권 투자 플랫폼을 운영하는 뮤직카우는 올해 주요 리더급 인재들을 지속 영입하고 신규 부서를 신설하는 등 조직 보강에 힘을 쏟고 있다.    먼저, 뮤직카우는 지난 5월 준법감시체계 및 내부통제 기준 강화 등 제도적 기틀을 정비하고자 준법감시인을 선임했다. 임창준 준법감시인은 법무법인 ‘나우’ ‘시화’를 거쳐 농협은행 준법감시부 법무팀 변호사, 현대차증권 법무팀 팀장으로 재직하는 등 주요 금융권에서 다양한 송무 및 자문 경력을 보유한 법무 전문가다.   또한, 뮤직카우는 서비스 이용자 보호 강화를 위해 정보관리본부를 신설하며 21년차 경력을 보유한 김남진 보안 전문가를 정보보호최고책임자(CISO) 및 정보관리본부 수장으로 선임했다.    김 CISO는 노무라증권, 골드만삭스 등 글로벌 최고 수준의 금융사에서 인프라 시스템 개발 및 기술·운영리스크 관리자로 근무한 이력을 보유하고 있다. 쿠팡에서 핀테크 보안·개인정보 및 IT 인프라 책임자를, 토스증권과 카카오페이에서는 CISO로서 서비스 보안 및 정보보호체계 구축 업무를 총괄했다.   한국씨티은행 최연소 상무 타이틀을 보유한 인사도 뮤직카우 전략사업본부장으로 합류했다. 정 본부장은 글로벌 진출에 힘을 싣기 위한 중장기적 전략 및 세부 계획을 수립할 예정이다.    음원 지식재산(IP) 관리 강화는 물론, 대규모 음원 IP 펀드 조성 및 전문 운용을 위한 전문가도 영입했다. 뮤직카우 IP상품기획팀 책임자인 서주희 리더는 ▲삼일회계법인 ▲한국씨티은행 ▲삼성생명보험 ▲삼성자산운용 ▲삼성헤지자산운용 ▲토스뱅크 등에서 금융 업무를 두루 경험한 17년 경력 인사다. IP자산관리팀 책임자로 선임된 김재홍 리더는 NH투자증권에서 17년 이상 근무하며 다양한 분야 금융 업무를 맡았다.    뮤직카우는 주요 인재 영입이 가능했던 이유로 음악 저작권 특수성을 꼽았다. 음악 저작권은 경기 불황에도 자산 안정성이 높다. 글로벌 경기 침체 여파로 안전자산 수요가 증가하고 있는 데다, 음악 저작권은 시간이 지나도 수익에 큰 변동이 없다는 속성 때문에 주목받고 있는 투자처다.    2018년 런던증권거래소에 상장한 음악 저작권 투자 펀드 ‘힙노시스 송 펀드’의 경우, 지난해 3월 기준 시가총액이 2조190억원에 달했다. 음악 저작권 펀드는 투자자들이 펀드에 구성된 곡들에서 발생하는 저작권료로 배당금을 받을 수 있는 구조로 이뤄진다. 세계적인 음악 펀드 중 하나인 ‘라운드힐 뮤직 로열티 펀드’는 12만여곡 음악 저작권에서 발생하는 수익을 투자자에게 배당금으로 나눠주고 있다. 가수 셀린 디온부터 브루노 마스 인기 곡들이 펀드 포트폴리오에 포함됐다.    더군다나, 최근 미국 투자은행 골드만삭스는 주요 공연 매출 증가와 스트리밍 시장 성장을 근거로 들며, 2030년 전세계 음악시장 수익 규모가 1530억달러까지 확대될 것이라고 전망한 보고서를 내놓기도 했다.   이와 함께 뮤직카우는 지난 3월 국내를 넘어 해외로 사업을 확장, 글로벌 최대 음악 시장인 미국 진출 계획을 밝힌 바 있다. 뮤직카우 미국 진출에는 한화시스템이 초기 투자와 전략적 파트너사로 손을 잡았다.   무엇보다 뮤직카우가 금융당국으로부터 증권성 판정을 받고 자본시장법 적용을 받게 되면서, 그간 뮤직카우 사업을 둘러싼 불확실성에 대한 우려가 줄어든 점도 주효하다. 뮤직카우는 지난 4월 금융위원회 산하 증권선물위원회의 검토 결과에 공감하고, 유예기간 내 투자자 보호를 최우선으로 한 음악IP 거래 시장 조성을 위해 모든 조건을 신속히 완비하겠다고 밝힌 바 있다.    이에 국내 사모펀드(PEF) 운용사 스틱인베스트먼트는 지난 5월 뮤직카우에 1000억원 규모 투자를 단행했다. 키움증권도 뮤직카우와 전략적 제휴 관계를 체결했다.   한편, 뮤직카우 전체 임직원 수는 올해 6월 기준 전년동기대비 2배 이상 늘어나면서 최근 서울 중구로 사옥을 이전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.08.02.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>시중은행은 줄어드는데…인터넷은행 가계대출 7개월 연속 증가세</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003707513?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>카카오뱅크와 케이뱅크 등 인터넷전문은행 가계대출이 7개월째 늘고 있어, 시중은행과 대조적이다. 사진은 1일 서울의 한 은행 대출 상담 창구 앞. /연합뉴스  										카카오뱅크와 케이뱅크 등 인터넷전문은행의 가계대출 잔액이 7개월 연속 증가세를 보이고 있다. 시중은행의 가계대출이 7개월째 줄어들고 있는 현상과는 대조적이다.지난달 말 기준 카카오뱅크와 케이뱅크의 여신 잔액은 각각 26조9504억원, 9조1600억원으로 집계됐다. 6월 말과 비교하면 카카오뱅크가 1341억원, 케이뱅크는 4300억원 각각 늘었다.대출 잔액을 공개하지 않은 토스뱅크도 출범 초기 공격적 영업을 하고있는 만큼 증가세를 이어갔을 것으로 업계는 보고 있다.인터넷전문은행들이 시중은행과 다르게 여신이 느는 이유는 금리 인상기에 상대적으로 낮은 금리를 제공했기 때문으로 풀이된다.지난 6월 카카오뱅크는 주택담보대출 금리를 최대 0.5%포인트 내렸고, 케이뱅크도 아파트담보대출 금리를 최대 0.41%포인트 내린 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>지닥, 이승호 운영총괄 이사 영입</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004780416?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>피어테크가 운영하는 가상자산거래소 지닥(GDAC)은 이승호 운영책임을 영입했다고 8일 밝혔다.이 운영책임은 15년 이상 스타트업에 종사하며 기업을 성장시켜온 기업 성장 전문가라고 지닥측이 설명했다. 그는 월 이용자 2000만명 이상을 기록하며 토스와 함께 우수한 기업 문화로 잘 알려진 버즈빌(모바일 광고플랫폼 회사) 공동창립자 및 최고운영책임자(COO), 무역 업무용 서비스형 소프트웨어(SaaS) 스타트업 최고경영자(CEO) 등을 역임했다.이 운영책임은 고려대학교에서 정치외교학을 전공한 후 주한미국상공의소(AMCHAM) 및 미국계 다국적 경영 컨설팅 펌에서 일했다. 이후 대우인터내셔널(현 포스코 인터내셔널) 경영전략실에서 전사 KPI 및 경영전략 등을 수립했다.그는 버즈빌을 공동창업해, 출시 2년 내 50만 일간활성이용자(DAU)를 확보하고 130억원 이상 투자를 이끌어냈다. 그 결과 창업 후 총 인원 100명, 매출300억원 이상 기업으로 성장시켰다.지닥은 이와 같은 경험과 능력이 회사 향후 행보에도 도움이 될 것으로 보고있다. 지닥은 2021년 당기순이익 기준 국내 가상자산 거래소 중 4위를 기록했다.2022년에는 ▲GDAC펀드서비스 ▲GDAC 인덱스 등 신규 서비스를 런칭했다. 또한 지난 4월에는 미국 재무부 FinCEN으로 부터 가상자산 사업자 자격(MSB)을 획득하며 글로벌 시장 진출 초석을 마련했다.이 운영책임은 "국내 탑4 가상자산 거래소이자, 국내 1위 가상자산 종합 커스터디 서비스로 손꼽히는 지닥에 합류하게 돼 기쁘다. 그동안 경험했던 기억과, 새로운 곳에서 도전을 통해 지닥이 국내를 넘어 해외에서도 손꼽히는 글로벌 금융 기술사가 되도록 최선을 다할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.08.10.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>[콘텐츠 핫&amp;뉴] 위메이드플레이 ‘애니팡2’ 리마스터 3.0 사전예약</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005002754?sid=105</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>위메이드플레이(대표 이호대)는 모바일 퍼즐 게임 ‘애니팡2’의 리마스터 3.0 업데이트 사전예약을 실시한다고 10일 밝혔다.이번 사전예약은 23일까지 카카오 플랫폼을 통해 진행된다. 참여자에게는 프로필 공간을 꾸밀 수 있는 팡이 프로필, 테두리 등의 한정판 꾸미기 아이템과 루비, 스탬프, 번개팡 등이 제공된다.2020년부터 매년 진행돼 올해로 세번째를 맞이한 ‘애니팡2’의 이번 리마스터 업데이트는 게임 전반의 그래픽과 디자인 등 이용자 환경을 업그레이드하는 것이 특징이다. 화면 구성과 버튼 조작을 비롯해 주요 화면의 크기를 확대해 이용자 편의와 시각 효과를 새롭게 단장할 예정이다. 최신 모바일기기와 이용자 눈높이에 맞춰 완성도도 높인다.위메이드플레이 윤덕용 팀장은 “게임의 대대적인 업그레이드와 3년에 걸친 리마스터 프로젝트의 완성을 많은 분께 알리고자 행사를 준비했다”며 “기존 이용자에게는 새롭고 신선한 게임, 신규 이용자에게는 최신 유행에 걸맞은 게임을 선보이게 될 것”이라고 말했다.지난 2014년 1월 출시된 ‘애니팡2’는 1800만 건이 넘는 다운로드를 기록한 위메이드플레이의 모바일 퍼즐 게임이다. 스페이스, 아일랜드 등 2개 월드와 7400여 개 퍼즐 스테이지, 낚시왕과 그림일기, 스피드 그랑프리 등의 콘텐츠를 제공한다.◆스마일게이트 스토브, ‘센추리’ PC방 프리미엄 서비스 실시스마일게이트 스토브(대표 한영운)는 프랑스 게임사 플레이윙(대표 쥘리앙 푸르니알)이 개발한 PC온라인 슈팅 대전 게임 ‘센추리: 에이지 오브 애쉬즈’의 PC방 프리미엄 서비스를 시작했다고 10일 밝혔다.이번 PC방 프리미엄 서비스는 전국 스마일게이트 PC방 가맹점에서 이용할 수 있다. 이용자는 스마일게이트 PC방에서 최초 접속 시 윈드가드 영웅급 드래곤과 희귀 플레이어 아이콘, 경험치 부스터 3일, 주화 2000개, 젬 600개 등을 받는다. 또 플레이 시 ‘주화 6% 추가 획득’, 총 6개의 일일 미션 및 ‘보상 주화 200% 획득’ 혜택도 얻는다.스마일게이트 스토브는 ‘센추리’의 게임 플레이를 소개하는 라이브 방송과 영상도 선보인다. 10일 오후 3시 게임 스트리머 ‘천양’, 17일 오후 6시 스마일게이트의 버츄얼 스트리머 ‘세아 스토리’의 방송이 예정됐다. 방송을 통해 사전예약 쿠폰과 센추리 캐시 3만원 등의 혜택도 제공한다.스마일게이트는 PC방 드래곤 포착 이벤트도 실시한다. PC방에 설치된 센추리 포스터 및 등신대와 사진을 찍고 스토브 센추리 커뮤니티에 인증한 이용자들에게 1000 실버를 지급하고 추첨을 통해 10명에게 1만 센추리 캐시를 증정한다.  ◆펄어비스 ‘검은사막’, 요정 콘텐츠 개편펄어비스(대표 허진영)는 ‘검은사막’의 요정 콘텐츠 개편을 진행했다고 10일 밝혔다.‘요정’은 검은사막 이용자들의 원활한 게임 플레이를 돕는 기능이다. 다양한 버프 효과를 제공한다. 이번 업데이트를 통해 ‘요정’의 최대 레벨이 기존 40에서 50까지 높아졌다. 50 레벨 달성 시 기술 슬롯이 1칸 확장된다.버프 아이템을 자동으로 사용해주는 편의성 기능 ‘아낌없는 손길’도 추가했다. 이용자는 ‘아낌없는 손길’ 기능을 통해 정식, 영약, 비약, 주문서 등의 원하는 버프 아이템을 자동으로 사용할 수 있도록 설정할 수 있다. PvE, PvP, 생활용 등 이용자의 성향에 따라 자동으로 사용할 아이템 목록을 설정할 수 있는 프리셋 기능도 추가했다.8월 15일 광복절 기념 이벤트도 진행한다. 펄상점에서 이벤트 아이템을 815은화로 구매할 수있다. 8월 12일부터 15일까지 전투 경험치 400%, 기술 경험치 50%를 추가로 얻을 수 있는 핫타임 이벤트도 연다.8월 24일까지는 ‘어둠의 틈’에서 이벤트 우두머리 소환서 상자를 추가 제공한다. 우두머리 제압시 ‘우두머리의 기운’과 ‘응어리진 결정’을 3배까지 획득할 수 있다.◆넥슨 ‘블루 아카이브’ 신규 이벤트 스토리 ‘신춘광상곡 제68번’ 추가넥슨(대표 이정헌)은 자회사 넥슨게임즈(대표 박용현)가 개발한 서브컬처 게임 ‘블루 아카이브’에 이벤트 스토리 ‘신춘광상곡 제68번’을 업데이트했다고 10일 밝혔다.이번 스토리는 ‘아루’, ‘무츠키’ 등 ‘흥신소 68’ 학생들이 ‘키보토스’의 새해를 기념해 수많은 인파로 붐비는 새해맞이 행사장을 방문해 발생하는 사건을 담았다.신규 학생 ‘아루(새해)’와 ‘무츠키(새해)’도 추가했다. ‘아루(새해)’는 관통타입의 딜러로 ‘EX 스킬’ 사용 시 보유한 악행 1개 당 스킬 코스트를 획득하며 적 1인에게 공격력 비례 피해를 입히고 대상 주변에 적이 있을 경우 최대 11회 튕기면서 추가로 피해를 준다. ‘무츠키(새해)’는 신비타입 딜러로 아치형 범위 내 적에게 공격력 비례 피해를 주는 ‘EX 스킬’을 구사한다.또 ‘새해 전통 무늬 배경’, ‘새해 릴렉스 코타츠’ 등 새해 분위기를 담은 가구 15종도 선보였다.넥슨은 오는 8월 16일까지 게임에 접속한 모든 이용자에게 ‘청휘석 1200개’를 선물한다. 이벤트 스토리 및 퀘스트를 완료하면 ‘특제 신년 복주머니’를 획득할 수 있고 8월 30일까지 이를 활용해 ‘무츠키의 엘레프’, ‘카요코의 엘레프’ 등의 보상으로 교환할 수 있다.넥슨은 이벤트 스토리 업데이트를 소개하는 PV를 게임 공식 유튜브 채널에 공개했다. 해당 영상에서는 모종의 이유로 이른 아침부터 함께하게 된 ‘아루’와 ‘흥신소 68’ 멤버들, ‘세리카’의 색다른 모습을 확인할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.08.02.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>'네카라쿠배당토'는 신입 안 뽑는다? 그렇지 않은 '토스'</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000040072?sid=105</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>'2022 토스 NEXT 개발자 챌린지' 안내 이미지.(사진=토스)소위 IT업계를 이끄는 대표주자인 '네카라쿠배당토(네이버, 카카오, 라인플러스, 쿠팡, 배달의민족, 당근마켓, 토스)'가 MZ세대를 중심으로 '꿈의 직장'으로 떠오르고 있다. 하지만 일각에서는 네카라쿠배당토는 신입 혹은 경력이 길지 않은 직원은 뽑지 않는다는 소문이 있어 지원을 망설인다는 인재들이 종종 보인다는 의견이 존재한다. 사실일까?2일 토스 채용 담당자는 &lt;블로터&gt;에 "토스는 경력의 길이보다 지원자의 능력과 열정, 몰입도, 가능성 등을 더욱 중요하게 생각한다"고 밝혔다. 실제로 토스는 다양한 'NEXT' 시리즈를 통해 경력 3년 이하의 인재들을 적극적으로 공개 채용하고 있다. 올해 상반기에는 경력 3년 이하의 PO를 공개 채용하는 'NEXT PO' 전형을 실시했으며 경력 3년 이하의 개발자를 공개 채용하는 '2022 토스 NEXT 개발자 챌린지'의 접수를 오는 3일까지 받고 있다.'언어'까지 맞춰 신입 뽑는 토스…주니어 개발자 6000명 몰렸다토스는 신입 채용에 매우 전향적인 태도다. 토스에 따르면 2022 토스 NEXT 개발자 챌린지는 접수 일주일 째인 8월 1일 기준 지원자가 6000명을 넘어섰다. 토스 관계자는 "당초 최대 80명의 개발자 채용을 기획했으나 역량 있는 개발자라면 계획한 인원보다 더 모시는 방안을 적극적으로 검토할 계획"이라고 설명했다.올해 3년째를 맞은 'NEXT 개발자 챌린지'는 뛰어난 역량과 잠재력을 갖춘 경력 3년 이하의 개발자를 발굴하기 위해 기획됐다. 모든 지원자에게 온라인 코딩테스트에 참가할 수 있는 기회를 제공해 개발 경험이 전무해도, 전공이 다르더라도 도전이 가능한 것이 특징이다. 사전 서류 평가 없이 오로지 코딩 실력으로만 채용의 첫 단계 통과 여부가 결정된다.지원 방식이 간단한 것과 직무에 따라 사용 언어 선택이 가능하게 한 점도 돋보인다. 더 많은 인재들이 부담 없이 지원하고자 문을 활짝 열어 두려는 의도에서다. 지원자 중 총 50명에게 5만원 상당의 토스포인트를, 코딩테스트를 완료한 지원자들 중 총 20명을 추첨해 개발 지원금 100만원을 지급하는 등 다양한 지원자 대상 이벤트도 실시한다.토스 채용 담당자는 "토스는 NEXT 시리즈뿐만 아니라 포트폴리오 없이 과제 전형으로 진행되는 '프로덕트 디자이너 챌린지', 채용팀 및 데이터분석팀에서의 인턴십 실시, 개발자 양성을 위한 부트캠프와의 협업 등 토스 커뮤니티에 합류하고자 하는 지원자들의 능력과 열정을 확인할 수 있는 노력을 다방면에서 기울이고 있다"고 전했다.뽑으면 책임지고 키운다…'온보딩' 프로그램도 가지각색이렇게 뽑은 새내기 인재에게는 역량을 최대로 이끌어낼 수 있도록 책임지고 키우는 과정이 뒤따른다. 이런 과정을 '온보딩'(신입 사원이 조직 구성원이 되기 위해 필요한 지식, 기술, 행동을 교육하는 과정)이라 일컫는다.배달의민족 운영사 우아한형제들은 올 상반기 프로덕트 매니저(PM), 사업기획 등 분야에서 채용전환형 '우아한인턴'을 모집했다. 우아한인턴 과정은 멘토링을 통해 현업과 밀접한 과제를 수행하면서 실무 역량과 협업 능력을 향상시킬 수 있는 프로그램들로 구성됐다. 인턴들의 적응을 돕고 직무 이해도를 높일 수 있는 다양한 교육들도 함께 준비했다.인턴 합격자를 대상으로 자기 성장에 도움이 되는 책을 자유롭게 구매할 수 있는 도서상품권, 배민 앱에서 사용 가능한 웰컴쿠폰, 업무에 필요한 사무용품으로 구성된 웰컴키트, 월 10만원의 재택교육지원금 등의 특전을 내걸었다. 특히 대학 졸업 예정자의 경우 졸업 직후 정규직 입사를 조건으로 잔여 1학기 등록금에 준하는 장학금도 지원하기로 했다.라인(LINE)의 경우 신입 직원들을 위한 온라인 입문 교육 과정을 마련했다. 라인 메신저 및 라인 그룹콜 등 다양한 채널로 선배들과 회사 및 조직, 조직별 업무 프로세스와 스킬, 네트워킹에 대해 쌍방향으로 소통할 수 있도록 했다. 당근마켓 역시 인턴십 프로그램에 참여하는 예비 개발자를 실제 당근마켓 개발팀에 소속시키고 자사 전문가들과 호흡을 맞출 수 있도록 하고 있다.토스는 체계적인 육성책이 돋보인다. 토스에는 입사 첫 3개월 동안 '메이트'라는 제도를 활용해 궁금한 사항을 모두 물어볼 수 있다. 주니어 개발자도 손쉽게 개발할 수 있도록 다양한 온보딩 문서를 마련했다. '토스 인터널'이라는 내부 플랫폼을 마련해 도메인 지식(특정 영역에 축적된 지식)을 용이하게 습득할 수 있도록 했다.긴 호흡 가져가는 '네카라쿠배당토'…신입 채용 병행이 더 유리한 이유이들 주요 IT기업들이 신입을 채용하고 육성하는 건 사회공헌용 겉치레가 아니라 전략적인 판단으로 풀이된다.이른바 '네카라쿠배당토'는 이미 시장에서 핵심 제품의 사업성을 인정받고 수익 모델을 심화하는 단계다. 투자 회차 역시 상당히 진행됐다. 토스는 지난달 시리즈G 브릿지로 진행한 투자에서 기업가치 8조5000억원을 인정받고 3000억원 투자 유치를 확정했다. 이달 추가 신규투자가 예정됐다. 당근마켓은 지난해 8월 시리즈D 투자에서 1789억원의 자금을 유치, 기업가치 3조원을 인정받았다. 당장 쓸 인재가 급해 신입을 키울 여력이 없는 수준은 아니다.토스는 인터넷은행(토스뱅크), 증권업(토스증권) 등 긴 호흡으로 금융업이라는 거대시장에 도전하고 있는 상황이다. 현 시점에서 유망한 신입을 키우는 게 장기적인 사업을 위해서도 유리하다.'입도선매(立稻先賣)' 개념으로도 볼 수 있다. 중소벤처기업부에 따르면 2021년부터 2025년까지 수급차로 인해 부족한 개발자 인력이 최소 4만명이다. 신입 채용을 병행하는 것이 수급차 극복과 함께 비용적인 측면에서도 효율적이다. 이는 보험사가 안정적으로 보험금을 지급하기 위해 자산 포트폴리오에 '장기 채권'을 채우는 것과 비슷한 이치라 할 수 있다. 지난해까지는 개발자 유치 경쟁이 치열했지만 올 들어서는 전 세계적인 긴축 영향으로 스타트업 투자시장도 위축된 상황이다. 채권 투자가 경기가 불황일 때 유리하듯, 신입 채용도 마찬가지다.한편 국가공무원 공채 시험 경쟁률은 해마다 낮아지고 있다. 최근 인사혁신처가 발표한 자료에 따르면 올해 9급 국가공무원 시험 경쟁률은 29.2 대 1로 최저치를 기록했으며 7급 국가공무원 공채 시험 경쟁률도 42.7 대 1로 43년 만에 최저 수준을 보였다. 2006년부터 2020년까지 통계청 발표 기준 13~34세 청년이 가장 근무하고 싶은 직장으로 줄곧 1위를 차지했던 공무원의 인기가 시들해지는 추세다. 커리어테크 스타트업 '퍼블리'의 조사에 따르면 업무를 통한 성장을 중요시하는 MZ세대는 자기주도적인 근무환경을 선호하며, 직무 적성을 적극 살릴 수 있는 기업에서 다양한 복지 혜택을 누리기를 희망하는 것으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>파낙토스, 뇌파계 의료기기 '뉴로하모니M2' 출시</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003035621?sid=102</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>파낙토스 뇌파계 의료기기 뉴로하모니M2뇌과학 전문기업 파낙토스는 식약처로부터 뇌파 측정 장치인 '뉴로하모니M2'를 뇌파계 의료기기로 정식 인증을 받아 본격 판매에 돌입했다고 8일 밝혔다.뉴로하모니M2는 뇌파 진단 및 훈련에 사용이 가능하며 블루투스 방식의 무선 연결이 가능한 2채널 뇌파계 의료기기로서 24 Bit 디지털 분해능과 250 Hz 샘플링 주파수의 성능을 가지고 있다.뉴로하모니M2는 이마 부위인 전전두엽에서 뇌파를 측정하기 위해 밴드 형태로 되어 있고, 24K 순금을 도금한 건식 전극은 탈부착 방식으로 되어 있어 교체가 가능하다. 따라서 습식전극을 사용하지 않아 간편하게 뇌파 측정이 가능하다.또한 탄성을 높인 밴드의 전면 부위는 이마 피부에 전극이 정확하게 부착되고, 뇌파가 정밀하게 측정되도록 돕는다. 밴드의 형태가 접이식으로 돼 있어 휴대하기도 용이하다.뇌파측정 프로그램 '뉴로스펙MD'는 실시간 뇌파 측정과 저장이 가능하고, 측정 중에 원시 뇌파뿐만 아니라 푸리에 변환한 데이터를 동시에 볼 수 있도록 해 뇌파 판독이 쉽게 이루어질 수 있도록 하는 것이 특징이다. 측정한 뇌파 데이터는 파일로 저장할 수 있으며, 다양한 신호분석 알고리듬으로 정밀하게 분석할 수 있는 기능들을 제공한다.파낙토스 측에 따르면 이번에 출시한 뉴로하모니M2는 국내 병원을 대상으로 본격 납품하고 있다. 또한 현재 훈련 프로그램도 의료기기 인증을 진행 중에 있다.회사 관계자는 "의료기기 시장 고객들의 니즈에 선제적으로 부응하기 위해 제품의 기술 혁신을 하고 있다. 뉴로하모니M2 출시를 통해 의료 서비스를 위한 새로운 기틀을 마련했다는데 의미가 크며 더욱 우수한 제품과 기능을 선보이도록 하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.08.12.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>"금융권 진출 막아달라"…알뜰폰 사업자들, 금융위에 '반대' 의견 전달</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004087148?sid=105</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>알뜰폰협회, 금융위 방문해 우려 표명금산분리 완화 전 공정경쟁 마련 촉구[서울경제] KB국민은행에 이어 토스가 알뜰폰 사업 진출을 선언하고 금융당국에서도 금산분리 완화 기조를 내세우면서 알뜰폰 사업자들의 반발이 거세지고 있다.재작년 서울 서대문구 알뜰폰 스퀘어에서 열린 개소식에서 관계자들이 축하하고 있다. /연합뉴스12일 한국알뜰통신사업자협회(KMVNO)는 지난 10일 금융위원회를 방문해 알뜰폰 사업자들의 금융기관 알뜰폰 사업 진출 반대 의견을 전달했다고 밝혔다.협회는 "막강한 자본력의 거대 금융기업이 도매대가 이하의 파격적인 요금제와 과도한 경품 및 사은품으로 다른 알뜰폰 사업자들의 가입자를 유인해 가도 속수무책으로 당하기만 할 뿐"이라고 했다.이어 "모든 은행이 알뜰폰 사업을 영위할 수 있도록 금산분리 규제를 완화하고자 한다면 알뜰폰 사업의 경쟁력 강화 및 공정경쟁 제도 보완이 필요하다"며 "전기통신사업법 제38조 개정 등 금융기관들이 자본력을 경쟁의 수단으로 활용해 가입자를 빼가는 불공정한 행위를 막을 수 있는 제도적 장치 구축을 먼저 추진해야 한다"고 말했다.또한 "공정경쟁 체제 구축 전에는 금융권의 알뜰폰 사업 진입을 불허해야 한다"며 "앞서 진출한 사업자들은 이미 자본력을 경쟁의 무기로 앞세워 기존 사업자들의 설 자리를 위협하고 있다"고 지적했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>하이브랩 비나 공유오피스 드림스테이션 “베트남 진출 한국 IT기업 안착 지원”</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004879482?sid=105</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>하이브랩 비나(HIVELAB VINA), 한국 기업 성공적 베트남 진출 위한 법무, 마케팅, 물류 등 지원네이버, 바바리퍼플리카 입주...현지 안정화 위한 허브 역할 톡톡  지난 해 10월부터 코로나 19에 따른 베트남 봉쇄가 완화되면서 우리나라 관련 산업도 활기를 띄고 있다. 우리나라와 수교 30년째를 맞이한 베트남은 우수 IT 인력이 넓게 포진되어 있는 세계적 IT 아웃소싱 시장인 만큼 국내 유망 기업들도 하노이, 호치민 등으로 활발한 진출을 이어가는 중이다.   특히 최근 베트남 정부가 클라우딩, 인공지능, 핀테크 등 8개 IT 업종을 집중 육성 분야로 설정하면서 한국 IT, 스타트업 기업들을 대상으로 관심과 투자를 향한 러브콜이 지속되는 모양새다. 이 같은 흐름 속 하이브랩은 지난 2018년 하노이에 현지법인 ‘하이브랩 비나(HIVELAB VINA)’를 설립하며 베트남 IT 아웃소싱 수요를 겨냥하고 나섰다.     베트남 로컬 IT 비즈니스 네트워크를 강화하고 한국 스타트업의 베트남 진출을 서포트하기 위하여 설립된 공유오피스 ‘드림스테이션(Dream Station)’으로 서비스를 확장하면서 국내 IT 기업들의 운영과 시장 진출을 위한 서포트 역할을 이어가고 있는 중이다.   지난 2019년부터 운영되고 있는 드림스테이션은 단순한 공간 제공에서 벗어나 진출 초기 단계부터 법무, 노무, 회계, 마케팅, 물류 등 각종 법률과 관련하여 검증된 컨설팅을 제공하며 기업들을 돕고 있다. 실제로 국내 대표 기업 ‘네이버’와 토스를 운영 중인 ‘바바리퍼블리카’가 최근 입주하는 등 국내외 기업 입주율 90% 이상을 유지하면서 베트남 현지 진출을 위한 가교 역할에 성공했다는 평을 받았다.   하이브랩 비나 공유 오피스 드림스테이션은 약 500평 규모(전용면적 463평)의 공간으로 국내 인테리어 기업이 설계와 시공을 맡아 탄생했다. 하노이 핵심 번화가 위치로 메이저 호텔, 주상복합 쇼핑몰, 은행, 투자청 등 금융 및 행정 시설이 인접하여 높은 접근성과 네트워킹에 유리한 환경을 갖췄다.    관계자에 따르면 최대 50명 수용이 가능한 대형 컨퍼런스룸을 비롯해 다수의 중소형 미팅룽, 폰부스, 침실(Nap room)이 구비되어 있으며, 바리스타가 제공하는 DS 커피 등의 차별화된 서비스로 입주사들의 만족도를 높였다.   하이브랩 비나 서혜성 법인장은 “베트남에 진출한 한국기업들 중에는 검증되지 않은 경로로 유입되는 정보 속에서 잘못된 선택을 하는 경우도 적지 않다”며 “하이브랩은 비나를 설립 후 현재 70명 현지 IT 전문인력을 채용하는 등 안정적인 사업 운영 경험을 바탕으로 분야별 컨설팅 파트너사들과의 협력을 통한 안정적인 사업정착을 지원하고 있다”고 전했다.   또한 “드림스테이션은 한국 기업의 허브 역할로 앞으로도 베트남 로컬IT 비즈니스 네트워크 강화하고 베트남 초기 진출에 어려움을 겪는 한국 기업을 지원하는 교두보 역할을 해 나가겠다”고 포부를 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>소비자원 “간편결제 종합만족도, 삼성페이가 1위”</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004877261?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>한국소비자원 제공.[파이낸셜뉴스] 간편결제 서비스 종합만족도 조사 결과 삼성페이가 가장 높은 점수를 받았다. 3일 한국소비자원은 간편결제 서비스 상위 5개 사업자(삼성페이·네이버페이·카카오페이·토스페이·페이코 등)에 대한 소비자 만족도 및 이용실태 조사 결과를 이 같이 밝혔다.   간편결제는 금융인증서, 비밀번호 입력 등 기존의 복잡한 결제 단계를 거치지 않고 생체인증(지문 인증)과 간편비밀번호, 스마트폰 접촉 등 최소 인증으로 결제하는 서비스다.   지난 5월 10~17일 소비자원은 간편결제 서비스 이용경험자 1500명(5개 사업자 각 300명)을 대상으로 5월 온라인 설문조사를 진행했다. 만족도 조사엔 부문별 가중 평균(5점 리커트 척도)을 적용했다. 95% 신뢰수준에서 표본오차는 ±2.53%p다.   5개 사업자 서비스 종합만족도는 평균 3.85점으로 집계됐다. 사업자별로는 삼성페이(4.06점)가 가장 높았고 △네이버페이(3.89점) △토스페이(3.86점) △카카오페이(3.78점) △페이코(3.67점) 순이다.   간편결제 서비스상품 요인별 만족도는 결제 편의성·정확성이 4.29점으로 가장 높았다. 혜택·부가서비스는 3.85점으로 가장 낮았다. 소비자원은 할인·포인트 등의 제공과 결제 서비스 외 송금·입출금 등 부가서비스 개선이 필요하다고 진단했다. #삼성페이 #카카오페이 #소비자원 #네이버페이 #토스페이</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>한국투자증권, 토스뱅크와 자산관리 투자상품광고 업무협약 체결</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002025552?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>김성환 한국투자증권 개인고객그룹장(사진 왼쪽)과 홍민택 토스뱅크 대표(오른쪽)가 업무협약 체결 후 기념사진을 촬영하고 있다.[한국투자증권 제공][헤럴드경제=윤호 기자]한국금융지주 자회사 한국투자증권(사장 정일문)은 디지털금융 혁신과 투자상품에 대한 고객 경험 강화를 위해 토스뱅크(대표 홍민택)와의 업무협약(MOU)을 체결했다고 8일 밝혔다.서울 여의도 한국투자증권 본사에서 열린 이번 협약식에는 김성환 한국투자증권 개인고객그룹장과 홍민택 토스뱅크 대표가 참석했다. 한국투자증권은 이번 업무협약을 통해 토스뱅크 고객을 대상으로 주식뿐 아니라 고객성향에 따른 투자 전략을 제시하는 등 체계적인 디지털 자산관리 서비스를 제공하기로 했다. 토스뱅크는 한국투자증권의 투자상품을 고객에게 소개하는 광고 업무를 추진할 계획이다.김성환 한국투자증권 개인고객그룹장은 “디지털 환경에 익숙한 토스뱅크 고객들에게 한국투자증권만의 자산관리 노하우를 제공하게 됐다”며 “고객들의 생애주기에 맞는 맞춤형 투자상품을 제안하고, 효율적인 자산배분 포트폴리오를 추천하는 등 디지털 자산관리 영역을 더욱 확장시켜 나갈 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.08.15.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>모바일 학생증 결제, 신한은행 안 되고 우리은행은 되네</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000040249?sid=105</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>우리은행이 출시한 연세페이는 '지갑없이 한 번에 해결'을 캐치프레이즈로 내세운다.(사진=연세대학교)이제 연세대학생은 편의점을 간단히 다녀올 때 학생증 체크카드를 실물로 가지고 다니지 않아도 된다. 우리은행이 모바일 학생증 앱에 결제 기능까지 지원하면서다. 신한은행이 대학생 커뮤니티 '에브리타임'과 비슷한 서비스를 표방한다면, 우리은행은 본업인 금융 서비스에 특화해 대학생 고객을 선점하려는 전략의 차이가 엿보인다.15일 업계에 따르면 우리은행은 연세대학교 학생증 애플리케이션에 간편결제, 간편송금 서비스를 탑재한 '연세페이' 서비스를 정식 출시했다.이는 우리은행과 우리카드의 '통합결제 플랫폼'을 기반으로 한다. 통합결제 플랫폼은 기존 '우리페이' 서비스를 고도화한 것이다. 우리페이는 온라인 결제와 함께 바코드, QR코드 등 다양한 오프라인 결제 방식을 지원한다. BC카드, 간편결제 서비스인 페이코(PAYCO) 가맹점에서 결제할 수 있다. CU, GS25, 세븐일레븐 등 편의점을 비롯해 파리바게트, CGV 등 대형 프랜차이즈 등에서 사용 가능하다.신한은행도 대학생 고객을 대상으로 한 모바일 플랫폼인 '헤이영 캠퍼스'를 운영하고 있다. 앱 하나로 △모바일 학생증 △전자출결 △학사행정 △도서관 이용 △커뮤니티 기능 등이 가능하다. 그러나 아직까지 연세페이와 같은 금융서비스는 이용할 수 없다. 신한은행 관계자는 &lt;블로터&gt;에 "아직 (헤이영 캠퍼스에)금융서비스를 할 계획은 없다"며 "페이 서비스가 학생들의 이용을 활성화하는 주요한 요인은 아니라고 보고 있다"고 설명했다.반면 우리은행은 '금융사가 잘할 수 있는 서비스'에 집중하는 모습이다. 앞서 우리은행은 지난해 네이버와 함께 연세대학교 전용 스마트캠퍼스를 구축하기로 협약을 맺은 바 있다. 네이버도 마찬가지로 본업인 정보통신기술(ICT)을 활용해 완성도 높은 스마트캠퍼스 서비스를 선보였다.네이버는 최근 재학생이 오프라인에서 도서관 출입, 도서 대여 등을 이용할 수 있는 '네이버 연세대 학생동문인증' 서비스를 시작했다. 학번, 네이버 인증서로 간편하게 동문 인증을 진행할 수 있으며, 재학생은 QR코드로 캠퍼스 도서관 출입 및 도서 대여가 가능하다.연세대 스마트캠퍼스 구축에 우리은행과 네이버 각사가 명확히 역할 분담을 한 것은 이미 시장에 상용화된 서비스들보다 비교우위를 안정적으로 가져가기 위한 전략으로 풀이된다. 광고·마케팅 솔루션 기업 앱스플라이어의 보고서에 따르면 지난 2020년 3분기 한국의 앱 설치 후 30일차 잔존율은 약 4.06%로 나타났다. 선진국일수록 앱 시장이 크고 경쟁이 치열해 잔존율 확보가 어렵다.신한은행의 헤이영 캠퍼스는 현재 구글 플레이스토어에서 다운로드 수가 1만건 이상으로, 100만건 이상을 기록하고 있는 에브리타임에 크게 못 미친다. 다만 헤이영 캠퍼스가 협력 대학 수를 늘리고 주목할 만한 서비스를 내놓는다면 상황은 달라질 수 있다.헤이영 캠퍼스 대표 이미지.(사진=신한은행)네이버와 우리은행이 완성도 높은 서비스들로 연세대 학생들에게 침투율을 높일수록, 커뮤니티 플랫폼 구축이라는 모험수를 두지 않고도 미래고객을 선점하는 성과를 거둘 수 있다는 분석이다.특히 우리금융그룹은 수익 다각화를 위한 핵심 사업으로 간편결제를 꼽고 있다. 이제 예·적금, 펀드, 보험 등의 서비스는 은행 등 기성 금융사의 전유물이 아니다. 카카오페이를 통해 펀드를 가입하거나 토스뱅크를 통해 투자상품을 소개받고 가입할 수 있게 됐다. 빅테크가 금융사 고유의 영역에 진출한다면, 반대로 우리금융은 핀테크 사업에서 기회를 엿보고 있는 것이다.우리은행과 우리카드는 급성장하고 있는 간편결제 시장에서 경쟁력 확보는 물론, 그룹 자회사간 시너지 제고를 위해 그룹 통합결제 플랫폼을 오픈했다. 간편결제란 은행 계좌나 신용카드를 스마트폰 애플리케이션 등에 등록해 지문인식이나 비밀번호 입력만으로 비용을 지불하는 서비스다.우리금융그룹 통합결제 플랫폼은 이러한 간편결제의 본질에 집중해 누구나 쉽게 이용할 수 있는 개방성뿐만 아니라 간편결제의 편의성을 한층 강화했다. 우리은행 계좌나 우리카드를 보유하고 있지 않은 개인고객도 우리은행 우리WON뱅킹이나 우리카드 애플리케이션에서 그룹 통합결제 플랫폼을 간편결제 수단으로 이용할 수 있다.연세페이처럼 향후 우리금융그룹과 제휴한 기업별로 그룹 통합결제 플랫폼을 커스터마이징(customizing)해 지속적으로 다양한 결제 서비스를 제공할 예정이다. 우리금융그룹 관계자는 "손태승 우리금융 회장이 '자회사 본업 경쟁력 강화와 그룹 시너지 제고'를 올 하반기 과제로 강조한 바 있다"며 "이번 통합결제 플랫폼 출시로 고객의 편의성을 높여 간편결제 시장에서 경쟁력 강화 및 신규 고객 확대에도 크게 기여할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>간편결제서비스 종합만족도 1위는 '삼성페이'…소비자원 조사</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006256202?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>삼성페이&gt;네이버페이&gt;토스페이&gt;카카오페이&gt;페이코 순주요 피해 유형은 '결제 실패' '결제취소 지연'ⓒ 뉴스1(서울=뉴스1) 김민석 기자 = 비대면 소비가 증가함에 따라 쉽고 빠른 간편결제 시장이 커지는 가운데 종합만족도는 삼성페이가 가장 높았다.한국소비자원은 간편결제 서비스 상위 5개 사업자(삼성페이·네이버페이·카카오페이·토스페이·페이코 등)에 대한 소비자 만족도 및 이용실태를 조사한 결과 이같이 조사됐다고 3일 밝혔다. 간편결제 서비스는 기존의 공인인증서 등 복잡한 결제 단계를 거치지 않고 생체인증(지문 인증)과 비밀번호, 스마트폰 접촉 등 최소한의 인증만으로 결제하는 방식이다.소비자원은 간편결제 서비스 이용경험자 1500명(사업자별 300명 할당)을 대상으로 5월10일부터 17일까지 온라인 설문조사를 실시했다. 만족도는 부문별 가중 평균(5점 리커트 척도)을 적용했다. 95% 신뢰수준에서 표본오차는 ±2.53%p다.5개 사업자 서비스 종합만족도는 평균 3.85점으로 집계됐다. 사업자별로는 삼성페이(4.06점)가 가장 높았고 △네이버페이(3.89점) △토스페이(3.86점) △카카오페이(3.78점) △페이코(3.67점) 순이다.한국소비자원 제공ⓒ 뉴스1부문별 만족도는 상품 및 본원적 서비스에 대해 평가하는 '서비스상품 만족도'가 4.04점(5개사 평균)으로 가장 높았다.  서비스 제공 과정 전반에 대해 평가하는 '서비스품질 만족도'는 3.82점, 소비자가 서비스를 체험하면서 느낀 주관적 감정에 대한 평가인 '서비스체험 만족도'는 3.55점으로 조사됐다.서비스품질 요인별 만족도는 시스템과 서비스의 일관성을 평가하는 신뢰성이 4.05점으로 가장 높았다. 고객 문의와 문제 해결에 대한 적절하고 신속한 대응을 평가하는 대응성은 3.59점으로 상대적으로 낮았다.간편결제 서비스상품 요인별 만족도는 '결제 편의성·정확성'이 4.29점으로 가장 높았다. '혜택·부가서비스'는 3.85점으로 낮아 개선이 필요했다.서비스상품 요인 중 '결제 편의성·정확성'은 삼성페이 '취소·환불 용이성'은 네이버페이 '혜택·부가서비스'는 토스페이가 가장 높은 점수를 받았다. 간편결제 서비스의 소비자피해 경험에 대한 설문에서는 조사대상 1500명 중 15.6%(234명)가 피해 경험이 있다고 응답했다.주요 소비자피해 유형은 결제 실패가 51.7%(121명·이하 복수응답)로 가장 많았고 △환불·결제취소 지연 31.2%(73명) △할인·포인트적립 미적용·누락 17.1%(40명) 등 순이었다. 이중 이의제기를 하지 않았다는 소비자는 61.5%(144명)에 달했다. 간편결제 주요 사용처는 △온라인 쇼핑몰 69.2%(1038명) △편의점 12.5%(188명) △대형마트 6.6%(99명) △중소형마트·슈퍼마켓 5.5%(82명) 등이다.한편 소비자들은 10회 결제 중 5.21회는 간편결제를 이용하는 것으로 조사됐다. 이는 실물 신용·체크카드(3.54회) 이용 빈도보다 높다.소비자원 관계자는 "최근 실물 지급수단 없이 결제 가능한 간편결제 방식을 소비자들이 선호하고 있다"며 "사업자들이 서비스를 개선할 수 있도록 맞춤형 정보를 제공할 예정"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.08.04.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>공공기관-금융기관 데이터 공유…별도제출 서류 줄어든다</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002601224?sid=102</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>행안부 ‘공공 마이데이터 서비스’은행계좌 개설 등에 필요 95종 서류개인 동의땐 기관 간 정보 주고받아게티이미지뱅크행정·공공·금융기관 서비스를 이용할 때 본인이 직접 발급받아 제출해야 하는 구비서류가 줄어든다.행정안전부는 5일부턴 예금·적금 계좌 개설과 학자금 지원 신청을 할 때도 ‘공공 마이데이터 서비스’를 이용할 수 있다고 4일 밝혔다. 이 서비스는 공공기관과 행정기관이 발급하는 각종 서류를 본인이 직접 발급받아 제출하는 대신, 해당 서류를 요구하는 기관에 정보 제공 동의를 하면 서류 발급 기관이 직접 요구 기관에 정보를 제공하는 서비스다. 이번에 추가된 서비스는 일부 시중 은행의 예금·적금 가입, 퇴직연금 가입 등 금융서비스를 비롯해 한국장학재단에서 주는 국가장학금, 학자금대출 서비스 등이다.예컨대, 치킨집 사장 ㄱ씨가 은행에서 금리가 높고 수수료가 적은 개인사업자 우대통장을 개설하려면 지금은 사업자등록증명, 부가가치세 과세표준증명 등을 세무서에 가거나 국세청 홈택스 서비스에 들어가 발급받은 뒤 직접 은행 창구에 제출해야 하나, 앞으론 서비스 제공 은행 창구에서 정보 제공 동의 등 절차를 거치면 은행 직원이 국세청 전산망에서 관련 증명을 받게 되는 것이다.아직은 서비스 제공 초기라 제공되는 서류의 종류는 주민등록 등본·초본, 장애인증명서 등 95종에 그친다. 또 이 서비스를 이용할 수 있는 기관과 업무도 제한적이어서, 외교부에선 여권 발급 때만 관련 서비스를 이용할 수 있다. 서비스 금융기관은 우리은행, 에스시(SC)제일은행, 아이비케이(IBK)기업은행, 대구은행, 토스뱅크, 케이뱅크, 웰컴저축은행 등이다. 행안부는 서비스 제공 기관을 계속 늘려나갈 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.08.07.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>플랫폼 업계, 개발자 코딩 인증 배지 트렌드…채용 효율화</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003035393?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>토스, 요기요, 번개장터 등 배지 부여받은 참가자에게 서류전형 우대 혜택게티이미지뱅크개발자에게 인증 배지를 부여하는 플랫폼이 부상하고 있다. 개발자 채용 시 인증 배지를 확인, 코딩 시험 절차를 간소화하는 채용 절차가 트렌드로 자리매김한 영향이다.원티드랩은 '쇼미더코드' 코딩 테스트 대회를 개최해 일정 점수 이상을 획득하면 등급 배지를 부여한다. 개발자 알고리즘과 프로그래밍 언어에 대한 기초 역량을 평가해, 통과하면 3개월간 원티드랩 홈페이지에 올라간 이력서에 '금손·은손 배지'를 달아준다. 실제 채용 전형에서 코딩 테스트 단계를 생략 또는 간소화할 수 있으며 참가자는 배지를 통해 이력서의 경쟁력을 강화할 수 있다는 설명이다. 토스, 요기요, 번개장터, 와디즈 등 다수 기업에서 배지를 부여받은 참가자에게 서류전형 우대 혜택을 제공 중이다.그렙은 프로그래머스 채용 프로그램인 '데브매칭' 코딩테스트와 과제 테스트에서 직군 별 상위 5%의 우수한 성적을 거둔 개발자에게 '탑프로그래머스' 인증 배지를 부여한다. 탑프로그래머스를 통해 입사한 개발자에게는 사이닝 보너스 100만원을 지급하는 등 해당 테스트에 대한 업계의 신뢰도는 높다.엘리스는 개발자 양성 과정인 '엘리스 트랙'을 통해 교육생 중 일정 기준을 통과한 사람에게는 수료증을 제공한다. 교육에 활용되는 커리큘럼은 모두 엘리스에서 자체 제작한다. 개발자 협업 툴인 'Git'를 이용해 세 차례 팀 프로젝트를 실시하며 현업 개발자가 코치로 참여해 프로젝트 코칭 및 코드 리뷰를 진행한다. 전체 교육 과정 중 80% 이상 참여하면 수료증을 받을 수 있다. 신입 개발자 역량을 갖췄다는 인증을 할 수 있는 수단으로 작용, 삼성전자, 네이버, 카카오, 넥슨, 넷마블, 마켓컬리, 번개장터 등 국내 유수 기업에서 엘리스 트랙 교육생을 채용 중이다.이같은 트렌드가 자리매김한 이유는 높아지는 개발자 코딩 실력에 점점 기업이 자체적으로 코딩 테스트를 만들기 어려워지기 때문이다. 개발직군 채용 시 진행하는 코딩 테스트는 기업이 요구하는 최소한의 역량을 평가하겠다는 의미가 크다. 하지만 최근 다수 기업이 개발자 채용을 동시다발적으로 진행하며 테스트를 여러 번 경험한 개발자가 많아져 실력이 상향 평준화됐다. 개발자 커뮤니티 내에서도 특정 기업의 코딩 테스트 기출문제가 돌아다니며 새로운 테스트를 짜야 한다는 부담이 증가했다. 이에 기업은 코딩 전문 기업이 부여한 인증을 통해 변별력을 확대하려 시도 중이다.기업은 배지 및 수료증 인증을 통해 채용에 소요되는 시간과 비용을 절감할 수 있다. 아울러 채용을 진행하는 내부 개발자 인력도 본래 업무에 더 집중할 수 있게끔 돕는다. 개발자 또한 다수 기업에 지원하면서 매번 코딩 테스트에 시간을 할애하지 않아도 된다.업계 관계자는 “다년간 코딩 테스트를 개발한 코딩 전문 기업의 배지나 수료증에 대한 신뢰도가 업계 전반적으로 높은 편”이라며 “기업에서 원하는 역량에 맞춰 교육이나 테스트까지 설계할 수 있어 앞으로 많은 기업이 개발자 채용 시 이용하게 될 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.08.09.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>[홍길용의 화식열전] IT투자에 소홀한 증권사, 고객이 ‘호구’인가</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002026410?sid=110</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>급여·복리후생은 늘리면서전산관련 비용지출은 줄여비대면 비용절감 회사 독식사고 나면 고객·주주에 피해내부통제 차원의 감독 필요금융서비스에서 고객과의 접점이 비대면으로 빠르게 바뀌고 있다. 고객도 편해졌지만 금융회사 입장에서는 점포비용과 인건비 등 고정비 부담을 크게 줄었다. 양질의 서비스를 저렴하게 제공하는 게 금융회사의 경쟁력이 됐다. 정보통신기술(IT)이 중요해졌다.금융업 가운데 비대면이 가장 빠르게 진행된 곳이 증권이다. 투자자들이 지점을 굳이 찾지 않고 홈트레이딩시스템(HTS)으로 거래하는 시대가 도래한 지가 20년이 넘는다. 최근에는 스마트폰을 이용한 모바일트레이딩시스템(MTS)이 대세다. 거래가 편해진 만큼 빈도도 잦아졌다.요율이 낮아졌지만 절감된 고정비와 증가한 거래대금으로 중개수수료는 여전히 증권사들의 주요 수익원이다. 거래 처리를 대가로 수수료를 받는 증권사들은 고객의 투자손익보다는 거래규모와 횟수가 중요하다. 거래 처리의 수단이자 고객과의 접점인 IT에 대한 증권사들의 씀씀이가 너무 인색하다.금융감독원의 금융통계를 보면 증권사들의 순이익은 2011년 1조4590억원에서 2021년 8조4500억원으로 6배 가까이 커졌다. 영업규모가 커지면서 판매관리비도 이 기간 5조1930억원에서 11조6010억원으로 2배 이상 늘었다.판관비 항목별로 보면 급여와 복리후생비가 2조8000억원에서 7조2210억원으로 2.6배 급증한 반면 전산운용비는 3410억원에서 6220억원으로 채 2배가 늘지 못했다. 판관비 가운데 전산운용비 비율도 2013년 7.4%를 정점으로 내리막을 타면서 지난해에는 5.4%까지 추락했다.특히 8일 전산 사고가 난 한국투자증권을 보면 2011~2021년 기간에 순이익은 1810억원에서 9620억원으로 5.3배 불어났다. 판관비는 3670억원에서 9200억원으로 2.5배 늘었다. 순이익과 판관비 증가폭이 모두 업계 평균에 미치지 못한다. 급여와 복리후생비는 2100억원에서 5950억원으로 2.8배 폭증하며 업계 평균을 웃돌았다. 전산운용비는 2011년 330억원인데, 지난해에도 역시 330억원이다. 2019년과 2020년에는 190억원과 290억원으로 10년 전보다도 적다. 판관비 대비 전산운용비 비율은 3.6%로 업계 평균에 못 미친다. 결국 소홀함이 사고로 이어진 셈이다.비단 한국투자증권뿐 아니다. 주요 대형증권사의 지난해 전산운용비를 보면 삼성증권이 822억원으로 가장 많고, 이어 키움증권 764억원, 미래에셋증권 667억원 순이다. 신한금융투자와 NH투자증권이 각각 311억원, 309억원이다. 300억원 이상 쓴 증권사가 6곳뿐인 셈이다. 대형금융그룹 소속인 KB증권, 하나증권은 각각 244억원, 177억원을 썼다. 금융감독원 통계에 잡히는 47개 증권사 가운데 연간 100억원 이상을 쓰는 곳은 16곳뿐이다.지난해 토스증권과 카카오페이증권이 쓴 판매관리비는 각각 83억원, 76억원이다. 이중 전산운용비는 각각 57억원과 9억원이다. 판관비에서 차지하는 비중이 68%, 12%에 달한다.접점이 대면에서 비대면으로 바뀌더라도 고객 서비스가 유지돼야 금융회사는 그에 대한 적절한 대가를 받을 수 있다. 결국 IT기술이 중요하다. 지금의 IT기술은 예전 전산실에서 하던 지원 업무 수준이 아니다. 고객과 만나는 최전선이다. 이제는 금융뿐 아니라 모든 기업에 IT는 필수다. IT를 홀대한다면 고객을 소홀히 여기는 것과 같다. 예전 금융회사의 투자는 사람에 집중됐지만, 이제는 IT관련 투자가 중요해졌다. 빅데이터와 인공지능(AI) 기술이 금융회사의 핵심경쟁력이 되는 시대다. 금융회사들도 이제 연구개발(R&amp;D) 투자 차원에서 IT에 접근할 때다.금융감독당국도 이제 금융회사들의 전산 부분을 내부통제 관점에서 접근할 필요가 있다. 불완전판매도 고객에 피해를 주는 위법이지만, 전산 장애로 인한 고객 불편도 결국 금전적 손해를 유발한다. 사고가 커진다면 금융회사의 건전성을 위협할 수 있다. 주주입장에서는 주요한 경영상 위험이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>우영우,불시착,도깨비에 세계 관광청이 웃는다</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002023783?sid=103</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>[헤럴드경제=함영훈 선임기자] ‘도깨비’, ‘사랑의 불시착’, ‘오징어 게임’, ‘빈센조’ 등에 이어 ‘이상한 변호사 우영우’가 전 세계에 큰 인기를 끄는 가운데, 이런 한국 드라마 때문에 지구촌 사람들에게 큰 인기를 끄는 해외 여행지에 관심이 모아진다.이상한 변호사 우영우의 우영우역 박은빈장애인과 비장애인의 사랑 ‘이상한 변호사 우영우’ 중에서.방탄소년단(BTS), 트와이스, 프로미스나인 등의 앨범재킷이나 리얼다큐멘터리 촬영지도 ‘K-팝 효과’에 힘입어 촬영물이 공개되고 나면 그 일대가 리모델링 되거나 글로벌 팬들의 ‘성지순례지’로 등극한다.‘사랑의 불시착’의 세계적인 인기로 재미를 본 스위스 관광청은 현빈이 피아노를 친 브리엔츠 호수변 이젤발트에 새벽부터 글로벌 여행객들이 장사진을 치는 모습을 보고 흐뭇해한다. 이곳에서 28㎞ 서쪽 지그리스빌 현수교, 손예진이 고뇌하던 곳, 역시 연중무휴 바글바글하다.스위스 지그리스빌 현수교스위스는 현빈 피아노에서 60㎞ 떨어진 루체른의 인기몰이를 위해 ‘기상청 사람들’의 송강을, 체르마트 홍보를 위해 명랑한 강철미녀 이시영을 홍보대사로 내세워, 스크린셀러 흥행몰이를 지속하고 있다.우리에게 잘 알려지지 않았던 슬로베니아 역시 한국인들이 견인하는 아시아 관광객들을 끌어모았다. 류블라냐 사랑의 열쇠다리는 자물통 사랑 징표의 진원지인데, ‘흑기사’가 촬영되면서 인기가 쑥 올랐다. 티토 별장 인근의 블레드섬, 자연동굴 속에 절반 들어간 프레자마성도 그랬다.류블라냐 사랑의 자물통 다리그리스에 대한 아시아인의 애정이 시들해질 무렵, ‘태양의 후예’가 살렸다. 그리스는 팬데믹 와중에도 한국을 EU에 준하는 대접을 했다. 에메랄드빛 바다옆 작은 해변, 낡은 선박이 있던 자킨토스 섬 나바지오 해변에서의 촬영 덕분이었다.‘빈센조’역시 세계적인 인기를 끌었다. 한국인들이 그간 많이 가본 프랑스,이탈리아를 뒤로 한채 다른 나라로 더 많이 가고 있을 때, 이 드라마가 나왔다. 드라마에 등장한 ‘빌라 몬드라곤’ 산정 요새 저택 등 이탈리아 마피아의 무대로 여행하기엔 불편함이 많지만, 이 나라에 대한 추억을 상기시켜 로마행 비행기표를 다시 끊게 하는 효과가 있었다.‘도깨비’로 재미를 본 캐나다 퀘벡시티는 공유,김고은 두 주인공을 다시 초대하기가 만만찮으니, 예능으로 뜨고 있던 홍현희-제이쓴 부부가 자국에 신혼여행왔던 것을 고리 삼아, 이들을 정중히 초청했다.캐나다 퀘벡시티 의사당 앞 에스쁠라나드 공원. 도깨비 촬영지.‘도깨비’에서 공유가 이용했던 페어몬트 샤또 프로트낙 호텔에서 좋은 시간을 보낸다. 갑자기 인터뷰를 한다는데, 홍현희 부부는 수많은 취재진들을 보고 매우 놀란다. 현지 언론의 환대에 이어, 대서특필이 이어졌다고 한다.퀘벡시티 이색상점 부티크 노엘, 드라마 마지막 장면인 아브라함 평원의 ‘도깨비 무덤’, 공유-김고은이 썸 타기 시작한 의사당 앞 에스쁠라나드 공원은 지금도 지구촌 여행자들로 북적거린다.방탄소년단 서머패키지에 이어, 프로미스나인이 신곡 뮤비를 찍은 사이판K팝으로 덕본 곳은 K푸드 열풍까지 분 미국 LA, BTS의 사이판·팔라완, 트와이스의 베른 등이다. 사이판은 BTS가 촬영한, 낡은 마리아나 등대와 주변을 리모델링해 문화예술미식 단지로 만들었다.캐나다관광청은 ‘이상한 변호사 우영우’의 고래사랑에 힘입어 이번엔 고래마케팅에 나섰다. 이 고래 전쟁엔 호주관광청과 고래여행상품이 있는 울산, 바다는 없어도 대형 고래조형물 물놀이가 있는 청주도 가세했다.호주관광청이 고래를 좋아한 우영우의 인기를 계기로 배포한 빅토리아주 혹등고래 사진총칼로 세계를 지배하던 서양인들이 수백년간 뭘 해도 다 되었듯, 지금 우리는 ‘한류’의 세계화 덕에 뭘 해도 다 되는 호기를 맞고 있다.이런 때, 우리는 더 확장시킬 것은 없는지, 수천년 왜곡된 한국의 진면목을 어떻게 알릴지, 세심하게 챙겨보아야 겠다. 웰링톤 보다 훨씬 뛰어난 이순신 제독의 한산·명량·노량대첩, 예산의 의좋은 형제 얘기가 유럽·미주 교과서에 실릴 수 있게.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.08.02.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>[아!이뉴스] 中小 알뜰폰 '좌불안석'…컴투스 '서머너즈워: 크로니클' 출격</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000689317?sid=105</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>하루가 다르게 변화하는 IT세상 속에서 쏟아지는 정보를 일일이 다 보기 어려우신 독자분들을 위해, 독자 맞춤형 IT뉴스 요약 코너를 마련했습니다. 본지에서 오늘 다룬 IT기사를 한눈에 읽을 수 있도록 구성했습니다. 퇴근길에 가볍게 읽을 수 있기를 기대합니다. [편집자주]우크라이나 특수통신정보보호국(SSSCIP)과 침해사고대응팀(CERT)에 따르면 올해 1월 1일부터 6월 30일까지 탐지된 사이버 공격은 총 1천350건으로 집계됐다. [사진=픽사베이]◆러시아 우크라 침공 반년…"1천350건 사이버 공격 방어"지난 2월 러시아의 우크라이나 침공으로 시작된 전쟁이 반년 가까이 이어지고 있는 가운데 현재까지도 전쟁은 끝날 기미를 보이지 않고 있다.무력 침공 이전 사이버 공간에서는 전조 현상이 감지되면서 대대적인 공세가 예고됐지만 현재까지 중대한 사건은 발생하지 않고 있는 것으로 알려졌다. 다만 주요 기반 시설을 겨냥한 멀웨어(악성 소프트웨어) 유포 등 러시아의 사이버 공세는 여전한 것으로 나타나 주의가 요구된다는 분석이다.2일 우크라이나 특수통신정보보호국(SSSCIP)과 침해사고대응팀(CERT)에 따르면 올해 1월 1일부터 6월 30일까지 탐지된 사이버 공격은 총 1천350건으로 집계됐다. 이는 지난해 상반기 대비 3배 이상 늘어난 수치다.이중 올해 초부터 개전 직전까지 집계된 사이버 공격 건수는 525건, 2월 24일부터 6월 말까지는 825건으로 나타났다. 분기별로 살펴보면 1분기(802건) 대비 2분기(548건) 집계 건수가 31.7% 줄었지만 데이터 탈취와 시스템 파괴 목적의 멀웨어 유포 활동은 여전히 활발하게 진행되고 있다고 우크라이나 CERT는 전했다.CERT는 보고서를 통해 "1분기 통계와 비교했을 때 2분기에는 악성코드 범주의 보안 이벤트 수가 38% 증가했다"며 "이는 멀웨어 유포를 비롯해 이미 감염된 봇넷(botnet) 장치를 악용하거나 다시 감염시키기 위한 시도 관련 행위가 늘어난 것으로 분석된다"고 설명했다.마이크로소프트(MS)가 전세계 클라우드 시장 1위 업체인 아마존에 대항하기 위해 구글 모기업인 알파벳, 오라클 등 경쟁회사와 연합을 제안했다.◆MS, 구글·오라클과 '클라우드 동맹' 가시화마이크로소프트(MS)가 전세계 클라우드 시장 1위 업체인 아마존에 대항하기 위해 구글 모기업인 알파벳, 오라클 등 경쟁회사와 연합을 제안했다. 앞서 MS와 오라클은 애저 포털에서 오라클 데이터베이스를 이용할 수 있는 서비스를 내놓으면서 멀티클라우드 전략 강화에 나섰다.2일 업계에 따르면, 월스트리트저널(WSJ)은 지난달 27일(현지시간) 소식통을 인용해 MS가 미 정부의 클라우드 조달 사업 선정 방식을 변경하기 위한 로비를 진행 중이라고 보도했다. 이에 구글, 오라클 등 클라우드 업체들에 참여 의사를 촉구한 것으로 알려졌다.MS는 업체들과 힘을 합쳐 공공기관의 대규모 클라우드 사업을 한 회사가 아닌 여러 기업에 분산토록 하는 멀티 클라우드를 의무화하는 방안을 타진하고 있다. 미 정부의 클라우드 관련 발주 사업에서 아마존이 사실상 독점하고 있는 상황을 뒤집겠다는 의도다.시장조사기관 가트너에 따르면, 아마존은 지난해 기준 글로벌 클라우드 시장에서 39%의 점유율로, 그 뒤를 이어 MS가 21%를 차지하고 있다. 더욱이 미국과 캐나다 정부와 공공기관이 발주한 클라우드 사업에서는 아마존이 47% 점유율로 압도적인 우위를 보이고 있다. MS는 공공분야서 28%에 그쳤다.MS는 알파벳, 오라클 외에 VM웨어, 델 테크놀러지스, IBM, 휴렛팩커드 엔터프라이즈 등에게도 참여를 요청한 것으로 보인다.알뜰폰업체 공동마케팅 공간 '알뜰폰스퀘어'에 KB국민은행 알뜰폰 브랜드 '리브엠(Liiv M)'의 서비스 상품이 진열돼 있는 모습. [사진=송혜리 기자]◆금융 대기업에 플랫폼 너마저…中小 알뜰폰 '좌불안석'대형 은행사에 이어 금융 플랫폼도 알뜰폰 사업에 발을 들인 가운데, 자본력을 갖춘 금융권과의 경쟁 구도로 기존 중소 알뜰폰 사업자의 고민이 깊어지고 있다.2일 알뜰폰업계와 금융업계에 따르면 비바리퍼블리카(대표 이승건)는 최근 머천드코리아(대표 윤기한·이승훈)와 지분 100%를 인수하는 주식매매계약을 체결했다. 비바리퍼블리카는 토스 운영사이며, 머천드코리아는 가입자 10만명 안팎의 중소 알뜰폰 사업자다.토스 앱 내에서 요금제 가입·통신요금 결제 등 금융 외 서비스까지 제공해 락인(Lock-in)효과를 극대화하겠다는 취지다. 락인효과란 다른 서비스로 이전하지 않는, 특정 브랜드를 지속해서 사용하는 소비 경향을 말한다.토스 관계자는 알뜰폰 시장 진출에 대해 "이동통신 3사(SKT·KT·LG유플러스)를 제외한 다른 사업자는 규모가 영세하고 가입 과정도 복잡하다. 때문에 모바일에 강점을 가진 토스가 진출하면 전체 시장을 키울 수 있을 것"이라고 설명했다.토스 뿐만 아니다. 대형 은행사도 알뜰폰 사업을 앞서 전개했다. KB국민은행은 알뜰폰 브랜드 리브엠(Liiv M)을 통해, 신한은행은 KT망 기반 알뜰폰 요금제 출시 등을 통해 알뜰폰 사업을 진행하고 있다. 하나은행 역시 SK텔링크와 손잡고 전용 알뜰폰 요금제를 운영 중이다.오는 16일 국내 출시를 앞둔 '서머너즈워: 크로니클'. [사진=컴투스]◆8년 노하우 담았다…컴투스 '서머너즈워: 크로니클' 흥행 자신감컴투스(대표 송재준, 이주환)가 2일 온라인 쇼케이스를 열고 오는 16일 국내 출시를 앞둔 '서머너즈워: 크로니클(이하 크로니클)'의 상세 콘텐츠를 소개했다.이주환 컴투스 대표는 "이용자가 직접 소환사가 되어 소환수들과 함께 전투를 펼칠 수 있다"며 "스킬과 속성간 상성 외에도 기믹에 대한 대응, 직접 컨트롤, 협동 등 크로니클만의 다채로운 플레이를 경험할 수 있다"고 소개했다.크로니클은 전 세계 1억4천만 다운로드를 돌파한 '서머너즈워: 천공의 아레나(이하 천공의 아레나)' 지식재산권(IP)을 기반으로 한 대규모다중접속역할수행게임(MMORPG)이다. 이 게임은 윈도우 PC와 안드로이드, iOS 등 모바일 버전을 제공하며 추후 스팀과 엑스박스(콘솔) 버전으로 확장할 예정이다. 올해 하반기에는 글로벌 시장에도 선보인다.크로니클의 세계관은 천공의 아레나 이전에 벌어진 사건을 다룬 프리퀄에 해당한다. 이용자는 왕국을 지키는 '라힐 수호단원'의 소환사로 동료를 만나 모험을 떠나게 된다. 3인의 주인공 중 하나를 택해 게임을 시작하며 3종의 소환수를 선택해 함께 전투를 진행할 수 있다.기존 모바일 MMORPG가 자동전투 위주의 '보는 게임'인데 반해 크로니클은 소환수 스킬을 사용하거나 각종 오브젝트와 상호작용하는 등 이용자의 조작성을 부각한 점이 특징이다. 이를 위해 게임패드도 별도 지원한다.오픈 단계에서 제공되는 소환수는 350종에 이른다. 속성은 5개가 존재하며 속성에 따라 외형은 같아도 성능이 각각 다르다. 각성을 진행할 경우 소환수의 외형이 바뀌며 스킬이 변화되거나 추가돼 한층 강력해진다. 아울러 소환수들에 얽힌 스토리를 볼 수 있는 콘텐츠도 구현했다.◆'신작 부재' 2분기 게임 실적…하반기부터 주목2분기 게임업계 어닝시즌이 도래했다. 지난 1분기 대형 신작이 부재했던 가운데 넥슨과 카카오게임즈를 제외하고 큰 실적 반등은 감지되지 않는 분위기다. 다만 하반기 국내 게임업계의 신작이 대거 몰려있어 향후 각 게임사의 전략에 향방이 갈릴 것으로 보인다.넥슨은 지난 3월 출시한 '던전앤파이터 모바일(이하 던파모바일)'이 장기 흥행에 성공한 만큼 2분기 실적이 기대되는 상황이다. 넥슨은 2분기 매출이 45~56%, 영업이익이 47~77% 급증할 것으로 자체 전망한 바 있다. 앞서 넥슨은 1분기 매출 9천434억원을 기록해 전년 동기 대비 3% 늘어난 반면, 영업이익은 3천992억원으로 11% 감소했다.카카오게임즈 역시 지난 3월말 대만에 출시한 '오딘: 신반' 매출과 6월 20일 선보인 '우마무스메 프리티 더비' 매출이 온기 반영되면서 호조를 보일 것으로 보인다. 에프앤가이드는 카카오게임즈의 2분기 매출액을 3천550억원, 영업이익 786억원으로 제시했다. 이는 전년 동기 대비 174%, 870% 늘어난 성과다.반면 지난 1분기 역대 최고 분기 매출을 경신했던 엔씨소프트와 크래프톤은 2분기 컨센서스를 밑돌 것으로 관측된다. 에프앤가이드는 엔씨소프트의 매출액을 6천388억원, 영업이익은 1천423억원으로 제시했다. 전년 동기 대비 매출은 18%, 영업이익이 26% 증가한 규모이나, 증권가는 그에 미치지 못할 것으로 보고 있다. 김소혜 한화투자증권 연구원은 "엔씨소프트는 '리니지M'을 제외한 모바일 게임들의 매출 감소세가 지속돼 이익 둔화가 불가피"하다고 말했다.크래프톤은 에프앤가이드에서 2분기 매출 4천640억원, 영업이익 1천661억원으로 추정된다. 이는 전년 동기 대비 각각 1% 증가하고 5% 감소한 수치다. 김 연구원은 크래프톤 역시 라이브 게임 매출의 부진을 겪는 상황으로, 시장 기대치를 하회할 것으로 예측했다.1분기 적자를 기록한 넷마블과 컴투스는 2분기 흑자전환은 가능하나 개선 폭은 크지 않을 것으로 보인다. 증권가는 넷마블이 영업이익 75억원을, 컴투스는 68억원을 기록할 것으로 추정하고 있다.업계에서는 상반기 큰 신작이 많지 않았던 만큼 하반기 대형 신작들에 주목하는 분위기다. 넥슨은 이달 25일 기대작 '히트2'를 출시하며 컴투스도 오는 16일 '서머너즈 워: 크로니클'을 시장에 내놓는다. 넷마블은 지난달 '세븐나이츠 레볼루션'을 출시했으며 '오버프라임', '하이프스쿼드' 등을 순차적으로 선보일 계획이다.'우마무스메 프리티 더비'로 매출 순위를 석권한 카카오게임즈는 하반기 '아레스: 라이즈 오브 가디언즈'와 '에버소울' 등을 준비 중이며, 엔씨소프트와 크래프톤은 각각 'TL'과 '칼리스토프로토콜' 등의 핵심 차기작을 4분기 내놓을 예정이다.하반기 경기 침체 우려 확산에 따라 플랫폼 사업자들의 수익화 모델 구축 고심이 깊어지고 있다. 사진은 경기 침체 관련 이미지. [사진=PIXABAY]◆하반기 한파 온다…플랫폼 수익화 '고심'자체 생태계 조성을 위해 공격적인 투자로 빠르게 몸집을 불려온 플랫폼들이 하반기 긴축에 대비해 속속 수익 모델 도입에 나섰다. 경제 불확실성 확대에 따른 투자심리 위축에 대비하고 안정적인 수익을 창출하기 위함으로 보인다.2일 관련 업계에 따르면 리셀 플랫폼 '크림'은 전일부터 판매자에게도 수수료 1%를 부과한다. 2020년 3월 첫선을 보인 크림은 '수수료 무료' 정책을 통해 빠르게 사세를 불려왔다. 그러나 상품 거래가 급격히 늘어 검수 비용이 증가하자 지난 4월 구매 수수료 부과를 시작으로 수수료 무료 정책을 폐기했다. 이어 지난 7월에는 구매 수수료를 2%로 조정했다.당근마켓 역시 수익모델 강화를 위해 지역광고에 이어 지난 6월부터 프랜차이즈 기업들이 자사 브랜드를 소개할 수 있는 '브랜드 프로필' 서비스를 선보였다. 비즈 프로필은 당근마켓 내 소상공인이 지역 주민과 소통하고 가게를 알릴 수 있게 하는 로컬 마케팅 채널이다. 브랜드 프로필은 비즈 프로필의 기업용 계정이다. 프랜차이즈 기업들은 브랜드 프로필을 활용해 전국 모든 지점에서 이용할 수 있는 혜택과 정보를 동시다발적으로 제공할 수 있다.배달의민족(배민)과 쿠팡이츠 등도 포장 주문 무료 지원 정책 종료 시기를 저울질하고 있다. 앞서 배민과 쿠팡이츠는 포장 주문 확대와 코로나19 팬데믹 상황 속 자영업자와의 고통 분담을 위해 포장 주문 중개 수수료에 대해 무료 지원 정책을 진행해왔다.국내 대부분의 플랫폼은 빠르게 이용자를 확보해 자체 생태계를 구축하고 난 뒤, 수익모델을 도입하는 방식의 성장 전략을 채택하고 있다. 생태계 외연이 확장될수록 플랫폼의 영향력은 커지지만, 이용자 확보를 위한 과잉 경쟁으로 확실한 비즈니스 모델을 구축한 소수의 플랫폼 외에는 적자에 허덕이는 처지다.그동안은 플랫폼의 성장 가능성을 높게 점친 외부 투자로 선택적 적자로 성장할 수 있었다. 그러나 사회적 거리두기 해제에 따른 비대면 수혜 종료 및 긴축에 따른 투자 심리 위축 우려 등이 확산하자 플랫폼 역시 자체적인 수익구조 강화로 스스로 생존하는 방법을 찾아 나섰다는 해석이다.만나코퍼레이션 CI. [사진=만나코퍼레이션]◆'만나코퍼레이션' 현대차 투자 지원받을까…배달대행 '기웃'현대자동차가 배달대행 업체에 눈독을 들이고 있다. 완성차를 넘어 모빌리티 영역 전반에 관심을 보이고 있는 현대차가 '라스트 마일' 영역에서 강점을 나타내는 배달대행업계 선두권 업체에 수백억원 규모의 투자를 검토하는 것으로 파악된다.2일 복수의 배달·모빌리티 업계 관계자들의 말을 종합하면 현대차는 최근 배달대행 업체인 만나코퍼레이션에 대한 실사를 마치고 투자 여부를 고심 중인 것으로 알려졌다. 업계에서 예상하는 현대차의 투자 금액은 300~400억원 선이다. 최근 경기침체 등으로 인해 전반적인 스타트업 투자가 얼어붙은 상황이라는 점을 감안하면 제법 큰 규모의 투자라는 시각이다.업계 한 관계자는 "지난 6월 중 현대차 관계자가 투자 실사를 위해 만나코퍼레이션 본사에 방문해 기업 관련 설명을 청취한 것으로 안다"라고 말했다. 다른 관계자는 "현대차가 만나코퍼레이션을 오랫동안 지켜봐 왔고, 투자 여부를 면밀히 검토했다"라며 "적지 않은 규모의 투자를 염두에 두고 있는 것으로 안다"라고 설명했다.현대차의 만나코퍼레이션 투자 추진은 신성장 동력 확보를 위한 전략으로 풀이된다. '라스트 마일' 시장에서 실제 물류를 수행하는 배달대행 업체와 현대차의 자율주행·커넥티드카 등의 기술이 결합할 경우 성장 가능성이 높다는 판단이 작용한 것으로 보인다.배달로봇 분야에서의 협업 가능성도 염두에 두는 것으로 알려졌다. 현대차는 미래 모빌리티 사업 육성의 일환으로 로봇 사업에 심혈을 기울이고 있다. 배달로봇과 관련해서는 지난해 우아한형제들과의 협업을 통해 무인 배송·물류 서비스를 위한 로봇을 개발하겠다고 발표한 바 있다.현대차가 실제 투자를 단행할지는 아직 지켜봐야 한다는 관측도 나온다. 최근 글로벌 경기 침체 여파로 스타트업에 대한 전체적인 투자가 위축되는 분위기에서 현대차도 거액을 투자하는 데 신중할 수밖에 없다는 점에서다. 현대차 관계자는 "개별 투자 건 진행 여부에 대해서는 확인해 줄 수 없다"라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.08.09.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>중기부 "벤처·스타트업 종사자 76만 여명..전년대비 9.7% 늘어"</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001168786?sid=101</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>조주현 중소벤처기업부 차관이 9일 세종시 중소벤처기업부 브리핑실에서 22년 상반기 혁신 스타트업·벤처기업 일자리 동향을 발표하고 있다. 중소벤처기업부 제공국내 벤처·스타트업 종사자는 총 76만 여명으로, 1년 새 10% 정도 증가한 것으로 조사됐다. 기업가치가 1조 원이 넘는 비상장 기업을 일컫는 유니콘 기업의 종사자 증가율은 40%에 근접했다.중소벤처기업부는 올해 6월 말 기준 국내 벤처·스타트업 3만 4362곳의 고용 인원은 총 76만 1082명으로, 1년 전보다 9.7%(6만 7605명) 증가했다고 9일 밝혔다.벤처·스타트업 고용 증가율(9.7%)은 우리나라 전체 기업 고용보험 가입자 증가율 3.3%보다 3배 높은 수준이다. 특히 벤처투자를 받은 기업의 고용 증가율은 40.5%로, 전체 기업 대비 12배 이상 높았다. 벤처 투자 10억 원 당 고용증가 효과는 약 2.3명으로 나타났다.벤처·스타트업 고용 인원 중 만 15세 이상∼만 29세 이하 청년은 26.9%인 20만 4437명으로 1년 전보다 8.0% 늘었고, 여성은 24만9천411명으로 12.9% 증가했다.중기부 관계자는 "지난 1년간 청년 고용보험 가입자가 2만 9948명 늘었는데 이중 벤처·스타트업 고용이 절반 이상(50.5%)"이라며 "벤처·스타트업이 청년 일자리 창출의 새로운 주역으로 자리매김했다"고 밝혔다.올해 상반기 신설 벤처·스타트업은 92곳으로 총 836명을 고용한 것으로 나타났다. 지난 1년간 고용을 가장 많이 늘린 벤처·스타트업 10곳의 증가 인원은 총 4천48명이었다. 기업당 평균 404.8명꼴이 증가한 것으로 나타나, 전체 벤처·스타트업 평균 고용 증가 인원인 2.0명 대비 200배가 넘었다.지난 1년간 고용을 가장 많이 늘린 기업은 신선식품 배송 플랫폼인 '마켓컬리'를 운영하는 컬리로, 인원이 701명 증가했다. 스타트업을 제외한 벤처기업만 놓고 보면 3만 4174곳에서 총 75만 3080명을 고용하고 있는 것으로 조사됐다. 지난해 6월과 비교하면 고용 인원이 9.6% 늘었다.벤처기업 종사자는 이미 지난해 말 기준 총 72만 2000명으로, 국내 4대 그룹 인원(72만명)보다 많았다. 업종별로 보면 정보통신기술(ICT)서비스, 유통·서비스, 전기·기계·장비 등 3개 업종에서 총 4만 2698명(64.9%)이 증가했다.정보통신기술(ICT)서비스, 유통·서비스의 경우 플랫폼 기업 중심으로 고용이 늘었고 기계·장비의 경우는 반도체, 2차전지 장비·부품 제조 벤처기업에서 고용 인원이 증가했다.이번 분석 대상에 포함된 유니콘기업 14곳의 고용 인원은 1만 942명으로 1년 전보다 39.4%(3092명) 늘었다. 이중 두나무의 고용 인원은 총 494명으로 1년 전보다 93.0%(238명) 늘었고 모바일 금융 서비스 '토스'를 운영하는 비바리퍼블리카는 749명으로 65.7%(297명) 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>[게임브릿지] 게이미피케이션을 통한 절차의 경쟁력 강화</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004999851?sid=105</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>제품의 기능적 사양 경쟁이 아닌 고객들의 감정적 경험을 놓고 경쟁해야 한다. 「 히라이 가즈오 」우리는 흔히 닭이 먼저냐 달걀이 먼저냐? 형태로 논쟁하는 경우가 많다. 하지만 일상에서는 선후를 따지기보다는 먼저 실행하고 그 과정에서 우려했던 부분들 걱정했던 부분들을 직접 체험하고 겪어보는 과정이 공감대 형성이나 실질적 해결 방법을 도출하기에 더 적당하다.논쟁의 순간에도 각 개인의 마음속에는 선후와 상관없이 절차를 직접 겪음으로써 해결되고 발전할 것이 확실하다는 것은 머리로는 알고 있을 것이다. 동시에 이런 절차의 반복은 개개인의 경쟁력 향상으로 이어진다. 이런 절차를 체험하고 되돌아보는 과정 자체가 경험이기 때문이다.물론 막무가내로 실행만 해 나간다면 당연히 도움이 전혀 되지 않는 경험만 누적될 가능성도 있다. 하지만 인간이 생활하는 모든 영역에서 절차는 피할 수 없다. 가깝게는 사람과의 관계부터 식당에서 마주하게 되는 키오스크까지 절차는 개인에게 피할 수 없는 경험을 제공한다.하지만 우리의 삶에서 이러한 절차들은 무조건 필요한 일부를 제외하고는 대부분 위험으로 다가온다. 그 이유는 최초에는 경험이지만 그 이후에는 반사적으로 진행되며 자연스러워야 할 여러 절차가 대부분 부자연스럽고 인위적으로 생산성을 깎아 먹는 경우가 많기 때문이다. 누구나 공감하는 공인인증서와의 첫 만남 불친절한 매장이나 식당에서의 경험 이런 부정적인 절차의 경험은 개인에 따라 차이는 있지만 고통을 수반하기 때문이다. 물론 절차에 즐거움이 반복되는 예도 있다. 놀이공원에서의 짧은 기다림이나 코스요리 먹는 과정의 기다림 같이 말이다.우리는 의식주를 해결하는 수많은 과정에서 소비자와 관리자 또는 생산자의 입장을 모두 돌아가며 다양한 절차를 경험하고 알아내게 된다. 여기서의 체득은 학습이나 공부의 형태가 아닌 순수하게 경험에 기반하여 진행된다. 안전하지만 편리하고 합리적으로 절차를 바꿔 나갈 순 없을까? 인류는 지금까지 절차상 발생하는 수많은 고통을 해소하고 개선하면서 지금까지 발전해 왔다. 하지만 지금을 지나 조금 더 앞으로의 미래는 새로운 형태의 절차 개선이 필요하다. 이전의 방식과는 확연하게 달라져야 한다. 현실의 절차와 디지털 세상의 절차가 함께 변해야 하기 때문이다.앞으로의 절차 개선은 모든 영역에서 UI와 UX를 바탕으로 이루어질 것이다. 세상이 더욱더 디지털의 영역과 긴밀하게 연결되고 있으므로 그러하다. 그리고 그 과정에서 수많은 형태의 새로운 부가가치가 창출될 것이다. 창출되는 가치들은 모든 절차의 새로운 미래를 열어야 한다.얼마 전 알뜰폰 시장에 진출한 토스는 승부수로 UI UX 차별화를 선언했다. 새로운 인터페이스와 경험을 제공함으로써 앞에서 언급한 불필요한 절차를 한국에서 가장 잘 줄여온 것으로 평가받는 토스가 이 역량을 알뜰폰 가입 절차의 허들을 낮추는 데 사용할 것이 분명하기 때문이다.오프라인의 절차 혁신은 온라인과는 다른 방식으로 난이도가 높다. 소니를 살렸다고 평가받는 히라이 가즈오는 소니 TV 제품의 외형에는 만족했지만 수많은 케이블 선들이 노출되어 흉측하다는 고객 평을 해소하기 위해 3년이라는 시간이 지나고 나서야 케이블을 숨기는 제품을 발매했다.대부분 사람은 구매한 것에 대한 가격은 잊지만, 그것을 구매하는 과정에서의 경험과 사용하는 과정에서의 경험은 오랫동안 기억하는 경향이 있다. 좋은 구매 경험과 사용 과정에서의 경험은 고객이 다시 찾게 만든다. 이 과정에서 무수한 절차를 만다고 경험하게 된다.지금까지 시중에서 이 절차와 경험을 요약하는 몇 마디는 장기간에 걸쳐 변화와 혁신이 없었다. 고객이 왕이다. 친절과 같은 개념들 말이다. 하지만 가만히 생각해 보면 디지털 상황에서 어떻게 왕으로 모실 것이며 디지털에서의 친절이란 무엇인지 완벽하게 명확한 답이 나오지 않았다.우리의 삶과 디지털 세계가 연결되어 움직이기 시작한 지 이제 누가 뭐라고 해도 많은 시간이 흘렀다. 이제 디지털 세계에서도 절차에서 얻어지는 경험에 대한 새로운 패러다임이 필요한 시점이다. 모든 산업에 디지털 영역에서 절차적 경쟁력을 확보하기 위한 새로운 패러다임 말이다.답은 게임화에 있다고 생각한다. 게임은 고객의 감정에 긍정적 경험을 줄 수 있는 모든 요소를 갖추고 디지털 세상의 절차에서 분노가 아닌 즐거움을 끌어내는 최고의 방법이다. 남녀노소를 쉽게 만족시킬 수 있다. 절차가 경쟁력이 될 수 있는 디지털 세상에는 반드시 게임화가 필요하다.글쓴이 : 석주원 한국게임화연구원 소장[게임 브릿지: G-Bridge]는 게임인들의 외고로 꾸며지는 코너로, 본지의 편집방향과 일치하지 않을 수 있습니다. 이 코너에 게재를 원하거나 의견을 개진하실 게임인은 run@mkinternet.com으로 보내 주시면 됩니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>토스뱅크, 한국투자증권과 광고업무협약 체결</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005286439?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>다양한 투자상품 소개 가능해져[이데일리 전선형 기자] 앞으로 토스뱅크에서 한국투자증권 금융상품들을 볼 수 있다. 8일 여의도 한국투자증권 본사에서 진행된 협약식에서 홍민택 토스뱅크 대표(왼쪽)와 김성환 한국투자증권 부사장이 협약식을 체결하며 기념사진을 촬영하고 있다.(사진=토스뱅크)토스뱅크가 한국투자금융지주 자회사 한국투자증권과 업무제휴 협약’(MOU)을 체결했다고 8일 밝혔다.이날 여의도 한국투자증권 본사에서 열린 협약식에는 홍민택 토스뱅크 대표, 김성환 한국투자증권 부사장 등 관계자들이 참석한 가운데 진행됐다.이번 협약을 통해 토스뱅크는 한국투자증권의 다양한 투자상품을 고객이 투자에 활용할 수 있도록 소개하는 광고 업무를 추진할 계획이다. 한국투자증권은 국내 대형 증권사로, 자산관리와 운용, 투자은행(IB), 위탁매매(BK) 등의 업무를 영위하고 있으며, 개인과 기관 투자자들에게 Δ수익증권 Δ랩(Wrap) Δ신탁 Δ펀드 상품 등 자산관리 상품을 선보이고 있다.토스뱅크와 한국투자증권은 앞으로도 디지털금융 혁신과 고객 경험 강화를 위한 협력 관계를 확대해 나갈 예정이다. 토스뱅크 관계자는 “이번 협약을 통해 자산관리 부문에서 고객들의 다양한 니즈를 만족시켜드릴 수 있을 것으로 기대한다”며 “향후에도 토스뱅크의 플랫폼으로서의 이점과 편리성, 한국투자증권의 자산관리 및 투자상품에 관한 전문성을 결합해 고객의 금융 경험을 혁신해 나갈 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.08.10.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>대출비교 서비스 시장, 주인공은 빅테크가 아니다</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003444733?sid=105</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>지난해 3월부터 전면 시행된 금융소비자보호법(금소법)은 금융상품에 대한 정보제공부터 사후관리까지, 금융상품판매업 및 금융상품자문업의 의무를 정해 소비자의 권익을 보호하는 법이다. 금소법 시행 후 온라인 대출비교 플랫폼에 대한 규제가 완화됨에 따라 다양한 대출비교 서비스가 출시되어 본격적인 (담보/신용)대출비교 시장 경쟁에 돌입했다.이미 혁신금융 사업자로 선정되어 대출비교 서비스를 제공해 왔던 플랫폼 사업자 외, 금융당국으로부터 온라인 대출 모집법인이 추가로 금융상품 판매중개 대리업자로 등록되어 현재 23개 업체가 활동하고 있다. 그만큼 금융소비자가 여러 대출비교 플랫폼을 비교하며 자신에게 유리한 플랫폼을 선택할 수 있게 됐다.다만 대출비교 플랫폼 비교 및 선택에 있어 고민은 늘었다. 플랫폼 업체마다 제공하는 서비스나 협업하는 금융회사가 각각 다르기 때문이다. 대부분의 대출비교 플랫폼은 신용대출 비교 중심의 서비스를 제공하고 있었지만, 최근에는 담보대출 비교를 전문으로 제공하는 플랫폼으로 확대되고 있다.SC제일은행 1,2분기 대출비교 플랫폼 중개 실적 (출처=SC제일은행)최근 SC제일은행에서 1,2분기 온라인 대출모집 법인을 통해 대출이 실행된 공시자료를 보면, 신용대출은 ‘토스’의 ㈜비바리퍼블리카가 323억 원으로 가장 많았고, 담보대출은 ‘뱅크몰’의 ㈜뱅크몰이 791억 원으로 가장 많은 대출을 중개했다.토스의 경우 신용대출 점유율은 71.9%라는 압도적인 성과를 달성했지만, 담보대출에서는 뱅크몰 실적의 절반에 그친 점이 눈에 띈다. 뱅크몰은 금융사와 소비자를 연결하는 핀테크 플랫폼 기업이며, 현재 ‘슈퍼 앱/서비스’가 된 토스나 카카오페이보다 담보대출 비교 플랫폼 시장에서 우위를 점하고 있는 것이다. 뱅크몰은 이에 관해, 동일한 상품을 판매하더라도 자사만의 담보대출 비교 알고리즘으로 인한 정확도와 특화된 서비스에 대한 차이 때문이라 분석하고 있다.금융감독원에 따르면, 주요 시중은행 국내 영업점포 수(올 3월 말 기준)는 KB국민은행 874개로 가장 많았고, 신한은행(740개), 우리은행(768개), 하나은행(607개), SC제일은행(189개) 순으로 영업점포를 운영하고 있다.SC제일은행은 영업점포 수가 가장 적음에도 담보대출 비교 플랫폼과의 적극적인 협업을 통해 인력 및 마케팅 비용을 절감하고 있고, 대면 영업점포도 최소한으로 운영하며 실리를 찾고 있다. 이로써 전년도 같은 분기의 온라인 대출 모집법인 대출 취급금액 공시자료를 기준으로 무려 2,511%가 성장했다.출처=셔터스톡현재 SC제일은행은 지방은행을 제외한 1금융권 은행 중에서 가장 많은 플랫폼 업체와 업무 제휴를 맺고 있으며, 이 같은 공시자료는 현재 대출비교 플랫폼 시장의 객관적 지표로 참고할만하다.이후로도 대출비교 플랫폼의 성장과 시장경쟁은 점차 심화될 것으로 예측된다. 아직까지 국내 주요 은행들의 대출비교 플랫폼 참여는 저조한 편이나, 금융소비자의 높아진 안목을 맞추기 위해서는 이들 플랫폼 업체와의 협업이 불가피해보인다.금융회사에게도 대출비교 서비스 협업은 영업 및 마케팅 비용을 절감해 소비자에게 금리 혜택 등을 제공하는 계기가 될 수 있다. 최종적으로 소비자는 대출 서비스에서 편의성과 경제성을 모두 얻게 된다.동아닷컴 IT전문 이문규 기자 munch@itdonga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.08.02.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>카뱅 등 인터넷은행 가계대출 7개월째 증가세…시중은행과 대비</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000042587?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>시중은행 7개월 연속 감소세…공격적 금리 인하 마케팅 영향ⓒ연합뉴스카카오뱅크와 케이뱅크 등 인터넷전문은행의 가계대출 잔액이 7개월 연속 증가세를 보이고 있다. 시중은행의 가계대출이 7개월째 줄어들고 있는 현상과 대조적이다.2일 은행권에 따르면, 카카오뱅크와 케이뱅크의 지난달 말 여신 잔액은 각각 26조9504억원, 9조1600억원으로 집계됐다. 전달 대비 각각 1341억원과 4300억원 늘어난 규모다.토스뱅크는 대출 잔액을 공개하지 않았다. 하지만 토스뱅크가 출범 이후 공격적인 영업을 이어왔다는 점에서 증가세를 이어갔을 것으로 업계는 보고 있다.반면 KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행의 지난달 가계대출 잔액은 전달보다 2조2155억원 줄며 7개월째 감소세를 이어오고 있다.이는 인터넷전문은행들이 금리 인상기에 시중은행보다 낮은 금리를 제공하는 등 공격적인 마케팅을 펼쳤기 때문으로 분석된다. 실제 지난 6월 카카오뱅크는 주택담보대출 금리를 최대 0.5%p 내렸고, 케이뱅크도 아파트담보대출 금리를 최대 0.41%p 인하했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.08.09.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>서울 주민세 총 906억원…송파구 15억원으로 가장 많아</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005287131?sid=100</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>주민세 개인분·사업소분 부과…8월31일까지 납부외국인 주민세는 구로구가 1위…국적은 중국[이데일리 김은비 기자] 서울시에 주소를 둔 세대주와 1년 이상 체류 중인 외국인에게 부과하는 서울시 주민세(개인분·사업소분)가 총 461만건 906억원으로 나타났다. 25개 구청 중에서 개인분이가 가장 많은 곳은 송파구, 가장 적은 곳은 중구로 나타났다.(사진=서울시)서울시는 이같은 주민세 부과현황을 9일 밝혔다. 송파구는 서울시에서 가장 인구가 많은 곳으로 주민세가 25만5201건(15억원)으로 나타났다. 주민세가 가장 적은 곳은 인구가 가장 적은 중구로 5만4787건(3억원)이었다. 서울시는 7월 1일 현재 서울시에 주소를 둔 세대주와 1년 이상 체류 중인 외국인에게 2022년도 주민세 고지서를 발송하고, 사업소를 둔 사업주의 경우는 주민세 사업소분을 8월 31일 까지 신고·납부해야 한다고 이날 밝혔다.서울시에 거주 중인 외국인에게는 납세편의를 위해 중국어, 영어, 베트남어, 일본어, 몽골어, 인도어, 프랑스어, 독일어 등 8개 언어로 된 안내문을 제작하여 주민세 고지서와 함께 발송했다.외국인은 출입국관리법에 따른 외국인등록일로부터 주민세 과세기준일인 7월 1일까지 1년 이상 국내 체류 중이라면 이번에 주민세를 납부해야 한다.외국인에 대한 주민세는 총 11만3738건이 부과됐다. 자치구별로는 구로구가 1만5671건으로 가장 많고, 다음으로 금천구 1만1872건, 영등포구 1만697건 순으로 나타났다.외국인 국적은 중국이 7만8038건으로 가장 많았으며, 다음으로 영미권, 베트남, 일본 순으로 나타났다.7월 1일 현재 서울시에 사업소를 둔 개인사업자와 법인도 2022년도 주민세(사업소분)을 8월 31일까지 신고·납부해야 한다.지방세법 개정으로 2021년부터 법인 및 개인사업자가 8월에 납부하던 주민세 균등분과 7월에 신고납부하던 주민세 재산분이 통합되면서 세목 명칭이 주민세 사업소분으로 변경되었고, 납부기간도 8월로 통일되었다.시는 주민세 사업소분 납세 편의를 위해 세액과 납부기간이 기재된 납부서 82만건, 678억원을 8월 초에 발송했다.이번에 송달받은 주민세는 △서울시 ETAX △서울시 STAX(서울시 세금납부 앱)△간편결제사 앱(카카오페이, 네이버페이, 페이코, 신한페이판, 토스)을 통한 간편납부 △종이고지서 QR바코드 납부 △전용계좌 납부 △은행 현금인출기(CD/ATM) 또는 무인공과금기 등을 통해 납부할 수 있다.이병한 서울시 재무국장은 “주민세 개인분은 서울시에 주소를 둔 세대주에게 부과되는 세금으로, 납세자 수가 380만 명에 달해 서울시 인구의 38.9%에 해당하는 만큼 8월 31일까지 꼭 납부해 줄 것을 당부드린다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>이제 2% 금리론 손님 뺏긴다…인터넷은행, 시중은행 맞서 일제히 수신금리 인상</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003165280?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>시중은행 예금금리 연 3%대 진입카카오, 3년 만기 연 3.6%로 높여토스, 연 3% 적금 상품 신규 출시시중은행이 최근 예·적금 금리를 빠르게 올리면서 인터넷전문은행의 수신 금리 경쟁력이 떨어지고 있다. 인터넷은행들은 대형 시중은행에 수신 고객을 빼앗기지 않기 위해 수신 상품을 새로 내놓거나 금리를 올렸다.8일 은행권에 따르면 지난 7월 KB국민·신한·하나·우리·NH농협은행의 원화 수신 잔액은 전달 대비 12조6760억원 증가한 1834조2920억원으로 집계됐다. 요구불예금이 34조5261억원 감소했지만, 정기예금이 27조3532억원 불어나는 등 금리가 높은 상품으로 돈이 몰렸다.정기예금의 인기가 뜨거운 것은 최근 이들 은행이 일부 예·적금 상품에 대해 금리를 크게 끌어올렸기 때문이다.신한은행은 지난달에만 두 차례 수신 금리를 올렸다. 다른 은행도 금리를 올려 적금의 경우 최고 연 5%대, 정기예금은 최고 연 3%대 중반의 금리를 제공하고 있다. 2금융권인 저축은행의 예금 상품 금리가 연 3%대 후반인 점을 고려하면 시중은행의 수신 금리 경쟁력도 낮지 않다.시중은행이 자본력을 앞세워 공격적으로 수신 금리를 올리면서 인터넷은행은 수세에 몰렸다. 저금리 시절엔 인터넷은행의 수신 금리가 상대적으로 더 높았으나 금리 상승기에 접어들면서 그런 차별성이 사라졌다. 케이뱅크는 지난 6~7월 연 5% 적금 특판, 연 3% 정기예금 특판을 진행한 덕분에 지난달 말 기준 수신 잔액(13조3300억원)을 전달 대비 1조1500억원 불렸다.그러나 카카오뱅크는 지난달 말 수신 잔액(32조6534억원)이 전달 대비 5274억원 감소했다. 금리가 더 높은 은행들에 고객을 빼앗긴 것으로 풀이된다.결국 카카오뱅크는 지난 5일 예·적금 금리를 올린다고 발표했다. 카카오뱅크는 정기예금 금리를 0.5~0.6%포인트 올려 1년 만기 상품의 금리를 연 3.1%, 3년 만기는 연 3.6%까지 끌어올렸다.토스뱅크는 새로운 수신 상품을 출시하는 것으로 금리 경쟁에 뛰어들었다. 저금리 시절 토스뱅크는 1억원까지 연 2% 금리를 제공하는 수시입출식 통장으로 인기몰이를 했다. 토스뱅크의 유일한 수신 상품이었다. 그러나 전체 은행권의 금리가 올라 연 2%로는 경쟁할 수 없게 되자 지난 6월 연 3% 금리를 주는 적금을 내놨다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.08.10.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>잇단 전산사고에도...대형증권사 IT투자 인색</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002026934?sid=101</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>최근 10년 순이익 6배 늘 때전산운용비 증가 1.8배 그쳐모바일 투자가 보편화됐지만 증권사들의 전산 관련 지출은 인색한 것으로 나타났다. 전산 관련 역량은 고객 편의성 뿐 아니라 거래의 안정성 측면에서 특히 중요하다. 고객 피해를 대규모로 배상해야 하는 심각한 사고는 증권사들의 건전성에도 영향을 미칠 수도 있다.금융감독원의 금융통계를 보면 증권사들의 순이익은 2011년 1조4590억원에서 2021년 8조4500억원으로 6배 가까이 커졌다. 이 기간 판매관리비도 5조1930억원에서 11조6010억원으로 2배 이상 늘었다. 급여와 복리후생비가 2조8000억원에서 7조2210억원으로 2.6배 급증한 반면 전산운용비는 3410억원에서 6220억원으로 채 2배가 늘지 못했다. 판관비 가운데 전산운용비 비율은 2013년 7.4%를 정점으로 내리막을 타면서 지난해에는 5.4%까지 추락했다.주요 대형증권사의 지난해 전산운용비를 보면 삼성증권이 822억원으로 가장 많고, 이어 키움증권 764억원, 미래에셋증권 667억원 순이다. 이번에 사고가 난 한국투자증권이 330억원으로 4위다. 신한금융투자와 NH투자증권도 각각 311억원, 309억원으로 액수로는 상위권이다.하지만 고객수 등 회사 규모를 감안하면 대형사들의 전산관련 지출은 사실상 중소형사에도 못 미치는 곳들이 대부분이다. 판관비 대비 전산운용비 비율을 보면 키움증권과 카카오페이증권이 두자릿 수로 1,2위다. DB금융투자, IBK투자, SK증권, 토스증권 등 중소형사들도 상위권에 이름을 올리고 있다. 대형사 가운데는 삼성증권, 대신증권, 미래에셋증권 정도가 업계 평균을 넘길 뿐이다. 한국투자증권, NH투자증권, KB증권 등 초대형 증권사들은 고작 3%대에 그치고 있다. 순이익과 임직원 평균 급여에서는 업계 최상위인 곳들이다. 홍길용 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>[성공예감] 순이익만 2조 버는 비상장 스타트업, 지금이 투자 타이밍? - 슈미트 조가연 수석팀장</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011314268?sid=101</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>■ 인터뷰 자료의 저작권은 KBS라디오에 있습니다.  인용 보도 시 출처를 밝혀주시기를 바랍니다.■ 프로그램명 : 성공예감 김방희입니다■ 방송시간 : 8월 3일(수) 09:05-10:53 KBS1R FM 97.3 MHz■ 진행 : 김방희 소장 (생활경제연구소)■ 출연 : 조가연 수석팀장 (슈미트)- 기업 가치가 10억 달러, 1조 원 이상의 비상장 신생기업, 유니콘... 우리나라 23개 회사- 가장 몸값 비싼 유니콘은 틱톡 개발한 중국의 바이트댄스, 일론 머스크의 우주 회사 스페이스X 등... 경제 상황에 따라 변동- 가치 10조 원 이상의 데카콘... 우리나라는 야놀자, 두나무, 토스 운영사인 비바리퍼블리카- 기업 가치 평가 공식 없어... 정량적, 정성적 등 회사마다 판단 기준 달라- 토스 알뜰폰, 모빌리티 스타트업 타다 인수 등... 앱 하나로 대부분의 일상 거래가 가능한 슈퍼앱 노려- 두나무, 증권거래 앱으로 시작해 2017년부터 가상자산 거래소 업비트 출시- 국내 유니콘, 나스닥 상장 고려했으나 최근에는 대부분 상장 계획 재검토- 마켓컬리, 신선식품과 먹거리 중심에서 뷰티 시장에 출사표... 시장 점유율과 지배력 확보를 위한 영역 확대- 벤처 투자, 4~5년 이상 장기 투자로 접근해야... 거품 꺼지며 기업 가치 현실화도- 비상장 투자 시 더 꼼꼼한 정보 파악 필요하고, 생활 속 활용도와 친숙도 높은 기업 중심으로 관심◇김방희&gt; 저희 방송에서 여러 차례 소개해 드려서 아마 이 용어 자체는 아실 겁니다. 유니콘, 기업 가치 1조 원 이상인 비상장 스타트업 기업을 얘기합니다. 비상장이라는 건 주식시장에서 거래되지 않는 그리고 기업 가치가 1조 원 이상인 기업입니다. 워낙 상상 속의 동물처럼 희귀하다 그래서 시작된 용어인데 요즘은 우리나라에서도 꽤 많이 찾아볼 수 있습니다. 그래서 오늘은 우리나라에서 잘 나가는 K 유니콘 그리고 무엇보다도 우리 일상생활을 파고든 스타트업 기업들은 어떤 데가 있을까 아마 여러분 다 들어보셨거나 이미 상품이나 서비스를 구매하고 계실 겁니다. 이 얘기를 좀 해보겠습니다. 미래 생활사전 슈미트 조가연 수석팀장과 함께 국내 대표 유니콘 기업 상황, 또 비상장 기업인데 이게 기업 공개라든가 투자의 관점에서도 한번 들여다보도록 하겠습니다. 어서 오십시오.◆조가연&gt; 네, 안녕하세요.◇김방희&gt; 유니콘 기업이 몇 개다 하는 용어들이 늘 나오던데 그런데 이걸 누가 선정하는 거예요. 조가연 팀장이 정하는 건 아니잖아요.◆조가연&gt; 일단은 유니콘이라고 하는 정의를 보면 소위 기업의 또는 몸값이라고 하는 게 달러 기준으로 10억 달러, 우리 돈으로는 이게 1조 2000억 원 정도 되는데요. 이 정도를 넘어선 비상장 신생기업들을 모두 다 유니콘이라고 합니다. 그렇기 때문에 실제로 투자 유치를 한 기준으로 외부의 제3자 투자 기관에게 우리 돈 1조 원 정도의 기업 가치를 인정받는다면 유니콘 목록에 올라가고요. 이걸 집계하는 기관들이 몇 개가 있습니다. 가장 많이 알려진 곳이 CB인사이트라고 하는 미국의 스타트업 분석 회사인데 여기가 거의 매 분기마다 그 해에 유니콘으로 집계를 하고 있고요. 올해 7월 초 기준으로는 전 세계 유니콘이 1170여 개가 있습니다. 그렇다면 한국은 얼마가 있냐고 늘 되물으실 텐데 올해 상반기에 5개 기업 정도가 새로 이름을 올리면서 국내 같은 경우는 유니콘이 총 23개 회사이고요.◇김방희&gt; 이것도 많이 늘었군요. 얼마 전까지 열 몇 개다 이런 얘기를 했었는데◆조가연&gt; 네, 맞습니다. 중소벤처기업부가 최근에 발표한 자료를 보면 글로벌 분석회사가 집계한 15개 회사에 집계되어 있지는 않지만 투자업계의 정보를 통해서 1조 원 이상의 몸값이 책정됐다고 하는 8개 회사를 더했고요. 발표된 목록을 보면 올해 새로 이름을 올린 한국형 유니콘들이 클라우드 서비스를 하고 있는 메가존 클라우드나 빅데이터 플랫폼인 IGA웍스 그리고 온, 오프라인 숙박 정보를 알려주고 있는 여기어때 컴퍼니 같은 곳들이 이름을 올렸습니다.◇김방희&gt; 이거 사실은 조가연 팀장 업무와도 밀접한 관련이 있는 게 이렇게 유니콘으로 성장할 싹수가 보이는 기업을 찾는 게 가장 중요한 업무잖아요. 투자를 해야 되는 입장에서는 모두가 바랄 텐데 아까 몇 개 제외된 곳도 있다고 그러는데 새로 입성한 회사들도 있고 어떤 데들이 제외됐습니까? 그리고 무슨 이유로 제외가 됐습니까?◆조가연&gt; 기준 유니콘 기준이 일단 1조 원이라고 하는 몸값 기준도 있지만 동시에 상장하지 않은 벤처기업이어야 합니다. 그래서 기존의 유니콘은 목록에 올랐었지만 상장을 한 쿠팡이라든지 게임회사 크래프톤 그리고 엔터 회사 하이브 같은 경우는 제외가 됐고요. 쿠팡 같은 경우는 작년 3월에 뉴욕 증시에 상장을 했고 크래프톤이나 하이브, 과거의 빅히트 엔터였죠. 여기 같은 경우도 200년도와 2021년도에 상장을 하면서 유니콘 요건에는 제외가 됐습니다. 그리고 그 외에 과거에도 유니콘이었던 배달의 민족 운영사 우아한 형제들 같은 경우도 M&amp;A가 되면서 글로벌 M&amp;A가 되면서 일단은 유니콘 집계에서 제외가 되어 있는 상황입니다.◇김방희&gt; 2020년 국내 유니콘 기업. 그때 저희들도 소개해 드린 것 같은데 13개사였는데 23개로 늘었다. 상당히 자부심을 느낄 만한 요인도 있지만 세계 시장 전체하고 비교했을 때 아까 CB인사이트 기준으로 1170개가 있으니까 아직도 많이 부족한 편이죠.◆조가연&gt; 사실 이 숫자 싸움이라고 하기에는 여러 가지 질적인 부분도 들여다봐야 될 것 같기는 한데요. CB 인사이트라고 하는 분석회사 집계로는 나라별로 미국이 한 490여 개사, 중국이 170여 개 인도가 한 50여 개 정도의 유니콘 기업들을 보유하고 있습니다. 그리고 시기마다 조금 다르겠지만 한국 같은 경우는 약 10위권 정도에 머물러 있는 상황이고요. 국가 순위로 보면 낫지 않습니다. 가장 그러면 몸값이 비싼 유니콘이 누구냐라고 보면 틱톡을 개발한 중국의 바이트댄스가 2020년도 3월에 그 당시 투자를 받으면서 우리 돈으로 183조 몸값을 인정받으면서 굉장히 오랫동안 1위 자리를 지키고 있고요. 그 외에 일론 머스크가 창업한 우주 회사 스페이스X가 156조 원 그리고 중국의 패스트 패션 플랫폼인 쉐인이라고 하는 곳 그리고 온라인 결제 서비스 스트라이프 그리고 지금 사고 나중에 결제하는 BNPL 회사 클라르나가 순차적으로 이름을 올리고 있습니다. 다만 이 몸값이라고 하는 것이 딱 정해놓고 고정되어 있는 게 아니라 경제 상황이라든지 여러 가지 투자 분위기에 따라서 많이 바뀌는데요. 앞서 말씀드렸던 클라르나 같은 회사는 여기가 작년 6월에 투자를 받으면서 그 당시에 우리 돈으로 한 59조 원 정도 기업 가치를 책정 받았고 그때 유럽에서 가장 몸값이 비싼 유니콘이었습니다. 그런데 12개월 만에 지난달에 거의 85%가 하락해서 8조 원의 투자를 유치를 했거든요. 그러니까 그만큼 경제 상황이 안 좋아지고 투자 업계가 안 좋아진다면 이 유니콘 목록은 언제든지 바뀔 수 있습니다.◇김방희&gt; 우리 조가연 팀장이 기업 가치 책정을 받았다. 이런 표현을 썼는데 그도 그럴 만한 게 자신들이 내세우는 게 아니라 투자를 유치 받을 때 얼마의 지분을 얼마 가치로 유치를 하는데 그렇게 되면 전체 몸값이 어느 정도 결정이 되다 보니까 기업 가치가 책정된다 이런 표현을 쓰는 건데. 아무래도 경제 상황이나 벤처 캐피탈 투자 업계의 분위기가 많이 작용하겠죠. 클라르나 같은 예가 대표적인데. 한 해가 다 가기 전에 85% 몸값이 하락하는 게 어떻게 있을 수 있느냐 그렇겠지만 투자와 스타트업 업계 분위기라는 게 이렇게 상당히 변동성이 크다. 이렇게 이해하시면 되겠습니다. 그리고 유니콘보다 더 기업 가치가 높은 게 데카콘, 헥토콘이라는 게 있는데 이런 기업들은 대개 우리가 알 만한 회사들입니까?◆조가연&gt; 유니콘이 아까 우리 돈 1조 원이었고요. 데카콘이 우리 돈 10조 원 정도 이상 그리고 헥토콘이 기업 가치 1천억 달러니까 우리 돈 100조 원 정도 이상입니다. 기업 가치 1천억 달러 이상으로 도달한 글로벌 기업은 앞서 말씀드린 중국의 바이트댄스가 처음으로 도달했고요. 그 외에 스페이스X나 쉐인까지가 현재로서는 기업 가치 1천억 달러 이상입니다. 데카콘 그니까 기업 가치 1100억 달러 이상으로 보면은 전 세계에 한 50개 정도 회사가 있는데. 잘 아실 만한 곳은 미국의 인스타카트라고 식료품 배달 서비스 그리고 인도의 교육 스타트업인 바이주스 같은 경우가 이름을 올려 있고요. 한국으로 눈을 돌리면 일단 야놀자와 두나무 그리고 토스를 운영하는 비바리퍼블리카 3개 회사가 있는데 야놀자 같은 경우는 작년 여름에 소프트뱅크에서 투자를 받으면서 거의 그때 2조 원 투자를 받으면서 데카콘 지위에 올랐고. 두나무 같은 경우도 작년 주식 거래가 기업 가치 10조 원 정도 수주를 달성했습니다. 그러면서 국내에도 약 2, 3개 회사가 데카콘의 이름을 올리고 있다고 보시면 좋겠습니다.◇김방희&gt; 유니콘, 데카콘, 헥토콘 할 때 가장 중요한 게 기업 가치인데. 여기서 주의를 하셔야 되는 게 1조 이상이다. 그러면 매출이 1조라는 게 아니잖아요. 그러니까 기업 가치가 1조로 상당히 유망하다 이렇게 봐야 되는 거죠.◆조가연&gt; 제가 이런 비유를 하고 싶지는 않은데 과일을 비싸게 판다고 해서 그 과일이 가격에 비례하게 맛있는 건 아니잖아요. 그때의 시세라든지 어떤 평가에 따라서 바뀌는 것이기 때문예요. 기업 가치라고 하는 건 실제로 어떤 매출이라기보다는 대외적으로 투자하는 제3자의 기관에서 당신은 어느 정도의 기업 가치가 있다고 인정해 주는 시장에서의 몸값이라고 보시면 좋겠습니다. 사실은 유니콘이라고 하는 것도 주식시장에 상장도 안 했는데. 이렇게 기업 가치가 높은 스타트업이라니 그렇다면 굉장히 희귀한 것이라고 해서 유니콘이라고 붙였던 건데. 앞서서 거의 한 1100개 정도의 유니콘들이 있잖아요. 이미. 그러니까 지난 몇 년 동안 워낙 이런 벤처 투자 시장의 유동성이 많이 있었고 그렇다 보니 시장에 돈이 풀리니까 너도 나도 스타트업들이 기업 가치를 높여오는 것들이 상대적으로 수월했습니다. 분석회사 자료를 보면 2019년도 1분기부터 2020년도 마지막 분기까지 매 분기별로 새로운 유니콘이 거의 한 30여 개 정도가 탄생을 했었는데요. 작년 한 해 같은 경우는 가장 시장에 유동성이 많았던 때였기 때문에 그때부터는 매 분기마다 거의 100여 개가 생기기 시작했습니다. 그러니까 작년 한 해 동안만 전 세계 신규 유니콘이 거의 540여 개 정도가 됐고요. 다만 올해 경제 위기가 오다 보니까 올해 2분기 같은 경우는 80여 개 정도로 신생 유니콘들이 줄어들었고 동시에 기존의 유니콘 목록에 올랐던 곳들도 아까 클라르나처럼 투자 유치하는 과정에서 몸값이 떨어지면서 유니콘 목록에서 이름이 빠지기도 했고요. 또 유니콘이라고 해서 그 기업 가치가 영원히 존속되는 게 아니라. 상장하고 기업 가치가 엄청 떨어진 우버 같은 경우도 대표적인 사례이고 상장에 실패한 다음에 기업 가치가 3분의 1 토막이 났던 위워크 같은 경우도 이 유니콘 버불을 주의를 해야 한다는 사례 중에 하나입니다.◇김방희&gt; 유니콘 버블을 말씀해 주셨는데. 아닌 게 아니라 미국에서도 유니콘인 줄 알았는데 자세히 보니까 염소더라 이런 기업들이 많아지고 있어서 버블에 주의하셔야 됩니다. 조가연 팀장과 함께 세계적으로 잘 나간다는 유니콘 이상의 기업들, 1조 원 이상의 기업 가치를 가지는 비상장 회사들 얘기를 하고 있는데. 우리 기업 얘기를 잠시 후에 하죠. 실제로 이 기업 가치를 어떻게 책정할 거냐, 산정할 거냐 이런 것들이 상당히 중요한데 어떻게 합니까? 그 기술적인 부분인데 아까 개념적으로는 제가 설명드렸는데. 조가연 팀장은 늘상 하는 일이 이런 일일 테니까 좀 자세히 설명해 주시죠.◆조가연&gt; 가장 많이 받는, 창업팀에게서 가장 많이 듣는 질문 중에 하나가 기업 가치는 보통 어떻게 정해지나요, 공식이 있나요. 이런 걸 많이 물어보시는데 정말로 답이 없습니다. 이게 정량적으로 평가하기도 하고 동시에 사람별로 정성적으로 평가하기도 하고 어떤 회사마다 판단하는 사람마다의 영역인데요. 대부분 일반적으로는 기대 매출을 현재로 끌어와서 몸값을 수정하기도 하고 아니면 최근에 비슷한 사업을 하고 있는 다른 기업들이 보통 얼마에 투자를 받았냐가 정해지는 기준 중에 하나가 되기도 합니다. 또 반대로 사업을 몇 년 정도 하고 이미 상장한 회사의 몸값이 얼마라면 어느 정도 연차의 비상장회사는 이 정도가 될 거라고 추정을 하기도 하고요. 다만 작년까지 투자업계에서 이야기가 되기로는 PDR이라고 하는 게 많이 이야기가 됐는데. 이게 주가를 꿈으로 비율을 환산한다는 얘기입니다. 그러니까 다시 말해서 매출이나 이익이 낮고 지금은 조금 성장 단계가 낮더라도 꿈을 가지고서 미래의 성장 가능성이 높다면 그 기대감을 반영한 밸류에이션인데요. 상대적으로 그렇다 보니까 기업 가치 판단하는 게 좀 후했던 거죠. 다만 앞서 말씀드렸던 것처럼 벤처버블이든 유니콘 버블이든 이런 게 좀 꺼지고 요즘에 조금 보수적으로 투자 업계가 변하면서 그런 꿈이 아니라 실제로 얼마큼 매출을 내느냐 그리고 실제로 어느 정도 이익을 내고 있느냐까지도 보고 있는 상황입니다.◇김방희&gt; 그렇군요. 이거는 그러니까 지분에 해당하는 투자액을 결정할 때 사실상 기업 가치가 결정되는 셈인데 스타트업 창업자들하고 투자자들이 상당히 견해차를 보일 수밖에 없는 거죠. 제가 창업한 회사는 몸값이 이 정도는 됩니다. 이렇게 터무니없는 주장을 하는 경우도 있을 거 아니에요.◆조가연&gt; 이제 창업자분들은 당연히 본인들의 아이디어나 사업에 대한 애정도가 높으시다 보니까 좋은 얘기로는 주관적인 판단이시기도 하고 어떻게 보면 꿈이 과한 경우도 왕왕 있기는 합니다. 또 작년 같은 경우는 시장이 굉장히 좋았어서 그때 투자 받을 때에는 훨씬 더 그러니까 똑같은 단계의 비슷한 모습이라도 훨씬 더 좋은 기업 가치에 투자를 받으셨을 수 있겠지만 지금 1년여 사이에 유니콘 기업이 85% 몸값이 빠질 정도로 굉장히 경색되어 있는 상황이다 보니 시기별로 어떤 경제적인 지표들을 같이 고려한 책정이 불가피한 상황입니다.◇김방희&gt; 지금부터는 국내 유니콘, 데카콘 기업들을 살펴보도록 하겠습니다. 잘 나가는 기업들입니다. 우리 일상생활을 이미 파고든 기업들이기도 하고요. 금융 쪽에서 비바리퍼블리카라는 회사 꼽는데 여기가 대중들한테 토스 운영하는 곳으로 알려진 곳이죠?◆조가연&gt; 네, 간편 송금 서비스로 시작을 했던 2013년도에 창업한 토스 운영사이고요. 처음에는 복잡한 공인인증서 이런 거 없이 상대방의 전화번호만 알면 송금을 할 수 있는 서비스로 시장에 등장을 했다가 이후에는 간편, 결제, 대출, 투자, 보험 같은 금융 서비스 부가를 시작했고요. 최근에는 토스증권이나 토스뱅크 같은 굉장히 전통적인 금융 영역의 자회사까지 만들면서 거의 10여 개 정도의 자회사를 보유한 종합 금융까지 성장을 하고 있습니다. 여기가 2018년도에 기업 가치 10억 달러로 이제 국내 핀테크 기업들 중에서는 가장 먼저 유니콘 대열에 합류를 했습니다.◇김방희&gt; 최근에 3000억 규모의 신규 투자 유치했고 또 알뜰폰 업체의 지분도 인수하기도 했는데 약간 인터넷 전문은행의 영역을 벗어나서 사업을 확장시키는 것 같은데 왜 그런 겁니까? 뭘 하려는 겁니까?◆조가연&gt; 이게 사실 알뜰폰 같은 경우는 적지 않은 금융사들이 관심을 갖고 있는 영역 중에 하나입니다. 실제로 앞에 KB국민은행이나 신한은행 같은 경우 같은 그런 기존의 금융사들도 이미 알뜰폰 사업에 진출해 있고요. 토스 같은 경우에는 올해 7월에 머천드코리아라고 하는 알뜰폰 사업자 지분을 100% 인수를 하면서 가입자 약 10만 명 정도 보유하고 있는 회사를 인수하게 됐고요. 인수하면서 밝히기로는 그 토스 어플 안에서 알뜰폰 요금제도 검색을 하고 또 토스가 가지고 있는 인증서를 가지고서 개통까지 하는 서비스를 출시하겠다고 얘기를 했습니다. 만약에 이 개통 이후에 요금 결제까지 토스를 통해서 할 수 있다면 사실은 통신 서비스의 가입부터 개통, 결제까지 전체 이 밸류체인을 낙인을 할 수 있는 거고요. 또 통신이라고 하는 게 단순히 결제만 하는 게 아니라 이 사람이 이동을 하고 어디에서 어떤 것들을 하는지 결제 통신 데이터가 함께 확인이 되잖아요. 이런 것들이 어떤 생활 패턴이나 데이터화된다면 맞춤형 금융상품을 부가를 할 수도 있고 다른 추가 서비스도 기대해 볼 만한 것 같습니다.◇김방희&gt; 일상생활 가운데서도 가장 경제적이라고 할 수 있는 통신과 금융 분야를 중심으로 해서 소비자들을 묶어놓겠다. 이런 전략인 것 같은데 이번에 투자 유치하면서 다시 확인된 몸값 보니까 8조 6000억 원. 그러니까 9조 원인 카카오페이를 거의 턱밑까지 추격하기도 했고 카카오페이의 경우에는 상장 후에 주가가 하락하면서 9조 원대니까 IBK기업은행 시가총액은 이미 넘어섰더군요. 소위 대기업의 벽을 넘어서 지금 우리 생활 전반에 커다란 영향을 주고 있는데 최근에 모빌리티 스타트업 인수한다고 그러는데 이건 또 무슨 맥락인지 모르겠군요.◆조가연&gt; 작년 말에 모빌리티 스타트업 논란이 있었던 타다를 이미 인수를 했습니다. 100% 자회사는 아니고요. SOCAR가 가지고 있었던 타다 운영사 VCNC의 지분을 약 60% 정도 토스가 인수를 한 겁니다.◇김방희&gt; 실질적인 주인이군요.◆조가연&gt; 네, 토스가 비금융 사업에 진출을 한 것은 이게 처음이고요. 원래 타다 같은 경우는 2018년도에 그 승합차를 가지고서 이런 승차 호출 서비스를 시작을 해서 거의 170만 명 정도의 사용자를 확보를 했었었는데 소위 타다법이라고 했었죠. 그때 여객자동차 운송사업법 개정이 되면서 이후에는 서비스를 변경해서 운영을 하고 있습니다. 토스 같은 경우는 사실은 핀테크가 아니더라도 우리 플랫폼이 성장할 수 있는 전략과 맞다면 적극적으로 인수를 뭐든지 하겠다고 얘기를 했고요. 사실 택시 같은 경우 들여다보면 국내 택시 시장의 연 매출이 한 12조 원 정도가 이야기가 되고 있습니다. 그리고 12조 원 중에 상당한 수가 스마트폰을 가지고서 결제를 하거나 또 스마트폰으로 호출을 하는 비중이 굉장히 높거든요. 그렇게 본다면 타다를 통해서 우리가 앱을 호출하고 결제하는 것들도 어떻게 보면 토스 플랫폼 안에 넣어갈 수 있는 거고요. 사실은 예전에 이런 앱들을 설명할 때 슈퍼앱이라고 하는 얘기를 굉장히 많이 드렸었는데.◇김방희&gt; 그렇죠. 그때 소개해 주셨죠. 앱 하나만 깔면 대부분의 일상적인 거래가 가능하도록 만드는 건데.◆조가연&gt; 네, 맞습니다. 슈퍼앱을 하기 위한 포석 중에 하나가 아니냐라는 얘기도 하고 있습니다. 사실 토스 같은 경우는 만복의 기능을 내서 하루에도 여러 번 들어갈 수 있게 유도를 한다거나 토스뱅크에서 매일 이자를 주는 서비스를 한다는 등 이 앱에 자주 올 수 있도록 사용자들을 인도하고 있는데 이렇게 타다라는 서비스 그리고 알뜰폰 사업까지 진출을 하면서 어떻게 보면 토스 플랫폼 안으로 굉장히 다양한 생활의 영역들을 붙이고 있다고도 볼 수 있을 것 같습니다.◇김방희&gt; 그렇군요. 특히 토스의 경우에는 사용자 경험이라는 측면에서 경쟁력이 있기 때문에 왜 이용하냐 하고 누가 물으면 저 같은 경우는 숫자가 커서 보기가 편해서 이런 것들은 어쨌든 사용자를 고려해서 맞춰나가고 있으니까 그런 차원에서 계속 슈퍼앱을 향한 행보는 거듭되겠군요. 창업자가 이승건 대표라고 치과 의사 출신이에요. 그런데 왜 의사 가운 벗고 인터넷 전문은행 세운 겁니까? 최근에 또 실적 어떤지도 궁금하네요.◆조가연&gt; 알려진 바로는 스마트폰 기반 서비스 창업에 굉장히 관심이 많았던 것 같아요. 그래서 이 토스 전에도 여러 가지 SNS라든지 앱 서비스들을 출시하고 실패를 해본 경험이 있고요. 그중에서 송금 서비스 아이디어로 시장 테스트가 굉장히 잘 됐고 그 덕분에 빠르게 스마트폰을 기반으로 한 종합 금융 플랫폼으로 성장을 하고 있는 와중입니다. 실적으로는 2019년도 기준으로 연 매출이 1180억 원. 당시 영업 손실이 한 1150억 원이었는데 작년 같은 경우는 연 매출이 8700억 원 정도로 올랐고요. 영업 손실도 한 1890억 원 정도여서 일단은 몸집을 불려가는 것들은 잘 해온 것 같습니다.◇김방희&gt; 몸집은 크게 불려오고 있는데 아직은 적자 상태라는 게 이런 성장형 유니콘들의 특성인데 이 경우도 마찬가지군요. 그 두나무라는 건 가상자산 투자하시는 분들은 잘 아시는데 거래소 운영하는 회사죠?◆조가연&gt; 네, 가상자산거래소 업비트를 운영하고 있는 회사이고요. 원래 2012년도에 만들어지기에는 모바일 증권 거래 앱으로 시작을 했습니다. 그래서 거의 한 5년 정도 증권거래 앱 사업을 중심적으로 하고 있었고요. 그러다가 가상자산시장의 트렌드를 보고서 2017년도부터 암호화폐 거래소 업비트를 출시하면서 일종의 사업 피벗을 했고요. 원래 증권거래 앱을 오랫동안 운영을 해왔다 보니까 그동안 앱 운영 경험을 살려서 상대적으로는 국내에서 빠르게 성장을 했습니다. 특히 2017년도와 2018년도에 그때 코인 시장이 굉장히 많이 성장을 했었는데 그때 힘입어서 2018년도 초에 보니까 이 업비트의 월 거래량이 200조 원 이게 전 세계 거래량의 거의 15% 정도 수준이었는데 그 정도를 업비트라고 하는 플랫폼에서 소화를 하고 있었습니다.◇김방희&gt; 대단했죠. 사실 가상자산 가상화폐가 열기가 대단했을 때는 이 거래소가 그랬는데. 최근에 보니까 미국 시장 상장 가능성 얘기 나오는데 믿기가 좀 어려워서. 컬리도 그런다고 그랬다가 국내로 유턴하기도 하고 그래서. 현실성은 얼마나 있을까요?◆조가연&gt; 사실 국내에 적지 않은 유니콘 스타트업들이 나스닥 상장을 고려하는 경우가 많았습니다. 그동안 책정되었던 몸값이라고 하는 게 국내 증시에서는 익숙하지 않았다 보니까 그런 밸류에이션 부담을 미국 시장을 통해서 해소를 하려고 했던 거고요. 두나무 같은 경우도 올해 초에 다시 나온 언론 보도를 보니까 일단은 상장이 결정된 게 없다고 얘기를 하고 있고 두나무뿐만이 아니라 현 시점에 대다수 한국 유니콘들이 상장 계획을 재검토하고 있는 상황이어서 어떤 시기를 단정하기는 어려울 것 같습니다. 그럼에도 불구하고 업계에서는 소위 넥스트 테크는 누가 될 것이냐라는 얘기를 할 때 기존에는 카카오와 쿠팡이 있었다면 그 이야기가 두나무와 토스로 넘어온 상황입니다. 두나무는 엄청난 실적을 내고 있고요. 토스 같은 경우도 앞서 말씀드렸던 것처럼 종합금융 플랫폼을 구축하고 있기 때문에 그런 점에서 업계에서 주목을 하고 있는 편이고요. 사실 이 두 기업 모두 핀테크 금융 분야이잖아요. 이게 글로벌 유니콘 클럽들 목록을 보면 핀테크와 이런 소프트웨어 분야가 전체에서는 숫자로 톱2입니다. 전체 유니콘 중에 약 20% 정도가 핀테크 기업들이고요. 다만 국내 같은 경우는 이런 금융 핀테크 회사들이 좀 글로벌 대비 발전 속도가 느렸던 편인데 그래도 시장 자체가 크다 보니까 토스나 이런 두나무 같은 경우는 주목할 만한 것 같습니다.◇김방희&gt; 그렇군요. 카카오와 쿠팡을 잇는 잠재적인 두 나무. 회사 이름이 아니라 두 개의 쌍두마차라고 그럴까요, 그걸 토스하고 두나무를 꼽아주셨는데. 그런데 하나 변화도 예상되는 게 가상자산 시장 자체가 지금 굉장히 어려워졌잖아요. 겨울이라는 얘기도 있고 최근에 조금 반등하기는 했습니다마는. 빗썸코리아라는 것도 거래소 유니콘 기업인데, 두 회사 실적은 어때요. 최근에.◆조가연&gt; 두나무가 일단 2021년도 매출이 3조 7000억 원으로 전년 대비 20% 성장을 했고요. 눈여겨볼 만한 게 작년에 순이익만 2조 3300억 원입니다. 카카오가 작년 연매출이 6~7조 원 정도이고 영업이익이 5000억 원이거든요. 어떻게 보면 그러니까 지표로는 정말 무시할 수 없는 유니콘이고요.◇김방희&gt; 이미 이익을 내는 거죠. 수수료를 받고 그러니까.◆조가연&gt; 네, 순이익이 2조입니다. 빗썸 같은 경우도 같은 기간에 1조 원대 매출 정도로 성장을 해 있기 때문에 물론 크립토 겨울이라고 해서 가상화폐 시장에 와 있지만 이미 쌓아놓은 이익과 어떤 현금 창출 능력이 있기 때문에 그런 점에서 실적은 무시할 수 없는 상황입니다.◇김방희&gt; 가상자산, 가상화폐는 여전히 논란거리고 부정적인 시각도 많은데. 글쎄요, 기업 입장에서는 이런 이미지를 극복해야 한다는 과제도 안고 있다고 봐야 되겠죠?◆조가연&gt; 대부분의 블록체인 가상화폐 기업들이 약간의 어떤 안 좋은 시선들은 안고 가는 것 같은데요. 두나무 같은 경우는 밝히기로는 본인들이 가지고 있는 이익금을 가지고서 인수합병이나 인재 채용을 적극적으로 하겠다고 얘기하고 있고요. 지난달 보도를 보니까 두나무가 향후 5년 동안 총 5000억 원을 투자해서 직접 채용 일자리 2000개 그리고 유망 스타트업 투자를 통한 간접 채용 일자리 8000개를 만들겠다고 얘기를 하고 있고요. 사실은 후배 스타트업을 키우는 것도 좀 적극적으로 하고 있는 편입니다. 일종의 기업형 벤처캐피탈 CVC인 투자 전문 자회사를 가지고 있는데 여기에서 블록체인이나 핀테크 외에도 AI나 콘텐츠 같은 회사들 투자를 많이 하고 있고요. 또 이번 정부가 이런 가상자산 시장을 육성하겠다. 그리고 관련 규제 같은 것을 해소를 해서 제도권에서 돌아가게 하겠다고 얘기를 하고 있어서 그런 점에서는 시장도 나쁘지 않다라고 보는 것 같습니다.◇김방희&gt; 최근에 이 회사 같은 경우는 대기업 지정이 돼서 상당히 업계에서 논란이 있던데. 이건 왜 그렇습니까?◆조가연&gt; 원래 공정위원회에서 매월 5월에 대기업 집단 발표를 합니다. 그러니까 이게 자산총액이 5조 원 이상이면 공시대상 기업이 되고요. 자산총액이 10조 원 이상이면 상호 출자가 제한되는 대기업 집단으로 발표가 됐는데 두나무 같은 경우는 이런 가상자산 관련 기업으로는 최초로 공시 대상이자 동시에 상호출자 제한 두 가지 모두 지정이 됐습니다. 이게 회사 입장에서는 이야기하기로는 우리가 ESG 경영위원회도 만들어서 대기업으로서 사회적 책임을 하겠다고 얘기를 하고 있는데. 투자 업계에서 봤을 때에는 사실은 대기업 집단에 지정되면 벤처캐피탈 투자가 굉장히 어려워집니다. 국내 벤처투자법상 기업집단 소속되면 투자가 어렵고요. 반대로 외국계 벤처캐피탈이나 외국계 자본들은 자유롭게 투자를 할 수 있다 보니까 어떻게 보면 국내 유니콘인데 우리가 투자를 못 하는 그런 역차별이 아니냐라는 업계의 일부 이야기도 있습니다.◇김방희&gt; 그런 논란도 벌어지고 있고. 아까 질문 왔던 야놀자 상장은 어떻습니까? 상장이 조금씩 유예되는 분위기여서 이 기업도 예외라고 볼 수는 없을 것 같은데, 어때요?◆조가연&gt; 지금 뭐 비바리퍼블리카도 내년으로 목표했던 상장을 2~3년 늦추겠다고 얘기를 하고 있고 야놀자나 여기어때 같은 곳들도 일단은 숨고르기를 하고 있는 상황이어서 국내 유니콘 기업들 중에서 가장 먼저 가시적으로 상장을 이야기하는 곳은 컬리 정도가 아닐까 싶습니다.◇김방희&gt; 그 얘기를 좀 해보죠. 마켓컬리는 또 워낙 일상을 파고든 기업들인데. 참고로 이미 성공예감 청취자 여러분들은 아시겠지만 기업 이름을 얘기하지 않을 수 없는 상황입니다. 유니콘 기업들의 경우에는 그러니까 이건 전혀 다른 이해와는 관련이 없기 때문에 참고해 주셨으면 고맙겠고요. 아무래도 코로나19 겪으면서 유니콘 기업들 중에 수혜 그룹이 생겼는데 말씀해 주신 컬리 같은 것도 그런 예가 아닐까 싶은데 이 당시 지금 수혜를 입은 기업들, 스타트업 업계에서는 어느 쪽이라고 보십니까? 어떤 쪽들이 재미 좀 봤습니까? 코로나 기간 중에.◆조가연&gt; 원래 글로벌 유니콘 집계 분석을 보면 원래도 전자상거래나 이커머스 분야는 글로벌 유니콘 중에 비중이 높았습니다. 그런데 코로나19 기간 동안 조금 더 많이 성장을 했고요. 한국 같은 경우는 대표적으로 새벽 배송 유니콘인 컬리나 오아시스가 수혜를 받았고 그 외에 오늘의집 같은 인테리어 플랫폼, 당근마켓 같은 전자상거래 유니콘도 상당히 성장을 했습니다. 컬리로 돌아가면 컬리는 원래 2015년도에 만들어져서 농수산물 유통으로 시작했다가 이런 온라인 장보기 컬리를 시작을 했고요. 또 샛별 배송, 아침에 배송해주는 새벽 배송 서비스로 차별화 하면서 코로나19 기간에 이런 주문 건수가 늘어나면서 쿠팡이나 오아시스 같은 유니콘들과 함께 수혜를 입긴 했습니다.◇김방희&gt; 그런데 최근에 흥미로운 게 아무래도 마켓컬리 그러면 신선식품, 먹거리에 집중했었는데 조금씩 행보가 달라지는 느낌도 있거든요. 온라인 뷰티 시장에 본격적으로 출사표를 내밀었던데 배경이 뭘까요?◆조가연&gt; 일단 특정한 상품이나 특정한 영역에 집중하는 것들을 보통 버티컬 커머스라고 얘기를 많이 하는데 한 영역에서 일정 수준의 시장 점유율이나 지배력을 확보를 하면 당연히 성장을 위해서 다른 상품이나 영역으로 확대를 하는 게 어떻게 보면 이미 잡혀져 있는 수순이고요. 말씀드리면 원래 중고거래 플랫폼이었던 당근마켓 같은 경우도 중고거래만 하는 게 아니라 동네 알바 매칭이나 심지어 부동산 직거래 같은 것들도 조금 조금 나오고 있고 가구 커머스로 시작했던 오늘의집 같은 경우는 이제는 인테리어나 시공이나 이사까지 매칭을 하고 있습니다. 부동산 정보로 시작한 직방 같은 경우도 최근에 삼성SDS 홈IOT 쪽을 인수를 하면서 심지어 도어락이나 월패드 같은 스마트 홈 시장까지 진출을 하고 있고요. 그렇기 때문에 그 영역을 넓혀가는 것들은 어떤 이런 커머스 사업에서는 불가피한 부분이라고 보고 있습니다.◇김방희&gt; 다만 뷰티 시장이라는 게 워낙 성숙시장이기도 하고 경쟁도 포화 상태거든요. 우리가 잘 아는 LG생건 같은 데 또 아모레퍼시픽 또 올리브영, 무신사, 지그재그, 에이블리 같은 다양한 플랫폼도 있고 쿠팡, 네이버 같은 대형 이커머스사도 버티고 있는데 이게 새벽 배송으로 차별화된, 그러나 신선식품이 전문이었던 컬리한테 승부가 될까요?◆조가연&gt; 추정을 해 보면 사실 이 화장품이라고 하는 뷰티 영역이 굉장히 여성향 소비재들이잖아요. 기존의 컬리 같은 경우도 주 고객군이 2040 여성과 주부였고 그렇다 보니까 소비자에서 접점도가 높은 상품군이라고 볼 수 있습니다. 다른 온라인 장보기 서비스 대비해서 컬리 같은 경우는 약간 프리미엄 그리고 약간 팬층을 보유한 플랫폼이다 보니까 그런 것들을 기반으로 프리미엄 뷰티라든지 또는 큐레이션을 강화할 수 있다는 생각이 있고요. 사실 보면 코로나 기간 동안 올리브영 같은 것들 보면 온라인 매출 성장이 눈에 띕니다. 그래서 경쟁은 굉장히 치열하지만 온라인이나 비대면을 통한 화장품 구매 수요도 많다는 반증이라고 생각하고 만약에 초기 시장 진입이 잘 된다면 어쩌면 승부가 가능하지 않을까라고 보고 있습니다.◇김방희&gt; 그렇군요. 여기도 상장이 유예되는 분위기죠?◆조가연&gt; 네, 일단 컬리 같은 경우는 어쨌든 지금 지난달에 보도가 나온 걸 보면 상장을 위해서 여러 가지 투자자들의 어떤 보유 지분, 의무보유 확약서가 제출이 됐다고 합니다. 그 소리는 상장을 하고 일정 기간 동안 시장이나 어떤 거래나 경영권 안정화를 위해서 작업을 하고 있는 거고요. 일단 컬리는 유니콘 특례 상장을 통해서 국내 증시 상장을 목표로 하고 있습니다.◇김방희&gt; 그렇군요. 이제 투자자 입장에서도 좀 이런 문제를 살펴봐야 될 텐데 약간 유니콘 거품 같은 게 빠지는 분위기여서 투자 적기 같기도 하고 그런데 어떻게 봐야 될까요. 투자자 입장에서는.◆조가연&gt; 이게 참 저도 업계에 들어와서 처음 겪는 경제 상황이어서. 제가 판단하기보다는 여러 VC선배들의 입을 빌려야 될 것 같은데요. 사실 벤처 투자라고 하는 건 상장 시장이 아니기 때문에 장기 투자이고 지금 투자하더라도 4년 뒤, 5년 뒤를 바라보는 투자를 해야 되기 때문에 사실은 기관 투자자 입장에서는 지금도 어떻게 보면 적기일 수 있다라고 얘기를 하고 있습니다. 주식시장 같은 경우도 위기 속에 기회가 존재하고 저점에서 잡을 수 있다는 얘기를 하는 것처럼 전반적으로 거품이 꺼지고 있어서 그와 동시에 기업 가치가 현실화되는 것들도 있고요. 다수 기업에게 뿌리는 식의 투자는 요즘에는 많이 하지 않지만 정말 좋은 우수한 소수 기업에게 선발적인 투자는 계속 이뤄지고 있어서 벤처 시장이 죽는다고 보기는 어려울 것 같습니다.◇김방희&gt; 그렇겠죠. 시장 자체가 죽었던 적은 없었고 지난 한 10여 년간 유동성이 워낙 풍부해지면서 지나치게 달아올랐던 면이 좀 있겠죠. 다만 비상장이다 보니까 워낙 공격적으로 하시는 분들은 좀 주의해야 되는 거 아닌가 하는 생각은 드는데 어떤 점들을 주의해야 됩니까?◆조가연&gt; 이게 사실 개인투자자들 중에서도 비상장 투자를 하시는 분들이 꽤 있습니다. 실제로 이런 비상장 주식만 거래하는 플랫폼들도 꽤 많이 등장을 했고요. 그중에 유니콘 같은 경우도 미국에는 있고요. 이게 벤처 투자 시장이 좋을 때는 시장에 풀린 돈이 많기 때문에 투자 유치가 자주 활발하게 이루어지고 그렇다 보니 그 과정에서 기업 가치가 올라가면 수익 실현을 할 수 있는 기대치가 있었었는데 최근 같은 경우는 상장하는 IPO 시장이 위축되고 거기에 따라 스타트업 투자도 보수적으로 이뤄지면서 전처럼 비상장 주식 투자를 통해서 단기간에 큰 수익을 내기는 어렵다고 볼 수 있을 것 같습니다. 또 비상장 시장이 본질적으로 개인 투자자들에게는 정보 불균형이 많기 때문에.◇김방희&gt; 잘 모르니까요. 회사 내부 사정을.◆조가연&gt; 네, 이런 것을 잘 알아보시고 투자를 해야 하는 건 맞고요. 다만 이미 스타트업 서비스들이 앞에서 말씀드린 토스나 컬리 같은 것들도 그렇고 이미 우리 생활 속에 밀접하게 들어와 있기 때문에 그런 대중 활용성이나 친숙도가 높은 기업들을 중심으로 한번 관심을 갖는 것도 좋아 보입니다.◇김방희&gt; 그러네요. 또 벤처 정책 차원에서도 K-유니콘 문제를 들여다볼 필요가 있을 텐데 이건 기회가 닿으면 나중에 한번 또 어떻게 벤처 산업을 육성할 것이냐와 관련해서 자세히 얘기를 나누겠습니다. 슈미트의 조가연 수석 팀장이었습니다. 고맙습니다.◆조가연&gt; 감사합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.08.02.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>카카오·케이뱅크 등 인터넷은행 가계대출 7개월 연속 증가세</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013348520?sid=101</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>케이뱅크 특판에 수신 1조원대 급증, 카뱅은 줄어…카뱅 "수신 금리 인상 검토"카카오뱅크와 케이뱅크 로고    (서울=연합뉴스) 오주현 기자 = 카카오뱅크와 케이뱅크 등 인터넷전문은행의 가계대출 잔액이 7개월 연속 증가세를 보였다.     5대 시중은행의 가계대출이 7개월째 감소하고 있는 것과는 대비되는 추세를 이어가고 있다.     2일 은행권에 따르면 지난달 말 기준 카카오뱅크와 케이뱅크의 여신 잔액은 각각 26조9천504억원, 9조1천600억원으로 집계됐다.    6월 말과 비교하면 카카오뱅크가 1천341억원, 케이뱅크는 4천300억원 각각 증가했다.    토스뱅크는 지난달 말 기준 대출 잔액을 공개하지 않았으나, 출범 초기인데다 공격적으로 영업을 확대하는 만큼 증가세를 이어갔을 것이라는 관측이 나온다.     반면 5대 시중은행(KB국민·신한·하나·우리·NH농협)은 같은 기간 가계대출 잔액이 2조2천154억원 줄며 7개월 연속 감소세를 이어갔다.    카카오뱅크와 케이뱅크는 전세대출, 주택담보대출 등 부문이 여신 증가세를 이끌었다고 설명했다. 인터넷 은행이 상대적으로 낮은 금리를 제공해 인기를 끌었다는 것이다.    지난 6월 카카오뱅크는 주택담보대출 금리를 최대 0.5%포인트 인하했고, 케이뱅크도 전세대출과 아파트담보대출 금리를 최대 0.41%포인트 인하했다.    예·적금 등 수신상품 조달에 있어서는 두 은행의 희비가 갈렸다.    케이뱅크의 7월 말 기준 수신 잔액은 13조3천300억원으로 전달 말보다 1조1천500억원 급증했다.    케이뱅크가 최근 고금리 수신 상품 특판을 여러 차례 진행하며 소비자들의 이목을 끈 것으로 분석된다.     케이뱅크는 6월 연 5% 금리 특판을 진행한 데 이어, 지난달 초 최고 연 3% 금리를 제공하는 '코드K정기예금(100일)' 특판을 진행했다.     반면 카카오뱅크의 7월 말 기준 수신 잔액은 전달보다 5천274억원 감소한 32조6천534억원이었다.     카카오뱅크 관계자는 "최근 전체 은행권의 저축성 예금 조달 경쟁이 심화하면서 수신 총 잔액이 소폭 감소한 것 같다"며 "수신 상품의 금리 인상을 긍정적으로 검토 중"이라고 전했다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.08.15.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>체크카드·페이도 신용카드처럼 규제…업계 "소비자 편익 줄어들 것" 반발</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004736970?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>금융위, 금소법 개정안 입법예고연계·제휴서비스 3년 의무 유지혜택 축소·변경 땐 6개월전 고지금융위원회가 체크카드와 네이버·카카오·쿠팡페이 같은 직불·선불 지급수단도 신용카드와 마찬가지로 부가서비스를 엄격하게 규제하겠다고 예고하면서 업계의 불만이 커지고 있다. 금융위는 일부에서 이미 논란이 된 ‘미끼 마케팅’을 방지하고 소비자 보호를 강화하겠다는 취지지만, 업계에선 “오히려 소비자 효용이 줄어들 수 있다”고 반발한다. 금융규제의 새 판을 짜겠다던 금융위가 옛 규제로 회귀하고 있다는 지적도 나온다.금융위는 지난달 금융소비자보호법 시행령·감독규정 일부 개정안을 입법예고하고 16일까지 의견을 수렴하고 있다. 개정안은 체크카드와 OO페이 같은 선불·직불 지급수단(전자지급수단 포함)도 신용카드와 똑같이 연계·제휴서비스 규제를 적용하도록 했다. 연계서비스를 정당한 이유 없이 소비자에게 불리하게 바꾸는 것을 금지하고, 변경할 땐 6개월 전에 고지하도록 하는 게 핵심이다.금융위는 “(선·직불 지급수단은) 신용카드와 기능상 비슷한데도 규제 차익이 있다”며 “동일 기능 동일 규제 관점에서 소비자를 보호하려는 것”이라고 개정 이유를 밝혔다. 개정안이 통과되면 카드(겸영)업자 22개사와 전자지급수단 발행업자 88개사 모두 규제를 받게 된다.이번 규제의 발단은 토스뱅크의 체크카드 혜택 축소라는 게 업계의 중론이다. 작년 10월 출범하면서 파격적인 캐시백 혜택을 내건 체크카드로 가입자 360만 명을 끌어모았던 토스뱅크는 올해 1, 7월 연달아 카드 혜택을 축소·변경하며 소비자의 원성을 샀다. 기존 카드사들도 형평성에 어긋난다며 반발했다.그동안 정상적으로 서비스해온 체크카드와 간편결제(페이) 서비스도 이번 ‘일괄 규제’에 묶이게 됐다. 한 핀테크업체 관계자는 “페이 서비스는 신용카드와 달리 연회비나 유효기간, 유료 부가서비스 등이 없다”며 “동일 기능 동일 규제 자체가 성립할 수 없다”고 주장했다.한 인터넷은행 관계자는 “그때그때 소비자 수요와 소비 패턴 등에 맞춰 제공하는 일회성 프로모션까지 규제하면 소비자 편익이 오히려 줄어들 것”이라고 지적했다.금융위 관계자는 “말은 기간제라면서 실질은 비슷한 혜택을 연장하는 경우라면 사실상 서비스 변경으로 보고 소비자 보호를 강화하겠다는 취지”라며 “단기·일시 프로모션은 앞으로도 규제하지 않겠다”고 했다.금융위가 규제 차익을 해소하겠다며 옛 규제를 확대 적용하는 방법을 택한 데 대해서도 비판이 나온다. 기존 금융회사와 빅테크 간 차별적 규제에 대해 “한쪽을 못하게 하는 하향 평준화보단 규제를 풀어주는 상향 평준화가 바람직하다(은성수 전 금융위원장)”던 과거 입장보다 후퇴한 것이기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.08.12.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>국책은행 연 3.6% 정기예금 돌풍… 인터넷은행보다도 높아</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003709449?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>서울 여의도 산업은행 본점 전경. /뉴스1										“국책은행이 묻지도 따지지도 않고 1년에 연 3.6%를 준다니 저축은행이나 인터넷은행보다 훨씬 낫네요. 여유 현금을 모두 산업은행으로 옮겼습니다.”본격적인 금리 인상기를 맞아 각 은행의 예금 유치 경쟁이 뜨거운 가운데, 요즘 온라인 재테크 사이트에서는 산업은행의 연 3.6% 정기 예금(1년 만기)이 화제다. 은행권 1년짜리 정기 예금 중 금리가 가장 높은 데다 까다로운 우대 금리 조건 없이 누구나 연 3.6% 이자를 받을 수 있기 때문이다. 100만원 이상이면 가입할 수 있는데 한도가 없기 때문에 억대의 뭉칫돈을 넣는 ‘큰손’도 많다고 한다. 대기업에 다니는 직장인 A(45)씨는 “예금자 보호 한도는 5000만원까지지만, 국책은행인 산업은행이 망할 일은 없지 않으냐”며 “가족·친지들에게도 여윳돈이 있으면 최대한 산업은행에 넣으라고 권하는 중”이라고 말했다. 10년 만에 부활한 산은 고금리 예금							산업은행은 지난달 18일 자로 ‘KDB Hi 정기예금(1년)’ 금리를 기존 2.9%에서 3.6%로 끌어올렸다. 7월 한국은행 기준금리 인상 폭(0.5%포인트)을 웃도는 금리 인상을 단행한 것이다. 산은 관계자는 “산은은 영업점이 적어 다른 은행들보다 비용을 줄일 수 있는 만큼 더 큰 혜택을 고객들에게 돌려주려는 입장”이라고 했다. 윤석열 정부가 은행의 ‘사회적 책임’을 강조하고 예대마진(예금금리와 대출금리의 차) 축소를 주문하는 가운데, 산은이 통 크게 ‘화답’했다는 관측도 나온다.최근 다른 은행들도 예금 금리를 올리고 있지만, 산은 수준엔 한참 못 미친다. 우리은행의 ‘첫거래우대 정기 예금’은 1년 금리가 최대 연 3.6%로 시중은행 중 가장 높지만, ‘우리은행 첫 거래’와 ‘오픈 뱅킹 서비스 연결’ 같은 조건을 충족해야 겨우 최고 금리를 받을 수 있다. 가입 금액도 최대 1000만원 이하로 제한된다.우리은행 다음으로는 하나은행의 ‘하나의 정기 예금’이 연 3.4%, 농협은행의 ‘NH올원e예금(특판)’이 연 3.3%다. 이어 리딩 뱅크인 KB국민은행의 대표 상품인 ‘KB스타 정기 예금’이 연 3.11%, 신한은행 ‘쏠편한 정기 예금’이 연 3.2% 등이다. 영업점이 없어 비용 절감 효과가 큰 인터넷 전문 은행 정기 예금 금리도 카카오뱅크가 연 3.1%, 케이뱅크가 연 3.0% 수준이다. 직장인 B(37)씨는 “대출 이자 장사로 역대급 실적을 쌓는 은행들이 정작 수신 금리 인상에는 너무나 소극적”이라며 “기업 금융이 주력인 국책은행보다도 낮은 금리를 주는 게 말이 되느냐”고 했다.산업은행은 언제든 넣고 뺄 수 있는 수시 입출금 통장 금리도 연 2.25%로 전체 은행권을 합쳐 1위다. 파격이라는 평가를 받았던 토스뱅크의 연 2% 파킹 통장보다 금리가 높다. 시중은행들이 수시 입출식 통장에 고작 연 0.1% 이자를 지급하는 것과는 극명하게 차이가 난다.금융권에선 마치 2011년 산업은행이 민영화를 추진하면서 수신 규모를 늘리기 위해 연 4.5%짜리 고금리 수시 입출금식 예금을 내놨던 시절을 방불케 한다는 말이 나온다. 산은의 적극적인 수신 금리 인상 행보가 앞으로 다른 은행들에도 적지 않은 영향을 미칠 것으로 보인다.예금 금리 경쟁하는 ‘메기 효과’ 나타날까							산은의 고금리 예금은 다른 은행들의 예금 금리 인상을 촉진하는 ‘메기 역할’을 할 가능성이 높다. 시중은행들은 “국책은행이 소매 금융 시장까지 자꾸 침범하려 든다”며 반발하지만, 산은으로의 자금 쏠림에 촉각을 곤두세우고 있다.한 시중은행 관계자는 “산은이 고금리 탓에 산업금융채권(산금채) 발행을 통한 자금 조달에 부담을 느껴 일반 수신 영업에 적극 나선 측면이 있을 것”이라며 “순수한 의도만으로 보기는 어렵다”고 했다. 실제 산은의 주된 자금 조달 수단인 산금채 3년물 금리는 1년 전 연 1.12% 수준이었지만, 최근 3.8%대로 올랐다. 산금채를 발행하는 것보다 연 3.6% 정기 예금을 판매하는 게 더 유리한 구조가 된 것이다.또 다른 은행 관계자는 “산은의 경우 개인 고객 확보가 절실할지 모르나 일반 시중은행들은 현재 가계 대출이 증가하는 것도 아니어서 굳이 대대적으로 예금을 끌어모을 필요성이 작다”며 “같은 잣대로 봐선 안 된다”고 했다.산은은 표정 관리 중이다. 별다른 홍보 없이도 정기 예금이 잘 팔리고 있지만, 유치 실적 등을 일절 공개하지 않고 있다. 시중은행들의 눈총 때문에 몸을 사리는 것이다. 최철 숙명여대 소비자경제학과 교수는 “국책은행 정기 예금 금리가 최고라는 사실을 시중은행들은 무겁게 받아들여야 한다”며 “고금리·고물가로 고통받는 서민들을 위해 예대마진 축소에 적극적으로 나서야 한다”고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.08.06.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>여신금융협회장 가시화..업·관·정 소통 인사 부상</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004878878?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>남병호·정완규·위성백·정원재·서준희·박지우 등 거론 남병호 전 KT캐피탈 대표  정완규 전 한국증권금융 사장/사진=뉴시스 위성백 전 예금보험공사 사장 [파이낸셜뉴스] 차기 여신금융협회장 선출이 곧 가시화 될 전망이다. 최근 금융위원장으로 취임한 김주현 전 회장의 후임 인사다. 윤석열 정부 후 첫 협회장 선출이기도 하다. 업계, 관계, 정계에 두루 소통 가능한 유력 인사가 유력 후보로 부상 중이다. 여신금융업계에선 새 정부 출범과 맞춰 원활한 소통이 필요하다는 데 무게를 두고 있다.   6일 금융투자업계에 따르면 여신금융협회 회장후보추천위원회는 최근 협회장 선출을 위한 공고를 통해 본격적인 인선 절차에 돌입했다.   현재 거론되는 후보군은 남병호 전 KT캐피탈 대표, 정완규 전 한국증권금융 사장, 위성백 전 예금보험공사 사장 등이다. 민간에서는 정원재 전 우리카드 대표, 서준희 전 BC카드 대표, 박지우 전 KB캐피탈 대표 등이 언급된다.   남병호 전 KT캐피탈 대표는 대구 출신으로 서울대 법대, 행정고시(37회)로 1993년 공직을 시작해 금융위원회 구조개선총괄반장 등을 지냈다. 2011년 KT에 입사해 2013년 KT캐피탈 대표이사 등 여신금융업계에 투신했다.   금융투자업계 관계자는 "남병호 전 KT캐피탈 대표는 캐피탈사 대표를 역임했고 카드업에 대한 이해도가 높으며, 전현직 금융위원장을 비롯해 금융당국 선후배와 돈독한 관계"라고 밝혔다.   정완규 전 한국증권금융 사장은 행정고시(34회) 출신으로 금융위 자본시장과장, 행정인사과장, 중소서민금융정책관 등을 지냈으며 금융정보분석원(FIU)장을 역임했다. 현재는 토스뱅크 사외이사로 재직 중이다.   위성백 전 예금보험공사 사장은 행정고시(32)회 출신으로, 기획예산처 제도혁신팀장, 기획재정부 공공정책국 정책총괄과장, 국고국장 등을 거쳤다.   정원재 전 우리카드 대표는 한일은행 출신이다. 우리금융그룹에서만 40년 이상 일했다. 우리카드 대표 재직 시절에는 '카드의 정석' 시리즈로 유명하다.   서준희 전 BC카드 대표는 BC페이로 간편결제를 활성화하고 해외사업 등의 성과로 KT그룹 수익 안정화에 기여했다는 평가다.   박지우 전 KB캐피탈 대표는 KB캐피탈 대표이사를 세 차례 연임했다. 중고차 매매 플랫폼 'KB차차차'를 성공적으로 안착시켰다는 평가다.   여신업계관계자는 "그동안 조용히 준비하던 남병호 전 KT캐피탈 대표가 최근 활동을 개시했다. 업계에서도 긍정적 분위기가 감지되고 있다. 이에 비해 그동안 물밑에서 움직이던 여타 후보자들의 활동은 상대적으로 보이지 않아 10여명이 입후보해 치열했던 3년 전 상황과 다르다는 분위기도 감지된다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.08.04.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>"계좌 개설·학자금 신청시 구비서류 간소화된다"</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002747513?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>은행계좌 개설, 신용평가점수 혜택 신청, 학자금지원 신청 등에 필요한 증명서가 대폭 줄어든다.행정안전부는 5일부터 28종의 공공 마이데이터 서비스를 추가한다고 4일 밝혔다. 이에 따라 지난해 말 시작된 공공 마이데이터 서비스가 소상공인 자금 신청, 신용카드 발급 등 24종에서 52종으로 확대된다.공공 마이데이터는 개인이 정보 주체로서 행정·공공기관이 보유한 자신의 행정정보를 본인이 원하는 곳에 제공하도록 요구할 수 있는 서비스다. 5일부터 예금·적금 가입 및 연장, 퇴직연금 가입 등의 금융 서비스를 신청할 때 공공 마이데이터 서비스를 이용할 수 있어 주민등록등본(초본), 소득금액증명 등 22종의 증명서를 따로 준비할 필요 없이 공공 마이데이터로 쉽게 제출할 수 있게 된다. 우리은행, SC제일은행, IBK기업은행, 대구은행, 토스뱅크, 케이뱅크, 웰컴저축은행 등 9개 기관에 우선 도입돼 점진적으로 확대될 예정이다. 또한 신용거래 기록이 많지 않은 주부나 사회초년생 등이 세금, 재직 등 비금융 거래 정보를 바탕으로 신용평가점수 혜택을 신청할 때 국세납세증명서, 건강보험자격확인서 등 13종의 증명서를 공공 마이데이터로 제출할 수 있다.이밖에 한국장학재단에 국가장학금, 학자금대출 등 학자금지원 서비스를 신청할 때도 장애인증명서, 자활근로자확인서 등 11종의 증명서를 공공 마이데이터로 제출하게 된다.행안부는 공공 마이데이터 서비스를 제공하는 기관과 이용 가능한 행정정보를 지속해서 확대할 계획이다. 한창섭 행안부 차관은 "공공 마이데이터 서비스 확산을 통해 각종 분야에서 구비서류 제출을 간소화해 국민 편익을 높여 나가겠다"고 밝혔다. &lt;사진:연합뉴스&gt;</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>토스뱅크서 한투증권 펀드 등 금융상품 만난다…광고 업무 협약</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000297969?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>[8일 토스뱅크 홍민택 대표(왼쪽)과 한국투자증권 김성환 부사장이 한국투자증권 본사에서 '자산관리 및 투자상품에 관한 광고업무 협력을 위한 업무제휴' 협약을 맺었다. (자료=토스뱅크)]토스뱅크는 오늘(8일) 한국투자금융지주 자회사 한국투자증권과 업무제휴 협약(MOU)'을 체결했다고 밝혔습니다. 이날 여의도 한국투자증권 본사에서 열린 협약식에는 토스뱅크 홍민택 대표와 한국투자증권 김성환 부사장 등 관계자들이 참석한 가운데, '자산관리·투자상품에 관한 광고업무 협력을 위한 업무제휴' 협약이 이뤄졌습니다. 이번 협약을 통해 토스뱅크는 한국투자증권의 다양한 투자상품을 고객이 투자에 활용할 수 있도록 소개하는 광고 업무를 추진할 계획입니다.  한국투자증권은 자산관리와 운용, 투자은행(IB), 위탁매매(BK) 등 다양한 부문의 업무를 영위하고 있습니다. 특히 자산관리 부문에서는 개인과 기관 투자자들에게 ▲수익증권 ▲Wrap ▲신탁 ▲펀드 상품 등 다양한 금융 상품을 선보이고 있습니다. 토스뱅크와 한국투자증권은 이후에도 지속적으로 디지털금융 혁신과 고객 경험 강화를 위한 협력 관계를 확대해 나갈 방침입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.08.06.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>'대만해협 분쟁' 물류대란에 불똥…동아시아-미·유럽 항로 한나절 더 소요</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0005001158?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>대만해협에 군사적 긴장감이 고조되면서 글로벌 물류망에 악영향이 더해지고 있다. 화물선과 유조선이 대만해협 대신 대만 동쪽으로 우회하면서 한나절 가량 운항시간이 더 소요되고 있는 것으로 전해졌다.　로이터통신은 중국의 '대만 포위' 군사 훈련 때문에 선박들이 이처럼 항로를 변경하고 있다고 5일(현지시간) 보도했다. 중국은 낸시 펠로시 미국 하원의장의 대만 방문에 반발해 지난 4일부터 나흘 일정으로 대만해협 군사훈련을 시작했다. 이에 화물선과 유조선들은 만일의 상황을 피하기 우회 항로를 선택하고 있다.　대만해협은 중국과 대만 사이에 위치한 폭 150∼200㎞, 길이 500㎞의 바닷길이다. 동아시아에서 미국과 유럽을 오가는 주요 항로가 몰려있는 곳이다.　선박 중개업체 관계자는 "대형 유조선 선주들이 경계 수준을 높이며 선박을 우회시키고 있다"면서 "보험사들도 대만 인근 항해시 주의를 당부고 있다"고 전했다.　중국의 코로나19 봉쇄 여파 등으로 전세계 공급망이 물류대란을 겪고 있는 상황을 감안하면 앞으로 문제가 더 심각해질 수 있다는 비관적 전망도 나온다.　화물 서비스업체인 프레이토스 관계자는 "이 상황이 길어지면 물류대란이 더욱 악화될 것"이라고 염려했다. 선박들이 대체 항로를 택하면 운항 일정이 복잡해지고 소요되는 시간이 늘어나 비용이 더 커지는 등 마찰 요소가 더 많아지기 때문이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.08.02.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>인터넷은행 가계대출, 7개월 연속 증가…시중은행은 감소</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003443501?sid=101</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>뉴시스인터넷전문은행들의 가계대출이 올 들어 7개월 연속 증가세를 이어간 것으로 나타났다. 같은 기간 시중은행 가계대출이 꾸준히 감소한 것과 대조적이다.  2일 은행권에 따르면 지난달 말 현재 카카오뱅크의 가계대출 잔액은 26조9504억 원으로 한 달 전보다 1341억 원 늘어난 것으로 집계됐다. 케이뱅크의 가계대출 잔액 역시 9조1600억 원으로 한 달 새 4300억 원 급증했다. 올해 들어 7개월 연속 증가세다.  토스뱅크는 지난달 대출 잔액을 공개하지 않았으나 출범 초기인 데다 최근 대출 영업을 확대하고 있는 만큼 한 달 전(4조2000억 원)과 비교해 대출이 더 늘었을 것으로 예상된다.  반면 시중은행 가계대출은 올 들어 7개월 연속으로 감소했다. KB국민, 신한, 하나, 우리, NH농협 등 5대 시중은행의 지난달 말 가계대출 잔액은 697조4367억 원으로 한 달 전(699조6521억 원)보다 2조2154억 원 줄었다.  인터넷은행은 대출 영업의 핵심이 되는 주택담보대출 등을 내놓은 지 얼마 되지 않아 시중은행에 비해 성장 여력이 크다. 또 전·월세대출이나 중·저신용자 대출 등 비교적 수요가 꾸준히 유지되는 상품을 주로 팔고 있다. 은행권 관계자는 “인터넷은행은 아직 성장기라 신규 고객이 계속 유입되고 있다”며 “여기에 최근 금리 혜택을 늘리는 등 적극적인 영업을 펼쳐 대출이 더 늘었다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.08.09.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>벤처·스타트업 종사자 1년 새 10% 증가…두나무 고용 93%↑</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000043004?sid=101</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>전체 고용 증가에서 청년·여성 60% 이상 차지 '마켓컬리' 운영 컬리, 700명 넘게 신규 채용서울 송파구 장지동 서울복합물류센터 지하의 냉장센터 앞 ⓒ연합뉴스지난 1년 동안 국내 벤처·스타트업이 6만8000여개의 일자리를 늘린 것으로 나타났다. 특히 유니콘 기업의 고용 증가율은 40%에 달해 일자리 창출에 기여한 것으로 조사됐다.9일 중소벤처기업부는 한국고용정보원의 고용보험가입 현황을 토대로 올해 6월 말 기준 혁신 벤처·스타트업 3만4362개사의 고용 동향을 분석한 결과에 따르면, 전체 고용은 76만1082명으로 지난해 같은 기간보다 6만7605명 증가했다. 9.7%의 증가율이다. 이는 우리나라 전체 고용보험 가입자 증가율(3.3%) 대비 3배가량 높은 수준이다.특히, 벤처투자 받은 기업의 고용 증가 효과가 두드러졌다. 이들 기업의 고용 증가율은 40.5%다. 이는 전체 고용 보험가입자 증가율보다 12배 이상 높은 수치다.벤처·스타트업 고용 인원 중 청년은 20만4437명이었다. 지난해 6월과 비교해 1만5000여명 늘어난 규모다. 이는 전체 고용 증가의 22.4% 수준이다. 벤처·스타트업이 만든 일자리 10개 중 2개가 청년 일자리였다.여성 고용은 지난해 대비 2만8000여명 늘었다. 전체 고용 증가에서 여성이 차지하는 비중은 약 42.2%로 나타났다. 벤처·스타트업이 고용을 10명 늘릴 때 이 중 4명은 여성인 셈이다.이번 조사에는 기업가치 1조원 이상의 유니콘 기업 14곳도 포함됐다. 이들 기업은 6월 말 기준 1만942명을 고용하고 있는 것으로 나타났다. 이는 지난해 6월 말보다 3092명 늘어난 것으로 고용 증가율은 39.4%에 달했다.지난 1년 동안 직원을 가장 많이 고용한 유니콘 기업은 신선식품 배송 플랫폼 '마켓컬리'를 운영하는 컬리였다. 컬리는 1년 전보다 701명(37%) 늘어난 직원 수 2597명을 기록했다. 배달 애플리케이션 '배달의민족'을 운영하는 우아한형제들도 444명을 더 고용했다. 34.2%의 증가율이다. 총 직원은 1741명이다.가장 높은 고용 증가율을 기록한 곳은 가상자산거래소 '업비트'를 운영하는 두나무였다. 두나무는 238명을 새로 고용해 1년 만에 고용인원을 93.0% 늘렸다. 모바일 금융 서비스 '토스'를 운영하는 비바리퍼블리카도 297명을 새로 고용하며 65.7% 증가했다.조주현 중기부 차관은 "올해 중기부는 비상장 벤처기업의 복수의결권 도입, 민간모펀드 조성을 위한 제도개선 등을 힘있게 추진함으로써 혁신 벤처·스타트업이 더 많은 일자리를 창출해 우리 경제의 도약과 회복의 중심이 될 수 있도록 노력하겠다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.08.09.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>서울시 "올해 주민세 31일까지 내세요"…총 906억원 부과</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/437/0000309027?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>[출처-서울시 홈페이지]         서울시가 7월 1일 기준으로 서울시에 주소를 둔 세대주와 1년 이상 체류하고 있는 외국인에게 2022년도 주민세를 내라고 알렸습니다.        오늘(9일) 서울시는 해당 시민들에게 주민세를 오는 31일까지 납부하라는 고지서를 발송했다고 밝혔습니다.      주민세 세대별 납부액은 6000원(주민세 4800원, 지방교육세 1200원)입니다. 올해 서울시에서 부과한 주민세(개인분)는 379만건으로 모두 228억원 규모입니다.        부과 현황을 보면 송파구가 25만5201건, 15억원으로 가장 많습니다. 중구가 5만4797건, 3억원으로 가장 적습니다.      외국인에 대한 주민세는 총 11만3738건 부과됐습니다. 자치구별로는 구로구가 가장 많고, 그다음은 금천구, 영등포구 순입니다.      국적은 중국이 가장 많았고, 그다음은 영미권, 베트남, 일본 순입니다.      또한 서울시에 사업소를 둔 사업주도 오는 31일까지 2022년 주민세(사업소분)을 신고·납부해야 합니다. 지방세법 개정으로 주민세 균등분과 재산분이 통합됐고, 납부 기간은 8월로 통일됐습니다. 서울시는 관련 납부서 82만건, 678억원을 발송했습니다.      주민세는 △서울시 ETAX △서울시 STAX △간편결제사 앱(카카오페이, 네이버페이, 페이코, 신한페이판, 토스)을 통한 간편납부 △종이고지서 QR바코드 납부 △전용계좌 납부 △은행 현금인출기(CD/ATM) 또는 무인공과금기 등을 통해 납부할 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.08.02.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>[금융 알뜰폰의 속사정]①은행이 통신에 목맨 이유</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000009529?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>KB국민은행 이어 신한-하나도 통신망 '구애'알뜰폰으로 금융+통신…'막강' 시너지 기대"은행 자체역량으로 판매부터 데이터 확보까지"은행을 비롯한 금융회사들의 비금융 산업 진출이 확대될 전망이다. 하지만 잡음도 만만치 않을 것으로 예상된다. 이미 특례로 허용돼 금융권이 가장 먼저 관심을 기울인 분야는 이동통신사업이다. 그런데 최근 분위기가 심상치 않다. 금융사의 통신업 진출은 점차 속도를 내고 있는데 금융권내에서나, 통신업계와 이해관계가 충돌하는 모습이 자주 보이고 있다. 금융권의 비금융 영토확장 선례인 '알뜰폰' 사업의 속사정을 들여다봤다. [편집자]KB국민은행이 알뜰폰 사업을 본격화한 지 어느덧 3년차다. 신한은행(KT), 하나은행(SK텔레콤) 등 경쟁 은행들도 슬며시 통신업과의 유대관계를 쌓기 시작했다. 이동통신산업에 대한 은행권의 관심을 보여주는 대목이다.최근 금융위원회가 금산분리 완화를 바탕으로 하는 금융규제 완화에 나서겠다며 업계의 의견을 모았는데, 은행들이 진출을 원하는 1순위 분야도 통신사업이었다. 출범이후 공격적으로 금융권 영토확장에 나서왔던 토스는 최근 알뜰폰 업체를 인수하기까지 했다. 금융은 왜 통신을 품으려 할까"통신사업 진출은 신규 수익원을 창출하려는 것 보다는 기존에 제공하던 금융서비스를 더욱 고도화하기 위한 것이다"허인 KB금융지주 부회장이 KB국민은행장이었던 2019년 알뜰폰 서비스 '리브엠' 출시 때 했던 말이다. 금융회사가 통신사업에 관심이 큰 이유는 여기에 모든 것이 담겨있다고 해도 무방하다. 금융산업은 이미 디지털 기술을 빠르게 접목하고 있다. 게다가 최근 마이데이터(본인신용정보관리) 사업이 본격 가동하면서 이종산업간의 데이터 공유가 더욱 활발해질 수 있다는 점에서 금융이 통신을 품으려는 이유는 뚜렷해진다.최근 금융 서비스는 주로 모바일 기기로 이뤄진다. 모바일 뱅킹이 대표적이다. 지금은 금융권이 소비자에게 가장 편리한 기기를 접점으로 활용하는 수준에 그치지만, 은행이 직접 통신사업을 영위한다면 이야기는 달라진다.리브엠이 유심칩에 KB국민은행의 인증서 등을 포함시킨 것이 대표적이다. 이를 통해 은행 모바일 뱅킹앱에 대한 접근성을 개선할 수 있다는 것이다. 모바일 앱 MAU(월간활성화사용자수)는 최근 금융권의 실적발표 기업설명회(IR)에 등장할 정도로 금융권 디지털 전략의 핵심이다.마이데이터 사업이 자리를 잡아 금융-통신 간의 협업까지 더해지면 더욱 많은 시너지를 기대할 수 있다. 통신사에는 위성항법장치(GPS)를 통한 고객의 이동정보, 통신비 납부내역 등의 정보가 있다. 금융사는 이를 활용해 결제 등과 연결된 소비 패턴, 신용점수로 활용할 근거 등의 데이터를 확보할 수 있다.은행 관계자는 "아직 금융과 통신의 본격적인 협업이 진행되지 않았기 때문에 유효한 데이터 확보까지는 시간이 좀 더 걸릴 것"이라면서도 "통신사가 보유한 데이터가 금융회사에게 알짜배기라는 점에는 전 금융권이 동의할 것"이라고 설명했다. 왜 알뜰폰일까?금융권이 당장 관심을 기울이는 통신사업 분야는 '알뜰폰' 영역이다. 시너지를 극대화할 수 있는 것은 점유율 높은 국내 3대 통신사(SK텔레콤·KT·LG유플러스)와의 협업이다. 하지만 은행들은 이보다 먼저 비주류인 알뜰폰에 손을 대고 있다.KB국민은행의 리브엠이 알뜰폰 서비스이고, 신한은행과 하나은행도 각각 KT, SK텔레콤의 알뜰폰 계열사와 함께 요금제 출시에 나섰다. 최근 토스가 인수한 통신사 역시 중소 알뜰폰 업체다. ▷관련기사 : 토스, 알뜰폰 시장 진출한다…'머천드코리아' 인수 알뜰폰 사업에 진출하는 이유는 알뜰폰 사업의 운영방식과 잠재력에 기회가 있다고 보기 때문이다. 알뜰폰은 통신 3사로부터 망을 빌려오는 대가로 금액을 지불하고 이후 운영은 모두 알뜰폰 사업자의 몫이다. 통신망 유지를 위해서 별도로 들이는 비용도 없다. 통상 알뜰폰 사용자는 이 과정에서 판매관리비를 최대한 줄여 통신 3사에 비해 저렴한 가격으로 통신비를 책정한다. 금융권이 관심을 기울이는 부분이 바로 이 부분이다. 현재 대부분의 알뜰폰 사업자는 인터넷 광고 페이지 등을 통해 고객을 모은다. 반면 금융회사는 영업점이라는 오프라인 채널은 물론 모바일 뱅킹이라는 온라인 채널 등 온·오프라인을 포괄하는 막강한 대고객 접점을 보유하고 있다.은행 관계자는 "알뜰폰 수요 확보를 위한 접점이 이미 확보돼 있고 이를 통해 인건비, 마케팅 비용 등에 대한 절감이 가능하다"며 "이는 곧 통신요금에 대한 가격경쟁력으로 이어질 수 있어 금융과 통신의 시너지를 위한 고객 확보에 있어 유리하다"고 설명했다.틈새에서 시작한 알뜰폰 시장도 점점 커지고 있다. 매달 고정적으로 지출되는 통신비용 절감을 위해 저렴한 요금제를 찾는 소비자가 늘어나고 있다는 것이다. 업계에 따르면 알뜰폰 가입자는 2011년 도입 이후 10년만인 작년 11월 누적 1000만명을 넘어섰다. 은행이 알뜰폰을 통해 스스로 가입자를 품게 되면 그 자체만으로도 고급 빅데이터를 확보할 수 있다. 나아가 향후 거대 통신사들과 협업을 위한 협상을 할 때도 무기가 될 수 있다. 다른 한 은행 관계자는 "통신3사와 알뜰폰 사업자들간의 통화품질 등의 차이가 점점 줄어들면서 좀 더 저렴한 알뜰폰에 대한 고객 수요가 늘어나고 있다"며 "은행들은 이 타이밍을 놓치고 싶지 않은 것"이라고 귀띔했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.08.11.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>근로시간 연장하려고?…노동부, IT회사 ‘추천 직원’ 모아 간담회</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002602062?sid=102</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>이정식 노동부 장관 현장 간담회서근로시간·임금체계 개편 의견수렴노조 배제…‘사쪽 섭외’ 노동자 참여게임·IT업계 노조 11곳 성명 발표“노동부, 회사 입맛대로 제도 변경 의도”게티이미지뱅크고용노동부가 노동시장 개혁과제로 근로시간·임금체계 개편을 추진하고 있는 가운데, 정보기술(IT) 노조들이 “현장 노동자들의 의견을 수렴하고 싶다면 노조의 목소리를 들으라”고 주장했다. 노동시장 개혁과제에 대한 노사 간 입장차가 첨예한데도, 노동부가 회사 쪽에 편향된 노동자만 모아놓고 현장 의견을 수렴하고 있다는 비판이다. 11일 오후 민주노총 전국화학섬유식품산업노조 아이티위원회는 성명을 내고 “진짜 현장을 배제한 고용노동부의 ‘아이티 기업 현장의 목소리를 듣다’는 가짜 의견수렴”이라고 주장했다. 전날 이정식 노동부 장관은 네이버·카카오·라인플러스·쿠팡·당근마켓·토스의 인사노무담당자와 회사 쪽이 섭외한 노동자들이 참여한 가운데 근로시간·임금체계 개편에 대한 의견을 수렴했다. 현장에는 노동부가 노동시장 개혁과 관련한 정책 대안 수립 연구를 맡긴 미래노동시장연구회 일부 위원도 참여했다.아이티위원회는 성명에서 “정책의 당사자인 아이티 노동자를 배제한 채 사쪽(인사노무·채용 담당)인사만 불러 행사를 개최했다”며 “노동자의 목소리도 들었다고 발표하였으나 ‘노동자' 또한 사측 인사였음을 확인했다”고 밝혔다. 아이티위원회는 “대한민국은 노조와 노사협의회가 노동자들의 목소리를 대변하고 있는데도, 회사 쪽에 노동자를 선별해 참여하도록 요청했다”며 “경영자들의 입맛에 맞게 제도를 바꾸려는 의도를 보여주는 것”이라고 밝혔다.지난 10일 서울의 한 호텔에서 이정식 고용노동부 장관이 주요 아이티(IT·정보기술) 기업 인사담당자·노동자들과 간담회를 열고 있다. 고용노동부 제공해당 간담회에서는 “근로시간 선택의 자율성을 높여 나가는 방향은 시대적 흐름인 것 같다” “근로자의 선택권을 더 높이는 차원에서라도 선택근로제의 정산 기간이 더 늘어나면 좋겠다” 등 노동부가 근로시간 개편 필요성을 밝히며 근거로 들었던 말들이 ‘현장의 목소리’로 정리돼 ‘보도참고자료’ 언론에 배포됐다. 해당 간담회에 참가한 회사 가운데 네이버·카카오·라인플러스에는 아이티위원회 소속 노조 지회가 설립돼 있지만, 간담회 참석 요청은 받지 못했다고 한다.아이티위원회는 “노동자가 스스로 선택할 힘이 없는 상태에서 노동자에 불리한 선택지만 추가한다고 근로시간 자기결정권 확대가 될 수 없고, 노동자가 그런 동등한 결정을 할 수 있는 힘이 있었다면 수많은 직장 내 괴롭힘도 없었을 것”이라며 “엠제트(MZ) 세대의 요구라는 핑계를 대며 진짜 엠제트 세대 노동자가 원하지도 않는 제도를 바꾸려 하지 말라”고 강조했다. 아이티위원회는 또한 “아이티 산업에서 이중구조·양극화 문제를 말하고 싶다면 네이버·카카오의 자회사 문제부터 들여다보라”고 했다. 최근 네이버지회는 네이버 본사보다 임금·처우가 낮은 그린웹서비스·엔아이티서비스(NIT)·엔테크서비스(NTS)·인컴즈·컴파트너스 등 네이버 손자회사의 임금·단체협상을 진행하고 있지만 교섭이 결렬돼 쟁의행위를 예고하고 있다. 아이티위원회는 “아이티위원회는 빠른 시일 내에 아이티 노동조합 대상의 간담회를 개최해 실제 현장에서 일하는 노동자들의 목소리도 들을 것을 노동부에 요구한다”고 밝혔다. 화섬노조 산하 아이티위원회에는 네이버·카카오·넥슨·스마일게이트·에스케이(SK)하이닉스·씨디네트웍스·웹젠·포스코 아이씨티(ICT), 한글과컴퓨터, 엘아이지(LIG)넥스원, 에이에스엠엘(ASML) 코리아 등 11곳 사업장의 노조 지회가 속해있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>홈플러스, 수입과자 품목 강화…상품구색 30% 늘려</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004780109?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>홈플러스는 새로운 상품을 경험하고자 하는 소비자 트렌드에 발맞춰 수입과자 품목을 강화하고 상품 구색을 30% 확대했다고 8일 밝혔다.소비자 입맛이 점차 다양화·세분화되고, 코로나19 재확산으로 해외여행이 제한적인 상황에서 수입 스낵을 구매하고자 하는 고객 수요를 반영했다. 실제 지난 7월 한 달간 홈플러스 수입과자 매출은 전년 동기 대비 약 24% 신장해 수요가 늘고 있는 것으로 나타났다.지난달 22일부터 치토스, 썬칩 등으로 유명한 미국 스낵 브랜드 '프리토레이'의 과자 러플스, 프리토스, 레이즈, 토스티토스 등 16종을 론칭하고 바캉스 시즌 '물가안정 프로젝트'의 일환으로 8월 말까지 시중가 대비 약 10% 저렴한 가격에 판매한다. 또한 2개 구매 시 10% 추가 할인을 적용해 고객 혜택을 늘렸다. 오는 9월에는 튀기지 않아 가볍게 즐길 수 있는 프리토레이 '팝코너스 화이트 체다치즈/스윗 칠리/스윗앤쏠티' 3종을 단독 론칭할 예정이다.최근 리뉴얼 오픈한 서울 방학점과 대전 유성점에는 '월드스낵' 존을 구성하고 과자를 미국, 유럽, 아시아 등 수입국가별로 구분 진열해 고객 시인성을 강화했다. 홈플러스 온라인 몰에도 '세계과자점' 카테고리를 신설하고, '프리토레이' 등 브랜드 검색 시 해당 상품을 한 눈에 볼 수 있도록 편의성을 더했다.양수령 홈플러스 PBGS총괄은 "새로운 과자 맛을 찾는 수요가 점차 증가하면서 수입과자 품목을 확대해 고객들의 선택 폭을 넓히고자 했다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.08.02.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>시중은행 줄어드는데...대출 덩치 키우는 인터넷뱅크</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005282570?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>케뱅, 한달간 4300억 늘어전년말 대비해선 29% 증가카뱅ㆍ토뱅도 대출 규모 늘려[이데일리 전선형 기자] 시중은행들이 가계대출을 줄이고 있는 가운데, 인터넷뱅크의 대출이 계속 증가하고 있는 것으로 나타났다. 공격적인 대출 영업으로 소비자들을 끌어모은 것이다. 2일 금융업계에 따르면 카카오뱅크와 케이뱅크의 7월 말 기준 여신규모는 36조1104억원으로 직전월과 비교해 5641억원이 늘었다. 지난해말과 비교해서는 3조1590억원, 9.5%가 증가했다. 7월 계수집계가 완료되지 않은 토스뱅크 여신규모까지 더해지면 40조원에 가까울 것으로 예상된다. 각 사별로 보면 카카오뱅크는 7월말 기준 여신 규모가 26조9504억원으로 직전월과 비교해 1341억원이 증가했다. 지난해말과 비교해서는 1조890억원이 늘었다. 케이뱅크의 경우 증가세가 더 도드라졌다. 케이뱅크의 7월말 기준 여신 규모는 9조1600억원으로 직전월보다 4300억원이늘었고, 지난해말과 비교해서는 2조700억원, 29.2%이 증가했다. 대출 잔액을 공개하지 않은 토스뱅크도 공격적인 대출 영업을 하고있는 만큼 증가세를 이어갔을 것으로 업계는 보고 있다.인터넷뱅크들의 이같은 대출 규모 증가는 5대 시중은행과 상반된 모습이다. KB국민·신한·우리·하나·NH농협은행 등 5대 시중은행의 지난달 말 가계대출 잔액은 697조4367억원으로 집계됐다. 지난 6월(699조 6521억원) 700조원대가 깨진 데 이어 한 달 사이 2조 2155억원이 더 쪼그라들었다. 5대 은행의 가계대출 잔액은 1월부터 7개월 연속 줄고 있다. 인터넷전문은행의 가계대출이 늘어난 건 중·저신용자를 겨냥한 대출을 공격적으로 늘린 영향으로 보인다. 중저신용자들은 생활비나 생계비 목적으로 돈을 빌리기 때문에 경기침체기에도 꾸준한 수요가 있다. 최근 자산시장 위축으로 고신용자 대출 수요는 줄어들었지만, 중저신용자 대출 수요는 꾸준히 이어지면서 인터넷뱅크의 대출이 늘어난 것이다. 여기에 적극적인 상품 라인업 확대도 한 몫을 했다. 카카오뱅크는 지난 2월 주택담보대출을 출시했는데 지난달 대출 대상 지역과 대상자 등을 확대하는 등 계속적으로 상품 커버리지를 넓히고 있다. 토스뱅크는 지난달부터 씨티은행 대환대출 사업자로 선정되며 적극적으로 대출고객으 끌어들이고 있는 상황이다. 인터넷뱅크들의 수신 규모도 늘었다. 7월말 기준 카카오뱅크와 케이뱅크의 수신 규모는 45조9834억원으로 전달대비 6226억원이 증가했다. 카카오뱅크의 경우 32조6534억원으로 전달과 비교해 5274억원이 줄었지만, 케이뱅크가 1조1500억원이 늘어나며 상쇄했다. 한 은행 관계자는 “시중은행 대출은 줄어들고 있으나, 인터넷은행의 여신 증가세는 올해 꾸준하게 늘어나고 있다”며 “고신용자 대출이 늘었다기 보다는 중저신용자에게 인터넷은행이 빠르게 대출을 받을 수 있고, 저축은행이나 카드론 등 보다 금리가 매력적이어서 찾고 있는 것으로 보인다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>구멍 뚫린 BNPL…국회 “빅테크·카드사 규율 통일해야”</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000831864?sid=101</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>국회입법조사처 “후불결제 성장 고려한 규율 방안 필요””전금법 대신 여전법 내 스몰 라이센스 도입도 고려해야”국회입법조사처가 카드사와 빅테크의 후불결제의 규율 체계를 일원화해야 한다는 주장을 펼쳤다. 사진은 카드로 물건을 결제하는 모습./연합뉴스         현금 없이도 물건을 사고 나중에 결제하는 ‘선구매 후결제(BNPL)’ 사업을 확장하고 있는 빅테크에 대해 신용카드사와 규율 체계를 일원화해야 한다는 주장이 나왔다.국회와 금융당국에서 현재 추진되고 있는 후불결제에 대해 전자금융업법(전금법)을 통한 규제 대신 여신전문금융업법(여전법) 체계에 ‘스몰 라이센스’를 도입하는 방안을 검토해볼 필요가 있다는 의견이다. 스몰 라이센스는 금융업 인허가 단위를 모듈처럼 나눠서 필요로 하는 업무의 인허가를 받을 수 있도록 하는 제도다.국회입법조사처는 3일 ‘2022 국정감사 이슈 분석’에서 후불결제업을 영위하는 빅테크에 대해 여전법 체계에서 규율을 일원화해야 한다고 밝혔다. 카드사와 동일한 규율을 적용받되, ‘소액후불결제업’ 도입 등의 제도적 보완을 통해 다른 부분에 대한 규율은 완화하는 방식이다.국회입법조사처는 “진입 규제와 관련해 여전법 내 소액후불신용결제업 같은 스몰 라이센스 형태로 도입해 최소 자본금 및 소액후불한도 등에 대한 별도 기준을 적용할 수 있다”며 “대신 후불신용결제나 소액인 점을 고려해 영업･운용 행위규제와 건전성 규제는 일부 완화해 적용하는 것”이라고 설명했다.국회입법조사처가 발간하는 국정감사 이슈 분석은 국정감사에서 중점적으로 논의될 필요가 있는 정책 이슈를 엄선하는 만큼 올해 BNPL 규율 체계 구축에 대한 논의 가능성이 커졌다.금융위원회는 혁신금융 서비스를 통해 네이버페이, 카카오페이, 토스페이 등 빅테크를 시범 업체로 지정해 후불 결제업을 허가했다. 이와 관련해 금액한도, 연체율, 할부 등을 관리하고 있으나, 법제를 통한 규제는 없는 상황이다.국회입법조사처는 “후불결제는 간편결제 활성화 차원에서 금융당국이 시범사업 형태로 인정하고 있으나, 향후 성장이 가속화돼 시장에 안정적인 고객을 확보할 경우 이들 빅테크 기업의 과도한 수익성 추구가 문제될 수 있다”며 “불법적인 방법(페이깡)으로의 이용도 우려되는바 제도권 내에서의 적절한 규제 방안을 모색할 필요가 있다”고 밝혔다.국회입법조사처는 현재 국회와 금융당국이 추진하고 있는 전금법을 통한 규율 체계 구축에 대해 시장의 성장을 고려한 종합적인 검토가 필요하다고 지적했다.국회입법조사처는 “후불결제가 신용공여 성격이 있음에도 현재 소액이라는 이유로 독립된 금융업이 아닌 전금법상 겸영업무로 규율체계를 성급하게 확정하게 되면, 빅테크 사업의 특성에 따른 독과점 등 시장실패 발생 시 이를 바로잡을 수단이 부재할 우려가 있다”고 전했다. 현재 BNPL의 월 한도는 최대 30만원이다.국회입법조사처는 전금법을 통한 빅테크 규제는 신용카드사와의 형평성에도 어긋난다고 꼬집었다. BNPL과 같이 동일한 후불신용결제 기능을 가진 신용카드사는 여전법을 적용받아 설립 허가제, 카드수수료규제, 강력한 건전성 및 영업행위 규제가 적용되고 있다. 반면, 전금법을 적용받는 전자금융업자는 카드사가 적용받는 수수료 규제 및 건전성･영업행위 규제를 모두 회피할 수 있다.국회입법조사처는 “동일한 후불신용결제 기능이라는 영업행위에 대해 전금법과 여전법으로 이원적인 규제체계를 둘 경우, 규제 차익(규제 형평성) 문제가 제기된다”며 “동일 행위 동일 규제 원칙에 부합하는지 신중한 검토가 필요하다”고 지적했다.그러면서 조사처는 “향후 후불결제의 발전･확대 가능성 및 경제주체 등의 실생활에 미칠 영향 등을 종합적으로 검토, 규율체계를 확립하는 것이 바람직하다”고 덧붙였다.카드사는 하루빨리 BNPL에 대한 규율 체계를 확립해야 한다는 입장이다. 한 카드 업계 관계자는 “당국에 계속해 ‘기울어진 운동장을 바로 잡아달라’는 요구를 하고 있다”며 “동일 행위에 대해 동일 규제를 통해 빅테크와 카드사가 같은 기능에 대해 공정하게 경쟁할 수 있는 환경을 조성해달라는 것”이라고 말했다.이어 이 관계자는 “전금법이든, 여전법이든 카드사가 더 좋아지거나 나빠지는 것은 없다”며 “여전법을 통해 유사한 수준으로 후불 결제 서비스 규율을 똑같이 받게 되면 카드업계는 하던 일을 그대로 하면 되고, 전금법을 통한다면 카드업계 여전법 규정도 같은 환경으로 조성해 주면 된다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.08.02.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>'리딩 인터넷은행' 자리 두고 치열...인터넷은행 누가누가 잘하나</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004876941?sid=101</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>카오뱅크 수신 잔액 소폭 줄어든 반면 케이뱅크 잔액 급증       [파이낸셜뉴스] 인터넷은행 선두 경쟁이 뜨겁다. 카카오뱅크가 잠시 정체하는 사이 토스뱅크가 올 상반기 본격적인 성장세를 기록 중이다. 케이뱅크는 하반기 기업공개(IPO)를 앞두고 수신잔액을 크게 늘려가고 있다. 히트상품을 잇따라 내놓고 있는 인터넷은행들의 경쟁이 한층 치열해질 전망이다.   2일 인터넷은행업계에 따르면 지난달 말 카카오뱅크와 케이뱅크 수신 잔액은 각각 32조6534억원, 13조3300억원으로 집계됐다. 이는 전월과 비교했을 때 카카오뱅크는 5274억원 감소, 케이뱅크는 1조1500억원 증가한 것이다. 토스뱅크는 정확한 액수를 밝히지 않았지만 여신과 함께 수신 잔액도 꾸준히 성장하고 있는 것으로 전해졌다. 지난 3월 말 토스뱅크가 공개한 수신 잔액은 21조45억원이었다.   특히 케이뱅크는 지난 한 분기 동안 쌓은 수신 액수의 2배에 달하는 금액을 이번 한 달만에 쓸어 모았다. 케이뱅크의 지난 1·4분기 대비 2·4분기 수신 잔액 증가폭은 6300억원이었다.   최근 금리인상기를 맞아 고금리 예·적금을 찾는 수요가 늘자 인터넷은행은 높은 이율에 플랫폼 특유 편리함과 재미 요소를 더한 수신 상품을 잇달아 내놨다. 다만 '조금 더 높은' 금리를 제공하는 상품에 수요가 쏠렸다는 분석이다.   실제 토스뱅크는 지난 6월 첫 적금 상품 '키워봐요 적금'을 출시했다. 카카오뱅크는 지난 5월과 6월 각각 '저금통 with 세븐일레븐'과 '26주적금 with 오늘의집'을 내놨다. 카카오뱅크 기존 상품 '저금통'과 '26주적금'에 브랜드를 결합해 저금 경험과 함께 소비 혜택도 얻을 수 있도록 한 파트너적금 상품이다.   앞서 토스뱅크 '키워봐요 적금'은 출시 3일만에 10만좌를 돌파했다. 카카오뱅크 '26주적금 with 오늘의 집'도 누적 계좌 개설 45만좌를 달성하며 판매를 종료했다.   카카오뱅크 수신 잔액이 여전히 가장 많았지만 이달 수신 잔액이 가장 크게 늘어난 인터넷은행은 케이뱅크였다.   케이뱅크 관계자는 "다른 상품보다도 플러스박스 잔액이 특히 많이 늘었다"면서 "금리를 크게 올리면서 금리인상기에 단기로 자금을 맡기려고 하는 수요를 빨아들인 것 같다"고 전했다.   지난달 16일 케이뱅크는 입출금이 자유로운 파킹통장 '플러스박스' 금리를 연 1.3%에서 연 2.1%로 0.8%p 올렸다. 업계 파킹통장 가운데 가장 높은 금리를 제공한다는 설명이다.   이에 따라 오는 하반기 인터넷은행의 수신 경쟁은 한층 치열해질 전망이다.   토스뱅크가 모임통장 출시를 예고한 데 이어 카카오뱅크도 지난 '26주적금 with 오늘의집' 판매 종료와 함께 "연말까지 신규 파트너적금을 다수 출시할 계획"이라고 밝힌 바 있다. 또 연내 기업공개를 앞둔 만큼 케이뱅크도 예·적금의 견조한 성장이 절실한 상황이기 때문이다.   한편 인터넷은행 여신 잔액은 모두 증가세를 이어갔다. 카카오뱅크는 지난 6월 26조8163억원이었던 여신 잔액이 지난달 26조9504억원으로 1341억원 늘었다. 케이뱅크는 지난 6월 8조7300억원에서 지난달 9조1600억원으로 4300억원 늘었다. 토스뱅크는 앞서 지난 3월 2조5000억원 정도였던 여신 잔액이 지난 6월 말 기준 4조원 이상으로 늘었다. #카카오뱅크 #인터넷은행 #케이뱅크 #토스뱅크</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>중국군 ‘봉쇄 훈련’ 불확실성 속 타이완 해역 선박물류 재개</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011316690?sid=104</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>낸시 펠로시 미국 하원의장의 타이완 방문 이후 중국군이 타이완을 포위하는 형태로 훈련에 나서며 선박 물류 차질이 우려됐지만, 이 지역에서 기존 항로를 이용한 운송이 재개됐다고 블룸버그 통신이 8일 보도했습니다. 블룸버그는 자체 집계를 근거로 전날부터 30척 이상의 선박이 가오슝항 등 타이완 주요 항구 남부에 설정됐던 중국군 훈련구역을 통과했다고 밝혔습니다. 앞서 중국군은 펠로시 의장이 타이완을 떠난 뒤 4∼7일 72시간에 걸쳐 타이완 주변의 6개 구역에서 군사훈련을 실시했으며, 이 기간 해당 지역에 대한 선박과 항공기 진입을 금지했었습니다.  이에 따라 선박들이 훈련 기간 타이완해협 대신 타이완 동쪽으로 우회하는 등 물류에 일정 부분 차질이 생길 것이라는 관측이 나오기도 했습니다. 러시아의 우크라이나 침공과 코로나19 확산에 따른 공급망 혼란 속에 양안 긴장이 추가 악재가 될 수 있다는 우려였습니다. 타이완 교통부가 7일 중국군이 발표한 6개 훈련구역에 대해 효력이 끝났다고 밝히면서 중국군 훈련이 종료됐다는 관측이 나오기도 했지만, 중국군은 이와 별개로 8일에도 타이완 주변에서 훈련을 계속하고 있다고 밝힌 상태입니다. 하지만 블룸버그에 따르면 앞서 발표된 6개 훈련 구역 가운데 타이완 남서부 가오슝항 인근 등 4곳에서 선박 운항이 관측되고 있습니다. 블룸버그는 중동에서 원유를 싣고 온 초대형 유조선 한 척이 지난주 타이완 북부 지역 항만에 머물다가 이날 가오슝항에 정박했다고 소개했습니다. 다른 유조선 한 척도 타이완 북쪽으로 항로를 틀었다가 가오슝항으로 향하고 있고, 또 다른 액화천연가스(LNG) 선박 2척은 연안 해역에 머물다가 타이완 항만으로 들어왔습니다. 앞서 화물 운임 서비스 업체 프레이토스 관계자는 “중국의 조치가 아직 화물 해상 운송에 큰 지장을 주는 것은 아니지만, 이 상황이 장기화할 경우 큰 영향을 미칠 가능성이 있다”고 지적하기도 했습니다.[사진 출처 : AFP=연합뉴스]</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.08.10.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>우리 회사를 Z세대에게 제대로 어필하는 방법</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/037/0000031250?sid=103</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>[김상하의 이게 뭐Z?]※검색창에 ‘요즘 유행’이라고 입력하면 연관 검색어로 ‘요즘 유행하는 패션’ ‘요즘 유행하는 머리’ ‘요즘 유행하는 말’이 주르륵 나온다. 과연 이 검색창에서 진짜 유행을 찾을 수 있을까. 범위는 넓고 단순히 공부한다고 정답을 알 수 있는 것도 아닌 Z세대의 ‘찐’ 트렌드를 1997년생이 알잘딱깔센(알아서 잘 딱 깔끔하고 센스 있게)하게 알려준다.네카라쿠배당토. 취준생이라면 모르는 사람이 없는 마법의 단어일 테다. 네카라쿠배당토는 네이버, 카카오, 라인, 쿠팡, 배달의민족, 당근마켓, 토스를 지칭하는 말이다. 요즘 들어가고 싶은 회사 순위를 고3 때 대학 이름을 외우는 것처럼 모아서 이렇게 부른다. 보통 개발자 대상이라지만 문과 출신 학생들에게도 크게 다르지 않을 것이다.가고 싶은 회사, 힙한 회사의 기준은 사람마다 다르지만 저기 언급된 7개사는 “오? 가고 싶을 수 있지”라는 생각이 든다. 그럼 그 ‘가고 싶어지는’ 힙한 이미지는 도대체 어떻게 만드는 걸까. 이제는 “우리 회사가 워라밸도 좋고, 복지도 좋고” 같은 말로 설명한다고 다가 아니다. 은근슬쩍 우리 회사가 힙하고 좋다는 것을 취업하려는 Z세대에게 보여줘야 한다. 이 때문에 미디어와 영상을 활용해 새로운 모습을 Z세대에게 어필하는 기업도 늘었다.#맥주 주워준 사람을 찾습니다공개수배 광고로 기업 이미지를 개선한 오비맥주. [카스 유튜브 캡처]얼마 전 맥주를 운송하는 트럭에서 맥주 2000병이 쏟아져 씁쓸한 표정으로 깨진 병들을 줍고 청소하던 운송기사를 도와 사람들이 함께 현장을 정리하는 영상이 화제였다. 이 영상을 본 회사는 도와준 시민들을 찾고 싶다며 ‘공개수배’ 광고를 만들었다. 이 영상은 다시 한 번 화제가 됐고 Z세대가 자주 쓰는 각종 커뮤니티와 SNS(소셜네트워크서비스)에서 많이 보였다. 오비맥주가 만든 동영상의 댓글에는 “오비맥주가 다시 보인다”는 말이 많았다. 감사함을 표현하기 위해 만든 영상 하나가 기업 이미지까지 바꿔놓을 수 있다.과거 맘스터치도 비슷한 사례가 있었다. 한 고객이 배달의민족 애플리케이션에 “싸이버거 안에 닭다리살 패티가 다른 지점에 비해 얇다”는 글을 남겼다. 가게 사장은 가끔 그런 물량이 들어올 때가 있어 본사에 클레임을 넣었다고 했고, 본사는 그 후기를 남긴 ‘맛둥이는 나다’ 고객을 찾아 100만 원 상당의 상품권을 지급하겠다며 사람 찾기 이벤트를 진행했다. 당시에도 사람들이 “위기를 기회로 만드는 맘스터치”라는 후기를 많이 남겼고, 기업에 대해 굉장히 좋은 인상을 남긴 이벤트라는 평을 들었다.#궁금하지 않은 것을 궁금해하도록 자극한다토스에서 만든 다큐멘터리 ‘미식경제학’. [토스 유튜브 캡처]필자가 매번 유심히 들여다보는 회사가 토스다. 토스는 필자 같은 Z세대 사이에서도 ‘열정 있고 열심히 하는 사람들이 모여 있어 자기를 발전하게 하는 회사’라는 이미지가 강하다. 그래서인지 항상 그들이 만드는 광고 하나하나에 눈길이 가고 관심이 가는 것은 어쩔 수 없다 싶다.과거 토스에서 만든 광고 중 지금도 기억에 남는 것이 돈의 이동에 자유를 준다는 내용으로 스포츠카에 신사임당, 세종대왕 등 지폐에 나오는 위인들을 태우고 달리는 영상이었다. 최근 토스가 유튜브에 올리기 시작한 영상을 보면 ‘진짜 궁금하지 않았던 것도 궁금하게 만드는 회사’라는 말이 적합하다는 생각이 든다. 음식 너머의 미식 관련 경제 이야기를 다루는 ‘미식경제학’이라는 익스플레인 다큐를 찍었는데, 기업에서 브랜드 관련 영상을 찍으면 보통 웹예능이나 웹드라마에 PPL(간접광고)을 넣거나 기업 상품으로 이야기를 이어갔을 테지만 토스는 다큐를 찍었다는 게 신박하다는 생각이 들었다.특히 보통 익스플레인 다큐는 방송국 기자나 그 분야 전문가를 스피커로 해 이야기를 진행한다. 하지만 토스는 주제가 미식이다 보니 미식 전문가이자 미식 경영을 하는 이를 스피커로 내세워 경제 전문가가 나올 것이라는 예상을 벗어났다. 토스 오리지널이라는 문구가 더 돋보일 수 있도록 한 것이다. 최근 고급 식문화가 유행하면서 내추럴 와인이나 오마카세 등 먹는 것에 돈을 아끼지 않는 Z세대 문화까지 완벽하게 타깃팅해 제대로 기업을 보여준 영상이라고 생각한다. 맞춤에 맞춤을 더한 토스의 전략이 담겨 있다.#이게 맥주 광고야, 여행 광고야아시아나가 만든 레트로 감성의 호피라거 영상. [아시아나 유튜브 캡처]아시아나 하면 대부분 여행, 비행기라는 키워드를 떠올릴 테다. 하지만 아시아나는 기존 행보와 달리 아시아나 호피라거라는 맥주를 출시했다. 맥주를 출시한 것만으로도 “아시아나가 왜 맥주를?”이라고 생각할 수 있는데, 그걸 홍보하려고 만든 영상이 진짜 영혼을 갈아 넣은 것 같은 퀄리티라서 더 화제다.지브리 느낌의 애니메이션으로 레트로한 감성을 담았는데, 아시아나가 말하고자 하는 ‘여행과 맥주를 좋아하는 사람들’을 다루기에 적합한 수단이라는 생각이 들었다. 여행 가서 맥주를 찾는 사람이 많은 만큼 집은 물론, 여행지에서도 맥주를 마시는 이들의 이야기를 담았다. 맥주도 마시고 싶고 여행도 가고 싶게 자극하는 내용이라, 이 영상으로 아시아나는 도대체 몇 마리 토끼를 잡은 걸까 싶었다. 최근 해외로 나가고자 하는 이들을 다시 한 번 자극해 기업 이미지를 머릿속에 각인시키는 것 같다. 고객이 뭘 원하고 뭘 좋아하는지를 알아야만 만들 수 있는 동영상이 바로 아시아나 호피라거 영상이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.08.01.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>[주간투자동향] 토스뱅크, 1,000억 원 규모의 유상증자 결의</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003443236?sid=105</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>바야흐로 스타트업 시대입니다. 2010년부터 시작한 국내 스타트업 열풍은 지난 10년 동안 급속도로 성장했습니다. 대한민국은 어느새 유니콘 기업 11개를 배출한 세계 5위 스타트업 강국으로 자리매김했는데요. 쿠팡, 우아한형제들, 야놀자, 블루홀 등 경쟁력을 갖춘 스타트업이 우리 실생활 속으로 파고들었고, 지금 이 순간에도 성공을 꿈꾸는 수많은 스타트업이 치열한 경쟁 속에서 도전하고 있습니다. 이에 IT동아는 이러한 국내 스타트업의 현장을 [주간투자동향]으로 정리해 제공합니다.토스뱅크, 1,000억 원 규모의 유상증자 결의토스뱅크가 이사회를 열고 1,000억 원 규모의 유상증자 추진을 결의했다. 지난 2021년 10월, 토스뱅크 출범 이후 지금까지 총 4차례 유상증자를 진행, 성장세에 발 맞춰 증자일정을 앞당겼다.지난 2022년 6월 미디어데이 행사에서 발표하는 토스뱅크 홍민택 토스뱅크 대표, 출처: IT동아토스뱅크는 이번 증자를 통해 총 2,000만 주를 신규 발행하며, 주당 발행가는 5,000원이다. 2000만 주 가운데 보통주는 1,500만 주, 전환주는 500만 주다. 증자 납입일은 7월 28일이며, 증자 후 토스뱅크의 납입자본금은 총 1조 500억 원으로 늘어난다.토스뱅크 증자내역, 출처: 토스뱅크토스뱅크는 “토스뱅크의 비전과 사업적 성장을 지지하는 주주사들의 지원으로 추가 자본금을 확보했다”라며, “앞으로도 고객과 주주사의 기대에 부응하고, 사용자 관점에서 새로운 서비스를 선보여 은행에 대한 고객 경험을 바꿀 것”이라고 말했다.에스오에스랩, 193억 원 규모의 시리즈B 투자 유치에스오에스랩(SOSLAB)이 193억 원 규모의 시리즈B 투자를 유치했다. 누적 투자 유치 금액은 362억 규모다. 이번 투자는 BNK투자증권, 한국투자증권, 키움증권, 한양증권, 시너지아이비, 에스티리더스, NH헤지자산운용, 식스브릿지자산운용 등이 신규 참여했으며, 엠포드에쿼티파트너스, 얼머스인베스트먼트가 추가 투자했다.출처: 에스오에스랩에스오에스랩은 고정형 라이다 개발 기업이다. 고해상도 3D 라이다 ‘ML’을 개발하고 선보여 CES2021 혁신상을 수상, 2021 가트너 쿨벤더 선정 등을 통해 제품 우수성을 인정받았다. 최근 현대차그룹과 모바일 로봇용 라이다를 공동개발했다. 또한, 글로벌 대기업과 스타트업, 정부 기관 등과 프로젝트를 진행하고 있으며, CES2022에서 라이다를 활용한 체험형 게임을 선보였다.에스오에스랩은 이번 투자 유치 자금을 활용해 라이다 제품 양산 설비 시설을 추가하고, 인력을 충원할 예정이다.에스오에스랩 정지성 대표는 “라이다의 가능성은 무궁무진하다. 지금은 자율주행 시장에서 주목받고 있지만, 스마트 공장, 스마트 시티, 스마트 모빌리티 등 다양한 인프라에 적용할 수 있다. 라이다의 기술적 과제를 해결하면서 시장에 대응할 계획”이라고 전했다.액스(AX), 43억 원 규모의 시리즈 A 투자 유치트래블 액티비티 솔루션 업체 액스(AX)가 SJ 투자파트너스 등으로부터 43억 원 규모의 시리즈A 투자를 유치했다. 이번 투자는 마그나인베스트먼트, NBH 캐피탈, 김정호 베어베터 대표이사 등이 신규 참여했으며, SJ 투자파트너스가 후속 투자했다.액스의 사업 모델은 레저, 액티비티 영역의 GDS(Global Distribution System)다. GDS는 익스피디아, 트립닷컴과 같은 여행 플랫폼에 실시간 액티비티 여행상품을 대한 퍼블리싱하고 예약 관리하는 온라인 시스템을 의미한다.액스 오연주 대표, 출처: 액스현재 전세계 액티비티 시장의 온라인 점유율은 8% 불과해, 액스는 나머지 92%의 오프라인 시장을 온라인 전환해 해당 시장을 선점할 계획이다. 이를 위해 액스는 ‘AX 클라우드’ 시스템을 개발했다. AX 클라우드는 액티비티를 판매하는 여행사들이 여러 온라인 플랫폼에 상품을 업로드하는 번거로움을 해결해 한 번에 업로드하고, 모바일 앱을 통해 실시간으로 상품을 구매한 고객의 정보를 받아 정산할 수 있도록 돕는다.현재 액스는 프랑스, 이탈리아, 스페인, 호주, 미국, 태국, 중국 등 15개국의 골프 리조트 및 버스 투어사를 대상으로 서비스를 제공하고 있다.액스는 이번 투자 유치를 통해 싱가포르 법인을 설립하고, 유럽, 호주, 동남아 등의 골프 및 버스투어 제공사를 파트너로 확보하기 위해 B2B 세일즈에 돌입할 예정이다. 또한, 여행업을 운영할 때 필요한 현지 날씨, 유류값, 환전 등의 데이터를 제공하는 솔루션 플랫폼을 개발해 사업 다각화를 도모할 예정이다.액스 오연주 대표는 “코로나19로 인해 전 세계 여행 시장은 위축했지만, 여행 시장의 디지털 전환을 위해 개발을 멈추지 않았다”라며, “이번 투자 유치를 바탕으로 국내 및 해외 개발 인력 및 여행업 전문가를 영입하는 등 인재를 확보할 계획이다. 전 세계 여행사들이 온라인 판매를 위해 사용하는 솔루션 기업으로 성장할 것”이라고 말했다.라포테이블, 35억 원 규모의 프리-시리즈A 투자 유치농수산물 직거래 플랫폼 ‘팔도감’을 운영하는 라포테이블이 35억 원 규모의 프리-시리즈A 투자를 유치했다. 이번 투자는 소프트뱅크벤처스와 베이스인베스트먼트 등이 참여했다.‘전국 팔도의 맛 도감’이라는 뜻의 팔도감은 농수축산물을 생산하는 생산자와 소비자를 연결하는 직거래 플랫폼이다. 팔도감 이용자 중 80%는 가구 내 주 식품 구매자인 40~50대로, 식재료의 맛과 품질 기준을 중요하게 생각한다. 팔도감은 이러한 소비자 특성에 맞춰 자체 품질 테스트를 통과한 상품만을 엄선하고, 직관적인 화면과 단순한 가입·주문 시스템을 도입했다.팔도감 서비스 화면, 출처: 라포테이블팔도감은 X세대 패션앱 ‘퀸잇’을 운영하는 라포랩스의 자회사로 운영진은 퀸잇을 이끈 인력들로 구성되어 있다. 퀸잇의 상품기획력과 UI(사용자환경)를 내세워 X세대를 공략하고자 한다.라포테이블 강원호 대표는 “산지직송 플랫폼은 소비자와 생산자 모두가 바라는 서비스”라며, “이번 투자 유치를 통해 서비스를 확장하고 인재를 채용하기 위해 노력할 것”이라고 말했다.알고랩, 20억 원 규모의 프리-시리즈A 투자 유치알고랩이 20억 원 규모의 프리-시리즈A 투자를 유치했다. 이번 투자는 나이스그룹과 신용보증기금 등이 참여했으며, 기업가치(Post-money Value)는 250억 원으로 평가받았다.알고랩은 온디맨드 화물운송 이용 프로세스를 IT기술을 바탕으로 재구성해 디지털 경험을 제공하는 스타트업이다. 온디맨드 화물운송은 필요할 때마다 요청해서 이용하는 물류 서비스로, 퀵서비스와 용차 등을 일컫는다. 불규칙한 수요에 실시간으로 대응해야 하기 때문에, 중개 과정에서 발생하는 오퍼레이션으로 디지털화는 상대적으로 더딘 편이다.출처: 알고랩알고랩이 운영하는 온라인 퀵서비스 ‘알고퀵’은 온디맨드 화물운송 서비스를 디지털화하는 기업용 주문접수 플랫폼이다. 웹사이트와 모바일 앱을 통해 퀵서비스와 용차를 접수할 수 있으며, 부서별 또는 이용자별 비용관리와 예산설정 기능 등을 제공한다.또한, 알고퀵은 고객으로부터 배송기사로 이어지는 프로세스를 최적화하기 위해 인터랙션 디자인과 오퍼레이션 재구성에 집중한다. 이외에도 축적한 경로 데이터로 인공지능 학습을 실시해 묶음배송 최적화를 위한 경로 설계 솔루션을 고도화하고 있다.알고랩은 마켓컬리, 오늘의집, 번개장터, 신세계푸드, SPC그룹, SK바이오팜, 이노션 등 대기업 및 스타트업을 고객사로 유치했으며, 비즈플레이, 다우오피스 등과 API를 연동해 기업 전용 온라인 퀵서비스를 제공 중이다.알고랩은 이번 투자 유치 자금을 프로덕트 및 묶음배송 솔루션 고도화, 중개시장 통합을 위한 인수합병 등에 사용할 예정이다.위벗, 슈미트로부터 4억 원 규모의 시드 투자 유치개발자 커리어 플랫폼 ‘인잇’을 운영하는 위벗이 슈미트로부터 4억 원 규모의 시드 투자를 유치했다.인잇은 스타트업 이직을 원하는 개발자를 위한 커리어 플랫폼이다. 이용자에게 포트폴리오 피드백, 기업 매칭 등을 제공한다. 또한, 기업 매칭 시 인잇이 선별한 파트너사로부터 채용 제안을 받아볼 수 있다.인잇 홈페이지, 출처: 위벗인잇은 다른 커리어 플랫폼과 차별하기 위해 ‘시니어 리뷰’를 제공한다. 시니어 리뷰는 3명의 시니어 개발자가 이용자에게 포트폴리오 피드백을 제공하는 서비스다. 현재 시니어 리뷰는 인잇 이용자 중 94%로부터 평점 만점을 받고 있다. 개발자를 찾는 스타트업은 시니어 개발자로부터 인재를 추천받을 수 있다.위벗은 이번 투자 유치를 통해 미국 개발자 고용 시장 문을 두드린다. 현재 국내 개발자를 미국을 포함한 해외 기업과 연결하는 원격 커리어 플랫폼을 개발 중이다.원더윅스컴퍼니, GS리테일로부터 전략적 투자 유치육아 소비 관심사 플랫폼 ‘맘맘’ 앱을 서비스하는 원더윅스컴퍼니가 GS리테일로부터 전략적 투자(SI)를 유치했다.맘맘은 육아 소비 정보를 통합하고 조직화해 제공하는 육아 소비 관심사 플랫폼이다. 육아용품 관련 콘텐츠와 커뮤니티 기능, 아이와 함께 갈 수 있는 여행·액티비티 장소를 추천하는 ‘아이와 함께’ 기능 등을 제공한다.맘맘 서비스, 출처: 원더윅스컴퍼니GS리테일은 반려동물, 푸드테크, 퀵커머스 등 다양한 버티컬 플랫폼에 직접 투자 및 인수하고 있다. 이번 투자를 통해 키즈 버티컬 시장에서 맘맘과 전략적 시너지를 도모할 계획이다.GS리테일 신사업부문장 이성화 상무는 “국내 육아 소비 시장은 계속 성장하고 있지만, 고객 관점에서 아직도 비효율적이고 불편함을 겪는 시장”이라며, “원더윅스컴퍼니가 육아맘의 불편함을 해결하고, 신뢰를 얻을 수 있도록 전략적 투자자로 지원할 것”이라고 말했다.셀라브이, 패스트벤처스로부터 시드 투자 유치와인 DTC(Direct To Customer) 스타트업 셀라브이가 패스트벤처스로부터 시드 투자를 유치했다. 투자 유치 금액은 미공개다.셀라브이는 서울대 미학과 졸업 후 네모 컨설턴트, 티몬 BO를 거쳐 메쉬코리아, 캐치패션 등의 이커머스 및 O2O(온·오프라인) 서비스를 경험한 박혜정 대표와 롯데 신사업 팀, 패션 DTC 스타트업, 리빙 브랜드사 관리 및 마케팅 등을 경험한 구성원이 모여 창업한 스타트업이다.출처: 셀라브이셀라브이는 국내 와인 시장은 약 2조 원 규모로 추정되지만, 비대칭적인 정보 공유와 불투명한 가격 구조로 제품 정보를 파악하기 어려운 문제를 해결하고자 창업했다.셀라브이는 이번 투자 유치를 바탕으로 온라인 플랫폼 ‘와이닝’을 통해, '숨겨진 보물 와인 찾기' 서비스를 제공할 계획이다. 해외 생산자와 직접 연결하는 DTC 커머스를 비롯해 국내에 잘 알려지지 않은 고품질의 와인을 발굴해 소개하고 판매하는 서비스다. 2022년 8월 내 웹 형태로 베타 테스트를 진행한 뒤, 모바일 앱으로 정식 출시할 예정이다.셀라브이 박혜정 대표는 “와인의 매력은 많은 종류와 다양성이다”라며, “숨겨진 좋은 와인을 발굴하고, 합리적 가격으로 제공하는 ‘와이닝’ 서비스를 제공해 소비자와 공급자 모두에게 좋은 솔루션으로 자리잡길 희망한다”라고 말했다.드라마앤컴퍼니, 슈퍼루키와 자소설닷컴 인수종합 비즈니스 플랫폼 ‘리멤버’를 운영하는 드라마앤컴퍼니가 신입·인턴 채용 플랫폼 ‘슈퍼루키’와 신입 채용 전문 플랫폼인 ‘자소설닷컴’을 인수했다.슈퍼루키는 외국계 기업 및 신입·인턴 취업 특화 플랫폼으로, 20대 취준생에게 필요한 신입·인턴 채용 정보를 주로 제공한다. 사업 초기 아마존·로레알 등 외국계 기업 채용 브랜딩과 채용 공고 운영 등을 통해 외국계 기업 채용 플랫폼으로 인지도를 확보했다. 채용 정보뿐만 아니라, 직무 역량 강화를 위한 커리어 교육, 현직자들의 경험과 인사이트를 담은 콘텐츠 등도 제공한다.출처: 리멤버누적 가입자 80만 명을 보유한 자소설닷컴은 취준생, 중고 신입 등을 대상으로 취업·이직·채용 관련 서비스를 제공한다. 대기업·공기업 취업 특화 플랫폼으로, 상위 20개 대학 졸업생 중 70%가 사용하는 것이 특징이다.출처: 리멤버드라마앤컴퍼니는 슈퍼루키 인수를 통해 양 사의 채용 솔루션을 결합한 종합 패키지 상품을 판매할 예정이며, 자소설닷컴 인수를 통해 신입 채용 시장에서 인력을 선점해 종합 채용 솔루션을 제공할 방침이다.드라마앤컴퍼니 최재호 대표는 “최근 대기업부터 스타트업까지 인력을 채용하기 위한 경쟁은 심화하고 있다”라며, “슈퍼루키와 자소설닷컴 인수를 통해 인재를 사전 선점하며 인재풀 경쟁력을 유지하고 흡수해 국내 신입 및 경력 채용 시장에서 우위를 확보할 것이다. 또한, 앞으로도 시너지를 창출할 수 있는 기업을 찾아 적극적으로 M&amp;A를 추진할 예정”이라고 말했다.드라마앤컴퍼니는 지난 2021년 말 1,600억 원 규모의 시리즈D 투자 유치 이후, 성장 모멘텀을 만들기 위한 사업 확대를 적극적으로 추진하겠다고 밝혔다. 올해 4월 전문가 네트워크 서비스 기업 ‘이안손앤컴퍼니’를 시작으로, 이번 슈퍼루키, 자소설닷컴 인수 등 채용 사업과 플랫폼 경쟁력 강화를 위해 투자를 이어갈 계획이다.핀다, 빅데이터 상권분석 스타트업 오픈업 인수핀다가 상권 분석 스타트업 오픈업을 인수했다. 오픈업의 지분 100%를 전부 인수하는 방식으로, 발행할 신주 및 증가할 자본금은 없다. 이번 인수를 통해 핀다는 직장인 신용대출에 집중했던 대출 플랫폼 서비스를 프리랜서, 소상공인 등 사업자 대상으로 확대할 방침이다.왼쪽부터 핀다 박홍민, 이혜민 공동대표와 오픈업 황창희 전(前) 대표, 출처: 핀다핀다는 오픈업을 인수하며 소상공인 맞춤형 대출 시장으로 사업을 확대할 전략이다. 인공지능 기술을 바탕으로 오픈업이 갖고 있는 8,400만 개의 매출 데이터와 매월 새롭게 생성되는 70만 개의 데이터를 분석해, 소상공인을 돕는 정보와 분석서비스로 개발할 계획이다.우선적으로 핀다는 자영업자 대상으로 대출 중개 부문 경쟁력을 강화한다. 오픈업의 '창업비용 계산기' 서비스와 대출 상품 조건을 비교해 중개하는 핀다의 '대출 비교' 기능을 결합해 초기 창업 자본금 분석부터 대출 중개 등을 한 번에 제공할 예정이다.핀다 이혜민 공동대표는 “오픈업은 국내외 기업들과 함께 많은 상권·매출 분석 프로젝트들을 수행한 빅데이터 스타트업이다. 여러 차례 투자를 유치하며, 기업가치를 인정받았다”라며, “자영업자(소상공인), 프리랜서 등의 사업자 대출을 혁신하고자 매출과 상권 정보를 분석하고 고도화할 필요성을 느껴 오픈업과 손을 잡았다”라고 전했다.인포뱅크, 275억 원 규모의 벤처펀드 결성인포뱅크 아이엑셀이 창업초기 혁신펀드 1호, 핀테크혁신펀드 1호를 결성하며 총 275억 원 규모의 벤처펀드를 결성했다. 이번 벤처펀드는 한국모태펀드가 출자한 175억 원 규모의 ‘인포뱅크 창업초기 혁신펀드 1호’와 은행권청년창업재단(이하 디캠프)과 한국성장금융의 핀테크혁신펀드가 출자한 100억 원 규모의 ‘인포뱅크 핀테크혁신펀드 1호’의 운용사로 선정되면서 결성했다.출처: 인포뱅크핀테크 혁신펀드 1호는 핀테크 기술을 보유한 창업초기 기업 및 디캠프 연관기업 중심으로 투자하고 있으며, 창업초기 혁신펀드 1호는 창업 3년 미만 초기기업 및 지방기업 대상으로 투자하고 지원한다.인포뱅크 아이엑셀 홍종철 대표는 “초기투자 전문 액셀러레이터로 2개 벤처펀드 목적에 해당하는 기술기반 초기기업 발굴에 노력할 예정"이라며, “수 년간 활동하며 탄탄하게 구축한 지역 투자 네트워크를 통해, 지방의 유망한 초기기업도 적극적으로 발굴하고 투자할 것”이라고 전했다.동아닷컴 IT 전문 권명관 기자 tornadosn@itdonga.com</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.08.11.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>신용점수 관리부터 대출 매칭까지… 핀테크 `원스톱 서비스` 경쟁</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002748746?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>뱅크샐러드 '신용올리기' 서비스핀다 '후순위 주담대' 상품 비교카카오페이, 고객맞춤 대출 제시핀테크가 대출비교 시장에 나서면서 경쟁이 치열해지고 있다. 뱅크샐러드(오른쪽)와 핀다 앱 화면. 각사 제공    금리 상승기 대출 이자 부담이 커지고 있다. 핀테크들은 대출 이자를 한푼이라도 아낄 수 있는 신용점수 관리·대출비교·대환대출 서비스를 내놓으며 고객 확보 경쟁을 벌이고 있다.11일 금융권에 따르면 마이데이터 전문 기업 뱅크샐러드는 최근 마이데이터 API를 활용한 '신용올리기' 서비스를 선보였다. 코리아크레딧뷰로(KCB) 제휴를 통해 마이데이터로 연결한 자산 정보 중 신용평가에 유의미하게 활용될 수 있는 정보를 신용평가사에 제출해 신용점수를 상향 관리해준다.마이데이터 서비스를 등록하면 신용평가사는 고객의  소득 및 금융 자산 규모를 추정해 향후 신용 상환 여력까지 종합적으로 판단한다. 신용점수가 향상되면 고객의 달라진 대출 가능 한도에 따른 신용·대환·주택 등의 대출 상품을 연결해준다. 뱅크샐러드 대출 매칭 서비스를 활용하면 최고 2%포인트 우대금리를 제공한다.핀다는 후순위 주택담보대출 상품을 대출비교 서비스에 추가했다. 후순위 주택담보대출은 기존 선순위 담보대출을 보유한 차주가 같은 담보로 추가 대출을 받는 것이다. 일반적으로 담보로 책정한 최대 한도에서 선순위 대출금을 차감한 나머지 금액을 대출받을 수 있다.핀크는 최근 대환대출 상품만 모아 비교할 수 있는 '대환대출 서비스'를 선보이기도 했다. 마이데이터를 기반으로 기존 대출 내역을 조회하고, 개인정보를 입력하면 최적의 대환 조건을 찾아준다. 상품을 선택하면 제휴 금융사로 연결돼 이후 프로세스를 진행할 수 있다. 현재 하나은행, 스마트저축은행, JT친애저축은행, 고려저축은행 총 4곳의 대환대출 상품을 비교할 수 있다.카카오페이는 사용자 신용점수를 기반으로 조건과 상황에 부합하는 다양한 대출상품을 비교해준다. 상품을 선택하면 예상 금리 확인과 상환금 계산도 가능하다. 신용대출 뿐만 아니라 전월세 대출, 카드 대출 등도 비교할 수 있다. 최근에는 버팀목 전세자금 대출과 일반 전월세 대출상품을 모두 비교할 수 있도록 대출 상품 라인업을 확장했다.막대한 월간활성이용자수(MAU)를 확보한 금융플랫폼 토스도 50개 이상 금융업체와 제휴해 대출 상품 비교 서비스를 제공 중이다. 6월 기준 토스 대출 비교 서비스를 통해 승인된 대출은 1조216억원에 달한다.한편 저축은행도 마이데이터를 기반으로 한 맞춤 추천 서비스에 적극적으로 나서고 있다. 웰컴저축은행은 '웰컴마이데이터 맞춤대출 서비스'를 통해 개인에게 최적화된 대출 상품을 안내한다. 고객이 연동한 자산 정보를 토대로 단순한 상품 안내를 넘어 실제 상품 이용 가능 여부와 함께 이용 가능 상품 중 최저금리 및 최대한도 상품을 최우선으로 제시한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.08.06.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>中 대만포위 군사훈련 3일째…한나절씩 더 돌아가는 화물선</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003214876?sid=104</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>중국의 대만해협 군사훈련. AP=연합뉴스       중국의 ‘대만 포위’ 군사 훈련이 3일째에 접어들면서 무역선이 줄줄이 항로를 변경하고 있다.      5일(현지시간) 로이터 통신에 따르면 중국이 낸시 펠로시 미국 하원의장의 대만 방문에 반발해 4일부터 대만해협에서 나흘 일정으로 군사훈련을 시작하면서 일부 화물선과 유조선이 만일의 상황을 피하려고 한나절 정도를 더 돌아가야 하는 다른 항로를 선택하고 있다.      발틱해국제해운협회(BIMCO) 관계자는 “일부 선박은 이미 예방조치를 취했고, 대만해협을 통과하는 대신 대만 동쪽으로 항해하고 있다”고 말했다.      대만해협은 중국과 대만 사이에 위치한 길이 약 500㎞, 폭 150∼200㎞의 바닷길로 동아시아에서 미국과 유럽을 오가는 주요 항로가 몰려있다.      그러나 중국이 이번 훈련에서 실질적 경계선으로 여겨지는 대만해협 중간선을 넘기도 하면서 선박들의 우려가 커진다.      선박 중개업체 브레마 관계자는 “대형 유조선 선주들이 보안 경계 수준을 높이고 선박을 우회하고 있다”며 “운송보험 단체도 회원들에게 경고를 보내 대만 항해 시 주의를 당부했다”고 말했다.      특히 신종 코로나바이러스 감염증(코로나19) 봉쇄가 올해 공급망에 큰 타격을 입히면서 전 세계가 기록적인 인플레이션을 겪은 상황을 고려할 때 앞으로 문제가 더 심각해질 수 있다는 지적도 나온다.      아직 전 세계 무역이 팬데믹 여파에서 회복하고 있는 상황에서 약간의 운송 지연도 무역에 영향을 줄 수 있기 때문이다.      화물 운임 서비스 업체 프레이토스 관계자는 “중국의 조치가 아직 화물 해상 운송에 큰 지장을 주는 것은 아니지만, 이 상황이 장기화할 경우 큰 영향을 미칠 가능성이 있다”고 지적했다.      이어 “지역분쟁 때문에 선박들이 대체 항로를 택하면 운항 일정이 복잡해지고, 운송에 소요되는 시간이 늘어나 추가 비용을 초래할 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>충북 최초 유니콘 기업을 꿈꾸다</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/656/0000021780?sid=102</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>(예비)창업가 초청 특강 및 소통간담회 개최[청주] 충북도는 8일 도청 대회의실에서 예비창업가, 청년창업가, 로컬크리에이터, 창업투자사 등 200여명을 초청해 세 번째 창업특강 및 소통간담회를 가졌다. 지난 7월 19일과 8월 1일에 이어 세 번째로 진행된 이번 간담회는 새로운 꿈을 향해 도전하는 각 분야의 창업가들과 함께 소통하며, 충북 창업의 붐을 조성하고자 충북도에서 지속적으로 진행하는 행사다. 이날 특강에서는 간편송금서비스 '토스'앱으로 유명한 ㈜비바리퍼블리카 이승건 대표이사가 '살고자 하면 죽고, 죽고자 하면 산다'라는 주제로 강연을 했다. 우리나라에 핀테크 사업이 생소하던 시절 토스를 출시해 현재 약 2100만명의 누적가입자를 모으고, 국내 핀테크 기업 최초로 유니콘기업(기업가치 1조원 이상)으로 사업을 일궈낸 이 대표의 창업스토리는 이날 참석한 창업가들로부터 큰 호응을 얻었다. 이후 이어진 소통간담회에서는 참석자들이 자신의 사업분야를 소개하고, 창업 과정에서의 어려움이나 필요한 지원사항 등을 이야기하며 다양한 의견을 듣고 서로 교류하는 시간을 가졌다. 김영환 충북지사는 "그동안 한데 모일 일이 별로 없던 여러 창업가들이 이렇게 도청 대강당에 모여 소통하는 일이 충북도에는 일대 혁명이라고 생각한다"며 "충북도에 변화와 혁신을 만드는 데 앞장서야 할 의무와 책임이 있는 사람으로서, 우리 창업가들이 눈의 힘을 기르고 상상력의 그릇을 넓힐 수 있는 여러 지원방안을 고민할 것"이라고 말했다. 한편 충북도에서는 8월 한 달은 주 1회씩 창업특강 및 소통간담회를 진행하고, 9월 이후에는 월 1회씩 진행한다. 매회 창업 관련 각 분야의 전문가들을 초빙하여 특강을 진행하고 지속적인 소통의 자리를 마련함으로써 창업가들에게 영감을 주고 창업 의지를 북돋을 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>"실물카드보다 간편결제 더 많이 써"…만족도 1위는 삼성페이</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000297366?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>코로나19를 계기로 비대면 소비가 일상화되면서 소비자들이 실물 카드보다 간편결제서비스를 더 많이 이용하는 것으로 나타났습니다.오늘(3일) 한국소비자원은 지난 5월 10∼17일 간편결제서비스 이용 경험자 1500명을 대상으로 온라인 설문조사를 시행한 결과를 내놓았습니다. 네이버페이와 삼성페이, 카카오페이, 토스페이, 페이코 등 5개 간편결제서비스 이용자 각 300명씩을 대상으로 한 조사에서 간편결제 이용 횟수는 10회 중 5.21회로 실물 신용·체크카드(3.54회)보다 많았습니다. 소비자들은 주로 온라인 물품 구매(61.7%)에 간편결제 서비스를 많이 이용했습니다. 주 사용처는 온라인 쇼핑몰(69.2%)과 편의점(12.5%), 대형마트(6.6%) 등이었습니다.5개 간편결제 서비스 가운데 종합 만족도는 삼성페이가 4.06점으로 가장 높았고, 뒤이어 네이버페이(3.89점), 토스페이(3.86점), 카카오페이(3.78점), 페이코(3.67점) 순으로 나타났습니다.서비스상품 요인별 만족도는 결제 편의성과 정확성이 4.29점으로 가장 높은 반면 혜택·부가서비스가 3.85점으로 가장 낮아 할인이나 포인트 제공 등의 개선이 필요한 것으로 조사됐습니다. 또 조사대상 소비자의 15.6%는 간편결제 서비스 이용 시 '피해를 본 경험이 있다'고 답했습니다. 피해 유형은 결제 실패가 51.7%로 가장 많았고, 이어 환불·결제취소 지연(31.2%), 할인·포인트 적립 미적용·누락(17.1%) 등의 순이었습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>7월 수입과자 매출 24% ↑…홈플러스, 품목 늘리고 신규 입점 확대</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003902513?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>홈플러스가 수입과자 품목을 강화하고 상품 구색을 30% 확대했다. 소비자 입맛이 다양화·세분화된 가운데, 코로나19 재확산으로 해외여행이 제한적인 상황에서 수입 스낵을 구매하고자 하는 고객 니즈를 반영했다. 실제 지난 7월 한 달간 홈플러스 수입과자 매출은 전년 동기 대비 약 24% 신장해 수요가 늘고 있는 것으로 나타났다. 또한 지난 22일부터 치토스, 썬칩 등으로 유명한 미국 스낵 브랜드 '프리토레이'의 과자 러플스, 프리토스, 레이즈, 토스티토스 등 16종을 론칭하고 바캉스 시즌 '물가안정 프로젝트'의 일환으로 8월 말까지 시중가 대비 약 10% 저렴한 가격에 판매한다. 또한 2개 구매 시 10% 추가 할인을 적용해 고객 혜택을 늘렸다. 오는 9월에는 튀기지 않아 가볍게 즐길 수 있는 프리토레이 '팝코너스 화이트 체다치즈/스윗 칠리/스윗앤쏠티' 3종을 단독 론칭할 예정이다.최근 리뉴얼 오픈한 서울 방학점과 대전 유성점에는 '월드스낵' 존을 구성하고 과자를 미국, 유럽, 아시아 등 수입국가별로 구분 진열해 고객 시인성을 강화했다. 홈플러스 온라인 몰에도 '세계과자점' 카테고리를 신설하고, '프리토레이' 등 브랜드 검색 시 해당 상품을 한 눈에 볼 수 있도록 편의성을 더했다.양수령 홈플러스 PBGS총괄은 "새로운 과자 맛을 찾는 수요가 점차 증가하면서 수입과자 품목을 확대해 고객들의 선택 폭을 넓히고자 했다"며 "앞으로도 차별화된 수입과자 상품을 발굴해 고객들에게 다양한 맛 경험을 제공할 수 있도록 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.08.02.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>인터넷은행 가계대출 7개월 연속 늘어</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003721479?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>상대적으로 금리 낮아 수요 몰려 케이뱅크 지난달 4300억원 증가  시중은행 7개월째 감소와 대조   카카오뱅크와 케이뱅크 등 인터넷전문은행의 가계대출 잔액이 7개월 연속 늘어났다. 주요 시중은행의 가계대출이 7개월째 감소세를 보이는 것과 대조적인 모습이다.  2일 금융권에 따르면 카카오뱅크와 케이뱅크의 지난달 말 여신 잔액은 각각 26조9504억원, 9조1600억원으로 집계됐다. 6월 말보다 카카오뱅크가 1341억원, 케이뱅크가 4300억원 증가한 것이다. 인터넷전문은행 후발 주자인 토스뱅크는 여신 잔액을 공개하지 않았지만, 출범 초기인 데다 공격적으로 영업을 확대하는 만큼 다른 인터넷전문은행과 비슷한 흐름을 이어갔을 것으로 관측된다.  같은 기간 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 가계대출 잔액은 697조4367억원으로 7개월 연속 줄었다. 감소 폭(2조2154억원)도 6월 말(1조4094억원)보다 대폭 커지면서 두 달 연속 700조원 선을 밑돌았다.  금융권은 금리 인상기와 맞물려 시중은행보다 가계대출 금리가 상대적으로 낮은 인터넷전문은행의 수요가 높아지고 있다고 보고 있다. 지난 6월 카카오뱅크는 주택담보대출 금리를 최대 0.5%포인트 인하했고, 케이뱅크도 전세대출과 아파트담보대출 금리를 최대 0.41%포인트 인하했다.  예·적금 등 수신상품 잔액은 고금리 상품을 내놓은 케이뱅크가 크게 늘었다. 케이뱅크의 지난달 말 기준 수신 잔액은 13조3300억원으로 전월보다 1조1500억원 급증했다. 케이뱅크는 지난 6월 최고 연 5% 금리를 제공하는 적금 특판을 진행했고, 지난달에는 최고 연 3% 금리의 ‘코드K정기예금(100일)’을 특판했다. 케이뱅크 관계자는 “파킹통장(수시입출금식 통장)인 플러스박스 금리를 0.8%포인트 파격 인상해 최대 2.1% 금리를 제공하면서 재테크 커뮤니티 등에서 인기를 끌었다”고 설명했다.  반면 카카오뱅크의 지난달 말 기준 수신 잔액은 전월보다 5274억원 감소한 32조6534억원으로 집계됐다. 카카오뱅크 관계자는 “최근 전체 은행권의 저축성 예금 조달 경쟁이 심화하면서 수신 총 잔액이 소폭 감소한 것 같다”며 “수신상품의 금리 인상을 긍정적으로 검토 중”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.08.02.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>싼 이자 찾아… 인터넷은행 가계대출 증가 지속</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002747145?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>대출금리 상승세에도 카카오뱅크와 케이뱅크 등 인터넷 전문은행들의 가계대출은 증가세를 유지하고 있다. 시중은행보다 낮은 대출 금리로 실수요자 수요가 이어졌다는 분석이다.2일 은행권에 따르면 지난달말 기준 카카오뱅크와 케이뱅크의 여신 잔액은 각각 26조9504억원, 9조1600억원으로 집계됐다. 6월 말과 비교하면 카카오뱅크가 1341억원, 케이뱅크는 4300억원 각각 늘었다. 5대 주요 은행 가계대출이 7개월째 감소하는 것과 대조된다. 5대 은행(국민·신한·하나·우리·농협)은 금리 상승 여파로 가계대출이 2조2154억원이 줄었다. 카카오뱅크와 케이뱅크는 전세대출·주택담보대출(주담대) 등의 상품이 여신 증가세에 기여했다는 설명이다. 한 관계자는 "실수요자 위주의 중·저신용자대출과 전월세·주담대와 같은 담보 대출이 증가하는 모습"이라며 "주택 관련 대출과 같은 경우 다른 은행들보다 금리가 낮은 영향이 있지 않았나 싶다"고 말했다. 지난 6월 카카오뱅크는 주담대 금리를 최고 0.5%포인트 인하했고, 케이뱅크도 전세대출과 아파트담보대출 금리를 최고 0.41%포인트 내렸다.은행연합회가 6월중 취급된 대출을 기준으로 공시한 분할상환방식 주담대 신용등급별 금리 현황을 보면 케이뱅크 평균 금리는 연 4.18%로 신한은행 연 4.43%, 하나은행 연 4.21% 보다 낮았다.신용대출만을 취급하는 토스뱅크는 지난달말 기준 대출 잔액을 공개하지 않았다. 출범한지 1년 밖에 되지 않은 토스뱅크는 금리 상승에도 꾸준한 대출 증가세를 보이고 있다는 설명이다. 토스뱅크 관계자는 "다른 인터넷 은행들과 비슷하게 성장세를 유지하고 있다"고 말했다.예·적금 등 수신상품 잔액은 카카오뱅크와 케이뱅크가 다른 양상을 보였다. 케이뱅크의 지난달말 기준 수신 잔액은 13조3300억원으로 전달말보다 1조1500억원 늘었다. 수차례 고금리 수신 상품 특판에 나선데다 파킹 통장인 '플러스박스' 예금 금리를 은행권 최고 수준인 연 2.1%까지 올린 영향이라는 설명이다. 케이뱅크는 지난달 초 최고 연 3% 금리를 제공하는 '코드K정기예금(100일)' 특판을 실시한 바 있다.반면 카카오뱅크의 7월말 기준 수신 잔액은 전달보다 5274억원 감소한 32조6534억원으로 나타났다. 카카오뱅크 관계자는 "금융권 전체에서 저축성 예금에 대한 금리 경쟁이 치열했다"면서 "수신 금리 인상을 검토 중"이라고 설명했다.인터넷전문은행 가계대출이 5대 은행과는 다르게 7개월째 증가세다. 각사 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>인재난 속…업스테이지, 개발자 2000명 몰렸다</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004085157?sid=105</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>지원자 많아 채용 6단계 강화우수인재·개발문화 시너지올 하반기 'AI팩' 출시 예정[서울경제] 최근 인공지능(AI) 스타트업 업스테이지는 기존에도 악명 높던 5단계 채용 과정을 6단계로 늘렸다. 개발자들이 ‘네카라쿠배당토’(네이버·카카오·라인플러스·쿠팡·배달의민족·당근마켓·토스) 등 대형 정보통신기술(ICT) 기업으로 몰리고 많은 중소기업과 스타트업은 개발자 구인난에 허덕이고 있다. 이런 상황에서 설립한지 2년밖에 안 된 업스테이지는 지원자가 너무 많아 ‘배짱’을 부린 것이다.8일 업계에 따르면 최근 업스테이지는 기존의 5단계 채용 과정에 ‘체크업 세션’을 추가했다. 지원서에 적힌 내용이 회사의 직무와 적합한지 30여 분 줌(Zoom)이나 전화로 인터뷰하는 것이다. 원래는 서류전형-코딩테스트(AI개발자는 2회)-롤매칭 인터뷰-컬처핏 인터뷰-CTO(최고기술책임자) 및 CEO(최고경영자)와의 최종 면접 순으로 진행해왔다. 하지만 창업 후 현재까지 누적 2000여 명의 지원자가 몰리다 보니 더 실력자를 뽑기 위해 절차를 강화한 것이다. 업스테이지 관계자는 “대형 IT업체보다 처우가 좋지는 못하겠지만 개발자들에게 일하기 좋은 환경으로 소문났다"며 "네이버·카카오 합격자가 업스테이지 인턴 개발자로 입사하기도 했다”고 말했다.업스테이지의 한 직원이 결혼 소식을 알리자 임직원들이 원격으로 축하해주고 있다. 사진제공=업스테이지업스테이지는 네이버에서 클로바 AI리더를 맡았던 김성훈 홍콩과학기술대 교수가 창업한 AI 솔루션 스타트업이다. 네이버 Visual AI·OCR을 리드한 이활석 CTO, 네이버 파파고 모델 팀을 리드했던 박은정 CSO(최고전략책임자)도 함께 설립했다. 이후 김재범 전 카카오 AI 팀장, 엔비디아 AI 교육 및 개발 마케팅을 담당하던 손해인씨 등도 합류했다. ‘AI어벤저스’로 주목받았고 설립 1년 만인 지난해 9월에는 316억원 규모의 시리즈A 투자 유치에 성공했다. 업스테이지의 최종 목표는 기업들의 AI 도입을 빠르고 쉽게 해주는 ‘AI팩’을 올 하반기 내놓는 것이다. 업스테이지 관계자는 “대개 어떠한 기업이 AI를 도입하려면 개발자가 있어야 기존 제조공정과 AI를 융합할 수 있지만 AI팩을 통해서라면 개발자 없이도 기존 과정에 쉽게 접목할 수 있다”며 “많은 기업의 AI 전환을 이끄는 게 우리의 최종 목표”라고 말했다.업스테이지 창업 멤버. 왼쪽부터 이활석 CTO, 김성훈 대표, 박은정 CSO. 사진제공= 업스테이지아직 AI팩 상용화 전으로 AI컨설팅만 하고 있는 스타트업에 개발자가 이렇게 몰리는 건 개발자가 연봉 외에도 ‘개발 문화’를 따지기 때문이다. 업스테이지는 설립 초기부터 내로라하는 개발자들이 포진해 있었다. 이러한 환경을 기반으로 동료들끼리 자유롭게 질의하고 서로의 실력을 피드백해주는 각종 ‘스타 라운지 프로그램’을 통해 직원들 능력 향상을 추구하고 있다. 사무실을 임대하는 대신 ‘100% 리모트(remote) 근무제’도 시행 중이다. 덕분에 제주는 물론 메타·아마존 출신 개발자들이 미국 등 다양한 곳에서 일하고 있다. 최근에는 CEO가 개발자들의 건강도 챙기겠다며 팔굽혀펴기 100개 등의 목표를 이루면 상금을 주겠다며 ‘사비 챌린지’도 시작했다.업스테이지 로고. 사진제공=업스테이지업스테이지는 앞으로도 실력있는 개발자를 놓치지 않기 위해 각종 시도를 하겠다는 방침이다. 업스테이지 관계자는 “현재도 글로벌 빅테크 기업 출신이 최종 채용 직전에 있다"며 “놓쳐서는 안 될 인재는 4일만에 뽑기도 하는 ‘업스피드’ 절차도 도입했다”고 말했다. 특히 AI 스타트업인 만큼 석박사급 이상의 기준으로 확보하기 어려운 것으로 알려진 AI 개발자 유치에 주력할 예정이다. 현재도 업스테이지는 직원 100여 명 중 60~70%가 개발자인데 그중 AI개발자와 소프트웨어(SW)개발자 비중이 2:1이다.다만 대부분의 중소기업이나 스타트업들은 이러한 모델을 따라하기 힘든 상황이라 업스테이지 외의 개발자 구인난은 해결하기 힘들 전망이다. 소프트웨어정책연구소에 따르면 2021년부터 2025년까지 AI·클라우드 등 소프트웨어 분야 신규 인력 수요는 35만 3000명에 이를 것으로 추산됐다. 반면 인력 공급은 32만 4000명으로 전망돼 3만명가량 부족할 것으로 예상됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.08.06.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>안그래도 물류대란인데…중국 '대만 포위'에 화물선 우회</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013357951?sid=104</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>동아시아-미·유럽 잇는 주요항로…"한나절 더 소요"중국의 대만해협 군사훈련[AP 연합뉴스 자료사진. 재판매 및 DB 금지]    (서울=연합뉴스) 오진송 기자 = 중국의 '대만 포위' 군사 훈련이 3일째에 접어들면서 무역선이 줄줄이 항로를 변경한다고 5일(현지시간) 로이터 통신이 보도했다.    중국이 낸시 펠로시 미국 하원의장의 대만 방문에 반발해 4일부터 대만해협에서 나흘 일정으로 군사훈련을 시작하면서 일부 화물선과 유조선이 만일의 상황을 피하려고 한나절 정도를 더 돌아가야 하는 다른 항로를 선택하고 있다.    발틱해국제해운협회(BIMCO) 관계자는 "일부 선박은 이미 예방조치를 취했고, 대만해협을 통과하는 대신 대만 동쪽으로 항해하고 있다"고 말했다.    대만해협은 중국과 대만 사이에 위치한 길이 약 500㎞, 폭 150∼200㎞의 바닷길로 동아시아에서 미국과 유럽을 오가는 주요 항로가 몰려있다.    그러나 중국이 이번 훈련에서 실질적 경계선으로 여겨지는 대만해협 중간선을 넘기도 하면서 선박들의 우려가 커진다.    선박 중개업체 브레마 관계자는 "대형 유조선 선주들이 보안 경계 수준을 높이고 선박을 우회하고 있다"며 "운송보험 단체도 회원들에게 경고를 보내 대만 항해 시 주의를 당부했다"고 말했다.    특히 신종 코로나바이러스 감염증(코로나19) 봉쇄가 올해 공급망에 큰 타격을 입히면서 전 세계가 기록적인 인플레이션을 겪은 상황을 고려할 때 앞으로 문제가 더 심각해질 수 있다는 지적도 나온다.    아직 전 세계 무역이 팬데믹 여파에서 회복하고 있는 상황에서 약간의 운송 지연도 무역에 영향을 줄 수 있기 때문이다.    화물 운임 서비스 업체 프레이토스 관계자는 "중국의 조치가 아직 화물 해상 운송에 큰 지장을 주는 것은 아니지만, 이 상황이 장기화할 경우 큰 영향을 미칠 가능성이 있다"고 지적했다.    그러면서 그는 "지역분쟁 때문에 선박들이 대체 항로를 택하면 운항 일정이 복잡해지고, 운송에 소요되는 시간이 늘어나 추가 비용을 초래할 수 있다"고 말했다.    dindong@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>고물가 시대 다시 부는 직장인 ‘짠테크’ 열풍</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/037/0000031242?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>할인 혜택 편의점 구독서비스 인기↑… 푼돈 모으는 앱도 관심 [GettyImages]맘스터치가 8월 4일부터 버거와 치킨 등 총 50개 제품 가격을 인상했다. 2월 이후 6개월 만의 가격 인상이다. 맘스터치 측은 이번 인상에 대해 지속적인 글로벌 원부자재 구매가 상승에 따른 불가피한 조치라고 설명했다. 버거킹도 최근 46개 제품 가격을 평균 4.5% 인상했다. 1월 33개 제품 가격을 올린 지 6개월 만의 추가 인상이다. 롯데리아 역시 지난해 12월 60여 개 제품 가격을 평균 4.1% 올린 데 이어 올해 7월 또다시 81개 제품 가격을 평균 5.5% 인상했다.7월 소비자물가 상승률이 6월에 이어 또다시 6%대(6.3%)를 기록하면서 외식 물가를 비롯한 각종 물가가 큰 폭으로 상승하고 있다. 최근 2030 직장인 사이에서 불필요한 소비를 줄이고 돈을 모으는 ‘짠테크’가 유행하는 이유다. 우선 이들은 ‘런치플레이션’(런치와 인플레이션의 합성어)이라는 신조어가 생길 만큼 외식비가 오르자 도시락을 싸가지고 다니거나 편의점 구독서비스를 통해 점심값을 절약한다. 구독 쿠폰을 구매하면 할인된 가격으로 주요 상품을 살 수 있는 편의점 구독서비스는 CU, GS25, 세븐일레븐, 이마트24 등에서 시행하고 있다(표 참조).런치플레이션 최대 수혜자, 편의점 구독서비스CU는 구독 쿠폰 멤버십 애플리케이션(앱) ‘포켓CU’에서 월 구독료(1000~5000원)를 결제하면 도시락, 샐러드, 김밥, 샌드위치 등 20여 개 상품을 대상으로 정해진 횟수만큼 할인 혜택을 제공한다. 4000원을 내고 도시락 구독 쿠폰을 사면 한 달 동안 10회에 걸쳐 20%를 할인해주는 식이다. GS25가 운영하는 유료 구독서비스 ‘THE POP+(더팝플러스)’는 월 2500~3990원을 내면 커피와 생리대, 도시락, 샐러드 등을 20~25% 할인해준다. 도시락은 3990원을 내면 한 달간 하루 5개, 총 15개를 20% 할인받는다.세븐일레븐은 도시락, 세븐카페, 와인, 과자, 컵라면 등 9개 품목에 대해 월 1000~3000원 구독료를 내는 ‘세븐밀’ 구독 서비스를 운영 중이다. 도시락의 경우 월 2000원을 내면 한 달간 하루 1개, 총 5개를 30% 할인된 가격에 구매할 수 있다. 이마트24도 월 500~6000원 구독료를 내면 김밥, 샌드위치, 도시락, 얼음컵, 바나나 등 총 11개 품목을 최대 50% 할인된 가격에 구매 가능하다. 도시락은 월 6000원을 내면 하루 1개, 총 20개를 50% 싸게 살 수 있다.유통기한이 임박한 편의점 제품을 할인하는 서비스도 인기다. CU의 마감할인세일 ‘그린세이브’를 이용하면 최대 50% 할인된 가격에 제품을 구입할 수 있다. 또 CU와 GS25, 세븐일레븐, 이마트24 등 주요 편의점과 제휴를 맺고 유통기한이 임박한 상품을 저렴한 가격에 판매하는 플랫폼 ‘라스트오더’를 찾는 이도 늘었다. 라스트오더는 최대 70% 할인된 가격에 제품을 판매한다.기프티콘 상품을 시중보다 싸게 구입하고, 선물로 받은 기프티콘을 현금화할 수 있는 기프티콘 거래 플랫폼 ‘니콘내콘’도 인기가 많다. 카페, 편의점, 마트, 피자, 햄버거, 치킨, 빵, 아이스크림 등 카테고리로 나뉜 니콘내콘에는 다양한 상품이 있으며 거래도 활발하다. 유효기간이 임박한 스타벅스 카페아메리카노 톨사이즈는 4500원에서 18% 할인된 3670원에, 카페라테 톨사이즈는 5000원에서 25% 할인된 4150원에 구입할 수 있는 식이다.조금이라도 싼 물건을 찾는 소비자의 관심은 유통가 전반으로 확산되고 있다. 롯데홈쇼핑 측은 올해 2분기에 유통기한이 임박한 상품과 리퍼 상품 판매가 1분기보다 증가했다고 밝혔다. 롯데홈쇼핑은 가전/가구, 잡화/슈즈, 생활/주방, 유아동, TV쇼핑으로 카테고리를 나눠 다양한 제품을 취급하는 ‘리퍼관’을 운영 중이며, 최대 10% 할인된 가격에 판매한다. 티몬의 초가성비 상품 기획관인 ‘알뜰쇼핑’은 전시 및 흠집 상품, 단순 반품 상품, 유통기한 임박 상품, 이월 및 재고 상품, 땡처리 상품 등을 판매한다. 가전, 컴퓨터 및 디지털 기기, 패션 잡화, 뷰티 화장품, 신선식품, 건강식품, 가구 등 다양한 상품이 거래되며 최대 90%까지 할인된 가격에 살 수 있다.소비자 사이에서 짠테크가 확산하자 자사 브랜드 중고 제품을 직접 구입해 판매하는 기업도 등장했다. 7월 첫선을 보인 ‘오엘오 릴레이 마켓’은 코오롱FnC 전용 리세일 마켓으로, 국내 패션기업으로는 최초로 자사 브랜드 제품을 중고 거래할 수 있게 만든 사이트다. 소비자들은 오엘오 릴레이 마켓을 통해 코오롱FnC의 중고 의류를 판매 및 구매할 수 있는데, 판매자에게는 보상으로 eKOLON 포인트를 지급한다. 이 포인트는 코오롱몰에서 새 상품을 구매하는 방식으로 순환된다. 중고 제품은 아우터 기준 70~80% 할인된 가격에 판매되고 있다. 현재는 코오롱스포츠 상품에 한해 중고 거래가 진행되지만 하반기부터는 럭키슈에뜨, 쿠론 등으로 브랜드를 확대해나갈 계획이라고 한다.중고 옷 되사는 패션기업도 등장친환경 패션 플랫폼 ‘시유어겐’도 자사에서 구매했지만 더는 입지 않는 옷을 반품하면 리워드로 보상하는 ‘리턴 서비스’를 내놓았다. 옷을 구매하고 경과된 시간과 옷 상태에 따라 구매가의 최대 40%까지 리워드를 지급한다. 지급받은 리워드는 시유어겐 사이트에서 또 다른 옷을 구매할 때 현금처럼 사용 가능하다. 반품 상품은 시유어겐 전문가의 세탁 및 수선을 거쳐 별도로 운영하는 리턴 상품 코너에서 재판매된다.치솟는 물가 탓에 푼돈을 모으는 앱 포인트 적립에 관심을 갖는 이도 늘고 있다. 삼성금융네트웍스의 통합 앱 ‘모니모’에서는 걸음 수에 따라 리워드인 ‘젤리’를 제공한다. 젤리는 모니모 내 젤리 교환소에서 ‘모니머니’로 교환 가능하며 송금, 펀드 투자 등에 현금처럼 사용할 수 있다. 웰컴저축은행도 헬스케어 서비스 ‘웰뱅워킹’을 통해 누적 걸음 수가 5만 보 이상일 경우 리워드를 지급한다. 한 달 동안 20만 보 이상 걸으면 최대 3000원까지 받을 수 있다. 토스는 하루 1만 보를 걸으면 40원을 포인트로 준다. 게임을 통해 포인트를 받는 앱도 있다. 신한카드는 자사 통합결제 플랫폼 ‘신한플레이(pLay)’ 앱에 ‘pLay오락실’을 운영 중이다. 매달 제공되는 4가지 미니게임을 매일 각각 10회씩 플레이하면 현금화가 가능한 마이신한포인트를 최대 1000포인트 제공한다.*유튜브와 포털에서 각각 ‘매거진동아’와 ‘투벤저스’를 검색해 팔로잉하시면 기사 외에도 동영상 등 다채로운 투자 정보를 만나보실 수 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>[KBW 2022] “NFT 마켓 ‘토스’ 되겠다” 김민수 NFT뱅크 대표</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004879887?sid=105</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>‘KBW2022:IMPACT’ 주제 강연 및 인터뷰‘금융의 시각으로 바라본 NFT 에코시스템’  [파이낸셜뉴스] 대체불가능토큰(NFT) 자산관리 플랫폼 NFT뱅크 김민수 대표(  사진)는 8일 파이낸셜뉴스 등 미디어 인터뷰를 통해 “투자자들이 집이나 중고차 시세를 알아보는 것처럼 NFT도 자산군에 편입되기 시작했다”면서 “현재 NFT뱅크는 미국과 유럽 기반 이용자들이 NFT 자산을 관리하기 위해 ‘토스’처럼 이용하고 있다”고 밝혔다.  대체불가능토큰(NFT) 자산관리 플랫폼 NFT뱅크 김민수 대표가 8일 파이낸셜뉴스와 인터뷰하고 있다. 팩트블록 제공 김 대표는 이날 서울 강남구 그랜드 인터컨티넨탈 서울 파르나스 호텔에서 열린 아시아 최대 블록체인 행사인 ‘코리아블록체인위크 2022(KBW 2022)’ 메인 컨퍼런스 ‘KBW2022:IMPACT’ 강연자로 나서 ‘금융의 시각으로 바라본 NFT 에코시스템’을 발표했다.   NFT뱅크는 투자자들이 의사결정 과정에 참고할 수 있는 최저가격, 이윤, 투자 수익률, 현재 가치 추정 등 다양한 정보를 제공하고 있다. 특히 NFT 뱅크 데이터 사이언스팀에서는 아이템 가치를 추정하는 밸류에이션 모델을 머신러닝(기계학습) 기반으로 개발해 서비스하고 있다.   김 대표는 “최근 다양한 NFT 기반 금융 서비스가 나오고 있다”면서 “일례로 NFT를 담보로 맡기고 돈을 빌려서 그것으로 새로운 NFT를 사는 등 자산관리를 하는 형태”라고 설명했다. 이어 “NFT 금융에 핵심인 가치평가에 주력하고 있다”고 덧붙였다.   김 대표는 최근 네이버 라인넥스트와 SK텔레콤 등이 NFT 생태계에 뛰어드는 것 관련, “아직 낙관하지는 않지만, 다양한 기업이 들어오는 것은 NFT 대중화의 초석이란 측면에서 의미가 있다”고 말했다. 이어 “사용가치가 있는 프로젝트들이 점점 많이 나오고 있다”고 전했다. #팩트블록 #KBW #코리아블록체인위크</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>민간 간편 인증으로 여권정보증명서 등 발급 가능</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011342454?sid=100</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>기사내용 요약영사민원24와 온라인 아포스티유 이용[서울=뉴시스] 영사민원24_간편인증 화면. 2022.08.03. (사진=외교부 제공) *재판매 및 DB 금지[서울=뉴시스] 박대로 기자 = 외교부는 3일부터 8가지 민간 간편 인증 수단(카카오, 네이버, 토스, 페이코, 통신사패스, 삼성패스, KB국민은행, 신한은행)으로 외교부 대표 온라인 영사민원서비스인 영사민원24와 온라인 아포스티유를 이용할 수 있다고 밝혔다.간편 인증을 활용해 재외국민등록부등본, 여권정보증명서, 아포스티유 인증서 등을 편리하게 발급받을 수 있다.영사민원24(http://consul.mofa.go.kr/)란 여권 재발급 신청, 재외국민 등록, 재외공관 방문 예약 등 영사 민원 26종을 온라인으로 처리할 수 있는 서비스다.온라인 아포스티유(http://apostille.go.kr/)란 주민등록등본, 가족관계증명서, 예방접종증명서 등 주요 41종 공문서를 해외 122개국에서 제출할 때 필요한 아포스티유 인증서를 온라인으로 발급받을 수 있는 서비스다.내년에는 실물 여권 정보 기반 안면 인식과 해외 체류 정보를 활용한 재외국민용 비대면 인증 수단이 도입될 예정이라고 외교부는 밝혔다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.08.11.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>'스타트업 겨울' 체감 본격화…7월 투자 작년 '3.6조→0.8조' 뚝</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004782152?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>인플레이션 우려와 금리 인상, 우크라이나 전쟁 영향 등으로 글로벌 투자시장이 얼어붙었음에도 올해 상반기까지 호조세를 보였던 국내 스타트업 생태계에 본격적으로 '투자 겨울'이 체감되기 시작했다. 11일 국내 스타트업 민관협력 네트워크 스타트업얼라이언스에 따르면 지난 7월 국내 스타트업들이 유치한 전체 투자금액은 8368억원이다. 지난해 7월 3조659억원에서 72.7% 감소했다. 직전 달인 6월(1조3888억원)과 비교해도 투자금이 38.9% 줄었다. 올해 상반기(1~6월) 집계치까지는 지난해 같은 기간과 비교해 지표가 훨씬 좋았다. 올해 상반기 스타트업의 투자유치 금액은 7조873억원, 투자 건수는 977건이다. 지난해 상반기 4조3549억원, 512건 대비 각각 62.7%, 90.8% 높다. 상반기에 1000억원 이상 투자를 받은 곳은 16곳으로 지난해 상반기 7곳보다 2배 이상 늘었다. 엑싯(exit·투자금 회수)도 더 활발했다. 기업공개(IPO)는 4건에서 5건으로, 인수합병(M&amp;A)은 29건에서 56건으로 늘었다. 스타트업의 투자유치가 최종 마무리되기까지 6개월 안팎의 시간이 걸린다는 점을 감안하면, 올해 상반기 지표는 제2벤처붐이라고 부르던 올해 1분기까지의, '스타트업 호황기' 때 상황이 반영됐다는 분석이다. 중소벤처기업부가 최근 발표한 '2022년 상반기 벤처투자 동향'에서도 이 같은 경향이 나타난다. 올해 1분기 벤처투자액은 2조1802억원으로 처음으로 2조원을 돌파했으나 2분기 들어서는 1조8259억원으로 전년동기 대비 794억원(4.2%) 줄었다. ━"스타트업에 대한 엄격한 평가 시작"━/사진=임종철 디자이너이달 들어 투자금이 줄며 스타트업들은 투자 감소 현상을 본격적으로 체감하게 됐다. 다만 시드~시리즈A 라운드 초기 스타트업의 경우 시리즈B 이상 후기 스타트업 보다는 투자유치가 상대적으로 어렵지 않을 것이란 관측이다. 실제로 투자금액 지표는 크게 감소했으나 이달 투자 건수를 보면 135건으로 지난해 7월(116건)과 비교해 소폭 상승했다. 후기 스타트업에 대한 대규모 투자는 줄었으나 초기 스타트업에 대한 소규모 투자는 늘었다는 얘기다. 벤처캐피털(VC) 업계 관계자는 "국내는 이미 결성된 펀드가 많아 급격한 변동을 겪는 해외와는 상황이 다르다. 더 중요한 것은 스타트업에 대한 엄격한 평가가 시작됐다는 것"이라며 "이 때문에 대규모 투자유치 사례가 줄었다"고 했다. ━IPO 차질 빚는 스타트업들…쏘카, 기업가치 1조원↓━[서울=뉴시스] 배훈식 기자 = 박재욱 쏘카 대표이사가 3일 오전 서울 영등포구 콘래드 서울 호텔에서 열린 쏘카 기업공개(IPO) 기자간담회에 참석해 기업정보 프리젠테이션을 하고 있다. 2022.08.03.투자심리가 얼어붙고 고공행진 하던 기업가치가 하락하면서 IPO를 추진하던 스타트업에도 제동이 걸렸다. 시장 여건상 IPO 계획을 접거나 재검토하는 곳들이 늘어날 것이란 전망이다. 국내 카셰어링 1위 업체 쏘카는 IPO 흥행에 실패하면서 상장 철회 가능성까지 흘러나왔다. 결국 희망 공모가보다 40% 가까이 낮추고 기업가치도 1조원 밑으로 떨어뜨리면서 상장을 강행키로 했다. 컬리(마켓컬리)의 경우 지난 3월 말 한국거래소에 상장 예비심사를 신청했지만 아직도 거래소 문턱을 넘지 못하고 있다. 이달 중으로 상장 예비심사 통과 여부가 결정될 것으로 예상되는 가운데, 쏘카의 부진과 맞물려 컬리도 가시밭길이 예상된다. 온라인 패션 플랫폼 무신사는 올해 하반기 주관사를 선정하고 내년 상반기 IPO에 나설 계획이었으나 내년 이후 IPO 일정을 재검토하기로 했다. 내년으로 예상되던 토스(비바리퍼블리카)의 상장 일정도 기약이 없는 상태다. [머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.08.07.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>금소법 개정 예고… 카뱅·토스 체크카드 `환급 혜택` 없어지나</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002747806?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>모바일 선불·직불지급 수단 대상신용카드와 비슷한 규제도입 추진부가서비스 변경 사전고지 의무화핀테크 "소비자 혜택 쪼그라들 것"금융위원회가 기존 금융권과의 규제 차익을 이유로 모바일 선불·직불지급수단에 신용카드와 유사한 규제 도입을 추진하면서 관련 업계가 반발하고 있다.7일 금융권에 따르면 금융위는 지난달 이런 내용이 담긴 '금융소비자 보호에 관한 법률(금소법) 시행령 및 감독규정 일부개정안'을 입법 예고했다. 입법예고 시한은 오는 16일까지다. 이후 법제처 심사 등을 거쳐 올 하반기중 시행될 예정이다.금융위는 "현재 선불·직불지급수단(전자지급수단 포함)은 신용카드와 달리 금소법상 금융상품에 해당하지 않아 연계·제휴서비스 규제가 미적용된다"고 밝혔다. 금융위는 "이에 따라 연계·제휴서비스를 금융소비자한테 불리하게 일방적으로 변경·축소하는 사례가 발생할 수 있는 등 소비자보호에 공백이 있다"며 "동일기능·동일규제 관점에서도 신용카드 등과 유사한 규제를 도입해야 한다"고 설명했다. 인터넷 전문은행이나 핀테크사가 사용하는 체크카드도 금소법이 적용되는 금융상품으로 보겠다는 뜻이다. 개정안이 시행되면 선불·직불 지급수단도 신용카드와 마찬가지로 부가서비스 변경시 사전 고지가 의무화될 전망이다. 지금처럼 업체 판단에 따라 체크카드의 부가서비스를 불시에 바꿀 수 없게 된다. 인터넷 전문은행과 일부 간편결제사가 제공하는 카드 서비스에 일부 제한이 가해지는 것이다. 현재 카카오뱅크는 6개월 단위로 가맹점을 바꾸며 체크카드 결제액에 따른 캐시백(환급)을 진행하고 있다. 토스뱅크 역시 이와 유사한 체크카드 이용 정책을 시행하고 있다.관련 업계는 연회비를 지불한 한정된 회원에 서비스를 제공하는 신용카드와 연회비가 없는 체크카드, 간편결제 시스템이 '동일한 기능'을 수행하지 않는다고 주장한다. 아울러 규제가 강화되면 소비자 혜택이 쪼그라들 것이라는 우려도 제기하고 있다. 핀테크산업협회와 인터넷기업협회 등은 내주중 개정안의 전면적인 재검토 등을 요구하는 내용의 의견서를 금융위에 제출할 예정이다.금융위는 이에 대해 "소비자에게 제공되는 모든 혜택이 금소법 상 연계·제휴 서비스에 포함되는 것은 아니다"며 "단기적·일시적으로 제공되는 혜택은 시행령 개정 후에도 현재와 같이 자유롭게 제공할 수 있다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.08.10.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>은행권 “금융지원 종료해도 대출 만기 최대 연장”</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002629012?sid=101</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>안심전환대출 대환 중도수수료 면제 등5대 은행 사옥 ⓒ 각 사 제공[데일리안 = 이호연 기자] 은행권이 취약차주 지원과 지속가능한 사회공헌사업 추진 등 사회적 책임 이행을 위해 최선을 다하겠다고 강조했다.은행연합회는 10일 서민경제의 부담을 함께 나누기 위해 정부 정책에 협조하는 한편, 이와 별도로 자율적인 지원방안을 마련해 적극 시행할 것이라고 밝혔다.은행권은 올해 9월말 종료기한인 소상공인 등에 대한 금융권의 대출 만기연장·상환유예 조치의 추가연장 여부는 아직 결정되지 않았으나, 관련 조치가 종료된다 하더라도 정상차주는 물론 매출감소 등으로 일시적으로 재무상태가 악화된 차주도 급격한 신용등급 하락을 방지해 최대한 만기를 연장하고 금리와 한도에 불이익이 가지 않도록 할 계획이다.원리금연체, 자본잠식, 폐업, 체납 등의 부실이 있거나 부실징후가 있는 차주는 향후 정부의 새출발기금과 연계하거나, 은행 자체적인 채무조정 프로그램 등을 통해 최대한 지원할 예정이다.아울러 금융권의 공동대응이 필요한 사항에 대해서는 금융당국이 포함된 ‘만기연장·상환유예 연착륙을 위한 협의체’를 통해 합리적인 방안이 마련될 수 있도록 적극 협력할 예정이다.은행권은 안심대출과 저금리 대환 프로그램 신청차주의 기존 보유 대출에 대한 중도상환수수료를 면제한다. 예를 들어 3년 만기 변동금리 주택담보대출(중도상환수수료율 1.2%)을 받은 차주가 1년 후 대출잔액(원금) 1억원을 안심전환대출로 대환하는 경우, 차주의 기존 보유 주택담보대출에 대한 중도상환수수료를 면제해 80만원을 경감할 수 있다.80만원은 1년 후 대출원금 1억원에 중도상환수수료율 1.2%를 곱하고 여기에 대출잔여기간(2년)/대출잔여기간(3년)을 곱한 값이다.5대 은행(KB국민, 신한, 하나, 우리, NH농협)은 고금리 이자를 감면하고 감면된 이자금액으로 대출원금을 상환하는 프로그램을 시행할 예정이다. 저신용‧성실이자납부고객 등이 개인신용대출을 연장하는 경우 고객에게 적용되는 금리가 은행에서 설정한 특정금리를 초과하면 초과 이자금액으로 대출원금을 자동으로 상환하고, 원금 상환에 따른 중도상환수수료는 면제할 계획입니다.이 외 소상공인 금융부담 경감을 위해 대출금리 인하, 장기 분할상환 전환, 우대금리 제공 등의 프로그램을 제공한다.▲농협은 소상공인 고금리 일시상환대출을 최장 10년만기 분할상환대출로 전환한다. ▲신한은 일시적 유동성 위기에 처한 개인사업자 대상 금리감면·만기연장(119프로그램)을 운영하고, ▲하나는 금리 7% 초과 만기 연장 소호차주에 대해 최대 1%p 금리를 감면한다. ▲국민은 7% 초과 개인사업자대출 기한연장 시 최대 2%p 인하,코로나 만기연장·상환유예 차주 신청 시 최장 10년이내 분할상환 전환한다. 지방은행은 ▲광주가 7% 초과 개인사업자대출에 대해 만기연장 시 최대 1%p 금리 감면한다. ▲경남은 코로나19 피해 소상공인의 연체이자 전액 감면(100억원 한도)한다.은행권은 서민·가계 대출금리 인하, 이자 지원 프로모션 등도 실시한다. 농협은 주택담보대출의 우대금리를 최대 1.1%p, 전세대출은 최대 0.6%p 확대한다. 신한은행은 신용대출 금리가 7%를 초과하는 다중채무자 금리를 1년간 최대 1.5%p 인하한다. 우리, 하나, 국민, 대구, 제주, 전북, 케이뱅크, 카카오뱅크, 토스뱅크 등도 대출금리 인하 등을 선보인다.청년층을 대상으로 한 고금리 수신상품 제공, 저금리 전월세대출 공급 등도 진행된다. 우리은행은 ‘청년사업가 재기 프로그램’, SC제일은행은 여성 청년 핀테크 창업자 육성 프로그램 등을 운영한다. 수협은행은 청년 전월세대출 우대금리폭을 0.2%p 확대한다. 부산은행은 부산시 거주 저소득·무주택 청년·신혼부부 무이자 전세대출 시행한다. 농협, 하나, 신한은행도 관련 대책을 내놓았다.은행별로 대상자와 혜택은 상이할 수 있다. 한편 은행권은 지난해 총 1조 617억원 규모의 사회공헌을 실시했으며, 올해 1조원 이상의 사회공헌사업을 전개한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.08.10.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>'네카라쿠당토' 만난 이정식 장관 "공장법 시대 노동법, 바꿔야" 강조</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000690931?sid=102</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>이정식 고용노동부 장관이 10일 오전 서울 중구 프레지던트 호텔에서 네이버, 당근마켓, 라인플러스, 비바리퍼블리카, 카카오, 쿠팡 등 주요 IT기업 관계자들과 간담회를 하고 있다. 고용노동부 제공이정식 고용노동부 장관이 네이버·카카오·라인플러스·쿠팡·당근마켓·토스 등 IT업계 종사자들을 만나 노동개혁과 관련한 현장 목소리를 들었다. 이 장관은 "자율 근무제, 성과 중심 임금체계로의 개편은 긍정적"이라며 현 정부의 노동 개혁 방향에 찬성한 업계 종사자들 의견에 공감하며 개혁 의지를 밝혔다.이 장관은 10일 서울 중구 프레지던트 호텔에서 주요 IT기업 근로자 및 인사·채용 담당자들을 만나 △근로시간 제도 △임금체계 △IT인력 양성 등에 대해 논의했다.이날 간담회에 참석한 업계 관계자들은 유연한 근로시간제와 성과중심 임금체계로의 전환을 예고한 현 정부 정책 방향과 취지에 전반적으로 찬성했다. A씨는 "과거 회사에서 선택근로제를 처음 도입한다고 했을 때, 근로시간이 늘어나지 않을까 우려도 있었다"면서 "막상 도입된 후 다들 만족도가 높아, 근로시간 선택의 자율성을 높이는 게 시대적 흐름 같다"고 의견을 밝혔다.부작용을 우려해 건강보호 조치가 충실히 마련돼야 한다고 지적하는 경우도 있었다. 한 회사의 인사담당자 B씨는 "근로시간의 자율적 선택권을 높이는 데에는 동의하지만, 건강보호조치가 얼마나 구체적이고 근로자를 보호할 수 있느냐가 중요할 것"이라고 했고, D씨도 "쉴 때는 근로자가 반드시 쉴 수 있도록 집행력을 담보할 필요가 있어 보인다"고 말했다.이정식(왼쪽 두 번째) 고용노동부 장관이 10일 서울 중구 프레지던트 호텔에서 네이버, 당근마켓, 라인플러스, 비바리퍼블리카, 카카오, 쿠팡 등 주요 IT기업 관계자들과 간담회를 하고 있다. 고용노동부 제공이 장관은 이런 현장의 의견에 크게 공감했다. 그는 간담회를 마무리하면서 "현행 법은 공장법 시대에 만들어진 법으로 현재 상황에 맞지 않는 측면이 있다"면서 "오늘 해주신 말씀들은 개선방안 마련 과정에서 깊이 참고할 것"이라고 말했다. 다만 일각에서는 대대적인 노동시장 개혁을 예고한 정부가 정책 방향에 맞는 업계를 먼저 찾은 것이 아니냐는 지적도 나온다. 이번 간담회에는 근로시간·임금체계 개편 방안을 모색하기 위해 지난달 출범한 '미래노동시장연구회' 위원들도 참석했다.  연구회는 구성원의 편향성을 문제로 출범 전부터 중립성 논란이 제기됐었다. 실제로 이날 간담회 참석자들은 선택적 근로제 경험자가 많았고, 이직이 잦아 근속기간이 성과로 이어지지 않는 IT업종 특성상 역량과 성과 중심 임금체계에 거부감이 없는 근로자들이 대부분이었다.이에 고용부 관계자는 "IT업계는 4차 산업혁명 등에 가장 환경적 변화를 많이 겪고 있는 업계고, 이들의 이야기를 들어보기 위해 노동현안추진TF 차원에서 간담회를 마련한 것"이라며 "앞으로 전통산업인 제조업계와의 간담회도 준비하고 있다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.08.04.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>“5%라더니”…대출비교 서비스 이용해보니, 실제와 다르네</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005283521?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>선두주자 토스 대출비교 실적 반년새 0.5조→1.2조대출비교 플랫폼 고공성장…후발주자도 이용 급증해대출비교 플랫폼 결과와 실제 금리·한도 달라 ‘한계’이용편의 위해 ‘원스톱’ 서비스 요구되지만 ‘먼 길’[이데일리 김정현 기자] 30대 직장인 A씨는 급전이 필요해 한 모바일 플랫폼에서 제공한 대출비교서비스를 이용해 대출금리 및 한도를 확인했다가 실망을 하고 말았다. 금리가 가장 낮은 은행을 골라 대출을 시도했지만, 실제 해당 은행이 제시한 금리는 이보다 훨씬 높았고, 한도도 턱없이 모자랐기 때문이다. A씨는 “결국 발품을 팔아야 하는 것 아니냐”면서 “좀 더 간편한 서비스가 필요할 것 같다”고 말했다.금리가 고공행진하고 이자 부담이 커지면서 대출비교 서비스도 덩달아 호황을 맞고 있지만, 실제 대출 실행까지는 불편이 적지 않다는 지적이다. 특히 플랫폼에서 제안한 금리와 실제 해당 은행 금리차가 커 ‘낚시성’ 아니냐는 불만도 나오고 있다. 서울 시내 한 은행 앞을 시민이 걸어가고 있다. (사진=연합뉴스)토스 앱 이용한 대출액 한달간 1조 넘어2일 금융권에 따르면 대출비교 서비스 선두를 달리는 비바리퍼블리카(토스)의 지난달(7월) 말 누적 대출 실행액은 14조8000억원이었다. 7월 한달간 실행된 금액은 1조1720억원에 달했다. 올해 초 1월만 해도 4620억원 수준이었던 실행액이 5월(1조445억원) 처음으로 1조원대로 올라섰는데, 지난달에도 1조원 수준의 금액을 기록한 것이다.대출비교 서비스는 차주가 본인에 대한 간단한 정보 몇개를 입력하면 48개 금융사의 신용대출 상품 금리와 한도를 비교할 수 있는 서비스다. 최근 금리가 가파르게 오르면서 차주들이 더 낮은 금리를 비교해보기 위해 이 서비스를 이용하는 사례가 늘고 있다. 토스뿐 아니라 대부분의 대출비교 플랫폼들은 실적면에서 최근 고공 성장하고 있다. 핀테크 업체인 ‘핀다’의 대출 중개 누적 승인액은 1100조원을 넘어섰다. 지난해 3월 100조원에 불과했던 승인액이 같은 해 12월 500조를 넘었고, 올해 5월 900조를 넘어선 데 이어 이달에는 1100조를 돌파한 것이다. 다만 대출 중개 승인액은 실제 대출로 연결된 금액이 아니라 금융소비자가 대출비교를 실행해 도출된 금융사들의 대출가능 한도를 모두 합한 금액이다.  후발주자들도 무서운 성장세다. 현대캐피탈의 경우 대출비교 서비스 누적 이용자가 출시 두 달 만에 50만명을 넘어섰다. 현대캐피탈은 “월 이용자 수가 출시 월 대비 3배 이상 증가했다”고 말했다.대출비교 플랫폼이 무서운 성장세를 보이는 것은 글로벌 금리상승 여파다. 이자부담이 크게 가중되면서 0.1%포인트라도 낮은 금리에 대출을 받고자 하는 수요가 커졌다는 것이다. 대출비교 플랫폼 대출조회는 가심사 불과문제는 대출비교 플랫폼에 제시되는 금리 및 한도가 실제와 다르다는 점이다. 모바일에서는 금리가 낮고 한도가 많은 것으로 나오지만, 실제 은행에서는 이와 다른 경우가 많다는 얘기다. 실제 기자가 토스와 카카오페이, 핀다 등 3대 플랫폼을 통해 대출비교를 해보니, 같은 금융사에서 동일한 금리·한도가 제시됐지만 실제 대출은 불가능했다. 플랫폼에서는 일제히 A은행에서 5.42%에 3000만원을 대출할 수 있다고 제시했지만, 실제 주거래은행인 A은행의 신용대출 금리는 최저 5.86%이었다. 그마저도 대출 승인이 거절됐다.결국 발품을 팔아 은행 창구를 이용하는 것과 앱으로 비교플랫폼 서비스를 이용하는 결과가 크게 다르지 않은 상황이다. 은행권 한 관계자는 “대출비교 플랫폼의 대출조회는 ‘가심사’에 불과하다”며 “시중은행들이 핀테크들한테 대출심사의 정확한 기준을 넘겨줄 리 없다”고 말했다. 핀테크 업계 관계자는 “가심사와 본심사 모두 제휴사(금융사)가 제공하는 심사 기준을 적용하기 때문에 플랫폼사가 임의로 관여할 수 없다”고 했다.상황이 이렇자 금융소비자들의 편의를 위해 정부 차원의 노력이 필요하다는 지적도 나온다. 지난해 정부가 추진하려다 중단된 대환대출플랫폼이 대안이 될 수 있어 보인다. 금융권 관계자는 “정부가 한 때 추진했던 대환대출 플랫폼을 서둘러 재추진해야 금융소비자들에게 보다 정확한 서비스를 해줄 수 있을 것”이라며 “현재 서비스는 자칫 불완전판매나 미끼성으로 오해될 수 있다”고 봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.08.06.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>개발자보다 귀한 PO[최연진의 IT 프리즘]</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000690179?sid=110</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>디지털 교육 스타트업 엘리스에서 마련한 프로그래밍 교육 행사에 청년들이 참여하고 있다. 엘리스 제공기업들의 급격한 디지털 전환 등 IT 수요가 크게 증가하면서 소프트웨어 개발자들이 귀한 대접을 받고 있다. 그런데 이들보다 더 귀한 대우를 받는 존재들이 있다. 바로 프로덕트 오너(Product owner)다.줄여서 PO라고 부르는 이들은 기업에서 특정 제품이나 서비스의 전략 수립부터 개발 계획, 추진 일정, 향후 사업 전개의 방향성까지 모든 것을 책임지는 존재다. 그만큼 여러 부서를 아우르는 권한이 막강하고 큰 책임이 따르기 때문에 IT업계에서는 이들을 '미니 CEO'라고 부른다.이 중에서 가장 중요한 것은 방향성 수립이다. 서비스와 제품을 어떤 방향으로 발전시켜 어떻게 시장에 안착시킬지 결정하는 것이다. IT기업들이 가장 우려하는 것이 시행착오다. 수많은 사람들이 땀을 뻘뻘 흘려가며 힘들게 산꼭대기에 올랐는데 앞에서 인도한 사람이 '이 산이 아니네' 하는 것처럼 맥 빠지는 순간이 없다. PO는 명확한 방향성을 제시해 엉뚱한 산봉우리에 오르는 시행착오를 줄여주는 존재다.심지어 뛰어난 PO가 있으면 개발팀이 없어도 된다. PO가 외주 개발업체를 지휘하면 얼마든지 개발을 진행할 수 있기 때문이다. 그래서 요즘 스타트업들은 개발자보다 PO 확보에 더 공을 들인다.그렇다 보니 몸값도 개발자보다 비싸다. 유명 금융기술(핀테크) 분야의 신생기업(스타트업) A사에서 근무하는 28세 된 모 PO는 연봉이 1억5,000만 원이다. 대형 IT기업인 네이버, 카카오는 물론이고 쿠팡, 토스 같은 대형 스타트업들은 이런 PO들을 수십 명 이상 데리고 있다. 구글이나 메타 같은 세계적인 IT기업들은 여러 PO들을 관리하는 선임(시니어) PO가 따로 있고, 최고경영자(CEO)는 선임 PO들을 통해 전체 서비스가 돌아가는 것을 파악한다.이처럼 잘나가는 기업의 PO들은 집중 영입의 대상이 된다. 그 바람에 PO들의 몸값이 더 뛰고 있다. 오죽하면 일부 IT기업들은 다른 업체들이 PO를 계속 빼내가는 바람에 PO 부족을 해소하고자 아예 상시 채용을 내걸었을까.관심을 끄는 것은 PO에게 요구되는 개발자와 다른 자질과 덕목이다. 개발자는 프로그래밍을 잘해야 한다. 하지만 PO는 가장 중요한 자질이 소통 능력이다. 문제 해결이나 전략 수립을 위해 여러 부서와 여러 직군을 통솔해야 하기 때문이다. 즉 특정 부서의 고충이나 요구 사항을 파악해 이를 다른 부서에 기분 나쁘지 않게 전달해서 마찰없이 조율하는 능력이 중요하다.그래서 구글이나 메타의 경우 PO들이 개발자나 디자이너 출신도 많지만 의외로 인문학도와 경영학 석사(MBA) 출신들이 많다. 무엇보다 사람에 대한 이해가 필요하기 때문이다. 어떤 사람이 어떤 특성을 지녔으며 어떤 업무에 적합한지 잘 알려면 인간에 대한 심도 있는 이해가 필요하다. 그래서 인간에 대한 통찰을 다루는 인문학이나 토론을 통해 여러 사람의 의견을 듣고 최적의 결론을 도출하는 수업 방식에 익숙한 MBA 출신들이 각광을 받는다. 구글, 메타에서는  컨설턴트 경험이 있는 MBA 출신 PO의 초봉이 수억 원대에 이른다고 한다.한마디로 PO는 인간에게 왜 인문학이 필요한지 보여주는 자리다. 모든 사업의 근간은 인간에 대한 이해에서 비롯된다는 방증인 셈이다. 그러니 인문학도들도 IT가 주도하는 시대에 더 이상 설자리가 없다고 우울해하지 말기를 바란다. 이쯤 되면 인문학도들도 희망을 가져볼 수 있지 않을까.</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.08.11.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>한국투자증권, 토스뱅크 고객 대상 디지털 자산관리 서비스 제공</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003724070?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>한국투자증권은 토스뱅크 모바일 앱을 통해 뱅키스 신규계좌 개설 및 금융상품 광고 등 자산관리 서비스를 제공한다고 10일 밝혔다.   이번 서비스는 양사가 체결한 업무협약(MOU)의 일환으로 진행된다. 앞으로 토스뱅크 고객은 앱을 통해 한국투자증권 신규계좌를 개설하고 금융상품을 손쉽게 소개 받을 수 있다. 10일부터 토스뱅크 앱에서 한국투자증권 증권계좌를 신규 개설하면 선착순 5000명에게 온라인 금융상품권 1만원권을 지급한다. 온라인 금융상품권을 활용하면 주식과 발행어음 등 한국투자증권의 각종 금융상품에 자유롭게 투자할 수 있다.   토스뱅크 고객은 한국투자증권이 신규 고객들에게 제공하는 각종 혜택도 빠짐 없이 챙길 수 있다. 개설 후 해외주식 거래를 처음 신청할 경우 10달러를 즉시 지급하며, 온라인 매매수수료는 면제해 준다. 더불어 환전 시에는 최대 95%까지 우대 환율을 적용 받을 수 있다.   또한, 앱 내에서 발행어음 특판 상품도 가입할 수 있다. 1년 만기 상품은 연 4.5%(세전, 8월10일 기준), 6개월 만기 상품은 연 4.3%(세전, 8월10일 기준)의 금리를 제공한다. 발행어음은 자기자본 4조원 이상의 초대형IB 중 단기금융업 인가를 받은 증권사만 판매 할 수 있다.    한국투자증권은 토스뱅크를 통한 상품 소개 라인업을 지속 확대한다는 방침이다. 더불어 고객의 성향을 분석하여 각자에게 맞는 상품을 소개하고, 시장 상황에 맞는 투자전략을 제시하는 등 디지털 자산관리 서비스를 고도화하는 데 집중할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>"될 놈이다"…글로벌VC가 베팅한 신생 스타트업 中 50곳·韓 3곳 [긱스]</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004732484?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>550만弗 이상 '시드 투자' 몰린 곳 살펴보니스타트업 시드 투자올 상반기 키워드는亞·블록체인·헬스케어 투자 유치 '톱20'NFT 유가랩스 1위암호화폐 흔들려도 관련 업체엔 뭉칫돈의료용 AI에도 관심 550만弗 이상 유치  아시아 185곳 달해 인도 25곳·싱가포르 22곳韓스타트업 관심 저조글로벌 금리 인상 여파로 벤처투자 시장이 위축됐지만 갓 설립했거나 이제 막 사업에 착수한 ‘초기 스타트업’을 찾는 투자자들의 발길은 여전히 분주하다. 가격이 쌀 때 성장성 있는 기업을 찜해 두고 펀드 만기에 맞춰 그들이 유니콘 기업(기업가치 1조원 이상 스타트업)이 되는 5~7년쯤 뒤에 자금을 회수할 수 있기 때문이다. 그렇다면 글로벌 투자자들이 최근 가장 적극적으로 ‘원석’ 발굴에 나선 산업 분야는 어디일까.올해 글로벌 투자자들의 시드 투자(기업 설립단계 투자) 자금이 가장 몰린 분야는 블록체인으로 조사됐다. 암호화폐 가격 하락과 루나·테라 사태에도 투자자들은 여전히 이 분야 신생 스타트업에 적극적으로 베팅했다. 헬스케어·바이오테크 분야의 신생 기업에 대한 투자 열기도 높았다.그래픽=전희성 기자지역적으로는 미국을 비롯해 전통 벤처 강국 이스라엘과 창업 열기가 높은 중국에서 신생 스타트업에 대한 러브콜이 이어졌다. 이스라엘, 중국의 스타트업에 550만달러(약 72억원) 이상 시드 투자(기업 설립 후 첫 투자)한 사례는 각각 50여 곳에 달했다. 인도(25곳), 싱가포르(22곳)의 신생 스타트업도 대거 글로벌 투자자들의 낙점을 받았다. 반면 한국의 스타트업이 글로벌 투자자들로부터 대규모 시드 투자를 받은 사례는 베트남 등과 더불어 3곳에 그쳤다. 여전히 뜨거운 블록체인 투자 열기3일 글로벌 벤처투자 정보업체 크런치베이스에 따르면 올해 들어 지난 1일까지 시드 투자금액 기준 상위 20개사 가운데 블록체인·대체불가능토큰(NFT) 기술기업은 7곳, 헬스케어는 5곳, 반도체 기업과 핀테크는 각각 2곳으로 집계됐다.시드 투자 상위 3개사는 모두 블록체인 스타트업이 차지했다. 인기 NFT인 BAYC(지루한 원숭이들의 요트클럽) 제작사 유가랩스는 4억5000만달러(약 5900억원) 규모 시드 투자를 유치하면서 1위에 올랐다. 지난해 설립된 후 투자 유치에 본격적으로 나서자마자 몸값을 40억달러(약 5조2500억원)로 평가받으며 단숨에 유니콘 기업 대열에 합류했다.세계 최대 암호화폐거래소 바이낸스의 자회사 바이낸스US와 메타 출신 창업가들이 세운 블록체인 스타트업 앱토스는 각각 2억달러(약 2500억원)를 조달했다.암호화폐 투자시장은 급랭했음에도 관련 스타트업에 투자가 이어지는 이유는 크게 두 가지로 꼽힌다. 우선 메타버스 등이 급성장하면서 연관 산업인 블록체인 기술도 결국 뜰 수밖에 없다는 전망에서다. 또 미국 최대 암호화폐거래소인 코인베이스가 블록체인 스타트업 투자의 마중물 역할을 톡톡히 하고 있다. 코인베이스 산하 기업형 벤처캐피털(CVC) 코인베이스벤처스는 올 상반기 19개 사의 시드 투자에 참여했다. CB인사이트에 따르면 구글벤처스와 함께 올해 상반기 CVC 투자 건수 1위다.올해 블록체인 다음으로 큰돈이 몰린 분야는 헬스케어와 바이오테크다. 노스웰헬스와 에이기스벤처스가 만든 의료용 인공지능(AI) 스타트업 어서튼은 1억달러 규모 시드 투자를 유치해 주목받았다. 미국 바이오제약 기업 애로헤드가 중국 비보캐피털과 공동으로 설립한 리보핵산 간섭(RNAi) 치료제 기업 비시르나도 6000만달러를 투자받았다. 아시아 신생 스타트업에 쏟아진 관심지역별로는 미국, 이스라엘, 중국 등 창업 강국에서 생겨난 스타트업들에 글로벌 자금이 몰렸다. 올 들어 전 세계에서 550만달러 이상 시드 투자를 받은 스타트업은 954곳이었다. 미국이 388개 사로 가장 많았고 유럽에선 196개 사, 아시아에선 185개 사가 투자받았다. 아시아 국가별로 보면 중국이 50개국으로 가장 많았고 인도(25곳), 싱가포르(22곳), 인도네시아(7곳), 한국·베트남(각각 3곳) 순이었다. 일본은 올해 550만달러 이상 투자받은 신생 기업이 한 곳도 없었다.중국은 올해 전 세계 시드 투자금액 상위 10위권에도 반도체 제조업체 허지엔과 중앙처리장치(CPU) 개발회사 HJ마이크로(항저우홍준) 등 스타트업 두 곳이 이름을 올렸다. 싱가포르에선 안경업체 네소가 8위를 차지해 눈길을 끌었다. 인도 안경 체인 렌즈카트가 설립한 스타트업으로, D2C(소비자에게 직접 판매) 안경 브랜드로 주목받고 있다.국내 스타트업 중에선 게임 스타트업 111퍼센트의 자회사 슈퍼센트와 데이터처리장치(DPU) 개발사 망고부스트, 빗썸의 메타버스 부문 자회사 빗썸메타 등이 550만달러 투자 유치 클럽에 가입했다. 삼성전자, 해외 스타트업 공격 투자국내 벤처캐피털(VC)과 대기업 계열 CVC들의 해외 신생 기업 발굴은 올해도 활기를 띠고 있다. 특히 삼성전자의 미국 CVC인 삼성넥스트의 존재감이 두드러졌다. 삼성넥스트는 해외 시장에서 스타트업 6곳의 시드 투자에 참여했다. 지난달 말엔 웹3.0 스타트업 스페이스앤드타임이 진행한 1000만달러(약 130억원) 규모 시드 라운드에 참여했다. 이 회사는 암호화 프로토콜을 개발하고 있다. 지난 3월엔 이스라엘 게임 스타트업 쿠플리의 1800만달러(약 230억원) 규모 투자 라운드에도 투자자로 이름을 올렸다. 그 밖에 미국 데이터 분석 플랫폼 스타트업 엔소, 블록체인 스타트업 머신파이랩, 이스라엘 개발자 대상 교육 플랫폼 윌코, 미국 블록체인 스타트업 사가에도 투자했다.국내 VC인 스마일게이트인베스트먼트는 미국 헬스케어 스타트업 이어러블의 660만달러(약 85억원) 시드 라운드에 참여했다. 네이버 자회사 스노우는 미국 인공현실 스타트업 ‘TWO’가 진행한 2000만달러(약 260억원) 시드 라운드에 참여했다. 또 현대자동차 제로원과 롯데그룹의 CVC 롯데벤처스, 위벤처스 등은 메타 출신인 최정서 대표와 구글 출신인 배수현 최고기술책임자(CTO)가 미국에 설립한 스타트업 바비디에 투자했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.08.10.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>스타트업시장 '옥석가리기' 시작됐다</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005130659?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>유니콘기업 IPO 잇따라 연기IT 개발자 영입 경쟁 주춤콘텐츠·소설, 헬스케어 등전망 밝거나 주도 업체만 투자서울 강남구 코엑스에서 열린 '넥스트라이즈 2022'에 참가한 관람객들이 스타트업 관련 설명을 듣고 있다.국내 스타트업 투자시장이 얼어붙으면서 국내 주요 ‘유니콘’ 기업의 기업공개(IPO) 일정도 기약없이 밀리고 있다. 치솟았던 개발자 몸값에도 변화가 감지되고 있다. 업계에선 본격적인 옥석가리기도 시작됐다고 보고 있다.온라인 패션 플랫폼 무신사는 당초 올해 하반기 주관사를 선정하고 이르면 내년 상반기 IPO에 나설 계획이었지만 시장 여건상 내년 이후 IPO 일정을 다시 검토하기로 했다. 내년으로 관측됐던 토스의 상장 일정도 사실상 무기한 연기된 상태다.수억원대로 몸값을 키웠던 IT개발자 영입 경쟁도 주춤하는 분위기다. 직무교육 관련 국내 한 스타트업 대표는 "대량의 스톡옵션 부여 등 공격적인 채용을 멈추고 당분간 상황을 지켜보며 개발자 몸값 거품이 꺼졌을 때 대규모 채용을 진행할 계획"이라며 "네카라쿠배(네이버·카카오·라인·쿠팡·배달의민족) 등 주요 IT업체에 입사하려는 열기도 과거에 비해 많이 꺾였다"고 전했다.투자 규모가 줄면서 전망이 밝은 분야나 시장을 주도하는 업체에만 투자하려는 경향도 나타나고 있다. 스타트업얼라이언스에 따르면 지난달 단일 투자건수가 가장 높았던 분야는 ‘콘텐츠·소설’과 ‘헬스케어’로 각각 15건씩 투자를 유치했다. ‘콘텐츠·소설’에서는 와이낫미디어가 220억원 규모의 시리즈C 펀딩을 마무리하며 가장 높은 투자액을 기록했다. 2016년 설립된 와이낫미디어는 모바일 시청 환경에 맞는 10분 안팎의 짧은 영상인 ‘숏폼 콘텐츠’를 제작하는 업체다.‘헬스케어’에서는 인공지능(AI)과 로보틱스 기술로 디지털 진단검사를 개발한 에어스미디컬이 253억원 규모의 시리즈B 투자를 유치하며 1위에 올랐다. 에어스메디컬은 서울대 전기정보공학부와 의과대학 출신 공동창업진이 모여 2018년 설립한 스타트업이다.임신·육아 관련 스타트업 이모 대표는 "최근 우리 회사를 포함해 두곳에 동시에 투자하던 투자사가 한곳은 아예 접고 우리만 밀기로 했다"고 말했다. 그는 자신의 회사가 시장점유율 1위에 매출도 꾸준히 성장하고 있어서 투자자들에 외면받지 않았다며 앞으로 이런 현상이 더욱 지속될 것이라 전망했다.한편, 중소벤처기업부가 최근 발표한 ‘2022년 상반기 벤처투자 동향’에 따르면 올해 1분기 벤처투자액은 2조1802억원으로 처음으로 2조원을 넘어섰다. 하지만 2분기들어서는 1조8259억원으로 전년동기 대비 794억원(4.2%) 감소했다. 분기별 투자액 감소는 2020년 2분기 이후 8분기 만에 처음이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 중 파킹통장 쓸 만한 곳은?</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002264784?sid=105</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>가입한도·금리 '케이뱅크'가 가장 좋아금리 인상이 이어지면서 돈을 예치한 후 별도 보관하고 만기와 상관없이 뺄 수 있는 '파킹통장'에 대한 관심도가 높다. 이중 3개 인터넷전문은행(케이뱅크·카카오뱅크·토스뱅크) 중 케이뱅크 파킹통장의 가입 한도와 금리가 제일 나은 것으로 확인됐다.8일 은행업계에 따르면 최근 들어 모바일로 손쉽게 기존 입·출금통장서 한도 조정으로 파킹통장을 만들 수 있도록 만든 인터넷전문은행의 파킹통장이 금융소비자들의 인기를 끌고 있다.3개 인터넷전문은행도 파킹통장을 통한 고객잡기에 나서고 있다. 케이뱅크는 '플러스박스'로 카카오뱅크는 '세이프박스', 토스뱅크는 '토스뱅크 모으기'란 서비스로 파킹통장을 운영 중이다.인터넷전문은행 3개사의 파킹통장 비교표.(자료=각 사, 지디넷코리아)그간 토스뱅크의 토스뱅크 모으기가 연 금리가 가장 높았다. 1억원 한도 이내서 연 2.0%를 제공해왔는데 케이뱅크가 금리를 올리면서 케이뱅크 상품이 가장 금리가 좋아졌다. 케이뱅크의 플러스박스의 금리는 연 2.1%로 0.1%p 높다.특히 토스뱅크는 토스뱅크 모으기와 통장(수시 입출금 통장)의 잔액이 1억원까지만 연 2.0%를 적용하고 이후부터는 연 0.1%를 적용하지만, 케이뱅크는 가입 한도가 최대 3억원이다. 박스를 30개로 쪼개서 만들 수도 있도록 한 것도 특징이다.카카오뱅크는 지난 5일 수신 금리를 인상하면서 세이프박스 금리가 비로소 토스뱅크와 같은 연 2.0%로 책정됐다. 카카오뱅크는 최대 1억원까지 가입 금액이 한정되어 있으며 1인이 만들 수 있는 입출금통장 당 1계좌만 만들 수 있도록 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.08.06.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>中 ‘대만 포위’에 화물선·유조선 우회… 물류대란 심화할 듯</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/022/0003722636?sid=104</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>중국의 ‘대만 포위’ 군사 훈련이 3일째에 접어들면서 무역선이 줄줄이 항로를 변경한다고 5일(현지시간) 외신이 보도했다.   중국이 낸시 펠로시 미국 하원의장의 대만 방문에 반발해 4일부터 대만해협에서 나흘 일정으로 군사 훈련을 시작하면서 일부 화물선과 유조선이 만일의 상황을 피하려고 한나절 정도를 더 돌아가야 하는 다른 항로를 선택하고 있다.   발틱해국제해운협회(BIMCO) 관계자는 “일부 선박은 이미 예방조치를 취했고, 대만해협을 통과하는 대신 대만 동쪽으로 항해하고 있다”고 말했다.     중국의 대만 포위 군사훈련 이틀째인 5일 중국 군함이 대만에 가장 가까운 푸젠성 핑탄섬 앞바다를 항해하고 있다. 중국은 낸시 펠로시 미국 하원의장의 대만 방문에 대한 대응으로 전날부터 오는 7일까지 대만 포위 실사격 군사훈련을 한다. 핑탄 AFP=연합뉴스    대만해협은 중국과 대만 사이에 위치한 길이 약 500㎞, 폭 150∼200㎞의 바닷길로 동아시아에서 미국과 유럽을 오가는 주요항로가 몰려있다. 그러나 중국이 이번 훈련에서 실질적 경계선으로 여겨지는 대만해협 중간선을 넘기도 하면서 선박들의 우려가 커진다.   선박 중개업체 브레마 관계자는 “대형 유조선 선주들이 보안 경계 수준을 높이고 선박을 우회하고 있다”며 “운송보험 단체도 회원들에게 경고를 보내 대만 항해 시 주의를 당부했다”고 말했다.   특히 신종 코로나바이러스 감염증(코로나19) 봉쇄가 올해 공급망에 큰 타격을 입히면서 전 세계가 기록적인 인플레이션을 겪은 상황을 고려할 때 앞으로 문제가 더 심각해질 수 있다는 지적도 나온다. 아직 전 세계 무역이 팬데믹 여파에서 회복하고 있는 상황에서 약간의 운송 지연도 무역에 영향을 줄 수 있기 때문이다.   화물 운임 서비스 업체 프레이토스 관계자는 “중국의 조치가 아직 화물 해상 운송에 큰 지장을 주는 것은 아니지만, 이 상황이 장기화할 경우 큰 영향을 미칠 가능성이 있다”고 지적했다. 그러면서 “지역분쟁 때문에 선박들이 대체 항로를 택하면 운항 일정이 복잡해지고, 운송에 소요되는 시간이 늘어나 추가 비용을 초래할 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.08.02.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>‘시중은행보다 금리 낮네’ 인터넷은행 가계대출 7개월째 증가</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003164110?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>카카오·케이뱅크 여신 잔액 늘어5대 은행은 7개월째 감소세 기록카카오뱅크와 케이뱅크 등 인터넷전문은행의 가계대출 잔액이 7개월 연속 증가했다.2일 은행권에 따르면 카카오뱅크와 케이뱅크의 지난달 말 여신 잔액은 각각 26조9504억원, 9조1600억원으로 집계됐다. 전달 대비 카카오뱅크는 1341억원, 케이뱅크는 4300억원이 늘었다. 7개월 연속 증가세다. 토스뱅크는 여신 잔액을 공개하지 않았다.반면 KB국민·신한·하나·우리·NH농협은행 등 5대 시중은행의 전달 가계대출 잔액은 지난달보다 2조2155억원이 줄어들며 7개월째 감소세를 이어갔다.인터넷은행의 여신 잔액이 증가한 것은 시중은행보다 공격적인 금리 인하 마케팅을 펼쳤기 때문으로 분석된다.카카오뱅크는 지난 6월 주택담보대출 금리를 최대 0.5%포인트 인하했고, 케이뱅크도 전세대출과 아파트담보대출 금리를 최대 0.41%포인트 인하했다.예·적금 등 수신상품 잔액은 고금리 상품을 선보였던 케이뱅크가 더 많이 늘었다. 케이뱅크의 지난달 말 수신 잔액은 13조3300억원으로 전달보다 1조1500억원 늘었다. 케이뱅크는 지난 6월 최고 연 5% 금리를 제공하는 적금 특판을 진행했고, 지난달에는 최고 연 3% 금리를 제공하는 ‘코드K정기예금(100일)’을 특판했다.카카오뱅크의 지난달 수신 잔액은 전달보다 5274억원 감소한 32조6534억원이었다. 카카오뱅크 관계자는 “최근 전체 은행권의 저축성 예금 조달 경쟁이 심화하면서 수신 잔액이 소폭 감소했다”며 “수신 상품의 금리 인상을 긍정적으로 검토 중”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.08.01.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>고금리 시대에 증권사 예탁금 이자는 여전히 0%대…“신용이자 파격 인상과 대비” 투자자 불만</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000076415?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>(매경DB) 증권사들이 금리 상승에 신용융자거래 이자율은 파격적으로 올리고 있다. 반면 예탁금 이용료율(이자)은 소극적으로 인상해 비판을 받고 있다.기준금리 인상 여파에 증권사들이 예탁금 이용료율을 조정하고 있지만 여전히 0%대 수준에 머물러 있다. 심지어는 아직 인상하지 않은 곳도 상당수다.메리츠증권은 8월부터 100만원 이상 예탁금에 대해 이용료율을 기존 0.2%에서 0.3%로 인상했다. 지난달에는 키움증권(0.2%→0.25%)과 하나증권(0.15%→0.25%), 삼성증권(0.25%→0.4%)이 예탁금 이용료율을 올렸다. 상향폭은 0.1%포인트 내외며, 올린 이용료율도 0%대 초반에 그쳤다.국내 증권사 중 예탁금 이용료율이 가장 높은 곳은 토스증권(1%), NH투자증권(0.5%), KB증권(0.46%) 순이다.예탁금은 투자자가 증권 계좌에 예탁한 예수금을 증권사가 이용하는 대가로 지급하는 일종의 이자다. 자본시장법에 따라 증권사는 투자자예탁금을 한국증권금융에 예치하고 받은 수익금에서 인건비 등을 공제한 후 투자자에게 이용료를 지급한다. 지급률은 증권사마다 자율적으로 운용하는 기준에 따라 다르게 책정된다. 한국증권금융의 지난 6월 기준 신탁 운용 수익률은 1.791%로, 전달 대비 0.17%포인트 증가했다. 낮은 예탁금 이용료율과 대조적으로 증권사들은 개인의 주식 투자 용도로 빌려주는 신용융자거래 이자율은 전투적으로 올리고 있다. ‘빚내서 투자(빚투)’ 이자율은 10%에 달한다.지난달 신용융자거래 이자율을 올린 유안타증권(최고 9.9%), DB금융투자(9.7%), 하이투자증권(9.6%), 한양증권·키움증권·SK증권·신한금융투자(9.5%)는 최대 금리가 9%대 중후반을 넘었다.삼성증권·유진투자증권(9.3%), 이베스트투자증권(9.2%), 한국투자증권·교보증권·KB증권·다올투자증권(9%)도 최대 9%가 넘는 이자율을 부과하고 있다.대다수 증권사가 지난달 한국은행의 ‘빅스텝(기준금리 0.5%포인트 인상)’ 이후 추가 인상 여부를 검토하고 있다. 이에 신용융자거래 이자율은 조만간 10%를 웃돌 것으로 전망된다.강형구 금융소비자연맹 사무처장은 “기준금리 인상에 맞춰 투자자 예탁금 이용료율도 합리적인 수준에서 인상돼야 한다”면서 “증권사가 예탁금 이용료율을 어떻게 산정하는지 등을 투자자들에게 좀 더 투명하게 공개해야 한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>'간편인증'으로 외교부 온라인 영사민원서비스 이용 가능</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006256680?sid=100</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>카카오 등 간편 인증수단 8종 본인 인증 방법에 추가(외교부 제공) ⓒ 뉴스1(서울=뉴스1) 박응진 기자 = 외교부가 운영하는 온라인 영사민원서비스 '영사민원24'와 '온라인 아포스티유'를 카카오 등 민간 간편 인증수단으로도 이용할 수 있게 됐다.외교부에 따르면 기존엔 공동인증서나 국내 휴대전화·신용카드로 본인 인증을 받은 경우에만 이들 서비스를 이용할 수 있었으나, 3일부턴 카카오와 네이버·토스·페이코·통신사패스·삼성패스·KB국민은행·신한은행 등 민간의 8개 간편 인증수단을 이용한 본인인증이 가능해졌다.'영사민원24'는 여권 재발급 신청, 재외국민 등록, 재외공관 방문예약 등 26종의 영사민원을 온라인으로 처리할 수 있는 서비스로서 2019년 4월부터 운영되고 있다.또 '온라인 아포스티유'는 주민등록등본, 가족관계증명서, 예방접종증명서 등 주요 41종 공문서를 해외 122개국에 제출할 때 필요한 아포스티유 인증서를 온라인으로 발급받을 수 있는 서비스로서 2016년 11월부터 운영 중이다.외교부는 "국민들은 이제 간편 인증을 활용해 이들 서비스에서 재외국민등록부 등본, 여권정보증명서, 아포스티유 인증서 등을 발급받을 수 있다"고 설명했다.외교부는 재외국민들이 보다 편리하게 국내 온라인 서비스를 이용할 수 있도록 다양한 본인확인 수단 도입을 추진 중이다. 지난 6월10일엔 국내 휴대전화가 없는 재외국민도 국내 금융계좌만 있으면 금융인증서를 발급받아 '영사민원24'를 이용할 수 있도록 했다.외교부는 내년엔 실물 여권정보 기반의 안면인식과 해외체류 정보를 활용한 재외국민용 비대면 인증수단을 도입할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.08.15.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>"이자 매일 받자"…파킹통장으로 몰리는 뭉칫돈</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004736985?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>짠테크 &amp; 핀테크토스뱅크 통장, 이자 일복리로 지급산업은행 금리 年 1.85%→2.25%로저축은행은 3%대 앞세워 시장 공략갈 곳을 잃은 뭉칫돈이 하루만 맡겨도 이자를 주는 ‘파킹통장’에 몰려들고 있다. 한국은행의 잇따른 기준금리 인상으로 금융회사들도 경쟁적으로 고금리 파킹통장 상품을 내놓고 있다. 파킹통장을 선택할 땐 금리도 중요하지만 한도와 최대 금리를 받을 수 있는 조건을 잘 따져봐야 한다.저축은행들은 연 3%대 금리의 파킹통장 상품을 내세워 시장을 공략하고 있다. 웰컴저축은행의 ‘웰컴 직장인사랑 보통예금’의 금리는 연 3%다. 다만 이 같은 최고 금리를 받기 위해서는 △급여이체 △자동이체 △멤버십 가입 이용 동의 등 조건을 충족해야 한다. 최대 한도는 5000만원이다. OK저축은행의 ‘OK읏통장’ 금리는 연 3.2%다. 최고 금리를 적용받으려면 다른 시중은행의 오픈뱅킹 서비스에 해당 통장을 등록해야 한다. 최고 금리를 적용받을 수 있는 한도는 1000만원이다.한때 파킹통장의 최강자로 꼽혔던 토스뱅크 ‘토스뱅크 통장’의 인기도 여전하다. 토스뱅크 통장은 연 2%로 경쟁 상품에 비해 다소 낮지만 이자가 일복리로 지급된다는 장점이 있다. 토스 앱에서 ‘매일 이자받기’ 아이콘을 누르면 예치한 금액의 이자를 매일 받을 수 있다. 최고 금리를 받을 수 있는 한도 역시 1억원으로 저축은행 상품에 비해 높다.산업은행은 최근 기존 ‘KDB 하이 비대면 입출금통장’의 금리를 기존의 연 1.85%에서 연 2.25%로 올렸다. 한국은행이 기준금리를 0.5%포인트 올린 지 닷새 만에 예금 금리를 인상했다. 이 상품은 과거 인기를 끌었던 많은 파킹통장과 달리 조건이나 한도가 없다는 것이 특징이다. 다만 계좌를 처음 개설하면 하루 200만원의 이체 및 출금 거래 한도를 적용받는다. 이를 해제하기 위해서는 영업점을 직접 방문하거나 온라인으로 거래한도 제한 자동해제를 신청한 뒤 한 달간 10건 이상 입출금 거래 실적을 쌓아야 한다.최고 금리를 받기 위한 별도의 조건이 없는 KDB 하이 비대면 입출금통장과 토스뱅크 통장을 놓고 비교해봤다. 두 상품의 금리 차가 0.25%포인트로 크지 않고 토스뱅크는 산업은행과 달리 월복리가 아니라 일복리로 이자를 지급하지만 애당초 금리 차이로 인해 받는 이자는 예치 금액에 상관없이 산업은행이 더 많다. 다만 파킹통장 상품과 연동되는 체크카드는 토스뱅크 상품의 할인율이 더 높다. 이 카드는 7개 업종에서 하루 최대 3500원을 돌려받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.08.01.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>[이자 절약 설명서①] 승진 소식을 은행에도 알려야 하는 이유</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002626101?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>이자 부담에 금리인하요구권 재조명소득-재산 증가·신용도 상승시 신청[데일리안 = 이호연 기자] 대출 금리 8% 시대가 임박했다. 한 때 제로금리에 힘입어 빠르게 몸집을 불렸던 대출은 이제 서민 경제를 옥죄는 주범이 됐다. 하지만 위기의 순간일수록 작은 꿀팁이 큰 차이를 만들기 마련이다. 특히 신종 코로나바이러스 감염증 사태로 인한 어려움 속에서도 꿋꿋이 자리를 지켜온 이들이라면 더욱 주목해 봐야 할 대출 이자 절약 설명서를 정리해 봤다.&lt;편집자주&gt;서울 한 시중은행 건물 외벽에 붙은 대출 관련 안내문 ⓒ 연합뉴스#광진구에 사는 김 모씨(남 30세)는 최근 마이너스 통장을 연장하려다 깜짝놀랐다. 두 달전까지만 해도 4%에 머물렀던 금리가 5%를 훌쩍 넘었기 때문이다. 김 씨는 대출 이자를 조금이라도 줄여보기 위해 은행에 금리인하를 요구하고 결과를 기다리는 중이다. 얼마 전 대리에서 과장으로 승진하며 연봉도 상승한 만큼, 신용상태 개선에 따라 0.1%p라도 이자를 할인할 수 있을 것이라는 기대감이다.역대급 물가위기에 글로벌 주요국의 긴축정책이 가속화되면서 우리나라의 기준금리도 올해 말 3%를 찍을 것으로 전망된다. 이렇게 되면 은행 대출 금리는 7%를 웃돌 것으로 보인다. 대출 이자 부담이 커지면서 조금이라도 출혈을 줄일 수 있는 금리인하요구권에 대한 관심도 함께 커지고 있다.1일 금융권에 따르면 지난 달 19일 기준 KB국민·신한·하나·우리·NH농협 등 5대 은행의 6개월 변동 신용대출 금리는 3.42~5.65%를 기록했고, 주택담보대출 금리 상단은 6%를 넘어섰다.3억원을 주담대로 420개월(35년) 동안 빌릴 때, 대출이자가 5%에서 6%로 오르면 월 이자액은 19만원 가량 늘어난 99만6282원이 나온다. 매달 은행에 100만원씩을 가져다줘야 하는 것이다.금리인하요구권은 대출을 받은 뒤에도 취업 및 승진, 자산증가, 부채감소, 신용등급 상승 등 신용상태가 개선되면 금융사에 대출 이자를 깎아달라고 요구할 수 있는 권리다. 벌이가 나아지거나 자산이 늘어나서 빚을 감당할 능력이 더 좋아지면 행사할 수 있다. 개인은 물론 기업도 사용할 수 있다.물론 금리인하요구가 아무때나 받아들여지는 것은 아니다. 주로 고객 신용상태에 따라 대출금리를 산출한 방식의 상품들이 적용된다. 쉽게 말해 마이너스 통장 등 신용대출 상품이나 주담대(변동금리) 등에서 사용할 수 있다. 정책자금대출, 집단대출 등 금리가 일괄확정된 상품은 제외된다.각 사 취합 ⓒ 데일리안 이호연 기자금리인하요구행사는 은행 영업점을 직접 방문하거나 비대면으로 가능하다. 직장 직위 변동시 재직증명서나 연소득 변경시 원천징수영수증·소득금액증명원 등의 제출 서류를 구비해야 한다. 통상적으로 금리인하요구를 신청하면 10영업일 안으로 금융사에서 전화나 문자메시지 등을 통해 심사 결과를 알려준다. 카카오뱅크나 토스뱅크, 케이뱅크 등의 인터넷은행은 실시간으로 수용 여부를 확인할 수 있다.상세 조건은 은행마다 달라서 확인이 필요하다. 5대 은행의 경우 국민은행, 하나은행, 우리은행은 별도 신청 횟수 등의 제한이 없다. 그러나 신한은행의 경우 대출건별 1일 1회만 금리인하요구권 신청이 가능하다. 농협은 대출을 받고 난 두 달 후 1일부터 신청할 수 있다. 월 1회만 신청 가능하며, 만기 한 달 전이나 만기 해당월은 신청할 수 없다. 인터넷은행 등은 별도 횟수 제한이 없다.시중은행 관계자는 “금리인하요구권은 기존 대출을 연장할 때 신청하면 은행 승인 확률이 상대적으로 높다”며 “다만 최근 은행들이 금융당국 주문에 따라 가산금리는 높이고 우대금리를 깎는 추세여서, 금리인하요구권을 행사하더라도 기존 대출 이자와 큰 차이가 없을 수 있다”고 말했다.▲ [이자 절약 설명서②]에서 이어집니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>토스뱅크, 본격 수수료수익 낸다…한투증권 손잡고 자산관리 서비스</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000040147?sid=105</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>한국투자증권 옥외광고물.(사진=블로터 강승혁 기자)토스뱅크가 국내 대형 증권사인 한국투자증권의 자산관리 서비스를 자사 고객들에게 소개하는 비즈니스모델을 통해 본격적으로 수수료수익을 창출한다. 8일 토스뱅크는 한국투자금융지주 자회사 한국투자증권과 '자산관리 및 투자상품에 관한 광고업무 협력을 위한 업무제휴' 협약(MOU)을 체결했다고 밝혔다. 이날 여의도 한국투자증권 본사에서 열린 협약식에는 홍민택 토스뱅크 대표, 김성환 한국투자증권 부사장 등 관계자들이 참석했다.이번 협약을 통해 토스뱅크는 한국투자증권의 다양한 투자상품을 고객이 투자에 활용할 수 있도록 소개하는 광고 업무를 추진할 계획이다. 한국투자증권은 자산관리와 운용, 투자은행(IB), 위탁매매(BK) 등 다양한 부문의 업무를 영위하고 있다. 특히 자산관리 부문에서는 개인과 기관 투자자들에게 △수익증권 △Wrap △신탁 △펀드 상품 등 다양한 금융 상품을 선보이고 있는 국내 대표 증권사다. 토스뱅크와 한국투자증권은 이후에도 지속적으로 디지털금융 혁신과 고객 경험 강화를 위한 협력 관계를 확대해 나간다는 방침이다.토스뱅크 관계자는 "이번 협약을 통해 자산관리 부문에서 고객들의 다양한 니즈를 만족시켜드릴 수 있을 것으로 기대한다"며 "향후에도 토스뱅크의 플랫폼으로서의 이점과 편리성, 한국투자증권의 자산관리 및 투자상품에 관한 전문성을 결합해 고객의 금융 경험을 혁신해 나갈 것"이라고 말했다.자산관리 서비스 도입은 홍민택 토스뱅크 대표의 역점사업이기도 했다. 지난 5월 첫 예대마진 흑자를 내는 등 예대 비즈니스는 본궤도에 오르고 있지만, 수수료사업 부문에선 이렇다 할 수익구조가 없었다. 토스뱅크는 올 1분기 기준 수수료비용(110억원)이 수수료수익(24억원)의 4배 규모에 달했다.앞서 홍 대표는 지난 6월 기자간담회에서 "토스뱅크의 수신잔액은 20조원이 넘는 가운데 다양한 투자 상품을 소개받고 싶다는 고객 목소리가 많았다"며 "다양한 공급자의 좋은 상품을 고객에게 소개하려고 한다"고 밝힌 바 있다.한투증권 역시 올 2분기 순이익이 전년 동기 대비 70% 가까이 급감해 증권시장 침체의 돌파구가 필요한 상황이다. 토스뱅크는 신생 인터넷은행이지만 MZ세대 고객을 주축으로 가파른 성장세를 보여주고 있다. 토스뱅크가 첫 자산관리 파트너로 한투증권이라는 대어를 맞을 수 있었던 이유다. 한투증권의 모회사인 한국투자금융지주가 카카오뱅크의 주요 주주사라는 특수관계가 있지만, 양사가 당면한 과제가 협력에 더욱 크게 작용했던 것으로 분석된다.여의도 한국투자증권 본사에서 열린 협약식에서 홍민택 토스뱅크 대표(왼쪽)와 김성환 한국투자증권 부사장이 기념사진을 촬영하고 있다.(사진=토스뱅크)</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.08.12.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>"이재명 지켜라" 민주당의 '보이는 손' 개딸들의 청원 정치</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000043215?sid=100</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>'당헌 80조' 개정 두고 '이재명 방탄용' '정치보복 차단' 갑론을박문자폭탄 대안으로 만든 당 청원 시스템, 계파 갈등 새 뇌관으로"우리는 집토끼가 아니라 호랑이다." 3월9일 대선이 끝나고 단 열흘 동안 더불어민주당 권리당원으로 새로 입당한 사람은 13만 명, 그중 약 3분의 1이 2030세대 여성이었다. 패배한 정당에서 볼 수 없던 입당 러시에 민주당은 반색했다. 이들은 온·오프라인을 넘나들며 존재감을 과시했고 대선 후 당내 한 토론회에 참석해 민주당을 주도하는 호랑이가 되겠다고 밝혔다. 당의 주권자가 되겠다는 분명한 선언이었다.그러나 이후 이들의 주권은 이재명 의원을 지키는 데 집중적으로 발휘됐다. 스스로를 '개혁의 딸(개딸)'로 칭하며 '아빠' 이재명을 향한 무한 지지를 약속했다. 지지의 반작용으로 이 의원과 다른 의견에 대해선 무차별 공격을 가했다. 점차 개딸의 이름 뒤엔 '강성' '팬덤' '문자폭탄' 등 억센 꼬리표가 붙었다. 당 지도부도 눈치를 살폈다. 어느새 이 의원을 지지하는 2030 여성들만이 아닌 4050세대와 일부 남성까지 포괄하는 표현이 된 '개딸'은 그렇게 민주당을 움직이는 가장 크고 강력한 '보이는 손'이 됐다.이재명 더불어민주당 의원이 8월4일 ‘울산 당원 및 지지자와의 만남’에 참석해 지지자들로부터 장미꽃을 받고 있다.ⓒ뉴스1"우리는 집토끼가 아니라 호랑이다"8·28 전당대회 국면인 지금, 개딸들의 가장 주요한 임무는 윤석열 정부 검찰과 경찰의 수사로부터 '이재명 지키기'다. 이들은 당헌 80조 개정부터 꺼내들었다. 부정부패 관련 혐의로 기소될 경우 동시에 직무도 정지된다는 조항을 고치라는 요구다. 개딸들은 이 의원이 당 대표가 되더라도 이 조항이 그의 발목을 잡을 수 있다고 우려한다. 검경이 이 의원의 여러 의혹에 대해 전방위 수사를 벌이고 있고, 기소 가능성까지 제기되고 있기 때문이다.당헌 개정을 관철시키기 위해 이들이 택한 창구는 '민주당 당원청원시스템'이다. 민주당은 강성 당원들의 문자폭탄을 방지하기 위해 8월1일 새로운 소통 창구로 청원 시스템을 출범시켰다. 그러나 시스템이 열리자마자 이곳은 개딸들의 요구들로 도배됐다. '대선 이후 입당한 당원들에게도 전당대회 투표권을 달라'고 하는가 하면, 개딸들이 이른바 '수박'(겉은 민주당, 속은 국민의힘)으로 멸칭했던 이들을 겨냥한 '대선해당행위자처벌' 청원도 제기했다.그중에서도 당헌 80조 개정 청원은 닷새 만에 7만 명 이상의 압도적 동의를 얻어 최다 청원글로 등극했다. 청원자는 "검찰공화국을 넘어 검찰독재가 되어가고 있는 지금, 야당인 민주당 의원들에 대한 무차별한 기소가 진행될 것임은 충분히 알 수 있다"며 "민주당 의원 모두와 당원 동지들을 위해 해당 당헌은 변경 또는 삭제되어야 한다"고 했다. 민주당 전체를 위한 청원임을 강조했지만 시기상 이 의원을 보호하기 위한 '맞춤형 청원'으로 보일 수밖에 없다.개딸 서브, 친명계 토스, 이재명 스파이크개딸들의 청원은 곧장 계파 간 첨예한 갈등으로 번졌고 전당대회 최대 화두로 떠올랐다. 비(非)이재명계에선 명백한 '이재명 방탄용' 개정이라고 규정했다. 당권 경쟁자 박용진 의원은 "이것이 사당화 논란으로 더 번지지 않게 하려면 이 의원이 직접 지지자들에게 자제를 당부해야 한다"고 했다. 비명계이자 친(親)문재인계인 전해철 의원은 당헌 80조가 문재인 당 대표 시절 혁신위에서 만들어진 점을 내세우며 "(당헌 개정은) 당의 혁신 노력을 후퇴시키는 일"이라고 꼬집기도 했다.이에 친명계 의원들은 검찰의 보복수사 가능성이 큰 상황에서 최소한의 보완 장치를 마련해 두어야 한다고 맞섰다. 논쟁의 당사자인 이 의원도 "무죄 추정의 원칙에 반하고 검찰의 야당 탄압 통로가 될 수 있어 개정을 고려해야 한다"며 개딸들의 요구에 힘을 실었다. 그러면서 자신의 의혹들이 부정부패 사안에 해당하지 않는다는 점을 들어 "저 때문에 개정하려는 것이 아니다"고 못 박았다.5만 명 이상 동의를 얻은 청원에 대해선 당 지도부가 직접 답변한다는 규정에 따라 당헌 80조 개정 여부는 이미 정식 논의에 들어갔다. 현재로선 기소된 직후가 아닌 1심 판결에서 금고 이상의 형을 받으면 당직을 정지하는 쪽으로 바뀔 수 있다는 이야기가 전해진다. 개딸들의 서브와 친명계의 토스, 이 의원의 스파이크까지 차례로 이어져 당헌 개정 가능성을 높인 것이다. 팬덤을 등에 업은 '이재명의 민주당'이 본격화되었다는 관측도 자연히 커지고 있다. 이번 당헌 80조 갈등은 앞으로 있을 개딸 현상의 단면이자 시작일 뿐이라는 분석이다.'직접 소통' 중시 李, 개딸 자제시킬 유인 없어물론 친명계에서도 폭력적인 행위를 하는 일부 개딸에 대해선 제재가 필요하다고 입을 모은다. 그러면서도 이들의 메시지 자체를 배제해선 안 된다고 강조한다. 최고위원에 출마한 친명계 후보들은 개딸들의 의견을 공개 토론의 장으로 끌어와야 한다며 일제히 당내 소통 창구를 넓히는 방안들을 제시하고 있다. 서영교 의원의 '정치카페'와 장경태 의원의 '메타버스 민주월드' 등이 대표적이다. 장 의원은 "정식 소통 구조를 넓히면 훨씬 더 다양한 당원의 목소리들이 쏟아져 섞일 것이고, 그 과정에서 논의들이 정화될 것"이라고 했다.반대 측에선 이들이 근본 문제를 외면한 채 잘못된 진단을 하고 있다고 지적한다. 강성 팬덤을 활용하려는 당사자가 있는 한 공론의 장이 바뀌거나 늘어나도 지금의 '개딸 현상'은 계속될 거란 얘기다. 이상민 민주당 의원은 "강성 지지자들이 민의를 왜곡하지 않도록 자제시키거나 제도적 장치를 마련하지 않고, 되레 팬덤에 편승하고 이들의 권리를 더욱 키워주려는 정치인들이 먼저 반성해야 한다"고 지적했다. 그러면서 "이러한 정치 지도자가 존재하기 때문에 강성 팬덤이 독버섯처럼 번지는 것"이라고 꼬집었다.당사자인 이 의원이 지금의 개딸 논란에 대한 직접적인 시정에 나설 가능성은 작아 보인다. 팬덤 논란에 대해 그가 우려를 표한 건 지난 6월 지방선거 이후 지지자들과의 만남에서 "쓸데없이 과도한 표현을 하게 되면 오히려 상대의 반발심만 높이고 우리의 목표를 달성하는 데 도움이 안 된다. 조금 더 포지티브(긍정적)하게 표현해 달라"고 말한 것이 거의 유일하다. 오히려 안팎의 공세가 지금처럼 거셀수록 이 의원은 개딸들과의 거리를 더욱 좁히고 이들의 활동반경을 넓혀줄 거란 관측도 나온다. 이 의원으로선 대선 패배 이후 자신의 빠른 재기를 돕고 '어대명'(어차피 당 대표는 이재명) 분위기까지 만들어준 개딸들을 자제시켜야 할 유인이 전혀 없는 것이다.이 의원이 개딸 현상이 있기 훨씬 전부터 '직접 소통'을 중시해 왔다는 사실도 주요한 지점이다. 그는 2018년 경기지사 출마 당시에도 지금의 민주당 청원 시스템과 유사한 '도민청원제'와 도민을 입법 과정에 직접 참여시키는 '도민발안제'를 약속하며 '직접민주주의'를 강조했다. 이번 당 대표 출마선언문에서도 그는 "전자민주주의로 직접민주주의를 확대하고, 당과 당원 간 온·오프라인 소통 시스템을 도입하겠다"고 밝혔다. 당원투표 상설화나 온라인 당원청원제 등이 그에 따른 구체적 공약이다.이를 두고 비주류가 익숙한 이 의원이 자신의 정치적 자산은 당 바깥에 있다는 걸 누구보다 잘 알고 있기 때문이란 분석이 나온다. 자신을 향한 견제와 공격을 막아낼 힘은 당원, 특히 자신을 향해 무한한 지지를 보내는 팬덤에 있다고 보는 것이다.이 의원의 이런 구상은 문재인 전 대통령이 당 대표 시절 도입한 '온라인 당원 프로젝트'와 닮아있다. 당시 민주당에 가입한 10만 온라인 당원들은 문 전 대통령의 든든한 호위무사가 돼주었다. 하지만 반대로 당을 더욱 '친문당'으로 만들고 상대를 향한 강한 배타성을 드러냈다는 부작용도 낳았다. 이 때문에 이 의원의 직접 소통 의지와, 친문 당원보다 더 강성으로 평가받는 개딸 현상이 맞물려 나타날 결과에 적잖은 우려가 나오고 있다."민심을 외면하고 강성 지지층이 원하는 정치 쟁점에 당력을 집중했다" "강성 지지자들의 득세로 대화와 토론, 타협의 정치가 실종됐고 건강한 다수가 민주당을 멀리하는 주요 요인이 됐다". 지난 7월 민주당 싱크탱크 민주연구원이 발표한 '6·1 지방선거 평가' 보고서에 적힌 선거 패인이다. 연패를 끊기 위해선 강경한 당심에 매몰돼 놓쳤던 확장의 정치, 민심의 정치를 회복해야 한다고도 지적한다. 승리의 역사는 주체적인 호랑이를 자처했지만 결국 맹목적인 집토끼가 돼버린 이들의 지지만으로 결코 쓰일 수 없다는 얘기다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>박재욱 쏘카 대표 "공모가 고평가 아냐…시장친화적 가격"[일문일답]</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005283141?sid=105</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>공모가 3만 4천원~4만 5천원 설정어려운 시장상황이나 모빌리티 도약 기회 놓칠 수 없어쏘카, 유일하게 흑자전환되는 모빌리티 기업대당 가동률 높아지고 있어…FMS 해외 진출 도모박재욱 쏘카 대표가 2일 오전 서울 영등포구 여의도동 콘래드호텔에서 열린 ‘주식회사 쏘카 기업설명회’에 참석해 발표를 하고 있다.[사진=이데일리 이영훈 기자][이데일리 정다슬 기자] 박재욱 쏘카 대표는 3일 기업공개(IPO)를 앞두고 기업 가치 고평가론을 정면으로 반박했다. 쏘카는 공모가 기준 대상이 되는 피어그룹을 그랩, 우버 등 글로벌 모빌리티 플랫폼 회사로 두며 공모가를 3만 4,000원~4만 5,000원으로 정했다. 박 대표는 이에 대해 “쏘카는 모빌리티 플랫폼 회사 중 유일하게 올해 흑자전환하는 회사”라며 “데이터 효율화로 마진폭은 크게 상승하고 있으며 충성고객 락인 효과로 마케팅 비용은 줄어들고 있다”고 강조했다. 특히 그는 지난 3월 쏘카 3대 주주인 롯데 렌탈이 주당 4만 5172원으로 추가 투자를 했다는 점을 강조하며 오히려 “공모가 상단이 마지막 투자받은 단가보다 낮다”며 “시장친화적 가격”이라고 강조했다. 그는 이번 IPO를 통해 조달한 자금으로 카셰어링 사업과 시너지 효과를 낼 수 있는기업들에 대한 투자·인수, 자율주행과 같은 신기술 투자, 기존 사업의 추가 확장 등으로 사용해 모빌리티 수퍼앱으로서의 위치를 공고히 하겠다고 공언했다. 다음은 박 대표와의 일문일답. - 어려운 시장 상황에도 IPO 진행하는 이유는 무엇인가. △시장이 어려운 것은 맞지만 모빌리티 시장은 빠른 속도로 확대되고 있다. 우리로서는 이 중요한 시기를 놓칠 수 없다고 생각을 했다. 적시 IPO를 통해 조달한 자금을 바탕으로 인수합병(M&amp;A)나 신사업, 시술투자 등을 통해 한 단계 더 진화하면서 멀리 갈 기회를 만드는 것이 기다리는 것보다 더 나은 선택이라고 생각했다. 이런 새로운 성장동력으로 주가도 더 끌어올릴 수 있을 것. 이같은 생각에 동의해 재무적 투자(FI)나 전략적 투자자(SI) 모두 보호예수에 동참했다.- 피어그룹으로 10곳을 선정한 이유도 궁금하다.△모빌리티 플랫폼, 마이크로모빌리티, 플릿매니저먼트시스템(FMS) 등 저희가 하고 있는 사업영업이나 앞으로 해나가야 할 것은 포함했다.. 피어그룹과 관련된 부분들은 오히려 우리가 손해보고 있다고 생각한다. 해외 모빌리티 기업들은 향후 몇년간 수익 내기가 어렵지만 우리는 올해부터 수익이 나는 구간에 들어가 잇고 최근 성장률도 훨씬 앞선다.우리의 비즈니스 모델은 렌터카와 크게 다르다. 대부분의 렌터카 비즈니스는 운영을 통해서 영업이익을 만들기보다는 대부분 중고차 매각을 통해서 영업이익을 얻는다. 반면 우리는 운영을 통해 수익을 내고 마진 폭 역시 데이터 효율화로 큰 폭으로 상승하고 있다. - 기업가치가 고평가됐다는 의견이 지속적으로 나온다. △우리는 전세계 모빌리티 플랫폼 중 유일하게 흑자전환하는 기업이다. 작년 법인세전 이익률을 기준으로 봤을 때도 그랩이 -153%, 고투가 -151%, 디디추싱이 -27%, 리프트가 -26%, 우버가 -17% 정도로 매우 안 좋은데 우리는 -0.9%로 압도적으로 좋은 수익성을 가지고 있다. 전체 매출 대비 마케팅 비용을 놓고 봤을 때도 여타 모빌리티 플랫폼들이 마케팅 비중을 크게 못 줄이고 있는 것에 반해 우리는 낮다. 그랩 같은 경우에는 매출 대비 마케팅 비용이 약 36%, 우버가 27% 리프트가 13% 정도를 쓰고 있는데 우리는 2.7%에 불과하다. 올해는 더 낮아질 것이라고 생각한다.그 이유는 드라이버와 승객 사이드 양쪽의 마케팅을 지속적으로 집행해야 되는 여타 모빌리티 플랫폼과 다르게 저희는 규모의 경제와 기술을 이용해서 공급 사이드에서 계속적으로 비용을 줄여나가고 있기 때문이다. 이용자 측면에서는 패스포트 같은 구독 상품을 통해서 이용자의 락인 효과가 강화됨에 따라 더욱더 충성도 있게 서비스를 이용하는 고객들이 늘어나고 있기 때문에 전체적인 마케팅 비용도 큰 폭으로 떨어지고 있다.- 소카가 상장예비심사 청구서를 제출한 시점은 1월이고 승인을 받은 시점은 3월이다. 어쩌면 짧게는 4개월에서 7개월 정도 간격이 있는데 전세계 증시가 조정받는 상황에서 쏘카만 벨류에이션이 조정받지 않아도 되는 이유는 무엇인가.△사실 조정을 많이 했다. 올해 3월에 롯데렌탈이 우리 구주를 사면서 투자했을 때 단가가 4만 5172원으로 우리 공모가 상단보다 높다. 이미 렌터카 비즈니스 1위를 하고 있는 롯데 렌탈이 자기네가 비슷한 수준의 시가총액을 회사를 인정하고 투자를 했다라는 것 자체는 사실 렌터카 비즈니스와의 큰 차별점이 있다라는 것 자체를 1등 사업자가 이미 인증했다고 생각한다. 공모가 자체가 마지막 투자받은 단가보다도 상당히 낮게 설정되어 있는 것 자체가 사실 조정을 많이 해서 시장 친화적으로 가격을 설정했다고 보시면 되겠다. - 영업이익 개선을 위해 어떤 방안을 고민하고 계신가. △가장 중요한 것은 차량 데이터와 이용자 데이터를 기반으로 수요와 공급을 잘 결합해 차량에 대한 운영 효율성과 가동성을 얼마나 높이냐다. 우리는 이미 많은 데이터를 수집했고 차량도 충분하게 확보해 규모의 경제가 발생하고 있다. 이를 바탕으로 대당 매출 자체가 매년마다 상승하고 있고 비용 자체는 계속적으로 절감되고 있는 효과를 만들어내고 있다. 그뿐만이 아니라 저희는 패스포트라고 하는 저희 구독 상품을 통해서 이용자들을 강하게 락인하고 있다. 이 이용자들은 충성고객으로 오히려 마케팅 비용이 줄어든다. - 미래 성장동력은 무엇인가. △카셰어링 시장 자체가 굉장히 더 빠른 속도로 성장을 하고 있다. 과거처럼 부릉같은 탁송서비스도 빠르게 늘어나고 있다. 올해에는 작년 대비 약 60% 가까이 부릉서비스가 성장할 것으로 보인다. 쏘카 비즈니스처럼 법인을 대상으로 한 상품군 역시 작년 대비 2.5배 가량 성장할 정도로 다양한 세그먼트에서 서비스도 세분화돼 성장 속도가 더욱더 가속화될 것이다. 아울러 수퍼앱으로 전환되는 과정에서 저희가 갖고 있는 자회사와의 시너지들이 본격적으로 발생할 것이라고 보고 있고 이를 바탕으로 해서 카셰어링 이용자들에 대한 업셀링 효과가 일어나면서 더 큰 폭의 수익성 개선과 성장이 있을 것이라고 보고 있다FMS의 경우에는 초기 고객을 확보한 상태다. 우리가 가진 소프트웨어 기술력을 바탕으로 국내 시장 진출뿐만 아니라 해외 시장 진출도 할 수 있을 것으로 본다. 해당 마진 폭이 굉장히 높은 서비스 영역이기 때문에 저희에게 조금 더 안정적인 수익원이 되어줄 것이라고 기대하고 있다. 마지막으로는 저희가 자율주행 부분에서 국내 최고의 기술을 갖고 있다고 생각하는 라이드 플럭스라고 하는 자율 주행 스타트업과 함께 계속적으로 서비스를 고도화해 나가고 있다. 자율주행 기술이 카셰어링과 결합하면 폭발적인 성장을 하면서 미래 모빌리티 시장을 선점해 나갈 수 있을 것이라 보고 있다. - 쏘카의 해외 진출 계획도 궁금하다. △먼저 FMS와 같은 소프트웨어 서비스를 통해 해외 수출을 하고 이를 통해서 추가적인 매출원과 수익원을 확보할 수 있을 것으로 생각하고 있다. FMS은 해외에서 이미 큰 시장이 형성되는 중이기 때문에 한국에서 좋은 레퍼런스들을 잘 쌓아 나가게 되었을 때 해외 시장에서도 충분히 유의미한 성과를 만들어 나갈 수 있을 것이라고 보고 있다. 카쉐어링 서비스 같은 경우에는 과거에 이제 SK와 함께 말레이시아에서 조인트 벤처를 만들었던 경험이 있다. 한국에서 저희가 충분한 캐시카우를 만들고 충분한 이익을 만들면서 기술과 데이터를 더 쌓은 뒤에 카셰어링 해외 진출도 충분히 언제든지 가능할 것이라고 보고 있다.- 공모자금 활용방안으로 밝히신 M&amp;A, 투자 계획 등도 말해달라. △구체적인 기업을 말하긴 어렵지만 우리의 카셰어링 서비스에 업셀링을 하는 방식으로 추가적인 마진을 만들어내면서 수익성을 개선해 나갈 수 있는 회사이나 신사업과 관련해서 기술력이나 영업망을 갖고 있는 회사를 대상으로 투자 롱리스트를 가지고 있다. 우리가 상장으로 공모한 자금 중 약 60% 정도는 이런 밸류 체인을 확대할 수 있는 기술과 기업들에 대한 인수나 투자에 쓸 생각이다. 그 외 20% 정도는 저희가 신규 사업을 추진해 나가고 있는 FMS나 전기자전거 공유 서비스, 주차장 플랫폼 확장을 위해서 사용할 예정이고 나머지 20% 정도는 신기술 투자에 사용할 계획이다. - 유가 상승에 따라 카셰어링 서비스 요금이 상승할 가능성은 없는가. △우리는 차량을 반납하게 됐을 때 달리는 거리에 따라서 주행 요금을 따로 측정을 하고 있다. 이를 복합적으로 반영해 가격을 책정하고 있다. 또 주행 거리가 이제 길수록 좀 할인이 많이 되는 구조로 이제 되어 있기 때문에 유가의 영향만으로 가격 변동이 바로 다이렉트로 이어진다고 볼 수는 없다. 아울러 선택하는 차량이나 그다음에 주행 거리 프로모션 등에 따라서 가격이 계속 저렴해질 수도 있다. 유가 상승이 차량이용요금을 상승시킬 수는 있지만. 일반화시킬 순 없다. - 위드코로나에 따른 해외여행 정상화로 카셰어링 수요 감소가 예상되는데 이에 대해 어떻게 생각하는가. △오히려 우리는 더욱 수요가 늘어날 것으로 보고 있다. 기업들의 재택근무들도 줄어들고 있고 출근이나 출장 등 국내 여행 수요가 계속적으로 늘어나고 있는 것으로 보이고 있다. 해외여행으로 인해서는 공항 등으로 이동하는 수요가 많아질 것으로 보고 있기 때문에 이 부분을 공략하면서 성장 폭을 더 키울 수 있을 것이라 생각하고 한다.- 타다 지분 매각에 대한 아쉬움은 없는가. △쏘카는 안정적인 사업 성장기에 들어간 상태로 IPO를 통해 좀 더 멀리가야 한다고 생각했다. 타다는 기존에 있던 사업 모델을 이제 접고 새롭게 서비스를 런칭을 하면서부터 좀 더 장기적으로 오랜 기간 동안 투자를 해서 키워야 되는 비즈니스였다. 이 때문에 좀 더 멀리 보고 서비스를 만들어 나갈 수 있는 1대 주주를 찾는 것이 필요하다고 생각을 했고 토스가 가장 적합한 후보자라고 생각했다. 그럼에도 불구하고 타다와는 계속적인 시너지를 만들어나고 있다. 우리 패스포트 사업도 쏘카와 타다 2가지 혜택으로 구성돼 있어 쏘카 이용자들이 타다를 쓰면서 혜택을 받게 되고 타다 이용자들이 쏘카를 타면서 혜택을 받게 되는 구조를 통해서 양 플랫폼과의 시너지는 계속적으로 내고 있다. 아울러 타다는 우리가 FMS 등 신규 사업을 추진하는 단계에서도 좋은 고객이 될 것이라고 본다.- 향후 차량 규모 확대 전망은 어떻게 되는가.△매년 약 20~25% 정도는 차량 수가 늘어날 것으로 생각을 하고 있다. - 반도체 공급 부족으로 차량 수급이 원활하지 않는데 이 부분은 어떻게 돼가고 있는가.△우리는 연도별로 이용자들의 수요가 어떻게 변화할지를 데이터로 예측해서 선제적 주문을 넣고 있다. 올해 우리가 받고 있는 차량도 작년 4분기에 주문한 것이다.아울러 완성차 업체에 대한 채널을 다변화하고 있다. 과거에는 현대·기아차를 중심으로 갔지만 올해는 르노 코리아, 쌍용과 같은 차종도 확대할 예정이다. - 다른 경쟁사의 카셰어링 시장 진입에 따른 경쟁은 어떻게 보시는가. △우리는 이미 진입 장벽을 많이 쌓아놨다. 이렇게 많은 차량을 무인으로 운영하는 것은 굉장히 어렵다. 차량 한 대 한 대에 IoT 디바이스를 설치하고 이를 관제하고 무인으로 모니터링하는 것들이 충분히 자동화가 돼야 하기 때문이다. 우리는 차량뿐만 아니라 데이터나 전국적 인프라망에 대한 규모의 경제도 갖추고 있다. - 다른 경쟁사와의 차별점은 무엇인가.△온라인과 오프라인의 결합이다. IT사업의 경우 오프라인에서의 경쟁력이 상대적으로 떨어지지만, 우리는 1만 9000대 차량을 직접 보유하며 이를 무인으로 감지하고 운영할 수 있는 노하우를 10년간 쌓아왔다. 반대로 많은 완성차 업체들이 카셰어링 서비스에 많이 뛰어들었지만 대부분 철수를 했는데 그 이유는 플랫폼에 대한 경쟁력이 없기 때문이다.우리는 온라인과 오프라인 모두에서 경쟁력을 가진 유일무이한 회사로 압도적으로 시장의 우위에 있다고 보고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>김캐디·토스뱅크, '사장님 대출' 제휴…0.5%포인트 금리 할인</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004778551?sid=101</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>골프시설 예약 플랫폼 김캐디는 토스뱅크와 사업자 신용대출 상품 제휴를 맺고 김캐디를 이용하는 사장님을 대상으로 최대 0.5%의 금리 할인 혜택을 제공한다고 3일 밝혔다.이번 제휴는 김캐디를 이용하는 사업자들을 대상으로 혜택을 제공하며, 자금이 필요한 스크린골프장 사장님들의 부담을 덜고 매장 운영에 도움이 될 것으로 기대된다. 이번 제휴 혜택이 적용되는 상품은 최대 1억원 한도까지 가능한 '토스뱅크 사장님 대출'다. 필요한 서류가 없고, 보증이나 담보 없이도 가능하다. 1금융권 신용대출이라는 점도 눈길을 끈다.이번 제휴를 통해 김캐디를 이용하는 스크린골프 사장님은 최대 0.5%포인트까지 금리 할인 혜택을 받을 수 있다. 스마트폰에 토스 앱만 설치돼 있다면 영업점을 방문할 필요 없이 대출 신청부터 실행까지 평균 1분 이내에 이뤄지기 때문에 손쉽게 진행 가능하다. 김캐디 관계자는 "어려운 코로나 상황속에서도 열심히 스크린골프장을 운영해오신 사장님들께 조금이나마 도움을 드리고 싶었다"며 "김캐디와 함께 운영할 때 사장님들이 더 성장할 수 있는 상생의 브랜드가 되도록 노력할 것"이라고 밝혔다.한편 김캐디는 LG전자와의 프로빔 업무협약(MOU)을 비롯해 매장관리 프로그램 '김캐디 사장님'의 지속적인 업데이트 등 B2B(기업 간 거래) 사업에도 많은 노력을 기울이고 있다.[머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.08.10.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>헬스케어보다 '핀테크'…올 상반기 8천억 투자금 몰렸다</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005130315?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>올해 상반기 스타트업 투자금이 가장 많이 몰린 곳은 '핀테크' 분야인 것으로 나타났다. 8000억원에 달하는 투자금액이 금융, 보험 등 핀테크 분야에 쏠렸다.10일 스타트업 정보업체 스타트업레시피 분석에 따르면 7월말 기준 올해 가장 많은 투자금을 유치한 곳은 토스 운영사인 핀테크 기업 비바리퍼블리카였다. 비바리퍼블리카는 지난달 20일 3000억원 규모의 투자유치에 성공했다고 밝혔다. 간편 송금으로 서비스를 시작한 '토스'는 은행, 증권, 보험까지 사업을 확장하고 있다. 이번 투자에서 비바리퍼블리카는 기업가치 8조5000억원으로 평가받았다.이 같은 흐름은 다른 분석에서도 나타났다. 스타트업얼라이언스가 자체 조사한 수치에 따르면 올해 상반기에는 스타트업에 약 7조873억원 규모의 투자가 이뤄졌는데, 투자 상위 분야는 금융·보험, 콘텐츠·소셜, 유통·물류 분야였다. 2021년 같은 조사에서 투자 상위 분야가 '헬스케어', '콘텐츠'에 집중됐던 것에서 핀테크쪽으로 흐름이 변하고 있다. 올해 금융·보험 분야는 총 8357억원의 투자를 받아 전체 11% 가량을 차지했다. 콘텐츠·소셜 분야는 7874억원, 유통·물류 분야는 7150억원 순이었다. 스타트업얼라이언스 측은 "핀테크와 크립토(가상화폐) 분야에 대한 관심이 높아졌다"고 설명했다.핀테크 분야에서도 인공지능(AI)을 접목해 자산 관리를 돕는 '로보어드바이저' 분야도 떠오르고 있는 추세다. 크래프트테크놀로지는 올해 1750억원의 투자 유치에 성공했다. 크래프트테크놀로지는 미국 대형주 등의 수익률, 환율, 뉴스 등을 분석해 투자하는 AI 기술을 보유하고 있다. 최근에는 하나은행과 업무협약을 맺고 금융 비즈니스 모델 창출에 나섰다. AI를 기반으로 투자 솔루션을 제공하는 ‘쿼터백’, 로보어드바이저를 활용한 디지털자산 투자 서비스 ‘업라이즈’ 등도 올해 각각 190억원,100억원의 투자를 유치했다.'조각투자' 핀테크도 각광을 받고 있다. 음악저작권을 주식처럼 살 수 있는 플랫폼인 '뮤직카우'는 올해 1000억원 이상 투자를 유치했다. 부동산 수익증권 플랫폼 '루센트블록'은 170억원, 미술품을 공동 구매하는 열매컴퍼니의 경우에도 170억원의 투자를 유치하면서 업계의 주목을 받았다.네이버, 쿠팡 등 빅테크들이 도입한 선구매 후결제(Buy Now Pay Later·BNPL)모델도 여전히 관심받는 분야다. 국내에서는 글로벌 시장에서보다 초기 단계인 수준이지만 최근에는 기업 간 거래(B2B) BNPL 서비스도 생겨났다. 핀테크 기업 파이노버스랩도 올해 초 11억원 규모의 투자를 받았다. 이 회사는 온라인 도매 플랫폼에서 상품을 조달하는 소매상인을 대상으로 BNPL 서비스를 제공하는 '페이먼스'를 운영하는 회사다. 금융권 관계자는 "금융위원회가 금융사의 비금융사 지분 투자에 대한 규제도 완화하겠다는 방침을 세운 만큼 향후 핀테크들에 대한 투자도 더 늘어날 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>한국투자증권, 토스뱅크와 업무협약…디지털 자산관리 서비스 제공</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003902558?sid=101</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>◇김성환 한국투자증권 개인고객그룹장과 홍민택 토스뱅크 대표가 8일 서울 여의도 한국투자증권 사옥에서 '디지털금융 혁신과 투자상품에 대한 고객경험 강화 MOU'를 체결하고 기념사진을 촬영하고 있다. 사진제공=한국투자증권한국투자증권은 토스뱅크와 업무제휴 협약을 체결했다고 8일 밝혔다.한투증권은 이번 협약을 통해 토스뱅크 이용자를 대상으로 주식뿐 아니라 고객성향에 따른 투자 전략을 제시하는 등 체계적인 디지털 자산관리 서비스를 제공하기로 했다. 토스뱅크는 한투증권의 투자상품을 고객에게 소개하는 광고 업무를 추진할 계획이다. 양 사는 이후에도 지속적으로 디지털금융 혁신과 고객 경험 강화를 위한 협력 관계를 확대해 나간다는 방침이다.김성환 한국투자증권 개인고객그룹장은 "디지털 환경에 익숙한 토스뱅크 고객들에게 한투증권만의 자산관리 노하우를 제공하게 됐다"며 "고객들의 생애주기에 맞는 맞춤형 투자상품을 제안하고, 효율적인 자산배분 포트폴리오를 추천하는 등 디지털 자산관리 영역을 더욱 확장시켜 나갈 계획"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.08.04.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>은행계좌 개설·학자금 지원 신청때 구비서류 대폭 준다</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011344641?sid=100</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>기사내용 요약행안부, 공공 마이데이터 서비스 28종 추가 [세종=뉴시스] 공공 마이데이터 서비스 안내서 및 수행 가이드. (자료= 행정안전부 제공) [세종=뉴시스] 변해정 기자 = 앞으로 예·적금 계좌를 개설하거나 학자금 지원을 신청할 때 구비 서류가 대폭 줄어들게 된다.   행정안전부는 오는 5일부터 공공 마이데이터 서비스에 28종을 추가한다고 밝혔다. 공공 마이데이터는 정보 주체인 국민이 동의하면 행정·공공기관에 흩어져있는 본인에 관한 정보를 원하는 곳에 추천·제공하도록 요구할 수 있는 서비스로, 지난해 2월 시범 서비스를 시작해 같은 해 12월 본격 활용됐다. 현재까지 24종에 대한 활용 건수는 1억3000만 건을 넘어선다. 28종이 추가되면 총 52종으로 늘어난다. 이번에 추가된 28종을 보면 예·적금 계좌 가입·연장이나 퇴직연금 가입 등 금융서비스를 신청할 때 공공 마이데이터 서비스를 이용하면 주민등록등·초본과 소득금액증명 등 22종의 증명서를 따로 준비할 필요가 없어진다. 이는 우리은행, SC제일은행, IBK기업은행, 대구은행, 토스뱅크, 케이뱅크, 웰컴저축은행, 하나저축은행, 서민금융진흥원 등 9개 금융기관에 우선 도입되며 추후 점진적으로 확대할 예정이다. 신용거래 기록이 많지 않은 사회초년생이나 주부 등이 세금과 재직 등 비금융 거래 정보를 바탕으로 신용평가점수 혜택을 신청하는 경우에도 국세납세증명서와 건강보험자격확인서 등 13종의 증명서를 공공 마이데이터로 제출할 수 있다. 한국장학재단에 학자금 지원 서비스를 신청할 때 장애인증명서나 자활근로자확인서 등 11종의 증명서를 공공 마이데이터로 제출할 수 있다.그 밖에 한국공항공사의 소음 피해지역 주민 냉방료 지원, 창업진흥원의 창업지원사업 신청, 국민연금공단의 두루누리 보험료 지원, 외교부의 여권 발급, 강원도의 농어업인 수당 및 도민카드 신청 등을 처리할 때 공공 마이데이터 서비스를 활용하면 구비 서류를 별도로 떼지 않아도 된다. 한창섭 행안부 차관은 "공공 마이데이터 서비스 확산을 통해 각종 분야에서 구비서류 제출을 간소화함으로써 국민 편익을 보다 높여 나가겠다"고 말했다．</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.08.02.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>[비즈브리핑] 욜로는 옛말, '무지출 챌린지' 열풍…MZ는 짠테크 중</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003899784?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>◇짠테크 수단으로 각광받고 있는 토스의 만보기 서비스. 사진=토스 앱 캡처'욜로'가 가고 '무지출 챌린지'가 뜨고 있다.몇 년 전까지만 해도 한 번 사는 인생 멋지게 살자며 마음껏 소비하던 MZ세대가 변했다.자고 일어나면 치솟는 물가에 하루 동안 한 푼도 쓰지 않고 버티는 무지출 챌린지가 젊은 층 사이에서 유행처럼 번지고 있다. 돈을 아끼는 수준이 아니라, 아예 지출 자체를 하지 말자는 것.  이에 따라 짠테크(짜다+재테크)에 도움이 되는 금융사 미션 참여에 대한 호응이 더욱 뜨거워지고 있다. 주로 브랜드 대표 어플에서 진행되는 이들 미션은 수행 시 보통 100원 이하의 소액을 준다. 플렉스를 외치던 MZ세대가 이젠 '푼돈'이라도 벌기 위해 적극 참여를 하고 있다. 금융사 어플에서 가장 많이 제공되는 짠테크 미션은 걷기다. 삼성금융네트웍스의 통합 앱인 모니모에서는 걷기 챌린지를 통해 리워드를 제공하고 있다. 모니모 이용자는 걸음 수에 따라 '젤리'를 받는다. 획득한 젤리는 모니모 내 젤리 교환소에서 모니머니로 교환 가능하다. 모니머니는 송금, 펀드 투자 등에 현금처럼 사용할 수 있다.토스의 만보기 서비스 역시 대표적인 짠테크 수단으로 각광받고 있다. 토스는 하루 1만 보를 걸으면 40원을 포인트로 준다. 정한 장소에 가면 리워드를 받을 수 있는 '주변 장소 가기' 미션도 있다. 동네를 가볍게 산책하며 포인트도 얻을 수 있다는 점에서 인기가 좋다.이렇게 받은 포인트는 토스 결제 시 사용하거나 출금해 사용하는 등 현금처럼 바로 쓸 수 있다. 게임을 통해 재밌게 돈을 벌 수 있는 앱도 나와 관심을 끌고 있다.신한카드는 자사 통합결제 플랫폼인 신한플레이 내 플레이 오락실에서 매월 제공되는 4가지의 미니게임을 매일 각각 10회씩 플레이하면 현금화가 가능한 마이신한포인트를 최대 1000 포인트 제공한다.업계 관계자는 "무지출 챌린지가 유행할 정도로 요즘 젊은이들은 돈을 아끼기 위해 다양한 방법을 동원한다. 소액이라도 벌 수 있는 짠테크 앱이 인기 있는 이유"라면서 "관련 서비스를 선보인 이후로 앱 이용자 수도 확실히 늘었다. 계속 늘어나는 짠테크족 공략을 위해 걷기 외에도 재미있는 방법으로 포인트를 모을 수 있는 서비스가 속속 출시될 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.08.14.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>30조 날린 亞 워런 버핏의 굴욕…'손정의 제국' 부활할 수 있을까</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004782831?sid=102</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>[편집자주] [편집자주] 뉴스와 이슈 속에는 사람이 있습니다. 그의 이야기를 통해 뉴스와 이슈를 짚어봅니다.[[스토리후] '아시아의 빌게이츠+워런버핏' 손정의 소프트뱅크 회장]도쿠가와 이에야스 미카타가하라 전역 화상(이에야스의 우거지상)'우거지상'. 1600년대 일본 전국시대를 통일하고 에도 막부를 연 도쿠가와 이에야스가 전투에서 참패한 뒤 자기 모습을 기억하며 반성하기 위해 화가에게 그리게 한 초상화다. 8일 일본 도쿄 소프트뱅크 본사. 이 회사 실적 발표에 앞서 화면에 '우거지상'이 등장했다. 발표자로 나선 손정의 회장은 '우거지상'을 바라보며 "나도 소프트뱅크 창업 이래 이렇게 큰 적자를 낸 것을 기억해 두고 싶다"고 말했다. 소프트뱅크는 올해 2분기(4~6월) 3조1600억엔(약 30조 9000억원)의 순손실을 기록했다. 1981년 창사 이래 분기기준으로 역대 최대 규모다. 소프트뱅크가 보유한 비전펀드가 주로 투자한 기술주의 주가급락으로 대규모 손실을 내면서다. 손 회장은 이날 "지난 분기 2조엔의 적자이기 때문에 올 상반기  총 5조엔 적자"라며 "(작년에) 큰 이익을 냈을 때 스스로 제일 잘난 줄 알았던 게 지금 와서는 굉장히 부끄럽다"고 말했다. 소프트뱅크가 적자를 낼 때마다 '손정의 제국'에 '위기' '몰락' '흔들' 등의 수식어가 붙었지만, 손 회장은 매번 보란듯이 이를 극복했다. 하지만 이번엔 정말 심상치 않다는 평가가 나온다.  손정의 소프트뱅크 회장 /사진=머니투데이DB━전자번역기 개발해 사업 밑천→일본 벤처 선구자로 ━손 회장은 1957년 일본 사가현 토스시에서 태어난 한국계 일본인이다. 대구에서 농사를 짓던 할아버지가 생계를 위해 일본으로 가 규슈 지역에 정착한 결과다. 재일교포 3세인 손 회장은 1989년까지 한국 국적이었지만 1990년부터 일본 국적으로 변경했다. 때문에 국내에도 일본명 손 마사요시로 잘 알려졌다.그는 10대일 때 사업가였던 아버지의 건강이 악화하자 가족을 지탱하기 위해 아버지처럼 사업가가 되기로 결심했다. 쿠루메대 부설고교를 2년 만에 그만두고 미국으로 유학을 떠나 UC 버클리에서 경제학과 컴퓨터과학을 전공했다. UC 버클리에 다니던 그는 경제적 독립을 위해 마이크로칩을 활용한 번역기를 만들었다. 1980년 캘리포니아주 오클랜드에서 '유니슨 월드'라는 벤처기업도 설립했다. 그는 직접 개발한 전자번역기를 일본 기업 샤프(SHARP)에 팔아 사업 밑천을 마련했다. 이후 일본으로 돌아오면서 유니슨 월드는 친구이자 동업자였던 홍 루에게 넘겼다.일본으로 돌아온 그는 1981년 9월 직원 2명과 함께 소프트뱅크를 창업했다. 초기 사업 아이템은 소프트웨어 유통, 컴퓨터 서적 출판 등이었다. 얼마 뒤 컴퓨터 관련 제품 전시회에 출품한 소프트웨어가 대박을 터트리면서 일본 벤처 기업 선구자 중 한 명으로 주목받게 된다.━5년 시한부 선고, 회사는 엉망…동양의 빌 게이츠로 '전화위복'━손정의 소프트뱅크 회장 /사진=머니투데이DB1983년 봄, 올라가는 일만 남아있던 소프트뱅크는 큰 위기를 맞았다. 손 회장이 만성간염 판정을 받아 5년 시한부 선고를 받으면서다. 하지만 손 회장은 삶의 의지를 불태우고 극적으로 건강을 되찾아 1986년 5월 회사로 복귀했다. 손 회장이 자리를 비운 3년 사이 소프트뱅크는 망하기 직전까지 추락했다. 회사는 고객과 거래처 등에 신뢰를 잃었고, 은행 빚 10억엔도 있었다. 직원 20명이 동시에 사표를 내고 떠나 회사를 따로 차리는 배신을 당하기도 했다.하지만 손 회장은 회사를 정상화하는데 성공했다. 당시 일본 게임계의 아이콘이었던 허드슨 소프트의 독점유통권을 따내 회사를 성장시켰다. 또 통신 비용을 크게 줄일 수 있는 시스템을 개발해 회사의 빚을 갚고도 남을 수익을 냈다. 전화위복에 성공한 그는 1990년대 이후 아시아의 빌 게이츠라고 불리며 일본 PC 산업계를 이끌었다.━IT 버블 붕괴에 두 번째 위기…공격적·미래지향적 투자로 '부활'━1990년대에 들어서 손 회장은 기존 사업에서 나아가 더 공격적이고 미래지향적인 M&amp;A(인수합병)를 진행해 큰 성공을 이뤘다. 당시 세계 최대 IT 전시회인 컴덱스와 2위 규모의 IT 전시회인 인터롭, 세계 최대 IT 미디어 그룹인 지프데이비스까지 인수했다.  이로써 소프트뱅크는 세계 최대 IT 전시, 출판 그룹을 소유한 기업이 됐다. 하지만 손 회장의 투자는 멈추지 않았다. 이번엔 미래를 내다보는 투자였다. 당시 직원 15명 규모의 벤처기업이었던 야후에 1억5000만달러 투자를 결정했다. 직원 20명 규모였던 알리바바에도 2000만달러를 투자했다. 그가 알리바바 창업주 마윈의 프레젠테이션을 듣다가 6분 만에 투자 결정을 한 일화는 유명하다. 손정의(왼쪽) 소프트뱅크 회장과 마윈 알리바바 창업자가 2014년 7월 15일 일본 도쿄에서 열린 소프트뱅크 월드 2014년 포럼에서 악수를 하고 있다. /AFP=뉴스1그가 알리바바에 투자한 200억은 현재 약 150조원의 지분가치가 됐다. 미래를 내다보는 투자를 하는 그에게 '아시아의 워런 버핏'이라는 별칭도 붙었다. 1990년대 후반 IT 버블을 맞은 손 회장은 자산이 100억 달러를 훌쩍 넘으며 일본 최고 부자에 이름을 올렸다. 하지만 2000년대 초반 IT 버블 붕괴로 자산이 20억달러 이하로 줄었다. 승승장구하던 손 회장이 맞은 두 번째 위기였다. 손 회장은 IT 버블 붕괴 당시를 "도산하기 직전, 벼랑 끝에서 떨어질 것 같은 상황에서 손가락 2개로 지탱하고 있었던 느낌"이라고 묘사하기도 했다.손 회장은 그의 경영 능력을 의심하는 언론의 혹평에도 굴하지 않고 과감한 투자와 사업 센스로 다시 기업을 일으켜 세웠다. 당시 그는 주주들을 회사로 불러 직접 설득했다. 한 거물 투자자가 그의 설명을 듣고 "내 돈을 되찾을 수 있을진 모르겠으나 당신을 믿을 수는 있겠다"며 돌아간 일화도 있다. 창립 30주년을 넘긴 2010년대 '손정의 제국'은 전성기를 구가했다. 2014년 알리바바가 뉴욕증권거래소에 데뷔하면서 손 회장의 자산은 17조원을 넘었다. 일본 최고 부자의 자리도 다시 꿰찼다. 2017년에는 우버 등 각국 차량공유 플랫폼에 적극적으로 투자했다. = 2016년, 도널드 트럼프 당시 미국 대통령 당선인이 뉴욕 트럼프 타워 로비에서 소프트뱅크의 손정의 사장과 함께 기자들에게 얘기를 하고 있다.  (C) AFP=뉴스1  ━창립 이래 최악 실적, 다시 위기…반전 노린다━하지만 2017년부터 손정의 제국의 실적은 다시 성공과 실패 사이를 널뛰기하듯 오갔다. 특히 소프트뱅크가 운영하는 세계 최대 벤처캐피털 비전펀드의 성적에 따라 그룹 실적이 출렁이는 상황이다.2020년 1분기 창사 이래 최대 적자를 기록하며 일본 기업 최악의 분기 적자액 기록을 갈아치웠다. 하지만 2021년 비전펀드가 투자한 쿠팡이 상장과 동시에 '잭폿'을 터뜨렸고, 손 회장은 다시 일본 최고 부자 자리에 이름을 올렸다. 현지 언론의 평가대로  '투자 귀재의 귀환'이었다.그러나 올해 1분기, 손정의 제국은 다시 위기를 맞았다. 비전펀드는 업계 평균에도 못 미치는 성과를 내고 있다. 고위 임원들도 회사를 떠나고 있다. 8일(현지시간) 외신들은 소프트뱅크가 한때 최대주주였던 우버의 지분 전량, 미국 핀테크 기업인 소파이의 지분 일부 등을 처분했다고 보도했다. 쿠팡의 주가 하락도 부담이다. 손 회장은 와신상담 모드에 들어갔다. "큰 수익을 내고 있을 때 정신이 없었다" "지금 돌이켜보면 많이 부끄럽고 반성하고 있다" 그의 반성문이다. '손정의 제국'은 이번에도 보란듯이 부활할 수 있을까. 손 회장은 투자에 보다 신중하겠다는 입장이다. 인원 감축 가능성도 내비쳤다. 최근에는 소프트뱅크 자회사인 영국 반도체 설계업체 ARM의 내년 증시 상장 흥행을 목표로 분위기 반전을 꾀하고 있다. (서울=뉴스1) 박정호 기자 = 손정의 일본 소프트뱅크 회장과 이재용 삼성전자 부회장이 4일 오후 국내 기업 총수들과의 만찬 회동이 열린 서울 성북구 한국가구박물관으로 들어서고 있다. 2019.7.4/뉴스1</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.08.09.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>토뱅 이어 카뱅도 신용카드업 출사표…터줏대감 반발 '진통'</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002628456?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>윤호영 "신용카드 직접 진출 검토"결제 데이터 이용·여신 확보 전략카카오뱅크 오피스. ⓒ카카오뱅크[데일리안 = 김효숙 기자] 인터넷전문은행들이 잇따라 신용카드 시장에 출사표를 내고 있다. 토스뱅크에 이어 카카오뱅크가 신용카드업 직접 진출을 언급하면서다. 다양한 관련 서비스 출시에 대한 기대가 나오는 한편, 고객 이탈을 우려한 기존 카드업계 반발로 등록 과정이 순탄치 않을 것이라는 전망도 제기된다.9일 금융권에 따르면 윤호영 카카오뱅크 대표는 올해 2분기 실적발표 컨퍼런스 콜에서 "제휴 신용카드 사업을 모든 카드사로 확대해 범용성을 강화하기 위한 논의를 현재 진행하고 있다"며 "라이선스 취득을 통한 직접 진출도 긍정적으로 검토하고 있다"고 말했다.카카오뱅크 관계자는 이에 대해 "구체적인 사업 방안이나 시기는 정해진 바 없다"면서도 "기존 고객의 요청이 꾸준히 있었고 긍정적으로 사업 진출을 검토 중"이라고 부연했다.카카오뱅크가 신용카드업 진출을 시도한 것은 처음이 아니다. 2017년에도 신용카드업을 시작하겠다는 목표를 제시했으나, 사업성과 시기 등을 검토한 끝에 2018년 이를 보류했다. 대신 카드사와 제휴를 통해 간접적으로 시장에 진출했다. KB국민·신한·삼성·롯데카드 등 4개사와 제휴 중이다.토스뱅크도 앞서 지난해 10월 인터넷은행 출범과 동시에 신용카드업에 진출하겠다고 입장을 밝힌 바 있다. 토스뱅크 역시 현재 관련 사업을 검토하고 준비하고 있다.인터넷은행이 신용카드 시장 진출을 적극 고려하는 이유는 소비자 결제 데이터를 축적하고 여신 포트폴리오를 강화하기 위해서다.국내 민간소비의 70%가 카드결제로 이뤄지는 만큼, 가맹점 데이터를 쌓으면 이를 활용해 확장할 수 있는 사업도 많아진다. 신용카드 결제 데이터를 마이데이터와 연계해 맞춤 금융 상품을 추천하거나, 신용평가모형 고도화에 활용해 중저신용자의 금리 산정에 긍정적으로 작용하는 방안 등이 대표적이다.윤 대표도 2018년 기자간담회에서 "신용카드를 내놓는 이유는 신용을 기반으로 하는 후불 결제 혜택이 고객에게 필요하고, (축적된) 결제 데이터로 빅데이터를 활용한 여신 등을 발전시킬 수 있다"고 언급한 바 있다.2022년 6월 말 기준 카카오뱅크 수신 및 여신 규모. ⓒ카카오뱅크여신 사업 포트폴리오를 강화해 수익을 위한 방안이라는 해석도 나온다. 카드업에 본격 진출하면 은행 대출을 받지 못하는 고객도 카드론 등 여신 서비스를 이용할 수 있게 돼 소비자 풀이 넓어질 수 있어서다.실제로 토스뱅크의 경우 지난 6월 말 기준 수신잔액은 21조원 규모인 반면, 여신 잔액은 4조원에 그쳐 다섯 배 이상 차이가 났다. 카카오뱅크의 같은 시점 수신잔액도 33조원인 반면, 여신잔액은 27조원으로 5조원 가량 격차를 보였다. 다만 카드 시장이 이미 포화상태에 이른 만큼 기존 고객을 뺏기지 않으려는 카드업계의 반발은 물론 출혈경쟁도 불가피하다는 전망도 나온다.카드업계에서는 인터넷은행이 대형 플랫폼을 우위로 기존 고객을 뺏어갈 수 있다는 우려가 감지된다. 카카오뱅크의 지난달 말 기준 가입자 수는 1938만명으로 2000만명에 육박한다. 토스뱅크도 올해 6월 말 기준 고객 수가 360만명에 이른다.카드업계 관계자는 "국민 다수가 신용카드 1개씩은 가지고 있어 기존 카드사들도 새로운 시장 확보에 어려움을 겪는 상황"이라며 "빅테크는 기존 금융사에 비해 완화된 규제로 플랫폼을 키워왔는데 이를 우위로 신용카드업까지 진출한다면 중소형 카드사들이 설 자리를 잃을 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.08.09.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>벤처·스타트업 종사자, 1년새 9.7% 증가</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001047456?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>국내 벤처·스타트업 종사자는 총 76만여명으로, 1년 새 10% 정도 증가한 것으로 조사됐다.기업가치가 1조원이 넘는 비상장 기업을 일컫는 유니콘 기업의 종사자 증가율은 40%에 근접했다.중소벤처기업부는 올해 6월 말 기준 국내 벤처·스타트업 3만4천362곳의 고용 인원은 총 76만1천82명으로, 1년 전보다 9.7%(6만7천605명) 늘었다고 9일 밝혔다.벤처·스타트업 고용 증가율(9.7%)은 우리나라 전체 기업 고용보험 가입자 증가율 3.3%보다 3배 높은 수준이다.특히 벤처투자를 받은 기업의 고용 증가율은 40.5%로, 전체 기업 대비 12배 이상 높았다.벤처 투자 10억원 당 고용증가 효과는 약 2.3명으로 나타났다.벤처·스타트업 고용 인원 중 만 15세 이상∼만 29세 이하 청년은 26.9%인 20만4천437명으로 1년 전보다 8.0% 늘었고, 여성은 24만9천411명으로 12.9% 증가했다.중기부 관계자는 "지난 1년간 청년 고용보험 가입자가 2만9천948명 늘었는데 이중 벤처·스타트업 고용이 절반 이상(50.5%)"이라며 "벤처·스타트업이 청년 일자리 창출의 새로운 주역으로 자리매김했다"고 밝혔다.올해 상반기 신설 벤처·스타트업은 92곳으로 총 836명을 고용한 것으로 나타났다.지난 1년간 고용을 가장 많이 늘린 벤처·스타트업 10곳의 증가 인원은 총 4천48명이었다.기업당 평균 404.8명꼴이 증가한 것으로 나타나, 전체 벤처·스타트업 평균 고용 증가 인원인 2.0명 대비 200배가 넘었다.지난 1년간 고용을 가장 많이 늘린 기업은 신선식품 배송 플랫폼인 '마켓컬리'를 운영하는 컬리로, 인원이 701명 증가했다.스타트업을 제외한 벤처기업만 놓고 보면 3만4천174곳에서 총 75만3천80명을 고용하고 있는 것으로 조사됐다.지난해 6월과 비교하면 고용 인원이 9.6% 늘었다.벤처기업 종사자는 이미 지난해 말 기준 총 72만2천명으로, 국내 4대 그룹 인원(72만명)보다 많았다.업종별로 보면 정보통신기술(ICT)서비스, 유통·서비스, 전기·기계·장비 등 3개 업종에서 총 4만2천698명(64.9%)이 증가했다.정보통신기술(ICT)서비스, 유통·서비스의 경우 플랫폼 기업 중심으로 고용이 늘었고 기계·장비의 경우는 반도체, 2차전지 장비·부품 제조 벤처기업에서 고용 인원이 증가했다.지역별로 보면 서울 소재 벤처기업에서 1년간 증가한 인원이 5천905명으로 가장 많았다.이번 분석 대상에 포함된 유니콘기업 14곳의 고용 인원은 1만942명으로 1년 전보다 39.4%(3천92명) 늘었다.이중 두나무의 고용 인원은 총 494명으로 1년 전보다 93.0%(238명) 늘었고 모바일 금융 서비스 '토스'를 운영하는 비바리퍼블리카는 749명으로 65.7%(297명) 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.08.02.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>남의 떡 커보이네…1등 플랫폼 '슈퍼앱 전쟁'</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004731961?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>당근마켓, 구인·구직 서비스 출시리멤버 등과 채용시장 놓고 경쟁야놀자·쏘카도 '원 앱' 전략 강화유니콘들 사업 확대 위해 M&amp;A수익모델 다각화해 성장성 확보‘동네 중고 물품 거래’ 1위인 당근마켓은 최근 동네 알바 채용, 지역 모임 주최까지 사업 보폭을 넓혔다. 한마디로 ‘동네에서 벌어지는 모든 일은 당근마켓 앱 안에서 해결하라’는 원 앱 전략이다.아르바이트, 배달업 종사자 등 이른바 ‘긱(gig)워커’의 세금 환급으로 인기를 끈 삼쩜삼은 최근 이들의 일자리 중개와 급여 계산까지 맡기로 했다. 향후 노무·커뮤니티 등 ‘긱워커들의 모든 것’을 아우르겠다는 심산이다.요즘 플랫폼 기업 간에 ‘슈퍼앱’ 경쟁이 한창이다. 플랫폼별로 1, 2위 스타트업이 어느 정도 가려지면서 나타난 현상이다. 그동안 해당 영역 경쟁에 열을 올리다가 선두권으로 굳어지자 브랜드 인지도를 활용해 인근 영역으로 진출하겠다는 것이다. 앱 하나에 모든 걸 담는다2일 스타트업 업계에 따르면 최근 당근마켓은 ‘걸어서 10분’ 서비스를 출시했다. 이용자 거주지를 기반으로 근처에서 채용 중인 아르바이트 자리를 소개해주는 서비스다.명함 관리로 유명한 리멤버는 올해만 채용 관련 업체 세 군데를 잇달아 인수했다. 인맥 관리는 물론, 경력직부터 인턴까지 모든 채용 분야를 리멤버 앱 안에서 다루기로 했다. 긱워커 채용 중개 사업을 시작한 삼쩜삼까지 포함하면 등 각기 다른 분야의 플랫폼 1위 세 곳이 비슷한 시기에 채용 알선 시장에 뛰어든 것이다. 잘나가는 스타트업들이 동시에 슈퍼앱 전략을 펼치면서 벌어진 일이다.이들 외에도 요즘 ‘웬만큼 잘나간다’ 싶은 플랫폼들은 앞다퉈 인수합병(M&amp;A)으로 영역을 확대하고 있다. 지난해 인터파크를 인수한 숙박업계 1위인 야놀자는 지난달 전시, 공연 예매 서비스를 선보였다. 더 이상 숙박 앱에 머물지 않고 ‘여가 슈퍼앱’으로 확장하겠다는 포부다.‘알람 앱’ 시장을 평정한 알라미는 최근 생활 습관 전반에 대한 관리를 표방하며 마이루틴을 인수했고, 차량 공유 강자인 쏘카는 기차 예매, 주차장 관리 등 이동 수단 전반을 겨냥하고 있다. “후발 스타트업 저가 인수 기회”이들의 공통된 목표는 다양한 서비스를 한곳에 모아 경쟁 업체를 따돌리고 추가 성장성을 확보하겠다는 것이다. 대표적인 성공 사례로 비바리퍼블리카(토스)가 꼽힌다. 핀테크 분야 최대 경쟁사인 카카오의 경우 결제· 증권 업무 등을 카카오페이가, 은행 업무를 카카오뱅크가 맡는 등 이원화돼 있고 대출·송금 등은 일부 겹치기도 한다. 반면 토스는 이를 하나의 앱에 담는 슈퍼앱 전략으로 이용자 편의성을 높였다는 평가를 받는다. 토스는 슈퍼앱 전략에 힘입어 지난 4월 월간 활성화 이용자 수(MAU) 기준으로 카카오뱅크를 제치고 1위에 올라섰다.한 벤처캐피털(VC) 대표는 “최근 1~2년 사이 유니콘 기업(기업 가치 1조원 이상 비상장사)과 예비 유니콘 기업들이 대거 현금을 비축한 상황”이라며 “이런 가운데 올해 경기가 위축되면서 후발 스타트업들이 저가에 매물로 나오자 영역 확대를 위해 공격적으로 사들이고 있다”고 말했다.이기대 강원창조경제혁신센터장(전 스타트업얼라이언스 이사)은 “국내 스타트업 생태계가 성숙 단계를 넘어 하나의 산업으로 자리 잡고 있다는 신호”라고 평가했다. 이 센터장은 “국내 대기업이나 해외 사례를 봐도 대부분 영역에서 1위 자리가 굳어져 빈 땅이 많이 없을 때 합종연횡과 같은 현상이 자주 벌어진다”며 “1, 2위 업체는 마케팅 비용을 줄이는 장점이 있고, 나머지 업체들은 반전을 노리는 기회가 된다”고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>케이뱅크, 파격 금리 혜택에 예·적금 1조원 ‘쑥’</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002626862?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>한 달새 9.4%↑…카뱅은 1.6%↓파킹통장 2.1% 이율로 고객 유인적극적인 금리인상 IPO 전략 차원서울 종로구 케이뱅크 본사 사옥 전경.ⓒ케이뱅크[데일리안 = 김효숙 기자] 케이뱅크의 수신 잔액이 한 달새 1조원 넘게 늘어난 것으로 나타났다. 앞서 예·적금 등 수신 상품에 경쟁사보다 파격적인 금리 혜택을 제시하면서 고객을 끌어모은 덕이다. 기업공개(IPO)를 앞두고 신규 고객을 확보해 기업가치를 키우려는 케이뱅크 전략이 통했다는 분석이 나온다.3일 금융권에 따르면 케이뱅크의 지난 7월 말 기준 수신 잔액은 13조3300억원으로 전월 말 보다 1조1500억원 급증했다.케이뱅크의 수신 잔액은 전월대비 9.4% 증가했는데 이는 5대 시중은행과 비교해봐도 크게 늘어난 것이다.KB국민은행의 지난달 말 기준 총 수신 잔액은 403조9925억원으로 전월 대비 2.5% 늘었는데 증가율이 3배 이상 높은 수준이다.신한은행이 357조4992억원으로 0.7%, 하나은행이 391조5723억원으로 0.3%, 농협은행이 343조4825억원으로 1.2% 증가한 것을 감안하면 높은 성장세다. 우리은행은 337조7455억원으로 1.5% 감소했다.같은 인터넷전문은행인 카카오뱅크의 7월 말 수신 잔액이 32조6534억원으로 전월대비 1.6% 감소한 것과 비교하면 괄목할 만한 성과다.케이뱅크 수신잔액 추이. ⓒ데일리안케이뱅크가 꾸준히 예적금 상품에 파격 금리 혜택을 주면서 금융소비자 유치에 성공했다는 분석이 나온다. 케이뱅크는 최근 고금리 수신 상품 특판을 여러 차례 진행하거나 예·적금 금리를 대폭 올렸다.케이뱅크는 지난 5월 말 ‘코드K 정기예금’을 최대 연 0.7%p 올리면서 1년 이상 정기예금 이율을 모두 3% 이상으로 맞췄다. 또 지난 6월에는 연 5% 코드K 자유적금 특판을 두 차례 진행했다. 지난달에도 최고 연 3% 금리를 제공하는 ‘코드K정기예금(100일)’ 특판을 진행하고 코드K 자유적금의 금리도 최대 0.4%p 인상했다.특히 지난달 자유롭게 입출금이 가능한 파킹통장 ‘플러스박스’ 통장 금리를 2.1%로 한번에 0.8%p씩 인상한 것이 1조원 넘게 수신잔액을 늘리는 데 주효했다. 플러스박스는 하루만 맡겨도 연 2.1%의 금리 이자가 적용되고 매월 넷째 주 토요일에 쌓인 이자를 받을 수 있는 상품이다.전략적 금리 인상으로 경쟁사인 토스뱅크를 제쳤다는 평이 나온다. 케이뱅크는 토스뱅크 수시입출금 통장 이율인 2%보다 0.1%p 더 높은 이율로 설정했고 한도도 토스뱅크의 1억원보다 높은 3억원으로 적용해 경쟁력을 가져갔다.케이뱅크 관계자는 “은행권에서도 금리 인상 경쟁이 치열해지는 만큼, 소비자들 사이에서 적절한 투자처를 찾을 때까지 잠시 자금을 맡겨둘 수 있는 파킹통장에 대한 관심이 커진 상태”라며 “파킹통장인 플러스박스 금리를 대폭 올린 후 예치 자금도 크게 늘었다”고 설명했다.이같은 금리 인상은 케이뱅크가 IPO를 앞두고 신규 고객을 끌어올리는 동시에 가상자산 리스크 부담을 덜기 위한 전략이라는 분석도 나온다.케이뱅크는 지난 6월 30일 한국거래소에 상장 예비심사를 신청했다. 오는 9~10월 중 예비 심사를 통과하고 11월쯤 상장할 것으로 전망된다. 이 과정에서 기업 가치를 최대한 키우기 위해 고객 규모 확대가 중요한 시점이다.다만 케이뱅크의 예금 중 절반 가까이는 가상화폐 관련 현금이라는 사실은 부담이 되는 요인이다. 윤창현 국민의힘 의원실에 따르면 올해 3월 말 기준 케이뱅크의 예수금 중 5조5617억원은 투자자들이 가상자산 거래소 업비트에 예치한 현금이다.가상자산거래소와 제휴를 맺고 있는 다른 은행들은 예금 대비 거래소 예치금 비중이 1% 미만이다. 가상화폐 변동성이 커질 경우 케이뱅크의 자금 안정성도 흔들릴 위험도 훨씬 커질 수 있어 순수한 예·적금 비중을 늘려야 할 필요성도 커진 상황이다.금융권 관계자는 “증권가에서 증시 불황에도 케이뱅크의 기업가치가 최소 6조원이라는 말이 나오는 등 평가가 긍정적”이라며 “1분기 순이익을 내면서 흑자전환에 성공하고 2분기에도 빠른 성장세를 이어간다면 기업 가치는 더 뛸 수 있을 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.08.01~2022.08.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.08.01~2022.08.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.08.01.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>하이투자증권, 비대면 계좌개설 및 국내·외 주식거래 이벤트</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004876181?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스]하이투자증권은 오는 9월 29일까지 신규 및 휴면고객을 대상으로 비대면 계좌 개설 및 국내·외 주식거래 이벤트를 진행한다고 1일 밝혔다.   먼저 이벤트 기간 내 비대면 계좌를 신규로 개설한 모든 고객에게 현금 1만 원을 지급한다. 토스, 네이버 등의 플랫폼을 통해 계좌를 개설할 경우에는 각 제휴사의 포인트 1만 점을 즉시 지급한다.   국내·외 주식거래 이벤트로는 국내 주식거래 시 온라인 거래 수수료를 0.01%로 적용하며, 선물옵션의 경우 3개월간 수수료 우대 혜택을 제공한다.   500만 원 이상 국내 주식을 거래 시 2만 원을 추가로 지급하며, 타 증권사에서 보유하고 있는 국내 주식을 하이투자증권 스마트지점으로 1000만 원 이상 이전하고 1000만 원 이상 주식거래를 할 때에는 최대 70만 원의 현금도 지급한다.   신용대출 금리도 계좌개설일로부터 6개월간 연 4.5%로 적용하고, 담보대출 금리는 2년 동안 연 5.9%로 우대하는 혜택도 제공한다.   미국 주식거래 시에는 온라인인 거래 수수료를 0.069%로 제공한다. 미국 주식을 500만 원 이상 거래할 경우 2만 원을 지급하며, 타 증권사에서 보유하고 있는 상장 미국 주식을 하이투자증권 스마트지점으로 이전하고 500만 원 이상 거래 시 최대 35만 원의 현금을 지급한다. 1000만 원 이상 거래 시 2배의 현금 리워드 혜택을 제공한다.   미국 주식 실시간 시세 조회 서비스를 계좌개설일로부터 1년간 무료로 제공하며, 서비스 무료 제공 종료일 직전 3개월간 미국 주식을 거래하면 지속적으로 서비스를 무료로 제공한다.   이벤트는 하이투자증권 홈페이지 또는 이벤트 페이지를 통해 참여할 수 있으며 보다 자세한 사항은 하이투자증권 디지털컨택트센터로 문의하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.08.01.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>[사설]제2 금융도 디지털 혁신이 살 길</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003034198?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>금융과 기술이 결합하는 사례가 급증하면서 기술기업이 이를 발판 삼아 너도나도 금융산업에 진출하고 있다. 이른바 빅테크 전성시대다.인터넷전문은행을 비롯해 간편결제와 송금, 이제는 후불결제시장에까지 빅테크가 줄줄이 진입하면서 전통 금융을 위협하고 있다.이들의 최대 강점은 전통 금융 방식 파괴다. 무겁고 보수적인 금융 프레임을 걷어내고 쉽고 간단하면서도 젊은 층에게 호감을 불러일으키는 디지털 기술을 적절히 활용한다.카카오, 네이버, KT, 토스 등 굵직한 빅테크 기업이 금융 사업 외연 확대를 공격적으로 하고 있다. 그러다 보니 시장에서 수시로 부딪친다. 그동안 전통은행이 빅테크와 대립각을 세우며 '기울어진 운동장' 논란을 주도했으며, 서비스 영역에서 '규제 강도'를 놓고 감정싸움이 빈번했다.하지만 이제 이 같은 감정적 대립이 점차 서비스 대결 구도로 가고 있다. 유의미한 경쟁 구도다. 전통은행에 이어 카드사와 저축은행이 혁신적 컬래버레이션 상품을 내놓고 있다.초기에는 전통 금융회사 관점에서 새롭게 개발되는 정보통신기술 등을 어떻게 활용할 것인가가 관건이었다. 하지만 이제는 새로운 기술로 무장한 새로운 시장 참여자들이 금융시장에서 파괴적 혁신을 추구하는 시도가 잦아지고 있다.대형 은행과 경쟁해야 하는 저축은행, 빅테크 잠식 속도가 빠른 지불결제 환경에서 생존을 위협받는 카드사가 서로 손잡고 난국을 타개하자는 위기의식이 발현됐기 때문이다.이제 제2 금융도 디지털금융 키워드를 최우선 과제로 삼고 무한경쟁 '테크핀 시대'에서 경쟁우위를 확보해야 한다. 저신용자는 물론 서민금융에 대한 책임도 다해야 할 것이다.대형 금융사의 경쟁 구도에서 제2 금융까지 가세하며 '디지털 메기'를 부추기는 혁신금융 대한민국이 되길 기대한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>홈플러스, 수입과자 인기에…상품 품목 30% 확대</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005129159?sid=101</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>지난달 수입과자 매출 24% 신장서울 마포구 홈플러스 월드컵점에서 모델이 프리토레이 수입과자 신상품을 선보이고 있다.홈플러스는 수입과자가 큰 인기를 끌면서 상품 품목을 30% 확대했다고 8일 밝혔다.홈플러스에 따르면 지난달 수입과자 매출은 전년 동기 대비 약 24% 신장했다. 이에 지난 22일부터 미국 스낵 브랜드 ‘프리토레이’의 과자 러플스, 프리토스, 레이즈, 토스티토스 등 16종을 선보였다.해당 상품들은 이달 말까지 시중가 대비 약 10% 저렴한 가격에 판매한다. 2개 구매 시 10% 추가 할인을 적용해 고객 혜택을 늘렸다. 오는 9월에는 튀기지 않아 가볍게 즐길 수 있는 프리토레이 ‘팝코너스 화이트 체다치즈·스윗 칠리·스윗앤쏠티’ 3종을 단독 론칭할 예정이다.홈플러스 관계자는 “새로운 과자 맛을 찾는 수요가 점차 증가하면서 수입과자 품목을 확대해 고객들의 선택 폭을 넓히고자 했다”며 “앞으로도 차별화된 수입과자 상품을 발굴해 고객들에게 다양한 맛 경험을 제공할 수 있도록 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.08.07.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>'곧 출시'만 반복하는 토뱅 모임통장, 왜 안나오나?</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004879093?sid=101</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>금융감독원의 금융상품 심사 과정에서 난항 서울 강남구 토스뱅크 본사. 사진=뉴스1 [파이낸셜뉴스]토스뱅크 모임통장이 금융감독원의 금융상품 심사 과정에서 난항을 겪고 있는 것으로 알려졌다. 기존 상품과 차별화된 새로운 모임통장 상품을 내놓겠다고 공언했지만 이에 대한 감독원 승인이 늦어지고 있는 것이다.   7일 금융권과 토스뱅크에 따르면 토스뱅크가 올 하반기 출시한다던 모임통장 상품은 수개월째 금감원 심사 단계에 머무르고 있다.   금감원 관계자는 "기존 모임통장 상품과 차별화를 두기 위해 추가 기능을 시도했는데 이에 대한 심사가 전자금융거래법 소관부서에서 지연되고 있다"고 전했다. 전자금융거래법은 컴퓨터, 휴대전화 등 전자기기를 통해 이뤄지는 금융거래를 규율하는 법으로 인터넷은행이 하는 사실상 대부분의 사업을 총괄한다.   토스뱅크가 시도하는 모임통장의 새로운 기능은 '모임카드'가 될 것으로 보인다. 지난달 15일과 20일 토스뱅크는 '토스뱅크 모임통장'과 '토스뱅크 모임카드'에 대한 상표권을 각각 출원한 것으로 알려졌다. 구체적으로 알려지지 않았지만 모임통장 하나에 카드 여러 장을 발급받을 수 있도록 하는 방식이 유력하다.   모임통장 출시를 처음 언급했던 지난 6월 '미디어데이' 행사에서 홍민택 대표는 "고객 관점에서 새롭게 해석한 '토스뱅크 모임통장'을 곧 선보인다"면서 "출시하면 (카카오뱅크 모임통장과) 유사성에 대한 우려가 없을 것"이라며 차별화에 대한 자신감을 드러냈다.   그간 모임통장 시장에서는 카카오뱅크가 굳건한 1위를 지키고 있었다. 개설에 많은 서류가 필요하지 않다는 편리성에 카카오 특유의 귀여운 캐릭터를 앞세우면서다. 최근 카카오뱅크 모임통장 고객 수는 1000만명을 넘어섰으며, 지난 2·4분기 기준 카카오뱅크 수신잔액 가운데 13.9%를 모임통장이 끌어 모으고 있다. 시중은행은 시기상으로는 카카오뱅크보다 먼저 모임통장을 출시했지만 편의성 측면에서 카카오뱅크에 밀리며 하나 둘 사업을 접는 상황이다.   하지만 토스뱅크가 모임카드라는 승부수를 던진다면 1위 자리를 탈환할 수 있을지 주목된다. 카카오뱅크 모임통장은 카드를 발급받을 수 있는 인원이 모임주 1명으로 제한된다.   모임통장 관련 심사가 지연되면서 금융상품 소개 서비스와의 출시 시기도 엇갈릴 전망이다. 토스뱅크는 앞서 '미디어데이'에서 모임통장과 함께 금융상품 소개 서비스도 연내 출시하겠다고 예고한 바 있다. 시장에 있는 예·적금이나 투자 상품 가운데 고객에게 알맞은 상품을 발굴해 소개해주는 서비스다.   당초 토스뱅크 내부에서는 두 상품의 출시 시기가 비슷하지만 모임통장이 약간 더 빠를 것이라고 예상하던 것으로 전해졌다. 하지만 모임통장 출시 일정이 늦춰지면서 추천 서비스의 진도가 앞서나가게 됐다. 한편 금감원에 따르면 토스뱅크 모임통장에 대한 심사는 이달 중 마무리될 예정이다.   seung@fnnews.com 이승연 김동찬 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>쿠팡, 할부금융업 진출…'쿠팡 대출' 판다</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000009644?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>쿠팡파이낸셜, 여전업 등록 완료소상공인 대상 할부금융업 할듯쿠팡이 금융업에 본격진출한다. 형태는 할부금융업으로 네이버파이낸셜처럼 소상공인을 대상으로 쿠팡 대출을 팔 전망이다.8일 금융감독원에 따르면 쿠팡파이낸셜은 지난 5일 여신전문금융업법 상 할부금융업에 등록했다. 자본금 400억원 규모로 쿠팡페이가 100%의 지분을 보유하는 자회사 형태다. 대표는 신원 전 CPLB 부사장이 맡았다. CPLB는 쿠팡의 자체브랜드 자회사로 신원 신임 대표는 금감원 거시감독국장 등을 지냈다. 쿠팡파이낸셜은 기존에 쿠팡페이의 CFC준비법인을 통해 일찌감치 설립이 점쳐졌었다. 지난 1월 설립된 CFC준비법인은 이름을 쿠팡파이낸셜로 바꾸고 여신업 등록을 신청했다. 카드사가 아닌 할부금융업의 경우 결격사유가 없으면 인허가 절차 없이 등록 만으로도 사업을 할 수 있다. 할부금융업의 최소 필요자본은 200억원 이상이다.쿠팡파이낸셜은 네이버파이낸셜처럼 쿠팡과 거래하는 셀러들에게 자금을 대출해주고 원금과 이자를 받는 할부금융업을 영위할 것으로 점쳐진다. 네이버파이낸셜은 금융사와 제휴를 맺고 소상공인을 대상으로 맞춤형 대출 상품을 판매하는 '스마트스토어' 대출을 제공하고 있다. 이 외에 카드 없이 일정 한도 내에서 물건을 사고 대금을 지급하는 소액 후불결제 서비스 진출도 시도할 전망이다. 네이버파이낸셜은 지난해 소액 후불결제에 진출했고 토스와 카카오페이도 소액 신용시장에 진출한 상태다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.08.11.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>톡큰, ‘워터밤 페스티벌’ 공동주관사 이터널에디션즈와 파트너십 체결</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004881535?sid=105</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>[파이낸셜뉴스] 블록체인 전문기업 Talken GmbH가 운영하는 멀티체인 기반 탈중앙화 NFT 지갑 ‘톡큰’은 라이브 이벤트 NFT 플랫폼 이터널 에디션즈와 파트너십을 체결하고, NFT 공동 비즈니스를 추진한다고 11일 밝혔다.   이터널 에디션즈는 라이브 이벤트의 더 많은 커뮤니티 유입을 위한 소셜다오를 지향하는 NFT(대체 불가능 토큰) 플랫폼이다. 공연업계의 골칫거리인 위조 및 사기 티켓, 관련 전문 중고 거래 시장의 부재를 해결하는 한편, 공연 창작자와 팬덤, 아티스트, 기획자 등이 NFT를 통해 커뮤니티를 형성하고 지속 가능한 라이브 이벤트를 주최하는 것을 목표로 한다.   최근에는 14만 명 이상이 방문한 여름 대표 이벤트 ‘2022 워터밤 페스티벌’의 공동주관사로서 행사의 실제 입장권이 제공되는 글로벌 NFT 프로젝트 ‘워터밤 리그 NFT’를 추진해 주목을 받았다.   이번 파트너십 체결에 따라 이터널 에디션즈가 발행하는 국내외 페스티벌, 콘서트, 각종 공연 및 전시회 등의 NFT 티켓을 한층 편리하게 톡큰의 자체 NFT 마켓플레이스 및 톡큰 웹3(Web3) 브라우저로 구매할 수 있게 됐다.   특히 티켓 구매 시 톡큰 NFT 마켓플레이스를 이용할 경우, 앱스토어 및 구글 플레이스토어의 인앱결제를 활용해 모바일 환경에서도 신용카드, 네이버페이, 카카오페이, 페이코, 계좌이체, 토스, 휴대폰 결제 등으로 간편 결제가 가능하다.   구매한 티켓의 관리 역시 간단해졌다. 톡큰이 ‘멀티체인’ 탈중앙화 NFT 지갑으로서 메인넷이 각기 다른 복수의 블록체인 네트워크를 동시에 지원하기 때문이다.   구매한 NFT 티켓이 서로 다른 메인넷을 기반으로 하더라도 각 메인넷별 지갑을 따로 설치할 필요 없이 톡큰 하나만으로도 각 NFT의 보관, 전송, 교환 등이 가능하다. 현재 톡큰이 지원하는 블록체인 네트워크는 이더리움, 솔라나 클레이튼, BNB체인, 아발란체, 보라체인 등 총 13종이다.   톡큰 주민수 대표는 “톡큰이 멀티체인 탈중앙화 NFT 지갑으로서 갖는 장점이 이터널 에디션즈가 라이브 이벤트 NFT 플랫폼으로서 추구하는 목표를 달성하는 데 상당 부분을 도움을 줄 수 있을 것”이라며, “이번 파트너십 체결을 통해 양사가 NFT 발행 및 판매, 공식 굿즈 연계, 커뮤니티 인센티브 등 라이브 이벤트 분야에서 상호 시너지를 발휘할 것으로 기대하고 있다”고 말했다.   한편 톡큰은 지난해 후오비벤처스와 트론(Tron) 재단 등 글로벌 블록체인 기관으로부터 투자를 유치했으며, 톡큰의 암호화폐 톡(TALK) 토큰은 후오비 글로벌 및 게이트아이오 등에 상장돼 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.08.07.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>상품심사 마무리 접어든 토뱅 ‘모임통장’ 1위 카뱅 넘어설까</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004879131?sid=101</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>‘통장 하나에 카드 여러 장 발급’추가 기능 모임카드 심사 지연수개월 거친 심사 이달 끝날듯 서울 강남구 토스뱅크 본사. 뉴스1 토스뱅크 모임통장이 금융감독원의 금융상품 심사 과정에서 난항을 겪고 있는 것으로 알려졌다. 기존 상품과 차별화된 새로운 모임통장 상품을 내놓겠다고 공언했지만 감독원 승인이 늦어지고 있는 것이다.   7일 금융권과 토스뱅크에 따르면 토스뱅크가 올 하반기 출시한다던 모임통장 상품은 수개월째 금감원 심사 단계에 머무르고 있다. 이달 중 심사가 마무리될 것으로 보인다.   금감원 관계자는 "기존 모임통장 상품과 차별화를 두기 위해 추가 기능을 시도했는데 이에 대한 심사가 전자금융거래법 소관부서에서 지연되고 있다"고 말했다. 전자금융거래법은 컴퓨터, 휴대전화 등 전자기기로 이뤄지는 금융거래를 규율하는 법으로 인터넷은행이 하는 사실상 대부분의 사업을 총괄한다.   토스뱅크가 시도하는 모임통장의 새로운 기능은 '모임카드'가 될 것으로 보인다. 지난달 15일과 20일 토스뱅크는 '토스뱅크 모임통장'과 '토스뱅크 모임카드'에 대한 상표권을 각각 출원한 것으로 알려졌다. 구체적으로 알려지지 않았지만 모임통장 하나에 카드 여러 장을 발급받을 수 있도록 하는 방식이 유력하다.   모임통장 출시를 처음 언급했던 지난 6월 미디어데이 행사에서 홍민택 대표는 "고객 관점에서 새롭게 해석한 토스뱅크 모임통장을 곧 선보인다"면서 "출시하면 (카카오뱅크 모임통장과) 유사성에 대한 우려가 없을 것"이라며 차별화에 대한 자신감을 드러냈다.   그간 모임통장 시장에서는 카카오뱅크가 굳건한 1위를 지키고 있었다. 개설에 많은 서류가 필요하지 않다는 편리성에 카카오 특유의 귀여운 캐릭터를 앞세우면서다. 최근 카카오뱅크 모임통장 고객 수는 1000만명을 넘어섰다. 지난 2·4분기 기준 카카오뱅크 수신잔액 가운데 13.9%를 모임통장이 끌어 모으고 있다. 시중은행은 시기상으로는 카카오뱅크보다 먼저 모임통장을 출시했지만 편의성 측면에서 카카오뱅크에 밀리며 하나 둘 사업을 접는 상황이다.   하지만 토스뱅크가 모임카드라는 승부수를 던진다면 1위 자리를 탈환할 수 있을지 주목된다. 카카오뱅크 모임통장은 카드를 발급받을 수 있는 인원이 모임주 1명으로 제한된다.   모임통장 관련 심사가 지연되면서 금융상품 소개 서비스와의 출시 시기도 엇갈릴 전망이다. 토스뱅크는 올해 안에 모임통장과 함께 금융상품 소개 서비스도 출시하겠다고 예고한 바 있다. 시장에 있는 예·적금이나 투자 상품 가운데 고객에게 알맞은 상품을 발굴해 소개해주는 서비스다.   당초 토스뱅크 내부에서는 두 상품의 출시 시기가 비슷하지만 모임통장이 약간 더 빠를 것이라고 예상하던 것으로 전해졌다. 하지만 모임통장 출시 일정이 늦춰지면서 추천 서비스의 진도가 앞서나가게 됐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.08.09.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>씨티銀 대환 한달…손잡은 토스·KB가 웃었다</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002026061?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>비대면 무기 삼은 제휴 은행, 80%↑ 압도적하나·우리銀, 비제휴 은행 중 선전[연합][헤럴드경제=서정은·박자연 기자] 은행권 고객 유치 경쟁을 일으키고 있는 씨티은행의 개인신용대출 대환 시행이 약 한 달 가량 지났다. 제휴은행인 토스뱅크와 KB국민은행이 80% 이상 점유율을 기록하며 승기를 잡은 가운데 타 은행권도 금리 우대를 내세우며 뒤를 바짝 쫓고 있다.9일 헤럴드경제가 각 은행 등을 통해 씨티은행 신용대출 대환 현황을 취합한 결과 타 금융사로 대환이 이뤄진 금액은 약 8500억원 규모다. 씨티은행의 신용대출 잔액이 지난 3월말 기준 약 8조원대 초반임을 감안하면 10% 안팎의 자금이 한 달새 이동한 것으로 해석된다.앞서 소매금융 철수를 결정한 씨티은행은 지난달 1일부터 고객들의 대환을 시작했다. 금융당국 또한 신용대출 고객이 다른 은행으로 대환대출을 희망하는 경우 대출금 증액이 없는 경우에는 가계대출 규제(차주별 DSR, 가계대출 총량관리, 신용대출 한도규제)의 예외를 인정하는 등 지원책을 꺼냈다.한 달간 성과를 보면 제휴 은행들이 단연 돋보였다. 씨티은행과 제휴를 맺은 KB국민은행과 토스뱅크는 ▷대환 시 발생하는 인지세 전액 부담 ▷중도상환수수료 전액 면제 혜택을 적용하며 대환대출 시 추가적으로 필요한 비용을 없앴다. 또 ‘원스톱 비대면’ 서비스로 따로 지점을 방문하지 않아도 돼 자연스럽게 많은 고객들이 제휴은행을 선택한 것으로 풀이된다.사별로 보면 토스뱅크가 약 4000억원대로 가장 높은 비중을 기록했다. 당초 두 제휴은행에 5대 5 비중으로 옮겨간 것으로 알려졌으나, KB국민은행보다 1000억원 이상 격차를 벌렸다. 토스뱅크의 경우 일괄 0.3%포인트(p) 금리 할인 혜택을 지원하면서 신규 고객 유치에 성공했다는 평가다. KB국민은행 또한 일부 지점에 씨티은행 우량 차주 확보를 해줄 것을 요청하는 문서 등을 보내며 고객 유치를 독려하는 중이다. KB국민은행과 토스뱅크의 합산 대환 규모는 약 7000억원대로 전체 대환점유율의 80% 이상을 차지하고 있다.양사 관계자는 “타사에서 대출을 받으려면 씨티은행 대출이라는걸 고객이 직접 증명을 해야한다”며 “씨티은행 고객군을 보면 전문직, 젊은층이 많다보니까 비대면 간편 대환을 선호한 것으로 보고 있다”고 말했다.비제휴 은행 중에서는 하나은행과 우리은행이 대다수를 차지하며 선두권을 형성하고 있다. 하나은행은 씨티은행 신용대출 고객이라면 누구나 최대 2.1%p의 기본 우대금리를 적용받고 추가 거래를 약속할 경우에는 0.9%p를 누릴 수있는 상품을 출시했다. 우리은행의 경우 최대 1.5%p 우대금리를 제공하며 최저 연 3% 초반 수준으로 대출 이용이 가능하다. 특히 우리은행 대출을 미보유한 고객이 대환을 신청할 경우 1%p를 우대해준다.시스템 장애를 빚었던 신한은행과 비교적 뒤늦게 씨티은행 대출 경쟁에 뛰어든 NH농협은행은 비중이 미미한 것으로 알려졌다. DGB대구은행은 지방은행 중 처음으로 최근 최대 2.0%p를 우대해주는 대환 상품을 내놓는 등 경쟁이 치열해지는 모양새다.다만 은행권의 이같은 경쟁에도 씨티은행 고객들의 대환은 서서히 이동할 것이라는게 중론이다. 금리 인상기인만큼 대환에 따른 효과가 크지도 않을 뿐더러, 비제휴 은행에 대해서는 대면 방문 등 번거로움이 크기 때문이다. 향후 금리 인하 기조가 시작되거나 시중은행들의 경쟁이 더 치열해질 경우 추가 혜택도 노릴 수 있다. 한 은행권 관계자는 “(씨티은행) 대환 추이를 유심히 살피고 있다”며 “아직 이동 규모가 많이 남은 만큼 은행들끼리 눈치싸움이 계속될 것으로 예상한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>외국인 대상 송금앱, 의료통역… 기업들도 맞춤 서비스</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003707655?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>[다시 외국인 200만명 시대] [中] 소비시장 큰손으로부동산거래·법률·구직상담 등 다양한 분야서 생활 편의 제공김해선 외국인 직원이 외국인 고객 상담 - 해외 송금 스타트업 센트비의 경남 김해고객센터에서 한 직원(오른쪽)이 외국인 고객에게 앱을 이용해 송금하는 방법을 안내하고 있다. /센트비										한국 생활 4년 차인 아말 어거스틴(26)씨는 매달 해외 송금 앱 ‘센트비’를 이용해 인도에 있는 가족에게 돈을 보내고 있다. 처음 한국에 왔을 땐 고향에 돈을 보내려 일요일마다 은행 일요송금센터 앞에 길게 줄을 서 기다려야만 했다. 어거스틴씨는 “은행 앞에서 오랜 시간 기다리고 복잡한 서류를 작성하는 과정이 힘들었는데 이제는 앱으로 시간 제약이나 복잡한 절차 없이 간편하게 송금할 수 있게 됐다”고 했다. 센트비는 2015년 금융 서비스에서 소외된 국내 외국인 근로자를 염두에 두고 설립한 핀테크 스타트업. 일반 은행을 통해 송금할 경우 평일 기준 2~3일 이상 걸리는 데 비해 센트비는 실시간 송금으로 국가에 따라 최단 5분에서 최장 하루 안에 송금이 가능하다. 송금 수수료도 시중은행보다 최고 90% 저렴해 한국 내 외국인들 사이에서 인기다.국내 체류 외국인이 200만명이 넘고 이들의 소득도 늘면서, 국내 기업들도 외국인을 새로운 소비자층으로 받아들이고 이들을 붙잡을 금융, 통신, 부동산, 의료 서비스를 앞다퉈 내놓고 있다.국내 거주 외국인 200만 시대가 다시 오면서 가장 분주해진 곳은 금융 업계다. 핀테크 업체 토스는 지난 5월부터 국내 거주 외국인을 대상으로 인터넷 뱅킹 서비스를 내놨다. 국내 은행에 계좌가 없더라도 토스뱅크에서 첫 계좌를 만들 수 있고, 계좌를 개설한 외국인은 내국인과 마찬가지로 비대면 서비스와 체크카드를 이용할 수 있다. 시중은행들도 외국인 맞춤형 서비스를 내놓고 있다. 하나은행은 송금 소요 시간 예측, 실시간 상황 조회, 오픈뱅킹 서비스가 가능한 외국인용 송금 서비스를 제공하고 있다. 전북은행은 외국인 전용 대출 상품을 내놨다. 외국인 근로자들이 취업 비자를 받고 2년간 체류하는 동안엔 소득이 보장된다는 점을 공략한 것이다. 신한은행과 KB국민은행은 외국인 고객을 대상으로 임차 보증금의 80% 이내에서 최고 2억원까지 빌려주는 전세 대출 상품도 내놨다.통신 3사는 한국 체류 외국인들이 힘들어하는 것 중 하나가 휴대전화 개통이라는 점에 착안해 저마다 외국인 전용 서비스를 도입했다. KT는 지난달부터 국내 거주 외국인 중 가장 많은 중국인을 위해 중국 메신저 앱 위챗 안에 KT 미니 프로그램을 개설했다. 통신 상품 사용량 조회나 가까운 KT 매장 위치 안내 같은 서비스를 중국어 실시간 채팅으로 제공한다. LG유플러스는 지난 5월부터 국내 체류 외국인을 대상으로 전문 통역 상담을 해주고 있고, SK텔레콤은 현재 전국 매장 30곳에서 외국어 상담 서비스를 제공한다.스타트업들도 200만 외국인 시장을 공략하고 있다. 부동산 중개 스타트업 집토스는 2019년부터 서울 지역에서 외국인 대상 중개 서비스를 제공하고 있다. 집토스 웹사이트와 앱에 올라온 전월세 매물 정보를 영어와 중국어로 번역해 제공하고, 외국어가 가능한 공인 중개사 15명이 고객 상담부터 계약, 입주까지 전담해 처리해준다.국내 거주 외국인을 대상으로 의료나 법률 서비스를 제공하는 스타트업도 있다. 유메디는 지난해부터 국내 거주 외국인 환자에게 모국어로 의사 소통이 가능한 의료진을 찾아주거나 통역 서비스를 제공하고, 보험 청구를 위한 서류 준비도 도와준다. 리걸테크 스타트업 케이비자는 지난 4월 외국인 근로자를 대상으로 비자 발급과 구인 구직, 취업 생활 정보 등을 원스톱으로 제공하는 플랫폼 ‘워크인포’를 출시했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.08.11.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>인터넷은행, 마통금리 10% 육박…이자장사 빈축</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003036414?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>케이·카카오·토스뱅크 대폭 인상이자수익 늘며 상반기 순익 급증이용자 “마통 연장 부담” 하소연#직장인 Y씨는 카카오뱅크를 이용 중이다. 기준금리 인상으로 시중은행 마이너스통장(마통) 금리부담이 높아지면서 인터넷전문은행으로 눈을 돌린 것이다. 하지만 상대적으로 전통은행 대비 금리가 낮았던 마이너스통장 금리가 크게 상승했다. 카카오뱅크에서 안내한 금리는 연 6.197%로 시중은행과 비슷하거나 되려 높았다.은행권 전반의 혁신 경쟁을 위해 출범한 인터넷전문은행이 최근 대출 금리 등을 급격히 올리면서 소비자 빈축을 사고 있다. 금융서비스 혁신과 더불어 낮은 비용으로 더 많은 혜택을 소비자에게 돌린다는 당초 설립 취지와 달리 기존 은행과 마찬가지로 이자 장사에만 집중하고 있다는 지적이 끊이지 않는다.인터넷전문은행 3개사(케이·카카오·토스뱅크)의 11일 기준 마통 금리는 모두 10%에 육박하거나 웃도는 것으로 나타났다. 토스뱅크 마통 대출금리가 연 4.99~13.56%로 상단이 가장 높았고 △케이뱅크는 연 5.28~9.46% △카카오뱅크는 연 4.818~6.884%이다. 이는 4대 시중은행(KB국민·신한·하나·우리은행) 마통 대출금리(4.861~6.60%) 상단을 웃도는 수준이다.마통 평균금리에서도 인터넷전문은행이 시중은행 금리와 유사하거나 높았다. 은행연합회가 공시한 은행별 마통 평균금리를 보면 △KB국민은행이 연 5.14% △신한은행 연 5.09% △하나은행 연 4.65% △우리은행 연 5.01%이던 반면에 인터넷전문은행은 △케이뱅크 연 5.00% △토스뱅크 연 5.27%였다. 특히 카카오뱅크의 경우 연 7.28%로 집계돼 7%대 중반을 기록했다. 이러다보니 인터넷전문은행 이용자 상당수가 은행 갈아타기에 나섰다.인터넷전문은행은 레거시 은행의 타성과 관행을 깨고 새바람을 일으키는 '메기' 역할을 하기 위해 설립됐다. 금융서비스 혁신과 더불어 영업점이 없는 대신 그 비용은 소비자 혜택으로 돌리고, 기존 금융사가 꺼리는 금융소외계층을 포용하기 위해서다. 하지만 수년이 지난 현재 은행들과 마찬가지로 대출 확대에 분주하다.이자장사로 인터넷전문은행 순이익도 크게 늘고 있다. 카카오뱅크의 경우 올해 상반기 이자수익이 지난해 같은 기간 대비 60% 넘게 늘면서 역대급 실적을 달성했다. 카카오뱅크 올해 상반기 순이익은 1238억원으로 집계됐다. 이는 지난해 같은 기간보다 6.8%가 증가한 규모다. 전체 여신 잔액은 26조8163억원으로 전년 대비 9549억원 증가했다. 이자수익도 크게 늘었다. 카카오뱅크의 올해 상반기 기준 이자수익은 5571억원으로 지난해 같은 기간보다 61.6%가 증가했다.한 금융권 고위 관계자는 “최근 인터넷전문은행을 보면 영업점이 없을 뿐이지 기존 은행과 크게 다르지 않다”며 “낮은 비용으로 더 많은 혜택을 소비자에게 돌린다는 당초 취지도 이미 많이 바래진 상황”이라고 지적했다.각종 커뮤니티에서는 인터넷전문은행의 이중적인 행태에 대해 비판의 목소리가 확산일로다. 카카오뱅크를 이용하는 한 이용자는 “9월에 카뱅 마통 연장인데, 미리 신청해봤더니 6%가 넘어가더라”라고 토로했다. 또 다른 이용자는 “카뱅 마통이 2년 사이에 연 2.6%에서 연 5.98%가 됐다. 금리가 오른 것을 감안해도 이게 상식적으로 말이 되느냐”고 설명했다. 케이뱅크를 이용한다는 소비자는 “지난해 4000만원, 연 4.2%로 시작했는데, 최근 연 5.5%까지 올라오더니, 오늘 연장할 때 연 7.2%가 나와 마통을 해지했다”고 말했다. 이에 대해 카카오뱅크 관계자는 “카카오뱅크의 마이너스 통장 상품은 지난해 10월부터 신규 대출 취급이 중단된 상황으로 은행연합회에 공시된 카카오뱅크 마이너스 통장 금리는 신용평점하위 50% 고객에게 나가는 중신용비상금대출' 금리”라며 “신용평점대별 대출금리를 살펴보면 오히려 카카오뱅크의 대출 금리 수준이 타행 대비 낮다”고 전했다.자료:은행연합회</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.08.10.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>'연 4.5%' 이자상품 토뱅서 가입…시중은행에 반격 나선 인터넷銀</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005130443?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>국내 주요 시중은행들이 예·적금 금리를 지난달 1%포인트 가까이 인상하면서 인터넷전문은행들도 이용자들을 확보하기 위한 반격에 나섰다.토스뱅크는 '내게 맞는 금융상품 찾기' 서비스를 출시했다고 10일 밝혔다. 이 서비스에는 한국투자증권 발행어음이 포함됐는데, 업계 최고 수준인 최대 연 4.5%(확정금리,세전)의 이자를 제공한다. 발행어음은 일종의 예금 같은 개념이다. 한 번에 정해진 돈을 거치식으로 맡기고 정해진 기간 후 원금과 이자를 함께 돌려받는 상품이다. 이 발행어음은 최대 5000만원까지 6개월과 1년으로 거치 기간을 설정할 수 있다. 6개월은 4.3%, 1년은 4.5%의 이자를 제공한다. 다만 선착순 한정 제공하는 상품으로 특판 한도 소진 시 6개월 연 3.95%와 1년 연 4.15%로 이자 수준이 변동될 수 있다.이 상품에 가입하기 위해서는 토스뱅크와 연계된 한국투자증권의 계좌가 필요하다. 토스뱅크 관계자는 "최근 기준금리가 큰 폭으로 오르면서 예·적금처럼 가입할 때 금리가 정해져 있는 확정금리형 상품에 대한 관심이 높아지고 있다"며 "안정적인 성향의 투자자들이 활용하기에 적합하다"고 말했다. 토스뱅크는 증권사 주식거래 시 필요한 증권계좌를 개설할 수 있는 ‘증권계좌 만들기’ 서비스도 제공한다.카카오뱅크의 경우 예적금 금리 경쟁력 강화에 나섰다. 카카오뱅크는 지난 5일부터 예적금 금리를 최대 0.8%포인트 인상하고, 대출 금리는 최대 0.45%포인트 인하했다. 이번 인상에 따라 '파킹통장' 세이프박스의 기본 금리는 연 2%가 됐다. 금리 인상에 따라 26주 적금은 26주 동안 자동이체를 성공할 경우 0.5%포인트 우대금리가 적용돼 연 3.5%의 금리를 받을 수 있다. 1년 만기 정기예금 금리는 연 3.1%, 3년 만기 정기예금은 연 3.6%가 됐다. 자유적금은 우대금리 적용 시 1년 만기는 최고 연 3.5%, 3년 만기는 최고 연 4%가 됐다. 케이뱅크는 고금리 수신 상품 특판을 여러 차례 진행하면서 이용자들을 끌어드리고 있다. 지난 6월 '코드K자유적금' 연 5%(3년) 금리 적용 이벤트를 두 차례 진행해 완판했다. 지난달부터는 '주거래우대 자유적금', '코드K 자유적금'의 금리를 연 0.4~0.6%포인트 올렸다.인터넷전문은행들의 이 같은 행보는 시중은행으로 다시 '환승'하는 이용자들을 잡기 위한 전략으로 풀이된다. 시중은행의 금리가 높아지면서 뭉칫돈이 은행으로 몰리는 현상도 지속되고 있기 때문이다. 지난달 말 기준 KB국민·신한·하나·우리·NH농협 등 5대 시중은행의 예·적금 잔액은 750조5658억원으로 전월 대비 28조원 넘게 증가했다. 반면 카카오뱅크의 7월 말 기준 수신 잔액은 전달보다 5274억원 감소한 32조6534억원이었다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>‘빅5’ 대출 뒷걸음질… 인터넷뱅크만 ‘쑥쑥’</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003291825?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>‘인뱅’ 대출 7개월간 3조 증가주담대 금리도 0.4~0.5%P 인하영업점 안 가는 대출 편의 호응고금리 특판예적금 출시 경쟁금리 인상 영향으로 시중은행의 가계대출이 올해 들어 줄곧 감소하고 있지만 케이뱅크·카카오뱅크 등 인터넷전문은행의 가계대출은 반대로 7개월 연속 늘어나고 있다. 인터넷전문은행들이 시중은행과 다르게 대출이 늘어난 것은 기준금리 인상으로 대출금리가 치솟는 상황에서 상대적으로 낮은 금리를 제공하고 있기 때문으로 풀이된다.2일 은행권에 따르면 지난달 말 기준 카카오뱅크의 대출 잔액은 26조 9504억원로 한 달 전보다 1341억원 늘어난 것으로 집계됐다. 케이뱅크의 대출도 9조 1600억원으로 같은 기간 4300억원 늘었다. 지난해 12월 말과 비교하면 카카오뱅크는 1조 890억원, 케이뱅크는 2조 700억원 증가한 규모다. KB국민·신한·우리·하나·NH농협 등 5대 시중은행의 가계대출이 같은 기간 2조 2154억원 줄어든 것과는 대조적이다. 올 1월 대출 영업을 재개한 토스뱅크는 매달 잔액을 공개하고 있진 않지만 지난 6월 말 기준 대출 잔액이 4조 2000억원으로 집계됐다. 지난달부터 한국씨티은행 개인신용대출 대환대출도 하고 있는 터라 대출 잔액은 더욱 늘었을 것으로 보인다.인터넷전문은행의 대출 규모가 확대된 것은 주택담보대출 등의 금리를 낮춘 영향이다. 오프라인 점포를 운영하지 않아 인건비 등을 줄일 수 있는 인터넷전문은행은 상대적으로 금리를 조정할 여유가 있다. 케이뱅크는 6월 아파트담보대출과 전세자금대출 금리를 최대 0.41% 포인트 낮췄고, 카카오뱅크도 6월 주택담보대출 금리를 최대 0.5% 포인트 인하했다. 최근 카카오뱅크 전세자금대출을 이용한 김모(32)씨는 “금리가 시중은행에 비해 0.5% 포인트 정도 낮았다”며 “대출 시 영업점을 가지 않아도 되니 편했다”고 말했다.대출 증가를 발판으로 한 예적금 상품 경쟁도 치열하다. 토스뱅크는 연 2.0%라는 고금리 입출금통장의 영향으로 6월 말 기준 예적금 잔액이 20조원을 돌파한 것으로 나타났다. 케이뱅크도 연 2.1%의 고금리 파킹통장에 연 5.0% 특판자유적금, 연 3% 100일예금상품 등을 통해 지난달 말 기준 예적금 잔액이 13조 3300억원이 됐다. 한 달 전보다 1조 1500억원이나 늘어난 규모다. 상대적으로 금리가 낮아 같은 기간 예적금 잔액이 5274억원 줄어든 카카오뱅크는 “예적금 금리 인상을 긍정적으로 검토하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.08.02.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>[THE FINANCE] 불리고 싶을땐 `금감원 파인`… 빌리고 싶을땐 `대출비교플랫폼`</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002747219?sid=101</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>금융소비자정보포털 예·적금 등 검색핀다·토스 등 금융상품 분석 서비스급격한 금리상승기에 소비자들은 조금이라도 유리한 금리를 찾기 위한 발품을 마다하지 않는다. 은행들을 일일이 방문하지 않더라도 한눈에 금리를 비교할 수 있는 다양한 방법이 있다. 특히 돈을 불리고 싶다면 금융감독원의 '파인'을, 돈을 빌리고 싶다면 '대출비교플랫폼'이 유용하다.금감원 금융소비자정보포털 '파인'의 '금융상품 한눈에'에 메뉴에서는 예·적금 상품과 대출상품의 금리수준과 거래조건 등을 쉽게 비교할 수 있다. 금리상승기에는 만기가 짧은 예·적금에 가입하는 것이 시장변화에 민첩하게 대응할 수 있는 방법으로 추천된다.회전식 정기예금도 선택지에 넣어볼 만하다. 회전식 정기예금은 만기까지 회전주기(이자율이 변동 적용되는 기간)별로 변동된 금리가 적용되는 예금이다. 만기까지 넣어두면 일반 정기예금보다 이율이 높다.파인은 은행·저축은행이 판매 중인 주요 예·적금 상품은 물론 은행·저축은행·보험사·여신전문회사가 판매 중인 대출상품의 금리수준 등도 살펴볼 수 있다. 하지만 대출금리는 개개인에게 적용되는 금리나 조건이 다르기 때문에 대출비교플랫폼을 활용하는 것이 더 편리하다.대출비교플랫폼은 은행·보험사·카드사 등 여러 금융사의 대출 상품을 한데 모아 비교 서비스를 제공한다. 토스·카카오페이·핀다·핀크·담비 등 다양한 업체들이 대출비교플랫폼을 서비스하고 있다. 소비자는 여러 플랫폼을 통해 자신의 조건에 맞춘 최적의 대출 금리와 한도 등을 거의 실시간으로 파악할 수 있다. 지난해 대출비교플랫폼을 통해 이뤄진 은행 대출만 3조1000억원에 이를 정도로 소비자 호응이 높다. 대출비교플랫폼을 고를 때는 되도록 제휴사 규모가 많을 곳을 선택하는 것이 유리하다. 다양한 금융사와 제휴된 곳일수록 더 유리한 대출조건을 발견할 가능성이 높다. 지난해 가장 많은 이용자를 자랑하는 토스와 카카오페이의 제휴 금융사는 50여곳 수준이다.플랫폼을 통해 대출 업체를 결정했다면 해당 금융사에서 최종 대출 심사가 진행된다. 이 과정에서 당초 안내받았던 금리나 한도에 변화가 있을 수도 있는 만큼 마지막까지 꼼꼼히 확인해야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.08.04.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>한 달 새 37조 빠진 저원가성 예금…파킹통장 경쟁 후끈</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005127948?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>[불 붙는 예·적금 금리 경쟁]③수익성 효자 저원가성 예금 이탈에…유치 경쟁 ↑산은 파킹통장 금리 2.25%…인터넷銀 뛰어넘어예·적금 금리가 3~4%대로 올라서면서 가장 큰 타격을 입고 있는 것은 시중은행의 저원가성 예금이다. 은행 수익성에 기여하는 바가 커 ‘핵심예금’으로도 불리는 저원가성 예금 이탈을 막기 위해 각 은행들은 경쟁적으로 파킹통장(수시입출금식 예금통장)의 금리 수준을 높이는 등 적극 대응하고 있다.4일 금융권에 따르면 국내 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 지난달 말 기준 요구불예금 잔액은 673조3602억원으로 집계됐다. 이는 전월 대비 약 5.1%(36조6034억원) 감소한 수치다.저원가성 예금은 요구불예금(보통예금·당좌예금 등), 시장금리부 수시입출금식예금(MMDA) 등을 일컫는 것으로, 예금자가 원할 때면 언제든지 꺼내 사용할 수 있는 예금을 의미한다. 언제든 인출 가능한 대신 보통예금이나 급여통장의 경우 0.1~0.2%, 수시입출금식 통장의 경우 1~2% 안팎의 비교적 낮은 금리를 부여한다.저원가성 예금이 축소되고 있는 것은 예·적금 금리가 높아졌기 때문이다. 한국은행이 전년 말 대비 기준금리를 125bp(1bp=0.01%) 인상하면서 각 은행이 빠르게 예·적금 금리를 높이자, 자산시장 부진으로 수시입출금식 통장 등에서 때를 기다리던 시중자금이 예·적금으로 빠르게 환류되고 있다. 시중은행 관계자는 "연초부터 진행된 자산시장 부진으로 파킹통장 등에 머물며 시장을 관망하던 자금이 최근 높아진 금리에 예·적금으로 옮아가는 추세"라고 전했다.이에 각 은행들은 경쟁적으로 저원가성 예금 확보를 위한 파킹통장 금리 인상에 나서고 있다. KDB산업은행의 ‘KDB Hi 비대면 입출금통장’의 경우 지난달 중순부터 최대 연 2.25%의 금리를 제공한다. 우대조건이나 금액 제한도 없다. 이는 지난해 말 부터 파킹통장 열풍을 불러일으킨 토스뱅크(최대 연 2.0%, 1억원 이내), 최근 토스뱅크를 제친 케이뱅크(최대 연 2.1%, 3억원 이내)를 넘어서는 수준이다. SBJ저축은행 사이다뱅크(최대 연 2.2%) 등 일부 2금융권보다도 높은 편이다.1금융권의 추격이 거세지면서 일부 저축은행들은 파킹통장의 금리를 3%대로 높여 대응하고 있다. 웰컴저축은행의 경우 특정 우대조건을 만족하면 5000만원 이하의 금액에 연 3.0% 금리를 제공하며, OK저축은행 역시 1000만원 이하에 연 3.2%의 금리를 적용 중이다. 금융권 관계자는 "최소 연말까지 금리 인상이 이어지면서 당분간 저원가성 예금 이탈 속도도 빨라 질 것"이라면서 "은행들도 핵심 예금 유치, 고객 확보 차원에서 파킹통장 금리를 더욱 높일 수 있다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>금융BTS 키운다더니…규제로 토스·네이버·카카오 혁신 발목</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005283393?sid=105</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>금융위 금소법 시행령·감독규정 개정안에 업계 우려수시로 변하는 핀테크에 기존 카드 규제 적용 강행고금리에 핀테크 할인까지 줄어 결국 소비자 손해88곳 사정권 “공청회 열고 충분한 의견수렴 해야”[이데일리 최훈길 기자] 금융위원회의 핀테크 서비스 규제 강화를 놓고 업계 반발이 일고 있다. 서비스 변경 시 6개월 전에 의무적으로 알리도록 하겠다는 규제가 급변하는 핀테크 시장을 무시한 조치라는 이유에서다. 정부가 ‘금융 BTS를 키우겠다’며 혁신과 자율규제를 강조했는데, 기존 카드업계 입장만 반영했다는 비판도 제기된다. 김주현 금융위원회 위원장(가운데)은 지난달 19일 서울 중구 은행회관에서 열린 제1차 금융규제혁신회의에서 “금융규제 혁신의 목표는 금융산업에서 그룹 방탄소년단(BTS)과 같은 글로벌 플레이어를 만드는 것”이라며 “금융규제가 발목을 잡아서는 안 된다”고 말했다. 사진 왼쪽은 김소영 금융위 부위원장, 사진 오른쪽은 이복현 금융감독원장 모습. (사진=이영훈 기자)금융위 규제 강화에 88개 핀테크 분통3일 한국핀테크산업협회와 한국인터넷기업협회에 따르면, 이들 협회는 이르면 이번 주에 이같은 ‘금융소비자 보호에 관한 법률(금소법) 시행령 및 감독규정 일부개정안’에 대한 의견서를 금융위에 제출할 예정이다. 업계 관계자는 “현행 규정을 유지하거나 개정안의 전면적인 재검토 입장을 전달할 예정”이라고 전했다. 불씨는 금융위가 지난달 7일 ‘금소법 시행령 및 감독규정 개정안’을 공개하면서 불거졌다. 개정안은 선불·직불지급 수단에도 금소법에 따른 ‘연계·제휴서비스 관련 규제’를 적용하는 게 골자다. 신용카드에 적용되는 규제를 핀테크 서비스에도 확대 적용하겠다는 것이다. 적용되는 ‘연계·제휴서비스 관련 규제’는 △서비스 축소·변경 시 6개월 전 고지 △정당한 이유 없이 소비자에게 불리한 축소·변경 금지 △서비스에 대한 설명의무 부과 등이다. 핀테크 업계가 가장 민감하게 보는 것은 ‘6개월 전 고지’다. 토스, 네이버페이, 카카오페이나 결제 서비스를 제공하는 핀테크가 서비스를 변경하려면 6개월 전에 이를 알려야 하는 것이다. 오는 16일까지 입법예고를 거쳐 원안대로 시행되면, 올해 12월 8일부터 시행된다. 금융위에 따르면 영향을 받는 회사가 모바일 선불·직불 결제를 하는 핀테크(전자지급수단발행업) 88개사에 달한다. 정부가 밝힌 개정 취지는 ‘동일기능-동일규제’와 ‘금융소비자 보호’다. 금융위는 ‘규제영향분석서’에서 “신용카드와 기능상 유사함에도 (규제가 없어 핀테크 측) 규제 차익이 발생한다”며 “(핀테크) 서비스의 불합리한 축소나 변경을 방지해 금융소비자의 신뢰를 보호해야 한다”고 밝혔다. 금융위는 토스가 작년 12월에 토스카드 서비스를 갑자기 중단한 사례 등을 검토한 것으로 전해졌다. (그래픽=이데일리 문승용 기자)◇“공청회 등 충분한 의견수렴부터 해야” 하지만 핀테크 업계에서는 기존 금융권 규제를 핀테크에 그대로 적용하는 것에 대한 우려가 큰 상황이다. 핀테크와 신용카드 서비스가 상품, 서비스 구성, 영업 행태까지 서로 달라 ‘동일기능-동일규제’를 적용할 수 없다는 것이다. 예를 들어 신용카드는 부가서비스 내용에 따라 최대 250만원의 연회비를 부과한다. 하지만 핀테크 서비스에는 연회비가 없다. 때문에 업계에서는 “핀테크의 선불·직불결제와 신용카드사 서비스의 사업 구조·기능이 다른데 동일한 규제를 가하는 것은 불합리하다”는 입장이다. 한 업계 관계자는 “일례로 마트에서 원 플러스 원으로 딸기잼 마케팅을 시작하려면 이를 6개월 전에 고지하라는 것과 같은 규제”라며 “이번 규제는 아예 처음부터 동일기능이 아닌 신용카드 규제를 끌고 와 핀테크 발목을 잡는 것”이라고 토로했다.이번 개정안이 시행되면 ‘금융소비자 보호’보다 ‘소비자 손해’가 커질 것이란 지적도 제기된다. 그동안 핀테크사들이 제시해온 각종 프로모션 혜택이 사라질 것이란 이유에서다. 업계 다른 관계자는 “개정안이 시행되면 핀테크사들이 6개월 전에 당국에도 새 서비스나 마케팅을 보고해야 하는데, 어떤 회사가 적극적으로 나서겠는가”라며 “프로모션 축소가 결국 소비자 혜택 감소로 이어질 것”이라고 우려했다. 금융위에 따르면 의견수렴은 지난 6월10일 금융감독원, 금융협회 등이 참석한 관계기관 합동 TF 및 실무회의 한 차례에 그쳤다. 금융위 관계자는 통화에서 “페이 서비스 시장이 커졌는데 아무런 울타리가 없는 것은 맞지 않다”면서도 “입법예고 기간 중에 의견을 좀 더 수렴해 타당한 부분이면 검토하겠다”고 말했다. 홍기용 인천대 경영학부 교수는 “금융혁신·자율규제를 강조한 현 정부가 공청회 등을 통해 충분하게 의견을 수렴해야 한다”며 “소비자에게 불리한 것은 사전 공지하되, 획일적 규제·카드사 편들기 오해가 없도록 ‘핀셋규제’ 방식으로 면밀하게 검토해야 한다”고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.08.09.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>벤처·스타트업 종사자 76만여명…1년새 9.7% 증가</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013362383?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>전체 기업 고용 증가율의 3배…유니콘기업 고용 39.4% 늘어(서울=연합뉴스) 신선미 기자 = 국내 벤처·스타트업 종사자는 총 76만여명으로, 1년 새 10% 정도 증가한 것으로 조사됐다.    기업가치가 1조원이 넘는 비상장 기업을 일컫는 유니콘 기업의 종사자 증가율은 40%에 근접했다.혁신 스타트업 벤처기업 일자리 동향 발표하는 조주현 차관(세종=연합뉴스) 김주형 기자 = 조주현 중소벤처기업부 차관이 9일 오전 세종시 정부세종청사에서 22년 상반기 혁신 스타트업 벤처기업 일자리 동향을 발표하고 있다. 2022.8.9 kjhpress@yna.co.kr    중소벤처기업부는 올해 6월 말 기준 국내 벤처·스타트업 3만4천362곳의 고용 인원은 총 76만1천82명으로, 1년 전보다 9.7%(6만7천605명) 늘었다고 9일 밝혔다.    벤처·스타트업 고용 증가율(9.7%)은 우리나라 전체 기업 고용보험 가입자 증가율 3.3%보다 3배 높은 수준이다.    특히 벤처투자를 받은 기업의 고용 증가율은 40.5%로, 전체 기업 대비 12배 이상 높았다.    벤처 투자 10억원 당 고용증가 효과는 약 2.3명으로 나타났다.    벤처·스타트업 고용 인원 중 만 15세 이상∼만 29세 이하 청년은 26.9%인 20만4천437명으로 1년 전보다 8.0% 늘었고, 여성은 24만9천411명으로 12.9% 증가했다.    중기부 관계자는 "지난 1년간 청년 고용보험 가입자가 2만9천948명 늘었는데 이중 벤처·스타트업 고용이 절반 이상(50.5%)"이라며 "벤처·스타트업이 청년 일자리 창출의 새로운 주역으로 자리매김했다"고 밝혔다.    올해 상반기 신설 벤처·스타트업은 92곳으로 총 836명을 고용한 것으로 나타났다.    지난 1년간 고용을 가장 많이 늘린 벤처·스타트업 10곳의 증가 인원은 총 4천48명이었다.    기업당 평균 404.8명꼴이 증가한 것으로 나타나, 전체 벤처·스타트업 평균 고용 증가 인원인 2.0명 대비 200배가 넘었다.    지난 1년간 고용을 가장 많이 늘린 기업은 신선식품 배송 플랫폼인 '마켓컬리'를 운영하는 컬리로, 인원이 701명 증가했다.    스타트업을 제외한 벤처기업만 놓고 보면 3만4천174곳에서 총 75만3천80명을 고용하고 있는 것으로 조사됐다.    지난해 6월과 비교하면 고용 인원이 9.6% 늘었다.    벤처기업 종사자는 이미 지난해 말 기준 총 72만2천명으로, 국내 4대 그룹 인원(72만명)보다 많았다.    업종별로 보면 정보통신기술(ICT)서비스, 유통·서비스, 전기·기계·장비 등 3개 업종에서 총 4만2천698명(64.9%)이 증가했다.    정보통신기술(ICT)서비스, 유통·서비스의 경우 플랫폼 기업 중심으로 고용이 늘었고 기계·장비의 경우는 반도체, 2차전지 장비·부품 제조 벤처기업에서 고용 인원이 증가했다.    지역별로 보면 서울 소재 벤처기업에서 1년간 증가한 인원이 5천905명으로 가장 많았다.    이번 분석 대상에 포함된 유니콘기업 14곳의 고용 인원은 1만942명으로 1년 전보다 39.4%(3천92명) 늘었다.    이중 두나무의 고용 인원은 총 494명으로 1년 전보다 93.0%(238명) 늘었고 모바일 금융 서비스 '토스'를 운영하는 비바리퍼블리카는 749명으로 65.7%(297명) 증가했다.[그래픽] 벤처·스타트업 종사자 추이(서울=연합뉴스) 김민지 기자    minfo@yna.co.kr    트위터 @yonhap_graphics  페이스북 tuney.kr/LeYN1    sun@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.08.06.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>中 군사훈련에 먼 길 돌아가는 화물선…운송지연 우려</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001047099?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>낸시 펠로시 미국 하원의장의 대만 방문에 반발한 중국이 대만을 둘러싼 군사 훈련을 벌이면서 항공편 뿐 아니라 무역선도 줄줄이 항로를 변경하고 있다.5일(현지시간) 로이터 통신에 따르면 중국이 전날부터 나흘 일정으로 대만해협 군사훈련에 돌입, 일부 화물선과 유조선이 만일의 상황을 피하려고 한나절 정도를 더 돌아가야 하는 다른 항로를 선택하고 있다.발틱해국제해운협회(BIMCO) 관계자는 "일부 선박은 이미 예방조치를 취했고, 대만해협을 통과하는 대신 대만 동쪽으로 항해하고 있다"고 말했다.대만해협은 중국과 대만 사이에 위치한 길이 약 500㎞, 폭 150∼200㎞의 바닷길로 동아시아에서 미국과 유럽을 오가는 주요 항로가 몰려있다.그러나 중국이 이번 훈련에서 실질적 경계선으로 여겨지는 대만해협 중간선을 넘기도 하면서 선박들의 우려가 커진다.선박 중개업체 브레마 관계자는 "대형 유조선 선주들이 보안 경계 수준을 높이고 선박을 우회하고 있다"며 "운송보험 단체도 회원들에게 경고를 보내 대만 항해 시 주의를 당부했다"고 말했다.특히 코로나19 봉쇄가 올해 공급망에 큰 타격을 입히면서 전 세계가 기록적인 인플레이션을 겪은 상황을 고려할 때 앞으로 문제가 더 심각해질 수 있다는 지적도 나온다.아직 전 세계 무역이 팬데믹 여파에서 회복하고 있는 상황에서 약간의 운송 지연도 무역에 영향을 줄 수 있기 때문이다.화물 운임 서비스 업체 프레이토스 관계자는 "중국의 조치가 아직 화물 해상 운송에 큰 지장을 주는 것은 아니지만, 이 상황이 장기화할 경우 큰 영향을 미칠 가능성이 있다"고 지적했다.그러면서 그는 "지역분쟁 때문에 선박들이 대체 항로를 택하면 운항 일정이 복잡해지고, 운송에 소요되는 시간이 늘어나 추가 비용을 초래할 수 있다"고 말했다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.08.07.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>K벤처 투자 열풍도 꺾이나…토스·쏘카·컬리 등 줄줄이 IPO 연기 검토</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/586/0000042833?sid=101</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>스타트업 자금 조달 위해 정부의 자금 지원 절실줄곧 상승세를 이어오던 국내 벤처투자가 최근 감소세로 전환됐다. 금리 인상, 국제유가 급등, 인플레이션 등 세계경제 침체로 글로벌 벤처투자 시장이 위축되면서 국내 벤처투자 시장에도 영향을 미쳤다는 분석이 나온다. '벤처 혹한기'가 본격화되면서 스타트업의 자금 확보에도 빨간불이 켜졌다. 여기에 더해 정부가 모태펀드 축소 가능성까지 시사하면서 업계의 우려는 더욱 커지는 분위기다.최근 중소벤처기업부가 발표한 2022년 상반기 벤처투자 동향 자료에 따르면, 올 상반기 투자는 역대 상반기 중 최고치를 기록했다. 하지만 분기별 투자액은 전년보다 감소한 것으로 나타났다. 올 2분기 투자액은 1조8259억원으로, 지난해 같은 기간 대비 794억원(4.2%) 감소했다. 분기별 투자액 감소는 코로나19 대유행의 직격탄을 맞았던 2020년 2분기 이후 8분기(2년) 만의 일이다. 미국의 벤처투자 시장은 더 심각하다. 데이터 분석기업 피치북에 따르면 올 2분기 미국 스타트업 투자액은 623억 달러(약 81조4500억원)로 전년 동기 대비 23% 줄어들었다. 이는 2019년 이후 가장 큰 감소율이다.2021년 11월17일 서울 중구 동대문디자인플라자에서 열린 스타트업 축제 ‘컴업 2021’ 개막식에서 권칠승 중소벤처기업부 장관이 환영사를 하고 있다.ⓒ연합뉴스'벤처 혹한기' 본격화 우려업계에선 그간 국내 시장에 불었던 스타트업 투자 열풍은 가라앉고, 이제 본격적인 한파가 몰아칠 것이란 우려가 나온다. 특히 자금 규모가 큰 후기 단계 투자가 크게 위축될 것이란 분석이다. 유정희 벤처기업협회 혁신정책본부장은 "대외적인 상황 때문에 시장 자체가 좋지 않다. 국내 업체들도 그 영향을 받고 있다"면서 "초기 스타트업들에 들어가는 투자금 규모는 비교적 작아 큰 변화는 없을 테지만, 시리즈B 이상 후속 투자를 받는 기업들에는 어려운 상황이 될 것"이라고 전망했다.실제로 토스와 쏘카, 컬리 등 연내 기업공개(IPO)를 추진하던 국내 대표 유니콘 기업들도 잇달아 일정 연기를 검토하고 있다. 투자심리가 얼어붙으면서 고공행진하던 기업가치도 위축되면서 최근 크게 떨어졌다. 올해 대규모 투자를 유치한 스타트업도 직방, 토스 등 소수에 불과했다. 전 세계 정부가 출구전략을 추진하면서 시장에 자금이 넘쳐나던 코로나19 팬데믹 때와는 상황이 많이 변했다. 무엇보다 '벤처 혹한기'가 계속될 경우 스타트업 성장에 꼭 필요한 '스케일업'이 어려워질 수밖에 없는 상황이다.결국 벤처캐피털(VC)업계는 성장 가능성보다 자금 회수에 초점을 맞춰 투자를 진행하는 분위기다. 그동안 스타트업 기업 가치가 과대평가되면서 VC의 자금 회수 부담이 커졌기 때문이다. 시장이 어려워진 만큼 스타트업의 옥석 가리기가 본격화됐다는 관측이 나온다. 국내 한 VC 심사역은 "최근 시장 침체로 VC 기업들도 현금 흐름이 어려워져, 이제 성장 가능성만 보고 투자할 순 없는 상황"이라며 "성장 가능성으로 대규모 투자를 받았던 플랫폼 기업들은 이제 스스로 수익성을 입증하고, 자금을 조달해야 한다"고 조언했다.다만 글로벌 VC는 상황이 조금 다르다. 국내 업계보다 시장 영향을 비교적 적게 받는 만큼, 앞으로도 성장성과 매력도가 주요 투자 기준이 될 것이란 설명이다. 한 글로벌 VC 관계자는 "국내 VC업계와는 달리, 글로벌 시장은 당장 힘들어도 향후 성장 가능성이 높은 '저평가 우량주' 스타트업들을 계속 발굴해 키우는 데 투자의 방점이 찍힐 것"이라며 "글로벌 VC는 자금이 풍부한 만큼, 시장의 변동성 영향을 크게 받지 않아 국내 VC들이 고민하는 기업들에 대한 투자에도 도전하고 있다"고 설명했다.한덕수 국무총리가 6월17일 서울 강남구 삼성동 코엑스에서 열린 벤처·스타트업의 투자애로·규제개선 현장간담회에 참석해 발언하고 있다.ⓒ연합뉴스"모태펀드 확대해 스타트업 지원할 때율"벤처 혹한기가 본격화됐지만, 정부는 벤처투자의 마중물인 모태펀드를 오히려 감축하겠다는 기조다. 모태펀드 의존도를 낮추고 민간 투자 활성화를 유도하겠다는 방침에서다. 이영 중기부 장관은 최근 중기부 첫 대국민 업무보고회에서 "고물가·고금리·고환 등 '3고(高)'로 투자 위축이 우려되지만, 언제까지 투자시장을 정부 주도로 견인할 수는 없다"며 "지금이 민간 투자 생태계의 전환 적기"라고 강조했다. 앞서 조주현 중기부 차관도 모태펀드에 정부 투입 비중이 낮아질 수 있다며 감축 가능성을 시사했다.이에 업계의 우려는 커지는 분위기다. 정부 지원이 확대돼야 하는 상황에서 유동성의 근간인 모태펀드까지 축소되면, 스타트업들의 자금 조달이 더 힘들어질 수 있기 때문이다. 국내 한 스타트업 대표는 "쓰고 없어지는 여타 예산과 달리, 모태펀드는 기업을 육성해 다시 회수되고 재투자되는 자금"이라며 "모태펀드 감축은 엎친 데 겹친 격으로 스타트업들을 어렵게 할 것"이라고 지적했다.모태펀드 성과는 매년 꾸준한 성장세를 보이고 있다. 한국벤처투자에 따르면 268개 모태 출자펀드가 투자한 올 1분기에는 총 4526억원을 회수해, 투자원금 대비 2.3배의 회수 수익배수를 기록했다. 최성진 코리아스타트업포럼 대표는 "그간 꾸준히 늘려온 모태펀드의 수익률도 나쁘지 않은 만큼, 현재 스타트업 생태계에 발맞춰 모태펀드 규모를 더 키워 야 한다"며 "일반인들도 스타트업 투자를 손쉽게 할 수 있도록 제도 개선이 필요하다"고 당부했다. 유정희 벤처기업협회 혁신정책본부장도 "모태펀드는 민간 자금과 함께 결성된 펀드"라며 "오히려 모태펀드 확대가 기업들의 스케일업으로 이어져 더 많은 이익으로 돌아올 수 있는 선순환 구조를 만들어야 한다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.08.09.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>씨티銀 대환 손잡은 토스·KB 웃었다</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002026227?sid=101</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>제휴 맺은 두 은행 80% 이상 차지하나·우리銀, 비제휴 은행 중 선전은행권 고객 유치 경쟁을 일으키고 있는 씨티은행의 개인신용대출 대환 시행이 약 한 달 가량 지났다. 제휴은행인 토스뱅크와 KB국민은행이 80% 이상 점유율을 기록하며 승기를 잡은 가운데 타 은행권도 금리 우대를 내세우며 뒤를 바짝 쫓고 있다.9일 헤럴드경제가 각 은행 등을 통해 씨티은행 신용대출 대환 현황을 취합한 결과 타 금융사로 대환이 이뤄진 금액은 약 8500억원 규모다. 씨티은행의 신용대출 잔액이 지난 3월말 기준 약 8조원대 초반임을 감안하면 10% 안팎의 자금이 한 달새 이동한 것으로 해석된다.앞서 소매금융 철수를 결정한 씨티은행은 지난달 1일부터 고객들의 대환을 시작했다. 금융당국 또한 신용대출 고객이 다른 은행으로 대환대출을 희망하는 경우 대출금 증액이 없는 경우에는 가계대출 규제(차주별 DSR, 가계대출 총량관리, 신용대출 한도규제)의 예외를 인정하는 등 지원책을 꺼냈다.한 달간 성과를 보면 제휴 은행들이 단연 돋보였다. 씨티은행과 제휴를 맺은 KB국민은행과 토스뱅크는 ▷대환 시 발생하는 인지세 전액 부담 ▷중도상환수수료 전액 면제 혜택을 적용하며 대환대출 시 추가적으로 필요한 비용을 없앴다. 또 ‘원스톱 비대면’ 서비스로 따로 지점을 방문하지 않아도 돼 자연스럽게 많은 고객들이 제휴은행을 선택한 것으로 풀이된다.사별로 보면 토스뱅크가 약 4000억원대로 가장 높은 비중을 기록했다. 당초 두 제휴은행에 5대 5 비중으로 옮겨간 것으로 알려졌으나, KB국민은행보다 1000억원 이상 격차를 벌렸다. 토스뱅크의 경우 일괄 0.3%포인트(p) 금리 할인 혜택을 지원하면서 신규 고객 유치에 성공했다는 평가다. KB국민은행 또한 일부 지점에 씨티은행 우량 차주 확보를 해줄 것을 요청하는 문서 등을 보내며 고객 유치를 독려하는 중이다. KB국민은행과 토스뱅크의 합산 대환 규모는 약 7000억원대로 전체 대환점유율의 80% 이상을 차지하고 있다.양사 관계자는 “타사에서 대출을 받으려면 씨티은행 대출이라는걸 고객이 직접 증명을 해야한다”며 “씨티은행 고객군을 보면 전문직, 젊은층이 많다보니까 비대면 간편 대환을 선호한 것으로 보고 있다”고 말했다.비제휴 은행 중에서는 하나은행과 우리은행이 대다수를 차지하며 선두권을 형성하고 있다. 하나은행은 씨티은행 신용대출 고객이라면 누구나 최대 2.1%p의 기본 우대금리를 적용받고 추가 거래를 약속할 경우에는 0.9%p를 누릴 수있는 상품을 출시했다. 우리은행의 경우 최대 1.5%p 우대금리를 제공하며 최저 연 3% 초반 수준으로 대출 이용이 가능하다. 특히 우리은행 대출을 미보유한 고객이 대환을 신청할 경우 1%p를 우대해준다.시스템 장애를 빚었던 신한은행과 비교적 뒤늦게 씨티은행 대출 경쟁에 뛰어든 NH농협은행은 비중이 미미한 것으로 알려졌다. DGB대구은행은 지방은행 중 처음으로 최근 최대 2.0%p를 우대해주는 대환 상품을 내놓는 등 경쟁이 치열해지는 모양새다.다만 은행권의 이같은 경쟁에도 씨티은행 고객들의 대환은 서서히 이동할 것이라는게 중론이다. 금리 인상기인만큼 대환에 따른 효과가 크지도 않을 뿐더러, 비제휴 은행에 대해서는 대면 방문 등 번거로움이 크기 때문이다. 향후 금리 인하 기조가 시작되거나 시중은행들의 경쟁이 더 치열해질 경우 추가 혜택도 노릴 수 있다. 한 은행권 관계자는 “(씨티은행) 대환 추이를 유심히 살피고 있다”며 “아직 이동 규모가 많이 남은 만큼 은행들끼리 눈치싸움이 계속될 것으로 예상한다”고 말했다. 서정은·박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.08.10.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>스타트업은 벌써 한파</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005130641?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>7월 투자액 72% 급감300억이상 '빅딜' 3건 불과국내 스타트업 투자시장이 혹한기에 들어섰다. 미국 기준금리 인상과 우크라이나 사태 장기화에 따른 경기 불확실성 확대가 투자시장을 얼어붙게하는 주요 원인이다.10일 스타트업얼라이언스에 따르면 7월 국내 스타트업 투자액은 8368억원으로 전년 동기(3조659억원) 대비 72.7% 급감했다. 전월 투자액(1조3691억원)에 비해서도 38.8% 줄었다. 올해 월별 투자액과 비교하면 지난 5월(8238억원) 이후 두번째로 낮은 금액이다. 7월 전체 투자액 중 토스 운영사인 비바리퍼블리카가 유치한 규모가 36.4%(3000억원)에 달한다는 점에서 실제 시장에서 느끼는 투자 감소 현상은 더욱 클 것으로 예상된다.스타트업 투자시장이 활황이던 지난해부터 올해 1분기까지는 잘 알려지지 않았던 스타트업도 수백억원 규모의 대형 자금을 유치했다는 소식을 쉽지 않게 볼 수 있었다. 하지만 이런 분위기는 이제 눈에띄게 줄었다. 실제 지난달 300억원 이상의 투자 ‘빅딜’은 단 3건에 불과했다. 지난해 7월엔 12건, 지난달엔 15건이었다.벤처캐피탈(VC)업계 관계자는 "과거엔 스타트업 투자가 플랫폼 사업 중심으로 편중된 경향이 있었지만 최근엔 확실한 기술력에 실적까지 받쳐주는 곳 아니면 투자받기 어렵다"면서 "이제 스타트업에 데스밸리(Death Valley·창업 3~5년차)는 더욱 가혹해졌다"고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.08.01.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>증권사, 맡긴돈 이자 ‘0%대’ 지급...고객 돈으로 ‘돈벌이’</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0002022958?sid=101</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>신용융자 이자는 10% 육박기준금리 인상 반영 안돼증권사들이 금리 상승에도 투자자들이 맡긴 돈에는 0%대 이자를 지급하고 있다. 반면 신용융자거래 이자율은 10%에 육박하는 것으로 나타났다.1일 금융투자업계에 따르면 메리츠증권은 이날부터 100만원 이상 예탁금에 대해 이용료율을 기존 0.2%에서 0.3%로 인상했다.지난달 키움증권이 0.2%에서 0.25%로 올린 것을 비롯해 하나증권(0.15%→0.25%), 삼성증권(0.25%→0.4%) 등도 예탁금 이용료율을 올렸다.하지만 상향 폭은 0.1%포인트 안팎에 그쳐 여전히 이용료율은 0%대 초반에 그치고 있다. 국내 증권사 중 예탁금 이용료율이 가장 높은 곳은 지난 5월 인상한 토스증권(1%)이다. 이어 6월 인상한 NH투자증권(0.5%), KB증권(0.46%) 순이다.예탁금은 투자자들이 증권사 계좌에 넣어둔 투자 대기성 자금으로, 증권사들은 이를 한국증권금융에 예치하고 받은 수익금에서 인건비 등을 공제한 뒤 투자자에게 이용료를 지급한다.한국증권금융의 지난 6월 기준 신탁 운용 수익률은 1.791%로, 5월(1.621%) 대비 0.17%포인트 늘었다.예탁금 이용료율과 달리 신용융자거래 이자율은 10%에 육박한다.유안타증권은 지난달 신용융자거래 이자율을 올리면서 최고 9.9%에 달한다. DB금융투자(9.7%), 하이투자증권(9.6%), 한양증권·키움증권·SK증권·신한금융투자(9.5%) 등도 최대 금리가 9%대 중후반을 넘었다.삼성증권·유진투자증권(9.3%), 이베스트투자증권(9.2%), 한국투자증권·교보증권·KB증권·다올투자증권(9.0%) 등도 최대 9% 넘는 이자율을 부과 중이다.다수 증권사가 지난달 한국은행의 사상 첫 ‘빅 스텝’(한 번에 기준금리 0.5%포인트 인상) 이후 추가 인상 여부를 검토 중이어서 신용융자거래 이자율은 조만간 10% 넘을 것으로 관측된다. 김우영 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.08.06.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>통신사업 두드리는 금융사들…非금융데이터 시너지 효과 기대</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005128795?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>국내 주요 금융사들이 잇달아 알뜰폰 사업에 뛰어들고 있어 관심이 집중되고 있다. 금융사의 새 먹거리로 '데이터'가 떠오르고 있는 가운데, 자체 보유한 방대한 금융데이터와 ICT 분야의 비금융 데이터 간의 시너지 효과를 염두에 두고 있는 것이란 해석이 나온다.   6일 금융권에 따르면 종합금융 플랫폼 토스를 운영하는 바바리퍼블리카는 지난달 가상이동통신망사업자(MVNO)인 머천드코리아 지분 100%를 100억원대에 인수, 알뜰폰 사업에 본격 진출했다. 금융사가 직접 통신사업을 운영하는 것은 KB국민은행에 이어 이번이 두 번째다.  머천드코리아는 1998년 설립된 이후 20년 넘게 통신사업을 영위 해 온 업체로, 한국알뜰폰통신사업자협회의 감사직을 맡은 회원사기도 하다. LG유플러스의 1호 알뜰폰 사업자로 선정된 바 있으며 현재는 통신 3사와 모두 계약을 맺고 있는 상태다. 이번 인수에 따라 토스는 자사 애플리케이션을 통한 알뜰폰 가입 서비스를 제공할 예정이다. 요금제 탐색부터 개통까지 전 과정을 개선하고, 통신비 절감기회도 제공한다는 게 목표다.  토스에 앞서 금융권 최초로 혁신금융서비스 지정을 통해 알뜰폰 사업(KB국민은행 리브엠)을 진행 중인 KB국민은행은 가입고객이 30만명을 넘어서는 등 해당 시장의 강자로 자리매김 하고 있다. 최근엔 제휴 통신망을 LG유플러스에 이어 KT로도 확장하며 보폭을 넓히고 있다.  직접 통신사업에 뛰어들진 않더라도 통신사와의 협업으로 영역을 넓히는 금융사들도 있다. 신한은행은 KT와 협업, 신한 쏠(SOL) 앱에서 KT M모바일, 스카이라이프, 스테이지파이브, 세종텔레콤 등과 제휴요금제 12종을 판매한다. 하나은행 역시 SK텔링크와 손잡고 알뜰폰 요금제를 출시한 상태다. 이와 별도로 하나금융그룹은 최근 하나카드와 SK텔레콤 자회사 SK스퀘어의 지분을 교환하는 등 협력범위도 넓히고 있다.    금융사들이 통신사업에 잇달아 진출하는 이유론 비금융데이터가 꼽힌다. 일례로 통신사업을 통해 확보된 통신비 납부내역, 휴대전화 이용정보 등은 최근 각 금융사가 추진하는 인증, 신용평가 서비스 고도화에 활용 될 수 있다.  특히나 자체 보유한 금융데이터로 포괄되지 않는 소비자들이 있는 만큼 시너지 효과를 낼 수 있다는 평가다. 금융사 한 관계자는 "아무래도 금융사가 보유한 데이터가 질적 측면에서 훨씬 다이내믹 하지만, 금융데이터만으로 포괄되지 않는 씬파일러 등도 있는 것도 사실"이라며 "앞으로 금융사-통신사간 협업사례는 더욱 늘어날 것"이라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>간편결제 이용자 62%는 ‘온라인 물품 구매’…10회 중 5.21회 이용</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002600969?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>소비자원, 유경험자 1500명 대상 설문조사 결과10회 중 5.21회…실물카드보다 사용 빈도 높아상위 5개 사업자 중 종합 만족도 1위 ‘삼성페이’자료: 한국소비자원비대면 소비가 일상화하고, 쉽고 빠른 결제서비스를 찾는 수요가 증가하면서 간편결제 시장이 빠르게 커지고 있다. 간편결제를 이용한 적이 있는 소비자의 약 62%는 ‘온라인 물품 구매 결제’를 주로 이용했으며, 10회 결제 중 5.21회 꼴로 간편결제를 이용하는 것으로 조사됐다. 한국소비자원은 지난 5월10~17일 간편결제 서비스 상위 5개 업체(네이버페이·삼성페이·카카오페이·토스페이·페이코)를 이용한 경험이 있는 소비자 1500명을 대상으로 이용행태 온라인 설문조사를 했더니 이같은 결과가 나타났다고 3일 밝혔다. 소비자 이용실태 조사 결과를 자세히 보면, 응답자 61.7%가 주로 이용하는 서비스(복수응답)로 ‘온라인 물품구매 결제’를 꼽았고, ‘오프라인 물품구매 결제’가 20.3%, ‘송금’이 11.1%로 뒤를 이었다. 간편결제 주요 사용처(복수응답)로는 69.2%가 온라인 쇼핑몰, 12.5%가 편의점, 6.6%가 대형마트, 5.5%가 중소형마트·슈퍼마켓를 들었다. 간편결제를 이용하는 소비자들은 10회 결제 중 5.21회 꼴로 간편결제를 이용하는 것으로 조사됐다. 실물 신용·체크카드 이용 빈도 3.54회 꼴보다 높다. 실물 지급수단이 없어도 결제가 가능한 간편결제 방식을 더 선호하는 모습이다. 자료: 한국소비자원응답자 15.6%는 간편결제 이용 과정에서 피해를 경험했다고 밝혔다. 주요 피해 유형은 ‘결제 실패’가 51.7%(121명)로 가장 많았고, ‘환불·결제취소 지연’이 31.2%(73명), ‘할인·포인트 적립 미적용 및 누락’이 17.1%(40명) 등의 순이었다. 한편, 조사대상 5개 간편결제 서비스의 종합만족도는 평균 3.58점이었고, 사업자별로는 삼성페이(4.06점) 이용자들의 만족도가 가장 높았다. 이어 네이버페이(3.89점), 토스페이(3.86점), 카카오페이(3.78점), 페이코(3.67점) 순이었다. 서비스품질 요인별 만족도는 시스템과 서비스의 일관성을 평가하는 신뢰성이 4.05점으로 가장 높았고, 고객 문의와 문제 해결에 대한 적절하고 신속한 대응을 평가하는 대응성이 3.59점으로 가장 낮았다. 또 서비스상품 요인별 만족도는 ‘결제 편의성·정확성’이 4.29점으로 가장 높았고, ‘혜택·부가서비스’는 3.85점으로 가장 낮아, 할인·포인트 등의 제공과 결제서비스 외 송금·입출금 등 부가서비스 개선이 필요한 것으로 나타났다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.08.12.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>"23만원 캐시백만 받고 카드 갈아타요"…카드사 이벤트 '딜레마'</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004782268?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>왼쪽부터 토스, 네이버페이, 카카오페이의 '신규 카드발급 혜택' 페이지/사진=토스, 네이버페이, 카카오페이 화면 캡쳐금융 플랫폼을 통한 신규 카드 가입자들이 늘고 있는 가운데, 현금성 혜택만 챙기고 메뚜기처럼 카드사를 갈아타는 이용자도 덩달아 증가하면서 카드사들이 딜레마에 빠졌다. 신규 고객 수가 증가하는 효과는 거두고 있지만, 과도한 마케팅 비용으로 수익성에는 악영향을 줄 수 있어서다.11일 금융권에 따르면 토스와 네이버, 카카오페이 등 주요 금융 플랫폼에서 신용카드를 새로 발급하면 7만~23만5000원의 현금 혹은 현금성 포인트를 캐시백해준다. 새로 발급받은 신용카드를 일정 금액 이상 사용하는 등 조건을 충족하면 현금이나 현금처럼 쓸 수 있는 포인트로 돌려주는 식이다.예컨대 삼성카드는 네이버페이 응모 후 '더 원(The 1) 프리미엄' 카드로 일정 기간 내 네이버페이 간편결제를 합산 20만원 이상 쓰면 네이버페이포인트 20만원을 적립해준다. 여기에 아파트 관리비, 이동통신요금, 도시가스요금, 전기요금, 4대보험료 등을 정기결제 신청하면 최대 3만5000 네이버페이 포인트를 쌓아준다. 현대카드도 '더 핑크'(The Pink)와 '더 그린'(The Green Edition2) 카드를 다음달 말까지 30만원 이상 결제하면 20만 네이버페이 포인트로 돌려준다. 온라인 페이앱에 카드를 등록하거나 생활비 자동이체 서비스에 카드를 등록하면 추가로 최대 3만5000 네이버페이 포인트를 지급한다. 다른 카드사들 모두 이런 식의 카드 발급 이벤트를 진행 중이다.파격적인 캐시백 혜택에 플랫폼을 통한 카드 신규 가입자는 꾸준히 증가하고 있다. 한 카드사 관계자는 "신규 고객 중 플랫폼으로 유입된 고객 증가세가 가파르다"며 "특히 코로나19(COVID-19)로 비대면 모집이 활성화하면서 주요 금융 플랫폼이 고객 모집의 주요 창구가 됐다"고 말했다.카드사들이 결제시장 경쟁자로 떠오른 금융 플랫폼 기업들과 제휴를 맺어가면서까지 '현금성 이벤트'를 펼치고 있는 건 포화 상태에 이른 카드 시장에서 새 고객을 유치하기 위한 일종의 '고육지책'으로 분석된다. 고비용 구조인 카드모집인을 통하는 것보다 온라인 채널을 경유한 카드 모집 비용이 통상 3분의 1가량 적다. 그러나 최근 재테크에 밝은 직장인과 주부 사이에서 이러한 이벤트를 활용해 수시로 카드사를 갈아타는 이른바 '풍차 돌리기'가 유행처럼 번지면서 카드사들이 딜레마에 빠졌다. 카드사들은 대부분 직전 6개월에서 1년 동안 자사 신용카드 거래 이력이 없는 고객을 대상으로 이벤트를 펼친다. 이에 '체리피커'들은 자신의 카드 발급 일자 등을 엑셀 등으로 정리했다가 혜택을 다시 받을 수 있는 시기가 되면 다시 플랫폼을 통해 새로 카드를 발급하는 방법 등을 재테크 카페에 공유하고 있다.카드사들은 일단 관망하는 분위기다. '고객 수=경쟁력'인 카드사 입장에선 코로나19로 위축됐던 소비 심리가 회복되고 있는 현 상황에서 고객 유치를 위한 '출혈경쟁'에 홀로 빠져있을 수만은 없어서다. 비용이 들더라도 어떻게든 이용자 숫자부터 늘려야 한다는 전략적 판단을 내린 것이다.다만 단기적으로는 신규 고객이 늘더라도 장기적으로는 비용 부담이 커질 수밖에 없는 영업전략인 까닭에 업계가 함께 대응책을 마련해야 한다는 의견도 나온다. 한 카드사 고위 관계자는 "업계가 당장 가시적인 효과를 볼 수 있는 고객 유치에만 치중하다 보니 체리피커 증가를 부추기는 문제가 발생하고 있다"며 "단순 고객 수보다는 충성 고객들의 카드 이용액을 늘릴 수 있는 효과적인 영업 전략이 무엇인지에 대한 업계의 고민이 필요하다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.08.09.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>마트에 카드모집인 사라졌다… 5년새 절반 뚝</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002748269?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>전업 7개 카드사 8145명 감축온라인가입 늘자 설 자리 잃어핀테크 플랫폼·PLCC로 흡수한때 신용카드사의 성장세를 이끈 주역으로 여겨졌던 신용카드 모집인(카드모집인) 수가 최근 5년 새 절반으로 급감했다. 고비용으로 수익성 악화를 우려한 카드사들이 감원에 나서고 있다는 분석이 나온다. 비대면 카드 발급 활성화도 카드모집인들이 설 자리를 잃는 이유 중 하나다. 9일 카드업계에 따르면 최근 카드모집인이 급감하면서 8000명선 붕괴를 앞두고 있다. 전업 7개 카드사(신한·국민·삼성·현대·우리·하나·롯데)의 신용카드 모집인 수는 2017년 1만6658명에서 지난해 8145명으로 51.1% 감소했다. 올 상반기에는 이보다 더 줄어든 8075명을 기록했다. 이같은 감소세는 영업채널이 다양해진 카드사들이 상대적으로 고비용 구조인 카드모집인에게서 힘을 뺀 영향으로 분석된다. 카드모집인을 통한 카드 발급은 온라인과 비교해 비용이 더 든다. 상품별로, 카드사별로 다르지만 카드를 한 장 발급하면 카드모집인들은 10만원대 발급·이용 수당을 받는다. 반면 이용자가 온라인을 통해 발급을 신청하면 카드사는 통상 1년치 연회비인 3만원을 지원한다. 모집 비용이 3분의 1로 줄어들면서도 효율이 높은 온라인 채널에 집중할 수밖에 없다는 게 업계 설명이다. 최근 주요 모집 경로로는 토스 등 핀테크 플랫폼과 PLCC(상업자표시신용카드) 등이 부상한 상태다. 카드사가 많은 비용을 들이지 않고도 제휴사 회원층을 흡수할 수 있다는 장점에서다. 신규 카드 이용자 성향도 달라지면서 카드모집인의 입지는 더 약화되고 있다. MZ세대들은 카드사 홈페이지, 앱(애플리케이션) 등을 통해 카드를 비교하고 소비생활에 적합한 상품을 스스로 고른다. 간편결제 활성화와 카드사들의 디지털 금융 강화가 맞물려 등장한 디지털 카드(실물이 없는 신용카드)는 편의성이 높아 최근 발급이 늘고 있다. 디지털 카드는 온라인으로 신청 후 신용도 심사만 거치면 5~10분만에 발급이 끝난다. 카드 모집인에게 발급을 신청하고 심사를 거쳐 실물 카드를 손에 쥐기까지 3~5일이 걸리던 과거와 비교하면 절차가 간편하고 속도 또한 빨라진 셈이다. 더욱이 2020년 초부터 이어진 코로나19에 대면 영업은 녹록치 않아졌다. 무엇보다 카드사 주 수입원이었던 결제 수수료 수익이 줄고 있어 카드모집인과 같은 고비용 영업조직을 이전처럼 운영할 수 없다는 지적이다. 한 카드업계 관계자는 "가맹점 수수료가 점점 낮아지면서 카드사들이 고비용 채널인 카드모집인을 줄이고 온라인, 모바일 등 디지털 채널로 영업 방향을 전환한 지 오래"라고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.08.07.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>[스타트업 돋보기]킥보드 업체 디어는 왜 '미들마일'에 관심 가질까</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000040131?sid=105</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>요즘 스타트업 ‘비즈니스 모델’을 살펴봅니다.디어 이용자가 전동 킥보드를 활용하는 모습. (사진=디어)모빌리티 솔루션 업체 '디어'가 시리즈B 투자를 유치했다고 지난 3일 밝혔습니다. 디어는 이번에 확보한 투자금으로 신사업을 추진할 예정인데요. '미들마일(중간물류시장)' 공략을 예고했습니다.디어는 2019년 4월 '전동 킥보드 공유 서비스' 출시를 시작으로 모빌리티 사업을 시작했습니다. 디어는 킥보드 사업에 힘입어 빠르게 성장 중입니다. 2020년 상반기까지 6개 지역에서만 운영하던 서비스는 현재 120개 지역으로 늘었습니다. 누적 가입자 수도 100만명을 돌파했습니다. 디어에 따르면 지난해 매출도 200억원을 넘어섰습니다. 공개된 자료는 없지만, 디어 관계자는 지난해를 기점으로 '흑자 전환'에 성공했다고 덧붙였습니다. 디어 서비스형 소프트웨어. (사진=디어)디어는 빠른 성장이 가능했던 이유로 '서비스형 소프트웨어(SaaS) 프로덕트'를 꼽습니다. 디어는 "가맹사업 솔루션을 고도화해 SaaS 프로덕트를 구축했고, 독특한 포지셔닝으로 자리잡았다"고 설명합니다. SaaS 프로덕트는 '운영센터 프로그램'이라고 생각하면 됩니다. 정산, 가격 조정 등 단순 관리부터 이용패턴, 수요 분석까지 다양한 데이터를 가맹 사업자에게 제공합니다.  문제는 킥보드 공유 사업이 최근 규제를 마주하며 얼어붙고 있다는 점입니다. 지난해 5월 개정된 도로교통법 개정안에 따르면, 공유킥보드 이용자는 면허를 소지하고 헬멧을 착용해야 합니다. 자전거 도로가 없을 땐 차도로 운행해야 하고요. 전동 킥보드 이용자가 줄고있는 이유입니다. 퍼스널 모빌리티 산업협의회(SPMA)는 도로교통법 개정안 시행 이후 업체별로 대략 50~70%가 줄었다고 분석합니다.디어도 새로운 먹거리를 찾고 있습니다. 시리즈B 투자 유치로 신사업 진출을 위한 자금도 확보했습니다. 파인만자산운용이 이번 투자를 이끌었다고 알려졌습니다. 디어가 지금까지 유치한 투자액은 120억원을 넘어선 것으로 알려졌습니다.디어가 점찍은 신사업은 '미들마일(중간물류시장)' 입니다. 미들마일은 중간물류 과정을 의미합니다. 소비자가 물류센터에서 제품, 상품을 받는 과정을 '라스트마일'이라고 표현하죠. 미들마일은 그 전에 진행되는 과정입니다. 원자재 공장에서 물류센터로 배송하는 과정을 떠올리면 편합니다. 디어는 미들마일 시장을 두고 "토스 이전의 금융, 배달의민족 이전의 배달, 카카오T 이전의 택시와 닮았다. B2B 물류 시장은 현재 이런 모습"이라고 설명했습니다. 디어는 킥보드 사업과 마찬가지로 서비스형 소프트웨어(SaaS)를 활용해 이 시장에서 존재감을 키워나갈 계획입니다. 디어 관계자는 "화주와 차주를 중개하는 주선사 업무 대부분은 아직도 전화와 수작업 의존도가 높다. 디어는 파편화된 화물 정보를 수집하고 정리해 비효율을 해결하겠다"고 밝혔습니다. 주선사 업무 설명. (사진=디어)디어는 올해 말 주선사 업무 자동화 프로그램(RPA) '캐리' 서비스를 출시할 예정입니다. 디어 관계자는 "올해 9월부터 거래액 200억원 규모 베타 테스트를 시작, 완성도를 높여갈 계획"이라고 말했습니다. 디어는 2023년까지 시장 점유율 70%를 목표로 하고 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.08.01.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>신용융자 이자는 쑥쑥 올리면서…증권사, 예탁금 이자는 '찔끔' 인상</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000296990?sid=101</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>증권사들이 금리 상승에 신용융자거래 이자율을 속속 올리면서도 예탁금 이용료율(이자) 인상에는 미온적으로 대처하고 있는 것으로 나타났습니다.오늘(1일) 금융투자업계에 따르면, 메리츠증권은 이날부터 100만원 이상 예탁금에 대해 이용료율을 기존 0.2%에서 0.3%로 인상했습니다.앞서 지난달에는 키움증권(0.2%→0.25%), 하나증권(0.15%→0.25%), 삼성증권(0.25%→0.4%) 등이 예탁금 이용료율을 올렸습니다. 하지만 상향 폭이 0.1%포인트 내외에 그쳐 올린 이용료율도 0%대 초반에 불과합니다.국내 증권사 중 예탁금 이용료율이 가장 높은 곳은 지난 5월 인상한 토스증권(1%)이고 이어 6월 인상한 NH투자증권(0.5%), KB증권(0.46%) 순입니다. 예탁금은 투자자들이 주식매매를 위해 증권사 계좌에 맡긴 대기성 자금입니다.증권사들은 예탁금을 한국증권금융에 예치하고 받은 수익금에서 인건비 등을 공제한 뒤 투자자에게 이용료를 지급합니다.한국증권금융의 지난 6월 기준 신탁 운용 수익률은 1.791%로, 5월(1.621%) 대비 0.17%포인트 늘었습니다.낮은 예탁금 이용료율과 대조적으로 증권사들은 신용융자거래 이자율을 속속 올리면서 빚투 이자율은 10%에 육박하고 있습니다.지난달 신용융자거래 이자율을 올린 유안타증권(최고 9.9%), DB금융투자(9.7%), 하이투자증권(9.6%), 한양증권·키움증권·SK증권·신한금융투자(9.5%)는 최대 금리가 9%대 중후반을 넘었습니다. 삼성증권·유진투자증권(9.3%), 이베스트투자증권(9.2%), 한국투자증권·교보증권·KB증권·다올투자증권(9.0%) 등 증권사들도 최대 9% 넘는 이자율을 부과하고 있습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.08.04.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>[뉴스줌인]데이터 합종연횡 시대, 통신 주도권 잡고 신시장 노림수</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0003034914?sid=101</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>신파일러·개인사업자 겨냥 금융-빅·핀테크 연합 활발요금납부·위치 정보 등 가공…판매 가능한 신뢰도 확보 관건금융당국, 강력한 비금융CB 사업자 확보…마이데이터 차별화 숙제ⓒ게티이미지뱅크이동통신 3사가 비금융CB(전문개인신용평가업) 합작법인 설립에 최종 합의한 것은 최근 금융·비금융 데이터 간 합종연횡 시도가 활발해지면서 대표 비금융 분야인 통신 데이터 주도권 확보의 필요성이 커진 영향으로 풀이된다. 금융사뿐만 아니라 빅테크·핀테크까지 자사 서비스에 특화한 데이터를 기반으로 금융, 통신, 유통 등 데이터를 활용한 신용평가 모형을 자체 구축하며 차별화를 시도하고 있다. 금융 다음으로 활용도가 높은 통신 데이터를 보유한 이통사 입장에서는 통신 데이터에 대한 주도권을 확보하고 이를 활용한 신규 사업 진출이 절박해졌다.이통 3사는 2020년 비금융CB 사업을 전문적으로 영위할 합작법인 설립을 추진했으나 사실상 와해되면서 이후 각자 추진으로 방향을 선회했다. 비금융CB의 경우 신용정보법상 개인신용정보나 신용정보원이 집중 관리·활용하는 개인신용정보를 제외한 분야만 다뤄야 하기 때문에 기존 CB 사업자 대비 평가모형 신뢰도를 높이는 게 쉽지 않다는 것이 업계의 중론이다. 자체 구축한 비금융CB 모형을 외부 판매가 가능한 수준으로 신뢰도를 갖추는 게 핵심이다.그 사이 시장 분위기가 급변했다. 금융 이력이 부족한 신파일러와 개인사업자·소상공인에 특화한 신용평가모형 확보가 금융권과 빅테크·핀테크 업권에서 새로운 대안으로 떠올랐다. 카카오뱅크의 경우 개인사업자CB 사업자를 획득한 한국평가정보(KCS)의 2대 주주로 참여했고, 토스뱅크는 자체 개발한 토스신용평가 모형을 기반으로 중금리대출에 속도를 내고 있다. 시중은행도 다양한 대안신용평가 모형을 자체적으로 마련하면서 신파일러 포섭에 나섰다.통신 데이터는 금융 데이터 다음으로 가장 신뢰도 높고 활용하기 좋은 데이터로 꼽힌다. 통신 가입자의 이용요금 납부 내역, 요금제 내역, 위치정보 등을 가공하면 새로운 서비스 모델과 신사업에 이용할 수 있다.KB국민은행이 직접 알뜰폰 사업에 뛰어든 또 다른 배경도 양질의 통신 데이터를 직접 확보하기 위한 차원이다. 최근 토스도 알뜰폰 사업자를 인수하고 이 시장에 뛰어들었다. 마이데이터 환경에서 통신 정보는 필수 전송정보에 속하지만 직접 통신 서비스를 제공해서 차별화하겠다는 전략이 깔렸다.이통3사가 각자 노선이 아닌 합작법인을 선택한 것도 가장 강력한 통신 데이터를 갖추기 위한 선택으로 풀이된다. 이통사가 각자 고객 데이터 기반으로 비금융CB 모형을 만들면 완성도가 떨어질 수밖에 없다. 3사 고객 기반을 모두 모은 빅데이터를 구축해야 데이터 신뢰도와 활용도를 극대화할 수 있다. 통신 빅데이터를 공통으로 활용하되 각사 고유의 전략으로 사업을 차별화할 수 있게 된다.이통 3사가 연합 형태로 비금융CB 시장에 뛰어들면서 금융 당국도 강력한 비금융CB 사업자를 확보할 수 있게 됐다. 현재 비금융CB 1호 사업자는 크레파스솔루션이다. 비금융CB 합작법인 설립에는 합의했지만 이를 서비스와 신규 사업에 어떻게 반영할지는 각사가 풀어야 할 숙제다. 이통 3사 모두 마이데이터 본허가 사업자에 도전한 만큼 고객 대상 종합자산관리, 금융상품 추천, 신용점수 관리 등 다양한 서비스를 제공할 수 있다. 다만 통신사만의 차별화한 마이데이터 서비스가 필요하다.업계 관계자는 “SKT와 하나금융그룹, 신한은행과 KT가 혈맹을 맺는 등 수준 높은 데이터를 보유한 금융사와 통신사 합종연횡이 이미 시작돼 다양한 형태 협업과 신규 사업 등장이 기대되고 있다”며 “비금융CB 합작법인 역시 금융사는 물론 빅테크·핀테크, 유통, 의료 등 다양한 분야에서 기회를 모색할 것으로 보인다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.08.07.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>학생들 범죄는 도를 넘는데…학교전담경찰관 매년 감소</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0006263213?sid=102</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>광주경찰청 조직 개편 등 4년간 5명 줄어…홀로 13개교 전담소년범 3년간 7000여명…교육당국·경찰·자치구 협업 절실한 여학생이 또래 무리에게 집단폭행을 당하는 영상이 온라인 커뮤니티를 중심으로 확산돼 경찰이 수사에 착수했다. 경찰은 가해 학생 4명을 특정해 출석 조사를 실시할 방침이다.사진은 해당 영상 캡처본. (온라인 커뮤니티 갈무리) 2022.8.1/뉴스1 ⓒ News1 이수민 기자(광주=뉴스1) 최성국 기자 = 학생들의 도를 넘는 범죄행위가 잇따라 불거지고 있는 가운데 청소년범죄 예방의 최일선에 있는 광주 학교전담경찰관(SPO)은 해마다 감소하고 있는 것으로 나타났다.청소년범죄는 점차 지능화되는 반면 예방 인력은 한계를 보이고 있어 교육당국과 경찰, 지자체의 적극적인 협업체계 구축이 절실하다는 지적이다.7일 광주경찰청에 따르면 광주에서는 2019년 2528명, 2020년 2636명, 지난해 1904명 등 최근 3년간 7068명의 19세 미만 소년범죄자가 학교폭력, 강도, 절도, 지능범죄 등을 저질렀다.지역 내 일선 학교에서 발생한 단순 학교폭력도 2018년 1305건에서 2019년 904건, 2020년 859건으로 줄다가 코로나19 대면수업 전환이 시작된 지난해 들어 1523건으로 급증했다. 올해 7월까지 발생한 학교폭력도 1092건에 달한다.특히 최근엔 학생들의 범죄행위가 도를 넘어서고 있어 사회에 충격을 주고 있다.광주 서부경찰서는 지난 27일 광주 서구 치평동의 한 건물 옥상에서 여중생 A양(14)을 집단폭행한 15세 여중생 4명을 불구속 입건해 조사하고 있다.당시 가해자들은 A양의 얼굴과 복부 등을 주먹으로 수차례 가격했다. 또 이들은 피해자의 신체 곳곳에 '담배빵'을 놓기도 한 것으로 알려졌다.또다른 학교에서는 중학생들이 '뒤를 봐주겠다'며 동급생에게 상납을 요구한 사실이 확인돼 경찰이 수사를 벌이고 있다.가해 학생들은 지난 4월부터 최근까지 3~4개월 동안 페이스북 메신저를 통해 '토스로 돈을 보내라'고 요구했다.이같은 청소년범죄나 117(학교 폭력신고)에 신고가 접수되면 학교전담경찰관이 직접 피해학생, 가해학생과 상담을 진행하고 학교에 사실을 알리거나 학교폭력 자치위원회 개최, 수사팀 의뢰 등으로 사건을 처리한다.학교전담경찰관은 학교폭력 등 청소년 범죄를 예방하기 위해 지난 2012년 전국에 도입된 제도다.신학기 학교폭력 집중관리기간 운영, 예방교육, 순찰활동, 위기청소년 관리, 가해자-피해자 화해 조정 등 회복적 경찰 활동 등 다양한 업무를 맡는다.광주에는 이날 기준 26명이 학교전담경찰관으로 근무하고 있다. 이들은 155개 초등학교, 91개 중학교, 68개 고등학교, 5개 특수학교, 22개 대안학교 등 총 341개교를 담당한다.이는 학교폭력전담관 1명이 13.1개교에서 발생하는 학교폭력과 학교폭력 예방을 책임져야 한다는 의미다.지난해 기준 전국 학교전담경찰관은 1020명으로 1인당 관리 학교가 11.8개교인 점과 비교했을 때 1인당 담당학교는 1개교 이상 많다.더욱이 지난 2019년 31명으로 구성됐던 광주 학교전담경찰관은 2020년 30명, 지난해 29명으로 줄어든 데 이어 올해 또다시 26명으로 줄어들었다.올해 상반기 경찰청 조직진단을 통해 3명의 학교폭력전담관이 스토킹범죄 대처 인력으로 발령됐기 때문이다.경찰 관계자는 "전국 평균과 비교하면 관리해야 하는 학교가 더 많은 게 사실"이라며 "업무 부담 등의 문제는 크게 없었지만 최근 학생 범죄가 연달아 터지면서 학생 관리 문제에 어떻게 접근해야할지 고민하는 실정이다"고 말했다.이어 "기존에는 전담관이 학폭 예방 캠페인 위주의 활동을 펼쳤지만 이제는 위기청소년이나 학폭 피해·가해 학생들에 대한 상담을 내실 있게 해야 한다는 분위기가 형성되고 있다"며 "청소년범죄 예방을 위한 유관기관의 적극적 협력이 필요하다"고 설명했다.이에 따라 광주시교육청과 광주경찰청, 각 자치구는 합동으로 청소년범죄와 관련된 통합 대책 방안 마련에 들어갔다.광주시교육청 관계자는 "여중생 집단폭행 사건 뿐만 아니라 학교폭력을 한 기관에서만 다루기에는 한계가 있다"며 "모방범죄 예방과 피해자 지원 등 청소년범죄 전반에 대응하기 위해 논의하고 있다. 조만간 통합 체계 구축 방안을 마련할 예정"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.08.07.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>금융위 보험비교 규제 푼다는데…핀테크 “속빈 강정 우려”</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005285975?sid=105</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>4~5일 간담회, 보험 비교·추천에 규제샌드박스 시사네이버·카카오·토스·핀크·보맵에 연내 서비스 허용할듯허용해도 핀테크 고민, 보험 종류·개수·규모 ‘깨알규제’ 탓8일 尹 업무보고 “금융BTS 키우려면 과감한 규제혁신해야”[이데일리 최훈길 기자] 금융위원회가 네이버·카카오·토스 등에서 보험 상품을 비교·추천해주는 핀테크 서비스를 연내 허용하는 방안을 추진한다. 새 정부 기조에 맞춰 금융규제 혁신에 나서겠다는 취지다. 하지만 업계는 취지에는 공감하나 이대로 가면 실효성 없는 ‘속 빈 강정’에 그칠 것으로 우려하고 있다. 금융위가 서비스 허용을 전제로 보험 상품 종류·개수·규모 등의 추가 규제를 제시했는데, 이 같은 규제도 과감하게 풀어야 혁신 서비스가 가능하다는 이유에서다.  김주현 금융위원회 위원장(가운데)은 지난달 19일 서울 중구 은행회관에서 열린 제1차 금융규제혁신회의에서 “금융규제 혁신의 목표는 금융산업에서 그룹 방탄소년단(BTS)과 같은 글로벌 플레이어를 만드는 것”이라며 “금융규제가 발목을 잡아서는 안 된다”고 말했다. 사진 왼쪽은 김소영 금융위 부위원장, 사진 오른쪽은 이복현 금융감독원장 모습. (사진=이영훈 기자)尹정부, 보험비교·추천 서비스 허용 시사7일 금융위원회에 따르면 금융위는 정부서울청사에서 지난 4일 핀테크 업계, 지난 5일 보험사들과 만나 ‘온라인플랫폼 중개업 시범 운영 방안’ 관련해 논의했다. 금융위는 금융규제 샌드박스 제도인 ‘혁신금융서비스’를 적용해 핀테크 보험비교 서비스를 연내 허용하는 방안을 검토하겠다는 취지를 전했다. 지난해 금융위는 핀테크의 보험 비교·추천 서비스가 사실상 ‘중개 서비스’이기 때문에, 금융소비자보호법(금소법) 위반 소지가 있다고 판단했다. 대리점을 등록하지 않고 보험 상품을 중개하는 핀테크 서비스를 사실상 불법이라고 본 것이다. 서비스를 이어가려면 보험대리점업 라이선스를 취득하라고 통보했다. 보험대리점업 라이선스가 없던 카카오페이(377300) 등 핀테크 업계는 작년 9월 이후 앱에서 한 번에 보험 비교·분석·추천하던 서비스를 일제히 중단했다. 지금은 보험에 가입하려면 아웃링크를 통해 보험사 페이지로 넘어가는 수준이다. 이후 네이버파이낸셜, 카카오페이, 토스, 보맵, 해빗팩토리, 핀크, 아이지넷, 뱅크샐러드, NHN페이코, 깃플은 혁신금융서비스 적용을 통한 보험 비교·추천 서비스 재개를 요청했다. 혁신금융서비스를 적용하면 최대 4년간 금소법 규제 적용이 유예되기 때문이다. 논의가 진척되지 않다가 윤석열정부가 출범한 뒤 기류가 바뀌었다. 금융위는 지난달 19일 ‘온라인 플랫폼을 통한 금융상품 중개 도입 검토’ 내용을 세부과제에 담은 ‘금융규제혁신 추진방향’을 발표했다. 혁신금융서비스를 통해 보험비교·추천 서비스 허용을 검토하기로 한 것이다. 하지만,  핀테크 업계는 기대보다 우려가 큰 분위기다. 금융위가 보험비교·추천 서비스의 규제 샌드박스 적용을 허용하되, 몇 가지 단서 조항을 동시에 검토하고 있어서다. 금융위가 금융고객 보호, 독과점 방지 등을 이유로 검토 중인 단서 조항은 △사이버마케팅(CM)으로 제한 △3개 보험상품 이상 의무 추천 △방카슈랑스 25% 룰 적용 등이다. 금융위원회는 최대 4년 동안 규제를 적용유예·면제해주는 혁신금융서비스를 통해 보험비교·추천 서비스 허용을 검토하기로 했다.(사진=금융위원회)◇핀테크 “깨알규제도 풀어야 혁신 서비스 가능” 핀테크 업계에서는 이같은 ‘깨알규제’가 있는 상황에선 제대로 된 보험 비교·추천 서비스를 하기 힘들다고 토로했다. 한 관계자는 “3개 이상의 사이버 보험상품을 의무 추천해야 하는데, 90% 이상이 오프라인 보험 상품”이라며 “규제샌드박스가 적용돼도 비교·추천할 사이버 상품이 거의 없어 ‘속빈 강정’이 될까 걱정된다”고 전했다. 방카슈랑스 25% 룰도 고민이다. 이는 판매하는 1개 생명·손해보험사 상품의 모집액이 각각 신규로 모집하는 상품 총액의 25%를 초과하면 안 된다는 규정이다. 은행계 보험사 등의 시장 독과점을 우려해 2005년부터 25% 제한을 둔 규제다.  다른 관계자는 “이대로면 고객에게 인기 있는 보험 상품이더라도 ‘25% 울타리’가 있어 이를 넘는 상품 비교·추천을 하지 못하는 것”이라며 “10여 년 전부터 적용하던 해묵은 금융 규제를 수시로 변화하는 핀테크에도 일률 적용해 우려된다”고 말했다. 보험 비교·추천 서비스의 기반인 마이데이터가 활성화하지 않은 상태에서 이 같은 규제 도입은 무리하다는 지적도 나온다. 또 다른 관계자는 “자사 고객 유출을 우려한 보험사들이 데이터 제공에 소극적이라 맞춤형 보험 서비스 비교·추천이 쉽지 않은 실정”이라며 “혁신적인 보험 비교·추천 서비스가 나오려면 고객 서비스를 우선에 두고 전반적인 규제를 풀어야 한다”고 요청했다. 금융위원회는 하반기까지 몇 차례 추가적인 의견수렴을 하기로 했다. 김주현 금융위원회 위원장은 8일 오후 대통령 업무보고에 금융혁신 방안 등을 보고할 예정이다. 한국핀테크산업협회는 ‘온라인플랫폼 중개업 시범 운영 방안’에 대한 업계 의견을 취합해 금융위에 제출할 계획이다. 김대종 세종대 경영학부 교수는 “IT·제조업 강국인 우리나라가 금융 부문 경쟁력이 취약한 것은 혁신 서비스를 발목 잡는 금융규제 때문”이라며 “정부가 ‘금융 BTS’를 키우겠다고 한 만큼 업권 간 이견을 해소하고, 보험 분야에서도 혁신 서비스가 나오도록 적극적인 규제 혁파에 나서야 한다”고 지적했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.08.15.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>“보이스피싱 직접 막는다”… 사기꾼 걸러내는 기술 확보 나선 핀테크 회사들</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000834146?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>지난해 보이스피싱 피해금액 8000억원 육박… 2017년 대비 3배 늘어  핀테크 업계, 자체 사기 감지 시스템 구축해 보이스피싱 등에 대처  업계 “비대면 서비스 확산으로 사기 위험도 증가” 40대 주부 A씨는 최근 대출을 알아보던 중, 은행 직원을 사칭하는 한 남성으로부터 전화를 받았다. 그는 “대출을 받기 위해선 신분증 사진을 보내야 한다”며 A씨에게 사진을 요구했다. 이후 사진을 건네받은 남성은 “모바일 송금 앱인 토스를 사용하면 개인정보 유출이 많으니 앱을 삭제하라”고 말했다.A씨는 토스 앱을 삭제하고 남성이 보낸 링크를 통해 ‘모바일 보안’이란 앱을 설치했다. 그러나 남성의 말투에서 뭔가 의심스럽다고 여긴 A씨는 토스 앱을 다시 설치했다. 그러자 토스 앱에서는 해당 앱이 금융 사기와 관련 있다며 삭제할 것을 권고했다. 확인 결과 이 남성은 보이스피싱 혐의로 처벌을 받았던 사람이었고, 이번에도 같은 범죄를 시도했던 것으로 드러났다.최근 보이스피싱을 포함한 금융 사기가 기승을 부리면서 토스를 비롯한 핀테크 기업들이 이에 대응하기 위해 자체 기술을 확보하는데 사활을 걸고 있다.15일 경찰청에 따르면 지난해 보이스피싱으로 인한 피해액은 7744억원을 기록, 4년 전인 2017년의 2470억원에 비해 3배 넘게 증가했다. 보이스피싱 접수 건수는 지난해 기준 3만1681건으로 3년 전에 비해 약 2만건 급증했다.일러스트=이은현        보이스피싱 범죄 방식과 기술이 갈수록 진화하자, 간편 결제 전문 기업 토스는 지난 4월부터 앱에 ‘악성 앱 탐지 시스템’을 탑재했다.이 시스템은 앱을 실행하는 순간 휴대전화 안에 탑재된 다른 앱을 통한 금융 사기 위험 여부를 감지할 수 있도록 설계됐다. 지난달 말 기준으로 토스가 적발한 위험 감지 건수는 약 40만건에 이른다.토스는 또 ‘이상거래감지시스템(FDS·Fraud Detection System)’를 운영 중이다. FDS란 컴퓨터나 스마트폰 등 사용자가 이용하는 전자기기 정보와 접속 위치 등을 수집·분석해 사기가 의심되는 거래를 차단하는 기술이다. 토스 관계자에 따르면 FDS로 방지한 이상 거래는 지금까지 600건이 넘는다.토스 앱 내 ‘이상거래감지시스템(FDS·Fraud Detection System)’이 시동된 모습. 토스는 해당 서비스를 통해 보이스피싱, 해킹 등 금융 사기 방지에 나서고 있다. /토스 제공        이 밖에 토스는 상대방의 계좌가 이전에 사기로 신고된 경우가 있는지 확인하는 ‘사기의심 사이렌’ 서비스도 시행 중이다.토스 관계자는 “최근 FDS를 이용해 중국 범죄조직이 사기를 통해 얻은 자금 2억2000만원을 송금하는 것을 막았다”며 “자체 보안기술팀 9명을 화이트 해커로 채용해 금융 사기를 방지하고 있다”고 밝혔다. 토스에서 일하는 9명의 화이트 해커들은 모의 해킹 등을 수행하며 금융 사기에 대한 취약점을 파악해 이를 개선하도록 건의하는 임무를 맡는다.카카오페이 역시 금융 사기 방지를 위한 자체 FDS를 가동 중이다. 카카오페이는 인공지능(AI)의 머신러닝(기계학습) 기술을 적용해 송금이나 결제 패턴 등을 분석하는 방법도 적용하고 있다.카카오페이는 지난 7월 금융 사기 방지 기업인 ‘더치트’에 지분 투자도 진행했다. 카카오페이는 더치트와 협업을 통해 송금 등을 할 때 사전에 거래 상대방에 대한 사기 이력 여부를 체크할 수 있는 기술을 도입하는 방안을 검토 중이다.중소 핀테크 업체나 온라인투자연계금융(온투업) 기업 등도 금융 사기 방지를 위한 기술 개발에 박차를 가하고 있다.대출 전문 중개 기업인 핀다는 회원 가입을 할 때 이상 여부를 자동으로 탐지하는 시스템을 운영하고 있다. 해당 시스템은 회원 가입 시 비정상적인 시도가 여러 번 발생하면 회원 가입을 자동으로 차단한다.국내 1호 온투업체인 피플펀드도 올해 2월부터 머신러닝 기술 기반의 AI 금융 사기 탐지 시스템 구축에 나섰다. 3개월 간의 모델 개발과 검증 테스트를 완료한 후 지난 6월 초부터 실제 적용을 시작했다. 피플펀드는 AI 연구소를 구축해 데이터 분석, 대응 전략 수립 방안에도 나서고 있다.또 다른 온투업체인 8퍼센트는 사기 감별 시스템 ‘다모(DAMO)’를 개발해 대출 심사에 적용하고 있다. 다모라는 이름은 과거 인기를 끌었던 드라마 ‘조선 여형사 다모’에서 명칭을 가져왔다. 8퍼센트는 다모를 통해 고객의 활동 정보, 대출 신청 시 특이 사항 등을 고려해 사기 유형을 분석하고 있다.온투업체 관계자는 “코로나 바이러스 감염증 사태로 금융 시장에서 비대면 서비스 비중이 커지면서 덩달아 금융 사기 위험도 증가하고 있다”며 “사기 방지를 위한 기술 확보를 위해 투자를 확대할 수밖에 없다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.08.04.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>‘강철볼’ 8월 23일 첫 방송… 티저 속 박군, 눈빛부터 의지 ‘활활’</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001544352?sid=103</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>채널A ‘강철볼-피구전쟁’이 오는 23일 오후 9시20분 첫 방송 한다.‘강철볼’은 밀리터리 서바이벌 ‘강철부대’의 세계관을 활용해 시즌1, 2의 출연진을 모았다. 이들이 혹독한 서바이벌을 거쳐 피구 선수로 성장하는 모습을 생생하게 그리는 스포츠 예능이다. 채널A는 박군이 참여한 사전미팅 티저를 4일 공개했다. 박군은 ‘강철부대’의 상징적 존재로 시즌1 특전사 팀장이었다. 티저에서 박군은 피구에 도전한다는 말에 “상상도 못 했다”며 당황하면서도 곧바로 노룩 패스, 빠른 토스 등 전략 구상에 돌입하는 모습을 보였다.그는 “당장 동호회를 알아봐야겠다”며 열정을 내비쳤다. 그러나 선수 선발 과정이 있다는 제작진의 말에 당황하며 “떨어지면 집에 가야 하네”라고 시무룩해하기도 했다. 박군은 “빨리 인터뷰를 끝내주십쇼, 바로 연습하러 가게”라며 굳은 의지를 드러냈다.‘강철볼’은 온라인 동영상 플랫폼(OTT) 웨이브가 투자에 참여해 방송과 동시에 VOD(다시보기) 서비스가 웨이브에서 독점 공개된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.08.01.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>항공·호텔부터 닭가슴살까지… ‘콜라보 마케팅’에 빠진 카드사들</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000831139?sid=101</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>현대카드, PLCC 파트너사만 18개  대한항공과는 신규 서비스 개발도 협력  KB국민카드는 닭가슴살 제조사와 콜라보        카드사들이 타 업종 기업들과의 콜라보(협력) 브랜딩·마케팅에 박차를 가하고 있다. 더는 할인 혜택 등을 백화점식으로 나열한 단순한 신용카드 상품만으로는 차별화가 어렵고 경쟁력을 가질 수 없다는 이유에서다.이수진 야놀자 총괄대표(왼쪽), 정태영 현대카드 부회장이 캠핑 텐트 앞에서 포즈를 취하고 있다./현대카드 제공        1일 업계에 따르면 현대카드는 타 업종 기업과의 마케팅 협업에 가장 적극적인 카드사로 꼽힌다. 현대카드가 현재까지 PLCC(Private Label Credit Card·사업자 전용 신용카드)를 발행하는 방식으로 마케팅 파트너십을 체결한 기업은 이마트·스타벅스·배달의민족·네이버·넥슨·무신사·대한항공(003490) 등 18개에 달한다.PLCC는 카드사 브랜드가 아닌 제휴 기업의 브랜드를 카드 전면에 내세워 해당 기업의 서비스에 특화된 혜택을 제공한다. 특정 브랜드에 대한 혜택이 집중되기 때문에 다양한 업종의 혜택을 제공하는 제휴카드와는 차이가 있다. PLCC는 단독 계약을 통해 출시하고 수익을 공유해야 하지만 해당 브랜드에 대한 충성도가 높은 고객이 유입돼 ‘락인(Lock-in) 효과’가 크다는 평가를 받는다.현대카드는 최근 숙박 예약 플랫폼인 야놀자와 협력 관계를 맺고 브랜딩, 마케팅 협업을 추진하기로 합의했다. 양사의 마케팅 역량을 기반으로 다양한 공동 프로젝트를 선보일 예정이다. 올 하반기에는 숙박·여행·레저 전용 PLCC도 출시한다.올 하반기에는 미래에셋증권과도 손잡고 증권사 최초의 PLCC를 출시하기로 했다. 이 카드는 ‘소비를 투자로’라는 콘셉트에 맞춰, 사용 금액의 일부를 적립해주고 가입자는 이를 주식으로 교환할 수 있는 혜택을 제공한다.현대카드가 가장 공들이는 기업은 대한항공이다. 두 회사는 지난해 PLCC를 출시하는 등 공동 브랜딩∙마케팅에 나서고 있으며 신규 서비스 개발까지 손잡고 있다. 현대카드와 대한항공은 ▲한정판 네임택 ▲무착륙 관광 비행 ▲마일리지 긴급충전 서비스 등 다양한 협업을 진행했다.현대카드와 대한항공이 임직원 유니폼 및 고객용 티셔츠 디자인 협업을 진행했다. 대한항공 직원이 해당 티셔츠를 고객에게 제공하는 모습./현대카드 제공        다른 카드사들도 PLCC 출시를 위해 다양한 업종의 파트너를 찾아 나섰다. 유통 등에 한정됐던 협업 회사들의 업종도 점차 다양해지고 있다.신한카드는 지난해 3월 글로벌 호텔체인 ‘메리어트 인터내셔널’과 함께 첫 PLCC를 출시했다. 이 카드는 포인트 적립을 통해 메리어트 무료 숙박, 전 세계 공항 라운지 등의 서비스를 회원에게 제공한다. 올해 초 서울 성수동 인근에서 메리어트 팝업 스토어를 운영하기도 했다.신한카드는 메리어트에 이어 이케아·LX하우시스(108670)·SK렌터카(068400)·아모레퍼시픽(090430)·GS리테일(007070)·투썸플레이스·SK텔레콤(017670) 등과 협력 관계를 체결하고 PLCC를 출시했다. 지난달에는 티머니와 대중교통을 30% 할인해주는 PLCC ‘티머니 신한카드’를 출시했다.'메리어트 본보이 더 클래식 신한카드' 팝업스토어./메리어트 제공 삼성카드(029780)는 지난해 롯데월드와 손잡고 ‘롯데월드 카드’를 출시했다. 이 카드는 롯데월드 어드벤처, 아쿠아리움, 서울스카이, 워터파크, 민속박물관 등 롯데월드 운영 시설에서 할인 혜택을 제공한다. 삼성전자(005930)와도 삼성전자 포인트 5% 적립을 무제한 제공하는 PLCC를 출시한 바 있다.KB국민카드도 지난해 위메프, 커피빈, 레고랜드와 상호 협력 관계를 구축하고 PLCC를 선보였다. 올해에는 닭가슴살 전문 플랫폼 ‘랭킹닭컴’의 특화 혜택을 담은 PLCC ‘랭킹닭컴 신용카드’를 출시했다.롯데카드는 카카오페이지, 우리카드는 롯데렌터카, 하나카드는 토스와 협력해 PLCC를 출시한 바 있다.성용준 한국소비자광고심리학회 회장(고려대 심리학과 교수)은 “소비자들이 이미 많은 신용카드를 보유하고 있어 카드사들이 더는 할인과 같은 기능적인 부분으로만 고객 유치가 어려워진 상황”이라며 “MZ 세대들이 선호하는 기업, 브랜드와 협업을 통해 소비자층을 확장하려는 카드사들의 노력이 당분간 계속될 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>산은 '파킹통장' 금리 年2.25%…토스·케이뱅크도 넘어서</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005127154?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>低원가성 핵심예금 이탈에 수시입출금예금 금리 쑥 "인터넷銀 안 부럽네"서울 거주 7년차 직장인 서준모(가명·34)씨는 최근 토스뱅크 파킹통장(수시입출금식 통장)에 예치했던 목돈 3000만원을 케이뱅크 파킹통장으로 옮겼다. 케이뱅크 파킹통장의 금리는 연 2.1%으로 토스뱅크에 비해 0.1%포인트(p) 높은 까닭이다. 최근엔 한 시중은행에서 파킹통장에 연 2.25% 금리를 부과한단 얘길 듣고 재차 갈아타기를 검토 중이다.  기준금리 인상과 뒤이은 예금 금리 상승으로 저원가성 예금의 이탈이 가속화 되며 은행권의 '파킹통장(수시입출금식 통장)' 금리 경쟁이 가속화 되고 있다. 일부 시중은행은 인터넷전문은행보다도 높은 이율로 금융소비자들을 끌어 모으고 있는 양상이다.  3일 금융권에 따르면 국내 5대 시중은행(KB국민·신한·하나·우리·NH농협)의 지난달 말 기준 요구불예금 잔액은 673조3602억원으로 집게됐다. 이는 전월 대비 약 5.1%(36조6034억원) 감소한 수치다. 요구불예금은 수시입출금식 보통예금, 수시입출식 저축성예금(MMDA) 등 예금자가 언제든지 꺼내 사용할 수 있는 예금을 의미한다.  요구불예금이 감소세를 보이고 있는 것은 최근 기준금리 인상의 여파로 파킹통장 등에 머물렀던 시중자금들이 예·적금으로 잇따라 쏠리고 있기 때문이다. 5대 시중은행의 지난달 말 기준 정기예금 잔액은 27조3532억원 늘어난 712조4491억원으로 첫 700조원대를 돌파했다. 지난 6월 기준 예금은행의 수신금리(신규취급액 기준)은 연 2.73%로 연초(1.83%) 대비 90bp(1bp=0.01%) 인상되는 등 금리 상승이 반영된 것이다.  이렇듯 요구불예금이 줄어들자 수익성 악화를 우려한 은행들은 잇달아 파킹통장 금리 경쟁에 나서는 모양새다. '핵심예금'으로도 불리는 요구불예금은 예·적금에 비해 금리 수준이 낮은 만큼 은행들로선 낮은 금리에 자금을 조달할 수 있어 순이자마진(NIM) 개선에 적잖은 도움이 되는 까닭이다.  최근 들어선 인터넷전문은행을 넘어선 파킹통장 금리를 제공하는 곳도 등장했다. KDB산업은행의 'KDB Hi 비대면 입출금통장'의 경우 최대 연 2.25%의 금리를 제공한다. 이는 토스뱅크(최대 연 2.0%), 케이뱅크(최대 연 2.1%) 등 파킹통장 열풍을 이끈 인터넷전문은행은 물론, SBJ저축은행 사이다뱅크(최대 연 2.2%)를 앞선 수준이다. 특히 산은 파킹통장은 우대조건이나 금액 제한이 있는 인터넷은행·저축은행들과 달리 별다른 조건이 없어 세간의 인기를 끌고 있다.  추격이 거세지면서 일부 저축은행들은 파킹통장의 금리를 3%대로 높여 대응하고 있다. 웰컴저축은행의 경우 특정 우대조건을 만족하면 5000만원 이하의 금액에 연 3.0% 금리를 제공하며, OK저축은행 역시 1000만원 이하에 연 3.2%의 금리를 적용 중이다. 금융권 관계자는 "최소 연말까지 금리 인상이 이어지면서 당분간 저원가성 예금 이탈 속도도 빨라 질 것"이라면서 "은행들도 핵심 예금 유치, 고객 확보 차원에서 파킹통장 금리를 더욱 높일 수 있다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.08.04.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>"은행, 저원가성 예금 확보 어쩌나" 한달만에 40조 빠진 요구불예금</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000839629?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>은행권 예적금 금리가 오르면서 7월 요구불예금이 급격히 줄어든 것으로 나타났다. 은행들은 저원가성 예금을 확보하기 위해 파킹통장 금리 인상에 나서고 있다./사진=이미지투데이 한국은행의 기준금리 인상으로 시중은행의 정기 예·적금 금리가 3~4%대로 올라오면서 제로(0)금리를 제공하는 요구불예금 잔액이 썰물처럼 빠져나가고 있다.요구불예금은 은행 입장에서 조달비용이 적게 들어 NIM(순이자마진) 확대로 이어진다. 하지만 시중 자금이 요구불예금에서 정기 예·적금으로 흘러가는 움직임을 보이면서 은행들은 유동성을 확보하기 위해 수시입출금 금리를 높이며 대응책 마련에 나섰다.4일 은행권에 따르면 KB·신한·하나·우리·NH농협 등 5대 은행의 수시입출금식 예금(MMDA)을 포함한 요구불예금 잔액은 올 7월말 기준 717조2555억원으로 전월대비 39조3791억원 줄었다. 한달만에 40조원 가까이 요구불예금이 줄어든 것은 역대 최대 수준이다.이처럼 요구불예금이 급격히 줄어든 것은 한국은행의 기준금리 인상으로 은행들이 예·적금 금리를 줄줄이 올려서다.특히 한은은 지난달 13일 사상 첫 빅스텝을 밟으면서 은행들의 예적금 금리 인상폭이 커졌다. 주식을 비롯한 자산시장이 부진한 흐름을 보이면서 수시입출금식 통장 등에서 대기하고 있던 시중자금이 예·적금으로 빠르게 흘러간 것이다.실제로 5대 은행의 예·적금 잔액은 지난 7월말 750조5658억원으로 전월말대비 28조56억원이나 급증했다.이에 은행들은 수시입출금 통장인 파킹통장 금리 인상에 나서고 있다. KDB산업은행의 'KDB Hi 비대면 입출금통장'은 우대조건이나 금액 제한 없이 지난달 중순부터 최대 연 2.25%의 금리를 제공하고 있다.토스뱅크의 파킹통장 금리는 연 2.00%로 한도는 1억원 이내다. 케이뱅크 파킹통장 금리는 토스뱅크보다 0.10%포인트 높은 연 2.10%로 3억원 이내의 한도를 뒀다.시중은행 관계자는 "예·적금 금리가 계속 인상되다보니 파킹통장에 돈을 넣어뒀던 고객들이 예·적금을 서둘러 가입하는 분위기"라며 "제로금리의 파킹통장에 돈을 넣어둘 요인이 사라지고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>한국투자증권-토스뱅크, 자산관리 상품광고 맞손</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005286503?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>[이데일리 김겨레 기자] 한국투자증권은 디지털금융 혁신과 투자상품에 대한 고객 경험 강화를 위해 토스뱅크와 업무협약(MOU)를 체결했다고 8일 밝혔다.김성환 한국투자증권 개인고객그룹장(왼쪽)과 홍민택 토스뱅크 대표가 업무협약 체결 후 기념사진을 촬영하고 있다. (사진=한국투자증권)한국투자증권은 이번 업무협약을 통해 토스뱅크 고객을 대상으로 주식뿐 아니라 고객 성향에 따른 투자 전략을 제시하는 등 체계적인 디지털 자산관리 서비스를 제공하기로 했다. 또한 토스뱅크는 한국투자증권의 투자상품을 고객에게 소개하는 광고 업무를 추진할 계획이다. 서울 여의도 한국투자증권 본사에서 열린 이번 협약식에는 김성환 한국투자증권 개인고객그룹장과 홍민택 토스뱅크 대표가 참석했다. 김성환 한국투자증권 개인고객그룹장은 “디지털 환경에 익숙한 토스뱅크 고객들에게 한국투자증권만의 자산관리 노하우를 제공하게 됐다”며 “고객들의 생애주기에 맞는 맞춤형 투자상품을 제안하고, 효율적인 자산배분 포트폴리오를 추천하는 등 디지털 자산관리 영역을 더욱 확장시켜 나갈 계획”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.08.01.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>이통3사 제휴망 구축하는 국민은행 알뜬폰, 향후 과제는</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005281666?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>9월 이동통신3사 통신 제휴망 구축 완료하지만'곱지않은 시선' 알뜰폰업계 상생관계 신경쓰랴알뜰폰사업 뛰어든 토스와 경쟁우위 차지도 과제[이데일리 정두리 기자] KB국민은행의 알뜰폰 서비스 리브모바일(Liiv M)이 SK텔레콤까지 제휴 통신망을 확대하기로 하면서 이동통신 3사망 시스템 구축작업이 ‘초읽기’에 진입했다. 국민은행 입장에선 알뜰폰 사업의 정상궤도 진입을 위한 영업활동 적기를 맞은 셈이다. 하지만 이를 위해 풀어야 할 몇 가지 과제들이 놓여있다. 금융권의 알뜰폰 시장 확대를 연일 반대하는 중소 알뜰폰 업체들과의 상생도 도모해야 하고, 알뜰폰 사업을 공식화한 토스와의 경쟁에서도 우위에 서야 하기 때문이다. 은행권 최초 알뜰폰 1호 사업자인 국민은행은 오는 9월 SK텔레콤 통신망을 추가 확대할 예정이다. SK텔레콤 망까지 확보하면 LG유플러스, KT 망에 이어 이통3사 망 시스템 구축이 완료된다.(사진=국민은행)1일 관련업계에 따르면 은행권 최초 알뜰폰 1호 사업자인 국민은행은 오는 9월 SK텔레콤 통신망을 추가 확대할 예정이다. 현재 전산 연동을 위한 시스템 개발 작업에 한창이다. SK텔레콤 망까지 확보하면 LG유플러스, KT 망에 이어 이통3사 망 시스템 구축이 완료된다. 고객이 리브모바일에서 원하는 통신망을 자유롭게 선택할 수 있게 되는 것이다. 2019년 12월부터 알뜰폰 사업을 착수해 현재 32만명 가량의 가입자를 유치해온 국민은행 입장에서는 이번 이통3사 망 구축을 토대로 알뜰폰 사업이 탄력을 받을 것으로 기대하고 있다. 하지만 정작 통신망을 빌려주는 SK텔레콤 입장에선 달가운 일이 아니다. 알뜰폰의 가입자당평균매출(ARPU)이 기존 무선 가입자보다 낮기 때문에 이득이 될 게 없기 때문이다. 결과적으로 무선 가입자가 더 저렴한 알뜰폰으로 옮겨가면 밑지는 장사가 되는 셈이다. 국민은행과의 제휴를 두 팔 벌려 환영할 수 없는 이유다. 그러나 현재 SK텔레콤은 이통시장의 지배적 사업자라는 이유로 정부가 망제공의무사업자로 지정한 상태다. 정부는 2011년 알뜰폰을 출범하면서 이동통신 사업의 경쟁을 촉진하기 위해 알뜰폰 도매 제공 의무 제도를 신설했고, 이에 따라 알뜰폰 사업을 원하는 기업이 망을 빌려달라고 요구하면 거부할 수 없다. 금융사인 국민은행에게는 정부의 알뜰폰 활성화 정책이 기회 요인이 됐다.국민은행은 기존 알뜰폰 중소사업자와의 상생도 지속적으로 신경 써야 할 처지다. 최근 금융당국이 금산분리 규제를 완화한다고 밝혔지만, 알뜰폰 업계는 자본력을 앞세운 시장 질서 왜곡을 우려하며 국민은행의 알뜰폰 사업 확장에 대한 우려를 표하고 있다. 이에 국민은행은 중소 알뜰폰 사업자와 협력관계를 구축하기 위해 ‘KMVNO 알뜰폰 카드’를 출시하며 불리한 여론 지형을 바꾸려는 모습이다. 이 카드는 알뜰폰 통신요금 자동이체 할인 전용 카드로 전월 이용실적에 따라 최대 1만7000원의 청구할인이 가능하다. 국민은행 리브모바일 고객이 아니더라도 알뜰통신사업자협회(KMVNO) 회원사인 알뜰폰 사용자도 가입할 수 있다.최근 토스라는 새로운 경쟁자가 출현한 것도 변수다. 토스의 운영사 비바리퍼블리카는 알뜰폰 사업자인 ‘머천드코리아’ 지분 100%를 인수하며 9월부터 본격적인 알뜰폰 사업에 나선다는 방침이다. 2200만명의 가입자를 보유한 토스가 알뜰폰 사업에 뛰어듦에 따라 금융권의 알뜰폰 시장 진출도 가속화할 것이란 전망이 나온다. 업계 한 관계자는 “알뜰폰 사업에 맨바닥부터 뛰어든 국민은행과 달리 토스가 알뜰폰에 잔뼈가 굵은 중견사업자 머천드코리아를 활용하면 초기 사업 확장은 더 빠르게 이뤄질 수 있다”면서 “국민은행이 지금까지 알뜰폰 시장에 성공적으로 정착 했다면, 이제는 출혈경쟁 외 사업다각화와 업계 상생 방안에 보다 적극적으로 나서야 할 때”라고 진단했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.08.04.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>계좌 개설·학자금 신청 등 구비서류 대폭 줄어든다</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0013354091?sid=100</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>공공 마이데이터 서비스 28종 추가(서울=연합뉴스) 김윤구 기자 = 은행계좌 개설, 신용평가점수 혜택 신청, 학자금지원 신청 등을 위해 필요한 증명서가 대폭 줄어든다.    행정안전부는 5일부터 28종의 공공 마이데이터 서비스를 추가한다고 4일 밝혔다.    이에 따라 지난해 말 시작된 공공 마이데이터 서비스가 소상공인 자금 신청, 신용카드 발급 등 24종에서 52종으로 확대된다.    공공 마이데이터는 개인이 정보 주체로서 행정·공공기관이 보유한 자신의 행정정보를 본인이 원하는 곳에 제공하도록 요구할 수 있는 서비스다.    5일부터 예금·적금 가입 및 연장, 퇴직연금 가입 등의 금융 서비스를 신청할 때 공공 마이데이터 서비스를 이용할 수 있어 주민등록등본(초본), 소득금액증명 등 22종의 증명서를 따로 준비할 필요 없이 공공 마이데이터로 쉽게 제출할 수 있게 된다.    우리은행, SC제일은행, IBK기업은행, 대구은행, 토스뱅크, 케이뱅크, 웰컴저축은행 등 9개 기관에 우선 도입돼 점진적으로 확대될 예정이다.    또한 신용거래 기록이 많지 않은 주부나 사회초년생 등이 세금, 재직 등 비금융 거래 정보를 바탕으로 신용평가점수 혜택을 신청할 때 국세납세증명서, 건강보험자격확인서 등 13종의 증명서를 공공 마이데이터로 제출할 수 있다.    이밖에 한국장학재단에 국가장학금, 학자금대출 등 학자금지원 서비스를 신청할 때도 장애인증명서, 자활근로자확인서 등 11종의 증명서를 공공 마이데이터로 제출하게 된다.    행안부는 공공 마이데이터 서비스를 제공하는 기관과 이용 가능한 행정정보를 지속해서 확대할 계획이다.    한창섭 행안부 차관은 "공공 마이데이터 서비스 확산을 통해 각종 분야에서 구비서류 제출을 간소화해 국민 편익을 높여 나가겠다"고 밝혔다.    ykim@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.08.05.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>"요즘 파킹통장에 돈 넣나요" 5대 은행 한달새 요구불예금 40조 뚝</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000839720?sid=101</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>은행권 예적금 금리가 오르면서 7월 요구불예금이 급격히 줄어든 것으로 나타났다. 은행들은 저원가성 예금을 확보하기 위해 파킹통장 금리 인상에 나서고 있다. 사진은 경기 수원시에 장안구 도로변에 시중은행 예금 금리 광고가 걸려져 있는 모습./사진=뉴스1 한국 기준금리가 2.25%로 올라오면서 시중은행의 정기 예·적금 금리가 3~4%대에 이르자 제로(0)금리를 제공하는 요구불예금 잔액이 썰물처럼 빠져나가고 있다.요구불예금은 은행 입장에서 조달비용이 적게 들어 NIM(순이자마진) 확대로 이어진다. 하지만 시중 자금이 요구불예금에서 정기 예·적금으로 옮겨가면서 은행들은 수시입출금식 예금(파킹통장) 등의 금리를 높이며 유동성 확보에 나섰다.5일 은행권에 따르면 KB·신한·하나·우리·NH농협 등 5대 은행의 수시입출금식 예금(MMDA)을 포함한 요구불예금 잔액은 올 7월말 기준 717조2555억원으로 전월대비 39조3791억원 줄었다. 한달만에 40조원 가까이 요구불예금이 줄어든 것은 역대 최대치다.한 시중은행에선 요구불예금이 한달만에 11조원 이상 빠지기도 했다.이처럼 요구불예금이 급격히 줄어든 것은 한국은행의 기준금리 인상으로 은행들이 예·적금 금리를 줄줄이 올려서다. 지난해 7월까지만 해도 0.50%였던 기준금리는 약 1년만에 2.25%로 1.75%포인트 올라왔다.특히 한은은 지난달 13일 사상 첫 빅스텝(한번에 금리 0.50%포인트 인상)을 밟으면서 은행들의 예적금 금리 인상폭이 커졌다. 1년 만기 기준 KDB산업은행의 하이(Hi)정기예금 금리는 연 3.60%에 이르며 우리은행의 원(WON)플러스예금 금리는 연 3.33%, 신한은행의 아름다운 용기 정기예금 금리는 연 3.40%, KB국민은행의 KB스타정기예금 금리는 3.13%로 집계됐다.이에 주식과 암호화폐  등 부진한 자산시장에 마땅한 투자처를 찾지 못해 수시입출금식 통장 등에서 대기하고 있던 시중자금이 예·적금으로 빠르게 흘러간 것이다.실제로 5대 은행의 예·적금 잔액은 지난 7월말 750조5658억원으로 전월말대비 28조56억원이나 급증했다.이에 은행들은 수시입출금 통장인 파킹통장 금리를 올리며 유동성 대응에 나서고 있다. KDB산업은행의 'KDB 하이(Hi) 비대면 입출금통장'은 우대조건이나 금액 제한 없이 지난달 중순부터 최대 연 2.25%의 금리를 제공하고 있다.토스뱅크의 파킹통장 금리는 연 2.00%로 한도는 1억원 이내다. 케이뱅크 파킹통장 금리는 토스뱅크보다 0.10%포인트 높 연 2.10%로 3억원 이내의 한도를 뒀다.시중은행 관계자는 "예·적금 금리가 계속 인상되다보니 파킹통장에 돈을 넣어뒀던 고객들이 예·적금을 서둘러 가입하는 분위기"라며 "제로금리의 파킹통장에 돈을 넣어둘 요인이 사라지고 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.08.06.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>“대출비교 플랫폼에선 5%였는데”…은행 갔더니 실제와 다른 이유?</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005285660?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>선두주자 토스 대출비교 실적 반년새 0.5조→1.2조대출비교 플랫폼 고공성장…후발주자도 이용 급증해대출비교 플랫폼 결과와 실제 금리·한도 달라 ‘한계’이용편의 위해 ‘원스톱’ 서비스 요구되지만 ‘먼 길’[이데일리 김정현 기자] “대출비교 플랫폼의 대출조회는 ‘가심사’에 불과합니다. 시중은행들이 대출비교 핀테크사에 대출심사의 정확한 기준을 넘겨줄 리 없죠.”(은행권 관계자)금리가 고공행진하고 이자부담이 크게 늘어나면서 금리를 1bp(0.01%포인트)라도 낮추려는 소비자들이 대출비교 플랫폼을 대거 이용하고 있는 가운데, 실제 대출까지는 불편이 적지 않다는 평가다. 플랫폼에서 나타낸 금리·한도와 실제 은행에서 제시하는 금리·한도가 달라서다. “낚시성 아니냐”는 불만도 나오고 있다.6일 금융권에 따르면 3대 대출비교 서비스 중 한곳인 비바리퍼블리카(토스)의 지난달(7월) 실행된 대출 실행액은 1조1720억원에 달했다. 올해 1월만 해도 4620억원 수준이었는데 5월 1조445억원으로 최초 1조원대 증가하더니 지난달에도 비슷한 수준을 기록한 것이다. 7월 말까지 누적 대출 실행액은 14조8000억원에 달했다.다른 대출비교 플랫폼들도 성장이 뚜렷하다. ‘핀다’의 대출 중개 누적 승인액은 1100조원을 넘어섰다. 대출 중개 승인액은 실제 대출로 연결된 금액이 아니라 금융소비자가 대출비교를 실행해 검색된 금융사들의 대출가능 한도를 모두 합한 금액이다. 지난해 3월에는 100조원 정도였지만 같은해 12월 500조원을 넘었고, 올해 5월 900조원, 이번달에는 1100조원을 넘어섰다.이같이 대출비교 플랫폼이 고속 성장하는 것은 최근 금리 상승과 관련이 깊다. 차주들이 조금이라도 더 낮은 금리를 비교해보기 위해 이 서비스를 이용하는 사례가 늘어나고 있다. 그러나 소비자들의 이 같은 기대가 쉽게 충족되지 못한다는 문제가 제기된다. 대출비교 플랫폼을 사용하는 소비자가 본인의 소득과 기대출 정보, 신용도 등을 정확히 입력한 뒤 검색하더라도 부정확한 대출 정보가 도출된다는 것이다.실제 기자가 토스와 카카오페이, 핀다 등 3대 플랫폼을 통해 대출비교를 해보니 모든 플랫폼에서 같은 결과가 도출됐다. 동일한 금융사에서 동일한 금리·한도로 대출할 수 있다는 검색결과가 나왔지만 실제 대출은 불가능했다. 플랫폼들에서는 일제히 A은행에서 5.42%, 3000만원 대출이 가능하다고 했지만 실제 A은행의 신용대출 금리는 최저 40bp더 높았다. 그마저도 대출이 거절됐다.결국 비교대출 플랫폼 서비스를 이용하더라도 마지막에는 발품을 팔아 은행 창구를 이용해야 하는 상황이다. 핀테크 업계 관계자는 “가심사와 본심사 모두 제휴사(금융사)가 제공하는 심사 기준을 적용하기 때문에 플랫폼사가 임의로 관여할 수 없다”고 말했다.금융 소비자들의 편의를 위해 각 업계와 정부 차원의 노력도 필요하다는 지적이다. 한 금융권 관계자는 “정부가 한 때 추진했던 대환대출 플랫폼을 서둘러 재추진해야 금융소비자들에게 보다 정확한 서비스를 해줄 수 있을 것”이라며 “현재 서비스는 자칫 불완전판매나 미끼성으로 오해될 수 있다”고 봤다.(사진=연합뉴스)</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>호출·쇼핑·투자, 앱 하나로 끝… 테크기업 생존전략 ‘수퍼앱’</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003708514?sid=105</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>다양한 서비스로 국민앱 만들기쏘카, 전기자전거·KTX 예약 기능야놀자는 공연 예매 서비스 탑재당근마켓, 동네 일자리 정보 제공소기업 인수·서비스 베끼기 논란도일부 “신생업체 크기 어려운 구조”							차량 공유 서비스업체 ‘쏘카’는 자동차뿐 아니라 전기 자전거, 주차 서비스, KTX 예약을 한 앱에서 모두 해결할 수 있는 ‘수퍼 앱’ 출시를 준비하고 있다. 박재욱 쏘카 대표는 기업공개(IPO)를 앞두고 지난 3일 가진 기자간담회에서 “궁극적으로 이동과 관련된 모든 것을 포함하는 모빌리티 서비스로 성장하겠다”고 말했다. 금융 앱 토스를 운영하는 비바리퍼블리카는 지난달 말 알뜰폰 사업자 ‘머천드코리아’ 지분 100%를 인수했다. 송금·증권·보험·은행 서비스를 하나의 앱에서 구현하는 수퍼 앱에 알뜰폰 요금을 검색하고 개통까지 할 수 있는 서비스를 더한 것이다.한 분야에서 특화된 서비스로 성공을 일군 앱들이 수퍼 앱으로 진화하고 있다. 소비자 입장에서는 분야별로 여러 앱을 설치하고, 회원 가입하는 번거로움 없이 기존 앱으로 다양한 기능을 사용할 수 있어 편리하고 기업은 자사 앱에 소비자를 자주, 오래 머무르게 하는 이점이 있다. 수퍼 앱 전략을 가장 먼저 구사한 중국 위챗은 메시지앱으로 시작해 택시 호출 서비스와 이커머스, 모바일 결제, 관공서 서비스까지 제공하는 수퍼 앱으로 진화하면서 중국 국민 앱이 됐다.◇쇼핑, 송금, 투자를 하나의 앱에서숙박예약 서비스업체 야놀자는 지난달 말 자사 앱에 전시 예매 기능을 추가했다. 그동안 야놀자는 숙박 예약에서 출발해 항공·철도·렌터카 등 교통수단 예약, 맛집 검색 기능을 꾸준히 추가해왔다. 지난해 인수한 인터파크를 통해 이번에 전시·공연 예매 서비스 기능까지 야놀자 앱에 새롭게 추가하며 ‘여가 수퍼 앱’으로 도약을 꾀한 것이다. 앞으로는 지자체 축제, 박람회 등도 소개하겠다는 계획이다.										부동산 중개 스타트업 직방은 원룸 임대 시장에서 출발해 아파트 전·월세, 신축 분야 단지 정보를 알려주는 서비스로 영역을 넓혀왔다. 최근 삼성SDS의 홈IoT(사물인터넷) 부문 인수를 완료하면서 이제 스마트 홈 분야까지 영토를 확장한 셈이다. 직방은 인테리어 업자나 집 청소 전문가까지, 주거와 관련한 거의 모든 전문가를 한자리에 모은 ‘온택트 파트너스’ 서비스도 선보였다. 중고 물품 거래 서비스로 시작한 당근마켓은 이달 초 앱에다 동네 아르바이트 채용 서비스를 추가했다. 구직자가 집에서 도보 10분 거리 이내 일자리를 선별해 볼 수 있는 ‘걸어서 10분’ 서비스다.벤처캐피털 업계 관계자는 “특화된 아이템으로 시작한 스타트업들이 규모가 커지면서 사업 확장을 위해 수퍼 앱 전략을 사용하고 있다”며 “교통이면 교통, 주거면 주거, 생활의 한 영역과 관련된 모든 서비스를 소비자가 앱 하나로 이용하게 하겠다는 비전을 제시하는 것”이라고 했다.◇독점 논란 피해갈 수 없어교통, 결제 인프라가 부족한 동남아의 경우 ‘수퍼 앱 5′로 불리는 그랩(교통), 고젝(교통), SEA(전자상거래), 라인(메신저), VNG(메신저)가 없으면 생활이 불가능할 정도다. 메타(구 페이스북)는 페이스북에 전자상거래, 게임, 데이팅, 팟캐스트 기능을 계속 추가하면서 수퍼 앱을 만들어가고 있다.국내에서도 각각 검색과 메신저로 출발한 네이버와 카카오가 이커머스, 결제, 예약 등 생활밀착형 서비스를 하나의 앱에서 가능하게 해 필수 앱으로 자리 잡았다. 월스트리트 저널은 “우버, 페이팔, 스포티파이와 같은 기업들이 수퍼 앱으로 가기 위해 고심하고 있다”며 “최근 시장에 부는 역풍에 맞서 성장하고 수익을 낼 수 있는 전략이기 때문”이라고 했다.하지만 수퍼 앱 진화 과정에 빅테크들이 작은 업체를 인수하거나 이들의 서비스를 베끼면서 독점 논란을 불러오고 있다. 스타트업 관계자는 “신생 업체들이 성장 자체가 어려운 구조가 될 수 있다”고 했다. 여러 가지 기능을 한 앱에서 작동해야 하니 오히려 앱 사용하기가 불편하고 번거로워진다는 지적도 나온다. IT 업계에 따르면 카카오톡과 네이버의 일부 이용자는 쇼핑이나 엔터테인먼트 기능 없이 메신저나 검색 기능만 사용할 수 있는 ‘라이트’ 버전 출시를 요구하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>적금은 무조건 6개월 이상… 누가 정한 건가요</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003708507?sid=101</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>금융당국, 규제 푼다더니… 거꾸로 가는 ‘철조망 규제’‘6개월 미만 적금’ 허용 요청에 한은 “통화량 분석 힘들다” 난색							“금융위원장은 금융권에도 BTS(방탄소년단)가 나오도록 대대적으로 규제를 풀어준다고 했는데, 정작 밑에서는 움직이지 않더라고요.”한 은행의 상품개발담당 A씨는 “‘적금은 무조건 만기가 6개월 이상’으로 돼있는 현행 규제를 풀기 위해 몇 년간 백방으로 뛰었지만 실패했다”며 한숨을 쉬었다. 그는 ‘커플 100일 적금’처럼 재미있는 초단기 적금을 내놓으려 했다. 장기 납입을 꺼리는 20~30대 성향과 금리 인상기에 만기를 짧게 가져가야 이득인 예금 트렌드 등을 고려한 것이다.하지만 경직된 규정이 문제였다. 1995년 개정된 한국은행의 ‘금융기관 여수신 이율 등에 관한 규정’에 따르면 은행 적금은 만기가 최소 6개월이 넘어야 한다. 6개월 미만의 적금 상품은 출시할 수 없는 것이다.										당국은 개정에 소극적이다. 한은은 “적금 규정 개정은 금융통화위원회에 올려야 하는 사안이라 복잡하다. 적금 만기가 짧아지면 만기별로 금융 상품을 분류하는 기존 통화량 분석에도 영향을 미치기 때문에 쉽게 조정하기 어렵다”는 입장이다. 금융위원회는 “기본적으로 적금 규정 개정은 한은 소관이라 우리가 손댈 수 없다”며 뒷짐을 지고 있다.지난달 19일 김주현 금융위원장이 금융규제혁신회의를 출범시키며 36개 과제 금융규제 개선을 추진하겠다고 했지만 실상은 불합리한 규제는 손대지 않고 거꾸로 족쇄 같은 규제를 만드는 일이 적지 않다는 비판이 나온다.맞춤형 서비스 가로막는 체크카드 규제							최근 논란이 된 것은 지난달 입법예고된 금융소비자 보호에 관한 법률(금소법) 시행령 및 감독 규정 일부 개정안이다. 개정안은 체크카드와 OO페이 같은 선불·직불 지급 수단도 신용카드와 똑같은 연계·제휴 서비스 규제를 받도록 했다. 서비스를 3년 이상 유지해야 하고, 서비스 변경 시엔 6개월 전까지 소비자에게 고지해야 한다. 지난해 토스뱅크가 단기간에 고객 수를 늘리기 위해 파격적인 캐시백 혜택을 줬다가 몇 달 뒤 축소한 ‘얌체 마케팅’을 막자는 취지다.하지만 금융권에선 부작용을 우려한다. 고객들의 니즈에 맞춰 수시로 혜택을 조정해온 체크카드의 장점이 사라질 가능성이 높기 때문이다. 예를 들어 카카오뱅크 체크카드는 코로나 확산으로 배달 앱 사용이 증가하자 2020년 8월 배달의민족 캐시백 혜택을 추가했고, 사회적 거리 두기가 풀리며 학원 수요가 증가한 지난 2월에는 학원 업종에 캐시백을 해주는 등 지난 5년간 총 11번 캐시백 혜택을 변경했다. 그런데 신용카드처럼 ‘서비스 3년 유지’라는 규제를 받게 되면 이런 시즌제 서비스를 제공할 수 없다. 인터넷은행 관계자는 “결국 다양한 혜택을 수시로 바꿀 수 있는 맞춤형 서비스는 사라지고, 3년간 똑같은 서비스만 제공할 수밖에 없기 때문에 고객에게도 손해가 될 것”이라고 말했다.네이버·카카오페이 등 페이 업체들도 울상이다. 한 핀테크 업계 관계자는 “그때그때 가정의 달이나 휴가철 등 시즌에 맞춰 가맹점과 협의를 통해 추가 적립 프로모션을 하는데, 이를 6개월 전에 고지하라는 건 사실상 마케팅을 하지 말라는 것과 마찬가지”라고 했다. 이에 대해 금융위는 “단기·일시적으로 제공되는 혜택(프로모션)은 금소법이 적용되지 않을 것”이라며 진화에 나섰지만, 업계는 “정부가 한 업체에서 생긴 문제를 마치 전체 업종의 문제인 것처럼 확대해서 규제를 강화하는 것은 문제”라는 반응이다.공시 담당자 없는 비상장 주식은 거래 불가							지난 7월 금융위가 비상장 주식 거래 플랫폼에서 투자자 보호 장치 규제를 강화한 조치도 논란이 되고 있다. 금융위는 지난해 기업회생절차에 따라 휴지 조각이 된 이스타항공 비상장 주식이 2주 넘게 거래되는 일이 발생하자 공시 담당자 1명을 둔 기업만 거래를 할 수 있도록 조건을 걸었다. 하지만 신생 업체로 인력이 충분치 않은 스타트업들의 사정을 고려하지 않은 조치라는 지적이 나왔다.실제로 이 조치 이후 비상장주식 플랫폼인 증권플러스비상장에서 투자 가능한 종목은 256개에서 50개로 급감했고, 서울거래비상장에서는 174개였던 종목이 28개로 쪼그라들었다. 기존에 거래됐던 토스와 쏘카, 컬리 등도 빠졌다. 반면 이런 조치가 적용되지 않는 38커뮤니케이션 등 비제도권 거래는 활성화되는 풍선효과(한쪽을 누르면 다른 쪽이 부풀어오르는 현상)가 나타나고 있다. 핀테크 업계 관계자는 “정부가 새로운 규제를 만들기 전에 기대효과와 부작용 등에 대해 업계의 의견을 충분히 수렴해주면 좋겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.08.09.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>스타트업, 1년새 6.8만명 신규채용…유니콘은 평균 221명 뽑았다</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004780795?sid=101</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>국내 벤처·스타트업이 지난 1년간 일자리 6만8000여개를 새로 만든 것으로 나타났다. 특히 유니콘 기업(기업가치 1조원 이상 비상장 기업) 14개사는 1년간 평균 220.9명을 신규채용하면서 일자리 3000여개를 새롭게 만들어냈다.중소벤처기업부는 올해 6월 말 기준 벤처·스타트업 3만4362개사의 고용보험 가입 현황을 분석한 결과, 전체 재직자가 76만1082명(기업당 22.1명)으로 지난해 6월보다 6만7605명 증가했다고 9일 밝혔다. 증가율은 9.7%로 우리나라 전체 기업들의 고용 증가율인 3.3%보다 3배 높았다.벤처·스타트업이 새로 만든 일자리 중 22.4%인 1만5136명은 만15세 이상 29세 이하인 청년의 몫이었다. 국내 전체 청년 일자리 증가량인 2만9948개의 50.5%에 해당하는 규모다. 벤처·스타트업이 청년 일자리 창출의 새로운 주역으로 자리매김 했다는 평가다. 전체 벤처·스타트업 청년 재직자는 20만4437명으로 집계됐다.여성 고용에서도 벤처·스타트업이 적극적이었다. 증가한 일자리 중 42.2%인 2만8536명이 여성으로 나타났다. 여성 고용을 증가율로 보면 12.9%로 국내 전체 여성 고용 증가율(4.2%)과 비교하면 3배 이상이다. 업력이 1년이 채 안되는 스타트업들도 평균 9.1명을 신규로 채용하면서 고용 증가에 기여한 것으로 파악됐다. 이번 조사에서 2022년에 창업한 벤처·스타트업은 92개사로, 6월 말 836명을 고용했다. 기업당 평균 9.1명이다. 중기부는 코로나 위기에도 신설된 벤처·스타트업들이 고용 증가에 기여했음을 보여줬다며 일자리를 늘리기 위해 창업 정책을 강화할 필요가 있다고 강조했다.아울러 이번 조사에서는 유니콘기업의 고용창출 효과에 대해서도 재차 증명됐다. 유니콘 기업 중 분석 대상에 속하는 14개사를 조사한 결과 3092명을 신규 채용한 것으로 나타났다. 기업당 평균 220.9명을 신규채용한 것으로 고용 증가율은 39.4%에 달했다.가장 많은 인원을 신규 채용한 기업은 지난해 조사에 이어 컬리로 나타났다. 701명(37.0%증가)을 신규 채용하면서 지난해 조사에서 기록한 신규채용(1058명)보다는 규모가 줄었지만 여전히 가장 많은 신규채용 인원을 기록했다. 이어 기업명 비공개를 요청한 F사 550명, 우아한형제들 444명, 비바리퍼블리카(토스) 297명, 버킷플레이스(오늘의집) 252명 순이다.조주현 중기부 차관은 "최근 고물가·고금리·고환율 등 3고(高) 위기로 경제환경이 우려되는 상황 속에서도 우리 벤처·스타트업들은 전체 기업에 비해 월등히 높은 고용 증가율을 보이며 고용 창출의 새로운 주역이 됐다"면서 "비상장 벤처기업의 복수의결권 도입, 민간모펀드 조성을 위한 제도개선 등을 추진해 벤처·스타트업이 더 많은 일자리를 창출하도록 노력할 것"이라고 말했다.[머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.08.02.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>금리 경쟁력 떨어지자 예금 대신 대출 공략하는 인터넷은행</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000831582?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>주요 시중은행들이 수신금리를 잇달아 인상하면서 금리 경쟁력을 내세우던 인터넷전문은행의 금리가 상대적으로 낮아지고 있다. 이에 카카오뱅크(323410)·케이뱅크 등 인터넷전문은행은 공격적으로 고금리 상품 특판을 진행하거나, 여신 분야인 주택담보대출(주담대) 등의 금리를 인하하는 데 집중하고 있다.2일 은행권에 따르면 인터넷전문은행들은 최근 시중은행보다 상대적으로 금리가 낮은 여신 부문에 집중하고 있다. 카카오뱅크의 지난달 말 여신 잔액은 26조9504억원으로, 6월 말보다 1341억원(약 0.50%) 증가했다. 같은 기간 케이뱅크의 여신 잔액은 4300억원(약 4.92%) 늘어난 9조1600억원으로 집계됐다.인터넷전문은행 3사의 애플리케이션(앱). /박소정 기자        올해부터 여신 영업을 본격적으로 시작한 토스뱅크는 잔액을 공개하지 않았으나, 증가세를 이어갈 것으로 보인다. 지난해 말 5320억원이던 토스뱅크의 여신 잔액은 지난 6월 4조2000억원으로, 6개월 만에 약 7배가량 증가했다. 이는 최근 7개월 동안 가계대출 잔액이 감소한 KB국민·신한·하나·우리·NH농협 등 5대 시중은행과 반대되는 행보다.은행권에선 이같이 상반되는 결과가 나온 배경으로 시중은행과 인터넷전문은행이 주력하는 여신상품이 다른 점을 꼽았다. 중저신용자 위주 대출을 취급하는 인터넷전문은행의 경우 생활비 및 긴급자금 목적의 수요가 꾸준히 이어졌다. 반면 주식·부동산 시장의 침체로 고신용자들이 투자 목적의 대출을 줄여 이들이 주 고객층인 시중은행의 실적은 낮아졌다.또 인터넷전문은행들이 최근 적극적으로 여신 포트폴리오를 확장하고 있는 영향도 있다. 지난 2월 주담대를 출시한 카카오뱅크는 6월 금리를 최대 0.5%포인트(p) 인하했다. 케이뱅크도 지난달 전세대출과 아파트담보대출 금리를 최대 0.41%포인트 인하했다. 토스뱅크는 무보증·무담보 개인사업자대출 잔액은 출시 4개월여만인 6월 말 5300억원으로 집계됐다.이러한 현상은 수신 분야에서 다른 흐름이 펼쳐진 것과 무관하지 않다는 게 업계 분석이다. 최근 시중은행에서도 금리 3%대 예금이 많아지면서 인터넷전문은행은 고객을 유인할 금리 경쟁력을 잃어가고 있다. 이에 고객을 유치하기 위한 다른 방안을 고안해야 할 필요성이 생긴 것이다.일러스트=정다운        이날 은행연합회 공시에 따르면 주요 시중은행의 정기예금(12개월) 상품 중 금리가 가장 높은 상품은 우리은행의 ‘우리 첫거래우대 정기예금’으로, 최고금리는 연 3.60% 수준이다.이어 ▲신한은행 ‘아름다운 용기 정기예금’(연 3.40%) ▲하나은행 ‘하나의정기예금’(연 3.30%) ▲KB국민은행 ‘KB스타 정기예금’(연 3.20%) 등이 뒤를 이었다. 반면 케이뱅크의 ‘코드K 정기예금’ 금리는 연 3.00%, 카카오뱅크 정기예금은 연 2.5% 수준이다.은행권 관계자는 “예·적금 금리를 올리면 그만큼 고객에게 내주는 이자 비용도 늘어나기에 인터넷전문은행들이 수신금리 인상에 적극적으로 나서지 못하고 있다”라며 “고객 이탈 가능성에 최근엔 상품에 재미요소를 더하거나, 중저신용자 대출 확대 등으로 대안을 찾고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.08.04.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>`카뱅·토뱅` 신용카드업 도전장에… 카드업계 "올 것이 왔다"</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002747576?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>제휴 대신 직접 진출의사 밝혀중·저신용자 대출 고객층 겹쳐협업관계 아닌 본격 경쟁 상대로카드사 "밥그릇 싸움 심화" 긴장카카오뱅크가 신용카드업 진출 의지를 보이면서 앞서 라이센스 취득 의사를 밝힌 토스뱅크와 함께 주목받고 있다. 각사 제공    카카오뱅크와 토스뱅크의 신용카드 사업 진출 선언으로 인터넷 전문은행과 신용카드사 간 전운이 감돌고 있다. 4일 금융권에 따르면 카카오뱅크는 전날 제휴 신용카드 사업 확장 성과를 설명하면서 직접 신용카드 시장에 나설 수도 있다고 밝혔다. 윤호영 카카오뱅크 대표는 이날 진행된 상반기 실적발표 컨퍼런스 콜에서 "신용카드의 경우 제휴를 모든 카드사로 확대해 범용성을 강화하기 위한 논의를 현재 진행하고 있다"며 "(금융당국으로부터) 라이선스 취득을 통한 직접 진출도 긍정적으로 검토하고 있다"고 말했다.카카오뱅크는 금융사와의 제휴로 6월말 현재 누적으로 47만장의 신용카드를 발급한 상태다. 작년말 대비 28% 늘어난 것이다. 카카오뱅크가 신용카드업에 직접 진출을 고려하고 있는 것은 여신 포트폴리오 확장의 일환이라는 분석이다.신용카드업은 금융당국의 허가를 받아야 할 수 있는 사업이어서 단기간내 빠른 추진은 쉽지 않다는 분석이다. 다만 지난해 은행의 신용카드 사업 허가 조건이 일부 완화되면서 길은 열려 있다. 지난해 금융당국은 여신전문금융업법을 개정해 은행의 신용카드업 겸영 허가시 대주주 요건에서 '부실 금융기관의 대주주 여부 심사'만을 검토한다. 대부분의 시중은행이 자체적으로나 계열사를 통해 신용카드 사업을 한다는 점을 고려하면 인터넷 전문은행의 신용카드업 진출 허용을 염두에 둔 규제 완화라는 해석이다.토스뱅크도 지난해 10월 출범할 당시 신용카드업 진출 의사를 밝힌 바 있다. 토스뱅크 관계자는 "내부적으로 검토 중"이라면서도 "출범 초기엔 인터넷은행이 할 수 있는 영역 중 한 가지로 꼽은 것으로, 신용카드 라이선스를 취득해 상품을 개발하는 과정 자체가 순식간에 할 수 있는 일은 아니다"라고 설명했다. 현재 카카오뱅크는 KB국민카드와, 토스뱅크는 하나카드와 체크카드 사업을 제휴하고 있다. 카카오와 토스는 현재 은행, 보험, 증권업에 진출해 있는 상태다. 직접 신용카드업에 나서면 막대한 월간활성이용자수(MAU)와 고객 데이터를 바탕으로 맞춤형 상품을 출시하는 등 시너지 효과를 낼 수 있을 것으로 전망된다.카드업계들은 '올 것이 왔다'는 분위기다. 현재도 대출의 주 고객층이 중·저신용자로 겹치면서 묘한 신경전을 벌이고 있는 상황이다. 토스뱅크의 '카드론 대환대출 사업'이 대표적 사례다. 앞서 토스뱅크는 삼성카드 카드론의 대환대출을 시도했다가 카드업계 반발이 심화하자 사실상 철회한 바 있다. 카드사들은 표면적으로 보안상 취약점이 존재한다며 반발했지만, 그 이면에는 카드사들이 그간의 심사 노하우(경험)을 통해 모은 카드론 고객들을 토스뱅크가 수집해간다는 비판이 거셌다. 여기에 대환대출을 신청한 카드론 고객을 토스뱅크가 다시 심사하면서 리스크가 적은 차주만을 선별해갈 수 있다는 지적도 제기됐다. 바꿔 말하면 고객을 빼가면서도 부실 등의 요소가 있는 카드론 차주만을 카드사에 남길 여지가 있다는 것이다. 인터넷 전문은행과 카드사들은 그간 제휴 신용카드를 출시하거나 결제 대행업무를 수행하는 등 협업관계를 유지해왔지만 이제는 본격적인 경쟁자가 될 것으로 보인다. 현재 업황이 녹록치 않은 카드사들로선 여유롭게 대응할 수 없는 상황이다. 국내 신용카드 업계는 신한·KB국민·삼성·현대카드 등 8개 카드사가 경쟁을 벌이고 있어 이미 포화상태다. 카드사들의 본업인 지급결제 사업도 빅테크들의 간편결제 확대로 이전과는 다른 양상으로 흘러가고 있다. 카드사들은 카드대출, 자동차 금융, 해외 진출 등 수입원 확대를 위해 고군분투하는 중이다. 한 카드업계 관계자는 "인터넷 전문은행의 신용카드 사업은 예금, 대출 등으로 한정적인 사업 포트폴리오를 신용카드, 할부금융 등으로도 넓히려는 전략"이라며 "갈수록 경쟁이 심화하고 있다"고 말했다. 유선희·문혜현기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.08.03.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>코로나19로 비대면 소비 늘자 간편결제서비스 선호 ↑</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003900330?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>코로나19로 비대면 소비가 자리 잡으면서 소비자들이 실물 카드보다 간편결제서비스를 선호하는 것으로 나타났다.3일 한국소비자원에 따르면 지난 5월 10~17일 간편결제서비스 이용자 1500명을 대상으로 온라인 설문조사를 시행한 결과 결제 시 2번 중 1번은 간편결제서비스를 사용했다. 5개 간편결제서비스(네이버페이와 삼성페이, 카카오페이, 토스페이, 페이코) 이용자 각 300명씩을 대상으로 한 조사에서 간편결제 이용 횟수는 10회 중 5.21회로 실물 신용·체크카드 3.54회보다 많은 것으로 나타났다.. 소비자들은 주로 온라인 물품 구매(61.7%)에 간편결제 서비스를 많이 이용했다. 주 사용처는 온라인 쇼핑몰(69.2%)과 편의점(12.5%), 대형마트(6.6%) 등이었다.간편결제 서비스 가운데 종합 만족도는 삼성페이가 4.06점으로 가장 높았고 이어 네이버페이(3.89점), 토스페이(3.86점), 카카오페이(3.78점), 페이코(3.67점) 등의 순이었다.서비스상품 요인별 만족도는 결제 편의성과 정확성이 4.29점으로 가장 높았고, 혜택 및 부가서비스가 3.85점으로 가장 낮았다.결제 편의성과 정확성에서는 삼성페이(4.48점), 취소·환불 용이성은 네이버페이(4.11점), 혜택·부가서비스는 토스페이(4.19점)가 각각 가장 높은 점수를 받았다.한편 한국은행에 따르면, 일평균 간편결제 이용액은 2020년 4492억원(1454만건)에서 2021년 6065억원(1981만건)으로 35% 증가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>'영토 확장' 카뱅·토뱅…"이번엔 '신용카드' 노린다"</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004733995?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>"신용카드 시장 진출 검토…'소비·결제 데이터' 활용 가치 높아"상품 추천·신용평가모형 고도화신용카드업 겸영 허가 요건 완화 기대(위)카카오뱅크 체크카드와 (아래)토스뱅크 체크카드의 모습. 사진=한경DB토스뱅크에 이어 자산규모 1위 인터넷전문은행 카카오뱅크가 국내 신용카드 시장에 진출한다. 앞서 카카오뱅크와 토스뱅크는 자체 체크카드 발급을 통해 수시입출금계좌 고객을 유인해왔다. 신용카드의 경우 제휴 금융사를 통한 발급을 이어왔는데, 앞으로는 신용카드업 라이선스를 직접 취득해 국내 카드사와 직접 경쟁에 나서겠다는 입장이다. 합산 가입자 수만 2200만명을 웃도는 카카오뱅크와 토스뱅크가 시장 진출을 예고함에 따라 국내 결제시장에 지각 변동이 일어날지 주목된다.8일 금융업계에 따르면 카카오뱅크와 토스뱅크는 국내 신용카드 시장 진출을 위한 검토 작업에 착수했다. 지금까지는 주요 카드사와의 제휴를 통한 신용카드 공급에 주력해 왔는데, 앞으로는 신용카드업 겸영을 통해 자체 신용카드를 출시하겠다는 구상이다.윤호영 카카오뱅크 대표는 지난 3일 올해 상반기 실적 발표 콘퍼런스콜에서 "(플랫폼 수익 확대를 위해) 제휴 신용카드 사업을 모든 카드사로 확대해 범용성 강화를 위한 논의를 진행 중"이라며 "라이선스 취득을 통한 직접 진출도 긍정적으로 검토하고 있다"고 밝혔다. 토스뱅크의 경우 지난해 인터넷전문은행 출범과 동시에 신용카드업 겸영 라이선스 취득을 위한 준비에 돌입했다. 카카오뱅크가 신용카드업 진출 의지를 드러낸 건 이번이 처음은 아니다. 앞서 카카오뱅크는 2018년 신용카드업 라이선스 취득을 시도했다가 보류한 바 있다. 신용카드 시장 수익성 악화, 자사 자본 여력 불충분 등이 당시 카카오뱅크가 밝힌 신용카드업 진출 보류 사유였다. 카카오뱅크가 약 4년 만에 다시 신용카드업 진출 의지를 밝힌 데에는 자본 여력이 확대된 결과다. 카카오뱅크는 흑자 전환, 기업공개(IPO)에 잇따라 성공하면서 지속 성장을 위한 여유 자본을 확보해놓은 상태다. 새로운 사업과 서비스에 대한 필요성이 높아진 것도 사업확장의 요인이다. 현재 카카오뱅크 전체 영업수익 중 플랫폼 및 수수료 부문 수익이 차지하는 비중은 20% 수준에 그치고 있다.사진=연합뉴스카카오뱅크와 토스뱅크가 국내 금융시장 내에서도 신용카드 시장 진출을 적극 고려하는 데에는 소비·결제 데이터 활용 가치를 높게 평가한 영향이 크다. 신용카드 인허가를 취득한 국내 금융사의 경우 전국 가맹점 소비·결제 데이터를 대량 축적할 수 있어서다. 특히 우리나라의 경우 국내 민간 소비의 70% 이상이 카드 결제로 이뤄지고 있어, 소비·결제 데이터를 활용한 사업화 가능 범위가 넓은 편이다. 신용카드 소비·결제 데이터가 축적되면 마이데이터 연계를 통해 맞춤 금융상품 추천, 신용평가모형 고도화 등에 활용할 수 있다. 금융업계 관계자는 "사실상 현재 존재하는 금융 데이터 중 신용카드를 통한 소비·결제 데이터가 가장 유의미한 정보에 해당한다. 내재된 사업 활용 가치가 크단 것"이라며 "이외에도 수익원 다각화, 고객 수요 증가 등이 인터넷전문은행의 신용카드업 진출 의지를 키우는 요인으로 작용했을 것"이라고 설명했다.최근 신용카드업 겸영을 둘러싼 규제 환경이 개선된 만큼, 인터넷전문은행의 시장 진입 가능성은 높아질 것으로 예상된다. 금융위원회는 지난해 신용카드업 겸영 허가 요건을 일부 완화한 바 있다. 은행이 신용카드 영업을 하기 위해 대주주 자기자본이 출자금액의 4배 이상이어야 하는 규제를 완화한 것이 핵심이다.물론 신용카드업 겸영 허가 요건이 완화됐다고 해서 카카오뱅크와 토스뱅크가 당장 라이선스 취득에 나설 수 있는 것은 아니다. 인터넷전문은행의 신용카드업 겸영이 전례 없는 사안인 만큼 사측의 라이선스 신청 준비 기간과 당국의 인허가 기간을 감안하면 2년 안팎의 시간이 소요될 것으로 전망된다.금융위 관계자는 "카카오뱅크, 토스뱅크 측의 신용카드업 겸영 라이선스 신청 시 시장의 경쟁 제한성, 영업 질서 및 모집 질서의 건전성 등을 기준으로 인허가 여부를 결정하게 될 것"이라며 "라이선스 신청을 받는 시기에 필요 요건 부합 여부를 구체적으로 심사하고 필요하다면 추가적인 검토 작업을 거칠 수 있다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.08.09.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>"서울 주민세 31일까지 내세요"…인터넷·앱도 납부 가능</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011351651?sid=102</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>기사내용 요약서울시에 주소 둔 세대주와 1년 이상 체류한 외국인 대상[서울=뉴시스] 이재은 기자 = 서울시는 7월1일 서울시에 주소를 둔 세대주와 1년 이상 체류 중인 외국인에게 2022년도 주민세 고지서를 발송하고, 사업소를 둔 사업주의 경우는 주민세(사업소분)를 오는 31일까지 신고·납부해야 한다고 9일 밝혔다.서울시에 주소를 둔 세대주와 1년 이상 체류 중인 외국인은 2022년도 주민세(개인분) 고지서로 31일까지 납부해야 한다.주민세(개인분) 세대별 납부액은 6000원(주민세 4800원, 지방교육세 1200원)이며, 올해 서울시에서 부과한 주민세(개인분)는 379만 건, 228억 원 규모이다.주민세(개인분) 부과현황을 보면, 인구가 가장 많은 송파구가 25만5201건(15억 원)으로 가장 많고, 인구가 가장 적은 중구가 5만4787건(3억 원)으로 가장 적다.서울시에 거주 중인 외국인에게는 납세편의를 위해 중국어, 영어, 베트남어, 일본어, 몽골어, 인도어, 프랑스어, 독일어 등 8개 언어로 된 안내문을 제작해 주민세(개인분) 고지서와 함께 발송했다.외국인에 대한 주민세(개인분)는 총 11만3738건이 부과됐는데, 자치구별로는 구로구가 1만5671건으로 가장 많고, 다음으로 금천구 1만1872건, 영등포구 1만697건 순으로 나타났다. 외국인 국적은 중국이 7만8038건으로 가장 많았으며, 다음으로 영미권, 베트남, 일본 순이다.한편, 7월1일 서울시에 사업소를 둔 개인사업자와 법인은 2022년도 주민세(사업소분)을 오는 31일까지 신고·납부해야 한다. 지방세법 개정으로 2021년부터 법인 및 개인사업자가 8월에 납부하던 주민세 균등분과 7월에 신고납부하던 주민세 재산분이 통합되면서 세목 명칭이 주민세 사업소분으로 변경되었고, 납부기간도 8월로 통일됐다.납부서를 못 받았거나 납부서에 기재된 세액이 현황과 다를 경우에는 인터넷 ‘서울시 ETAX’로 신고·납부 해야 한다. 기간 내 미신고시 무신고가산세(20%) 또는 과소신고가산세(10%)가 추가로 부과될 수 있으므로 불이익을 받지 않도록 유의해야 한다.아울러 주민세 고지서에는 시각장애인 등을 위한 음성 변환용 바코드를 인쇄해 휴대폰 앱을 통해 누구나 쉽게 주민세 부과내역을 음성으로 들을 수 있도록 주민세 부과내역 음성 서비스를 제공한다.이번에 송달받은 주민세는 ▲서울시 ETAX(etax.seoul.go.kr) ▲서울시 STAX(서울시 세금납부 앱) ▲간편결제사 앱(카카오페이, 네이버페이, 페이코, 신한페이판, 토스)을 통한 간편납부 ▲종이고지서 QR바코드 납부 ▲전용계좌 납부 ▲은행 현금인출기(CD/ATM) 또는 무인공과금기 등을 통해 납부할 수 있다.이병한 서울시 재무국장은 "주민세 개인분은 서울시에 주소를 둔 세대주에게 부과되는 세금으로, 납세자 수가 380만 명에 달해 서울시 인구의 38.9%에 해당하는 만큼 31일까지 꼭 납부해 줄 것을 당부드린다"면서 "특히 서울시는 납세자들의 납세편의를 위해 인터넷(ETAX), 스마트폰 앱(STAX) 등 다양한 서비스를 제공하니 시민들의 많은 이용을 바란다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.08.10.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>토뱅 ‘내게 맞는 금융상품 찾기’ 연 4.5% 발행어음 가입 서비스</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004881259?sid=101</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>한투 기업어음 등 상품 소개증권계좌 발급까지 가능해져  토스뱅크는 제휴사 금융상품을 토스뱅크 내에서 소개하는 '내게 맞는 금융상품 찾기' 서비스를 10일 출시했다.   내게 맞는 금융상품 찾기는 고객이 투자에 참고할 수 있는 다양한 금융상품을 토스뱅크 내에서 한 눈에 살펴볼 수 있는 서비스다. 토스뱅크가 시장의 수많은 금융상품들 중에 경쟁력을 가진 상품들만 선별해 소개한다는 취지다.   이번 서비스에서 토스뱅크는 한국투자증권의 발행어음을 포함한 다양한 금융상품을 소개하고 있다.   한국투자증권 발행어음은 최대 연 4.5%의 업계 최고 수준의 이자를 제공한다. 발행어음은 금융당국의 허가를 받은 자기자본이 4조원이 넘는 대형 금융기관만 발행할 수 있는 만기 1년 이하의 단기금융상품이다. 발행어음은 예금처럼 한 번에 정해진 돈을 거치식으로 맡기고 정해진 기간 후 원금과 이자를 함께 돌려받는 약정식 상품이다. 최대 5000만원까지 본인의 투자 계획에 맞춰 6개월과 1년으로 거치 기간을 자유롭게 설정할 수 있다. 6개월은 4.3%, 1년은 4.5%의 이자를 제공한다. 선착순 한정 상품으로 특판 한도 소진 시 6개월 연 3.95%와 1년 연 4.15%로 이자 수준이 변동될 수 있다.   토스뱅크 관계자는 "기업어음은 일반 사람들에겐 잘 알려져 있지 않지만 은행 예금보다 이자가 높은 경우가 많아 고액 자산가들이 확정금리형 상품 찾을 때 많이 가입하는 상품"이라고 설명했다.   이와 함께 토스뱅크는 증권사 주식거래 시 필요한 증권계좌를 개설할 수 있는 '증권계좌 만들기' 서비스도 제공한다. 첫 서비스 대상 증권사는 한국투자증권으로 토스뱅크 계좌를 보유한 고객이라면 토스뱅크 내에서 한국투자증권 '뱅키스(BanKis)' 증권계좌를 1인 1계좌까지 개설할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.08.08.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>年9%대 적금까지 등장? 금리노마드족 잡는 은행</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004780039?sid=101</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>은행권 가중평균금리 추이/그래픽=김다나 디자인기자투자족도 예·적금에 눈 돌리는 시기다. 은행에 돈을 맡기려는 수요가 부쩍 늘었다. 금리상승기를 맞아 예·적금 금리가 경쟁적으로 오르면서다. 조금이라도 더 높은 금리를 찾아 떠나는 '금리 노마드족'도 바빠졌다. 어떤 상품을 선택할지 고민이라면 자신의 니즈(needs·요구)를 먼저 파악할 필요가 있다. 정기예·적금 가입이 대세라지만 일정기간 돈을 묶어두는 것이 부담이라면 아무 때나 돈을 넣고 뺄 수 있는 파킹통장이 대안이 될 수 있다. 시중은행의 경우 금리가 0.1~0.2%로 거의 없는 수준이나 마찬가지지만 인터넷전문은행 등으로 눈을 돌리면 다르다. 경쟁적으로 파킹통장 금리를 올려잡아 웬만한 은행 정기예금만큼 이자를 준다. 케이뱅크, 카카오뱅크, 토스뱅크 인터넷전문은행 3사는 파킹통장에 모두 2%대 금리를 적용하고 있다. 당초 토스뱅크만 2% 금리를 제공했는데 최근 케이뱅크, 카카오뱅크가 잇따라 금리를 상향조정하면서 경쟁구도가 만들어졌다. '2% 통장'의 원조인 토스뱅크는 연 이자를 매일 일복리 구조로 제공하는 점에서 차별점이 있긴 하다. 케이뱅크는 지난달 중순 연 1.3%였던 파킹통장 금리를 0.8%포인트 대폭 인상해 연 2.1%로 변경했다. 토스뱅크보다 0.1%포인트 높게 잡은 데다 이 금리가 적용되는 한도도 토스뱅크(1억원)보다 높은 3억원으로 정했다. 카카오뱅크는 5일부터 파킹통장 금리를 연 2%로 올렸다. 금리 인상폭은 0.8%포인트로 케이뱅크처럼 컸다. 국책은행, 저축은행 등으로 눈을 돌리면 파킹통장에 좀 더 높은 금리를 적용받는다. 산업은행은 가입금액, 기간에 제한이 없이 비대면 전용상품의 최고 금리가 연 2.25%다. 저축은행은 한도가 다소 낮은 편이지만 OK저축은행 최고 연 3.2%(1000만원 한도), 웰컴저축은행 최고 연 3%(5000만원 한도)로 금리 혜택이 크다. 정기예금, 정기적금 금리는 전국은행연합회 소비자포털 홈페이지에서 비교해보고 선택하는 것이 방법이다. 정기예금에 1년간 돈을 맡겼을 때 현재 가장 높은 금리를 주는 은행권 상품은 우리은행 '우리 첫거래우대 정기예금'과 산업은행  'KDBdream(드림) 정기예금'이다. 두 상품의 최고 금리는 연 3.6%다. 정기적금은 1년 가입기준 은행권 정액적립식 최고 금리는 4.6%, 자유적립식 상품의 최고 금리는 5.1% 수준이다. 물론 이 역시 2금융권으로 시야를 넓히면 고금리 혜택이 더욱 두드러진다. 우체국과 신한카드가 협업으로 내놓은 '우체국 신한 우정적금'의 최고 금리는 연 9.7%다. 우대금리 조건을 지켜야 하고 월 납입금액이 30만원으로 제한적이긴 하다. 예·적금이 주목받는 건 거듭된 기준금리 인상 등으로 수신금리가 크게 올라서다. 한국은행에 따르면 저축성수신금리는 지난 상반기 말 기준 2.41%로 지난해 말(1.7%) 대비 0.71%포인트 올랐다. 지난달 빅스텝(단번에 기준금리 0.5%포인트 인상)이 반영되면 금리 상승폭이 더욱 가팔라질 전망이다. 실제 주요 은행에선 예·적금에 돈이 쌓이고 있다. 지난달  KB국민·신한·하나·우리·NH농협 5대 은행에서는 정기예금 잔액이 한달 사이 27조3532억원(3.99%) 늘었다. 같은기간 정기적금도 합산으로 6524억원(1.74%) 증가했다. 시중은행 관계자는 "기준금리 추가 인상 등이 예고된 만큼 당분간 예·적금 수요는 꾸준하고 은행의 금리 경쟁도 치열할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
